--- a/cryptos.xlsx
+++ b/cryptos.xlsx
@@ -474,3322 +474,3322 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45537.66666666666</v>
+        <v>45537.70833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>58540.5</v>
+        <v>58338.2</v>
       </c>
       <c r="C2" t="n">
-        <v>58639.7</v>
+        <v>58527.1</v>
       </c>
       <c r="D2" t="n">
-        <v>58301.9</v>
+        <v>58318</v>
       </c>
       <c r="E2" t="n">
-        <v>58338.1</v>
+        <v>58515</v>
       </c>
       <c r="F2" t="n">
-        <v>35.91542721</v>
+        <v>32.47344041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45537.70833333334</v>
+        <v>45537.75</v>
       </c>
       <c r="B3" t="n">
-        <v>58338.2</v>
+        <v>58515</v>
       </c>
       <c r="C3" t="n">
-        <v>58527.1</v>
+        <v>58627</v>
       </c>
       <c r="D3" t="n">
         <v>58318</v>
       </c>
       <c r="E3" t="n">
-        <v>58515</v>
+        <v>58449.9</v>
       </c>
       <c r="F3" t="n">
-        <v>32.47344041</v>
+        <v>63.55732801</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45537.75</v>
+        <v>45537.79166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>58515</v>
+        <v>58450</v>
       </c>
       <c r="C4" t="n">
-        <v>58627</v>
+        <v>58561.5</v>
       </c>
       <c r="D4" t="n">
-        <v>58318</v>
+        <v>58406.9</v>
       </c>
       <c r="E4" t="n">
-        <v>58449.9</v>
+        <v>58437.7</v>
       </c>
       <c r="F4" t="n">
-        <v>63.55732801</v>
+        <v>17.08158141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45537.79166666666</v>
+        <v>45537.83333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>58450</v>
+        <v>58437.8</v>
       </c>
       <c r="C5" t="n">
-        <v>58561.5</v>
+        <v>59188</v>
       </c>
       <c r="D5" t="n">
-        <v>58406.9</v>
+        <v>58429.8</v>
       </c>
       <c r="E5" t="n">
-        <v>58437.7</v>
+        <v>59016.5</v>
       </c>
       <c r="F5" t="n">
-        <v>17.08158141</v>
+        <v>102.62445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537.83333333334</v>
+        <v>45537.875</v>
       </c>
       <c r="B6" t="n">
-        <v>58437.8</v>
+        <v>59005.7</v>
       </c>
       <c r="C6" t="n">
-        <v>59188</v>
+        <v>59278.2</v>
       </c>
       <c r="D6" t="n">
-        <v>58429.8</v>
+        <v>58915.2</v>
       </c>
       <c r="E6" t="n">
-        <v>59016.5</v>
+        <v>59041</v>
       </c>
       <c r="F6" t="n">
-        <v>102.62445</v>
+        <v>98.35279558000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45537.875</v>
+        <v>45537.91666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>59005.7</v>
+        <v>59041</v>
       </c>
       <c r="C7" t="n">
-        <v>59278.2</v>
+        <v>59293.4</v>
       </c>
       <c r="D7" t="n">
-        <v>58915.2</v>
+        <v>58993.2</v>
       </c>
       <c r="E7" t="n">
-        <v>59041</v>
+        <v>59293.3</v>
       </c>
       <c r="F7" t="n">
-        <v>98.35279558000001</v>
+        <v>24.24227232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45537.91666666666</v>
+        <v>45537.95833333334</v>
       </c>
       <c r="B8" t="n">
-        <v>59041</v>
+        <v>59293.3</v>
       </c>
       <c r="C8" t="n">
-        <v>59293.4</v>
+        <v>59388</v>
       </c>
       <c r="D8" t="n">
-        <v>58993.2</v>
+        <v>59083.4</v>
       </c>
       <c r="E8" t="n">
-        <v>59293.3</v>
+        <v>59128.6</v>
       </c>
       <c r="F8" t="n">
-        <v>24.24227232</v>
+        <v>7.95907315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45537.95833333334</v>
+        <v>45538</v>
       </c>
       <c r="B9" t="n">
-        <v>59293.3</v>
+        <v>59128.7</v>
       </c>
       <c r="C9" t="n">
-        <v>59388</v>
+        <v>59220.5</v>
       </c>
       <c r="D9" t="n">
-        <v>59083.4</v>
+        <v>59029.3</v>
       </c>
       <c r="E9" t="n">
-        <v>59128.6</v>
+        <v>59220.5</v>
       </c>
       <c r="F9" t="n">
-        <v>7.95907315</v>
+        <v>46.86105443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45538</v>
+        <v>45538.04166666666</v>
       </c>
       <c r="B10" t="n">
-        <v>59128.7</v>
+        <v>59220.5</v>
       </c>
       <c r="C10" t="n">
-        <v>59220.5</v>
+        <v>59388</v>
       </c>
       <c r="D10" t="n">
-        <v>59029.3</v>
+        <v>59189.1</v>
       </c>
       <c r="E10" t="n">
-        <v>59220.5</v>
+        <v>59376.9</v>
       </c>
       <c r="F10" t="n">
-        <v>46.86105443</v>
+        <v>23.69985216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45538.04166666666</v>
+        <v>45538.08333333334</v>
       </c>
       <c r="B11" t="n">
-        <v>59220.5</v>
+        <v>59376.9</v>
       </c>
       <c r="C11" t="n">
-        <v>59388</v>
+        <v>59773</v>
       </c>
       <c r="D11" t="n">
-        <v>59189.1</v>
+        <v>59314.9</v>
       </c>
       <c r="E11" t="n">
-        <v>59376.9</v>
+        <v>59315</v>
       </c>
       <c r="F11" t="n">
-        <v>23.69985216</v>
+        <v>51.81755867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45538.08333333334</v>
+        <v>45538.125</v>
       </c>
       <c r="B12" t="n">
-        <v>59376.9</v>
+        <v>59315</v>
       </c>
       <c r="C12" t="n">
-        <v>59773</v>
+        <v>59337.5</v>
       </c>
       <c r="D12" t="n">
-        <v>59314.9</v>
+        <v>59094.9</v>
       </c>
       <c r="E12" t="n">
-        <v>59315</v>
+        <v>59095.5</v>
       </c>
       <c r="F12" t="n">
-        <v>51.81755867</v>
+        <v>21.38344787</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45538.125</v>
+        <v>45538.16666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>59315</v>
+        <v>59095.6</v>
       </c>
       <c r="C13" t="n">
-        <v>59337.5</v>
+        <v>59200</v>
       </c>
       <c r="D13" t="n">
-        <v>59094.9</v>
+        <v>59016.6</v>
       </c>
       <c r="E13" t="n">
-        <v>59095.5</v>
+        <v>59089.5</v>
       </c>
       <c r="F13" t="n">
-        <v>21.38344787</v>
+        <v>17.48434155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45538.16666666666</v>
+        <v>45538.20833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>59095.6</v>
+        <v>59089.6</v>
       </c>
       <c r="C14" t="n">
-        <v>59200</v>
+        <v>59250.1</v>
       </c>
       <c r="D14" t="n">
-        <v>59016.6</v>
+        <v>59040</v>
       </c>
       <c r="E14" t="n">
-        <v>59089.5</v>
+        <v>59182.2</v>
       </c>
       <c r="F14" t="n">
-        <v>17.48434155</v>
+        <v>31.54283144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45538.20833333334</v>
+        <v>45538.25</v>
       </c>
       <c r="B15" t="n">
-        <v>59089.6</v>
+        <v>59182.1</v>
       </c>
       <c r="C15" t="n">
-        <v>59250.1</v>
+        <v>59182.2</v>
       </c>
       <c r="D15" t="n">
-        <v>59040</v>
+        <v>58882.2</v>
       </c>
       <c r="E15" t="n">
-        <v>59182.2</v>
+        <v>58886.7</v>
       </c>
       <c r="F15" t="n">
-        <v>31.54283144</v>
+        <v>42.60916045</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45538.25</v>
+        <v>45538.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>59182.1</v>
+        <v>58886.7</v>
       </c>
       <c r="C16" t="n">
-        <v>59182.2</v>
+        <v>59090</v>
       </c>
       <c r="D16" t="n">
-        <v>58882.2</v>
+        <v>58886.6</v>
       </c>
       <c r="E16" t="n">
-        <v>58886.7</v>
+        <v>59090</v>
       </c>
       <c r="F16" t="n">
-        <v>42.60916045</v>
+        <v>22.49755357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45538.29166666666</v>
+        <v>45538.33333333334</v>
       </c>
       <c r="B17" t="n">
-        <v>58886.7</v>
+        <v>59090</v>
       </c>
       <c r="C17" t="n">
-        <v>59090</v>
+        <v>59107.7</v>
       </c>
       <c r="D17" t="n">
-        <v>58886.6</v>
+        <v>58702.8</v>
       </c>
       <c r="E17" t="n">
-        <v>59090</v>
+        <v>58807.8</v>
       </c>
       <c r="F17" t="n">
-        <v>22.49755357</v>
+        <v>42.6152072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45538.33333333334</v>
+        <v>45538.375</v>
       </c>
       <c r="B18" t="n">
-        <v>59090</v>
+        <v>58807.9</v>
       </c>
       <c r="C18" t="n">
-        <v>59107.7</v>
+        <v>58943.8</v>
       </c>
       <c r="D18" t="n">
-        <v>58702.8</v>
+        <v>58791.7</v>
       </c>
       <c r="E18" t="n">
-        <v>58807.8</v>
+        <v>58860.8</v>
       </c>
       <c r="F18" t="n">
-        <v>42.6152072</v>
+        <v>14.62084471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45538.375</v>
+        <v>45538.41666666666</v>
       </c>
       <c r="B19" t="n">
-        <v>58807.9</v>
+        <v>58860.9</v>
       </c>
       <c r="C19" t="n">
-        <v>58943.8</v>
+        <v>59182.2</v>
       </c>
       <c r="D19" t="n">
-        <v>58791.7</v>
+        <v>58835.6</v>
       </c>
       <c r="E19" t="n">
-        <v>58860.8</v>
+        <v>59068.3</v>
       </c>
       <c r="F19" t="n">
-        <v>14.62084471</v>
+        <v>22.63135998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45538.41666666666</v>
+        <v>45538.45833333334</v>
       </c>
       <c r="B20" t="n">
-        <v>58860.9</v>
+        <v>59068.3</v>
       </c>
       <c r="C20" t="n">
-        <v>59182.2</v>
+        <v>59085.3</v>
       </c>
       <c r="D20" t="n">
-        <v>58835.6</v>
+        <v>58940.3</v>
       </c>
       <c r="E20" t="n">
-        <v>59068.3</v>
+        <v>59049.2</v>
       </c>
       <c r="F20" t="n">
-        <v>22.63135998</v>
+        <v>15.63797626</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45538.45833333334</v>
+        <v>45538.5</v>
       </c>
       <c r="B21" t="n">
-        <v>59068.3</v>
+        <v>59049.2</v>
       </c>
       <c r="C21" t="n">
-        <v>59085.3</v>
+        <v>59314.8</v>
       </c>
       <c r="D21" t="n">
-        <v>58940.3</v>
+        <v>59049.1</v>
       </c>
       <c r="E21" t="n">
-        <v>59049.2</v>
+        <v>59160.2</v>
       </c>
       <c r="F21" t="n">
-        <v>15.63797626</v>
+        <v>16.81711094</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45538.5</v>
+        <v>45538.54166666666</v>
       </c>
       <c r="B22" t="n">
-        <v>59049.2</v>
+        <v>59160.2</v>
       </c>
       <c r="C22" t="n">
-        <v>59314.8</v>
+        <v>59293.7</v>
       </c>
       <c r="D22" t="n">
-        <v>59049.1</v>
+        <v>58225.4</v>
       </c>
       <c r="E22" t="n">
-        <v>59160.2</v>
+        <v>58388.2</v>
       </c>
       <c r="F22" t="n">
-        <v>16.81711094</v>
+        <v>109.33062449</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45538.54166666666</v>
+        <v>45538.58333333334</v>
       </c>
       <c r="B23" t="n">
-        <v>59160.2</v>
+        <v>58388.3</v>
       </c>
       <c r="C23" t="n">
-        <v>59293.7</v>
+        <v>58388.3</v>
       </c>
       <c r="D23" t="n">
-        <v>58225.4</v>
+        <v>57541.5</v>
       </c>
       <c r="E23" t="n">
-        <v>58388.2</v>
+        <v>57649.4</v>
       </c>
       <c r="F23" t="n">
-        <v>109.33062449</v>
+        <v>187.63249372</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45538.58333333334</v>
+        <v>45538.625</v>
       </c>
       <c r="B24" t="n">
-        <v>58388.3</v>
+        <v>57649.4</v>
       </c>
       <c r="C24" t="n">
-        <v>58388.3</v>
+        <v>57977.8</v>
       </c>
       <c r="D24" t="n">
-        <v>57541.5</v>
+        <v>57609.3</v>
       </c>
       <c r="E24" t="n">
-        <v>57649.4</v>
+        <v>57737.2</v>
       </c>
       <c r="F24" t="n">
-        <v>187.63249372</v>
+        <v>83.64088246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45538.625</v>
+        <v>45538.66666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>57649.4</v>
+        <v>57707.3</v>
       </c>
       <c r="C25" t="n">
-        <v>57977.8</v>
+        <v>57900</v>
       </c>
       <c r="D25" t="n">
-        <v>57609.3</v>
+        <v>57629.9</v>
       </c>
       <c r="E25" t="n">
-        <v>57737.2</v>
+        <v>57690</v>
       </c>
       <c r="F25" t="n">
-        <v>83.64088246</v>
+        <v>34.03965887</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45538.66666666666</v>
+        <v>45538.70833333334</v>
       </c>
       <c r="B26" t="n">
-        <v>57707.3</v>
+        <v>57689.9</v>
       </c>
       <c r="C26" t="n">
-        <v>57900</v>
+        <v>58024.9</v>
       </c>
       <c r="D26" t="n">
-        <v>57629.9</v>
+        <v>57675</v>
       </c>
       <c r="E26" t="n">
-        <v>57690</v>
+        <v>57680.9</v>
       </c>
       <c r="F26" t="n">
-        <v>34.03965887</v>
+        <v>126.42552435</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45538.70833333334</v>
+        <v>45538.75</v>
       </c>
       <c r="B27" t="n">
-        <v>57689.9</v>
+        <v>57680.8</v>
       </c>
       <c r="C27" t="n">
-        <v>58024.9</v>
+        <v>58000</v>
       </c>
       <c r="D27" t="n">
-        <v>57675</v>
+        <v>57600</v>
       </c>
       <c r="E27" t="n">
-        <v>57680.9</v>
+        <v>57901</v>
       </c>
       <c r="F27" t="n">
-        <v>126.42552435</v>
+        <v>97.51147340999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45538.75</v>
+        <v>45538.79166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>57680.8</v>
+        <v>57900.9</v>
       </c>
       <c r="C28" t="n">
-        <v>58000</v>
+        <v>58226.5</v>
       </c>
       <c r="D28" t="n">
-        <v>57600</v>
+        <v>57822.4</v>
       </c>
       <c r="E28" t="n">
-        <v>57901</v>
+        <v>57994.6</v>
       </c>
       <c r="F28" t="n">
-        <v>97.51147340999999</v>
+        <v>118.12551202</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45538.79166666666</v>
+        <v>45538.83333333334</v>
       </c>
       <c r="B29" t="n">
-        <v>57900.9</v>
+        <v>57994.6</v>
       </c>
       <c r="C29" t="n">
-        <v>58226.5</v>
+        <v>58172.9</v>
       </c>
       <c r="D29" t="n">
-        <v>57822.4</v>
+        <v>57994.6</v>
       </c>
       <c r="E29" t="n">
-        <v>57994.6</v>
+        <v>58172.9</v>
       </c>
       <c r="F29" t="n">
-        <v>118.12551202</v>
+        <v>140.38737342</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45538.83333333334</v>
+        <v>45538.875</v>
       </c>
       <c r="B30" t="n">
-        <v>57994.6</v>
+        <v>58172.9</v>
       </c>
       <c r="C30" t="n">
         <v>58172.9</v>
       </c>
       <c r="D30" t="n">
-        <v>57994.6</v>
+        <v>57972.1</v>
       </c>
       <c r="E30" t="n">
-        <v>58172.9</v>
+        <v>58089</v>
       </c>
       <c r="F30" t="n">
-        <v>140.38737342</v>
+        <v>26.5104132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45538.875</v>
+        <v>45538.91666666666</v>
       </c>
       <c r="B31" t="n">
-        <v>58172.9</v>
+        <v>58089</v>
       </c>
       <c r="C31" t="n">
-        <v>58172.9</v>
+        <v>58155</v>
       </c>
       <c r="D31" t="n">
-        <v>57972.1</v>
+        <v>57858.2</v>
       </c>
       <c r="E31" t="n">
-        <v>58089</v>
+        <v>57870.1</v>
       </c>
       <c r="F31" t="n">
-        <v>26.5104132</v>
+        <v>84.88440487</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45538.91666666666</v>
+        <v>45538.95833333334</v>
       </c>
       <c r="B32" t="n">
-        <v>58089</v>
+        <v>57870.2</v>
       </c>
       <c r="C32" t="n">
-        <v>58155</v>
+        <v>57880</v>
       </c>
       <c r="D32" t="n">
-        <v>57858.2</v>
+        <v>57406.4</v>
       </c>
       <c r="E32" t="n">
-        <v>57870.1</v>
+        <v>57497.6</v>
       </c>
       <c r="F32" t="n">
-        <v>84.88440487</v>
+        <v>65.99529876</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45538.95833333334</v>
+        <v>45539</v>
       </c>
       <c r="B33" t="n">
-        <v>57870.2</v>
+        <v>57482.4</v>
       </c>
       <c r="C33" t="n">
-        <v>57880</v>
+        <v>57918</v>
       </c>
       <c r="D33" t="n">
-        <v>57406.4</v>
+        <v>57155</v>
       </c>
       <c r="E33" t="n">
-        <v>57497.6</v>
+        <v>57155</v>
       </c>
       <c r="F33" t="n">
-        <v>65.99529876</v>
+        <v>115.05509602</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45539</v>
+        <v>45539.04166666666</v>
       </c>
       <c r="B34" t="n">
-        <v>57482.4</v>
+        <v>57155.1</v>
       </c>
       <c r="C34" t="n">
-        <v>57918</v>
+        <v>57155.1</v>
       </c>
       <c r="D34" t="n">
-        <v>57155</v>
+        <v>55617.7</v>
       </c>
       <c r="E34" t="n">
-        <v>57155</v>
+        <v>56789.9</v>
       </c>
       <c r="F34" t="n">
-        <v>115.05509602</v>
+        <v>318.9211953</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45539.04166666666</v>
+        <v>45539.08333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>57155.1</v>
+        <v>56789.9</v>
       </c>
       <c r="C35" t="n">
-        <v>57155.1</v>
+        <v>56816.8</v>
       </c>
       <c r="D35" t="n">
-        <v>55617.7</v>
+        <v>56508.6</v>
       </c>
       <c r="E35" t="n">
-        <v>56789.9</v>
+        <v>56634.9</v>
       </c>
       <c r="F35" t="n">
-        <v>318.9211953</v>
+        <v>168.12117661</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45539.08333333334</v>
+        <v>45539.125</v>
       </c>
       <c r="B36" t="n">
-        <v>56789.9</v>
+        <v>56634.9</v>
       </c>
       <c r="C36" t="n">
-        <v>56816.8</v>
+        <v>56825</v>
       </c>
       <c r="D36" t="n">
-        <v>56508.6</v>
+        <v>56619.8</v>
       </c>
       <c r="E36" t="n">
-        <v>56634.9</v>
+        <v>56642.9</v>
       </c>
       <c r="F36" t="n">
-        <v>168.12117661</v>
+        <v>49.00594773</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45539.125</v>
+        <v>45539.16666666666</v>
       </c>
       <c r="B37" t="n">
-        <v>56634.9</v>
+        <v>56643</v>
       </c>
       <c r="C37" t="n">
-        <v>56825</v>
+        <v>56714.3</v>
       </c>
       <c r="D37" t="n">
-        <v>56619.8</v>
+        <v>56553.1</v>
       </c>
       <c r="E37" t="n">
-        <v>56642.9</v>
+        <v>56680.1</v>
       </c>
       <c r="F37" t="n">
-        <v>49.00594773</v>
+        <v>31.6001979</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45539.16666666666</v>
+        <v>45539.20833333334</v>
       </c>
       <c r="B38" t="n">
-        <v>56643</v>
+        <v>56682.8</v>
       </c>
       <c r="C38" t="n">
-        <v>56714.3</v>
+        <v>56685.5</v>
       </c>
       <c r="D38" t="n">
-        <v>56553.1</v>
+        <v>56171.8</v>
       </c>
       <c r="E38" t="n">
-        <v>56680.1</v>
+        <v>56275.1</v>
       </c>
       <c r="F38" t="n">
-        <v>31.6001979</v>
+        <v>47.06743529</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45539.20833333334</v>
+        <v>45539.25</v>
       </c>
       <c r="B39" t="n">
-        <v>56682.8</v>
+        <v>56275.2</v>
       </c>
       <c r="C39" t="n">
-        <v>56685.5</v>
+        <v>56504.4</v>
       </c>
       <c r="D39" t="n">
-        <v>56171.8</v>
+        <v>56235.7</v>
       </c>
       <c r="E39" t="n">
-        <v>56275.1</v>
+        <v>56260.4</v>
       </c>
       <c r="F39" t="n">
-        <v>47.06743529</v>
+        <v>34.77093212</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45539.25</v>
+        <v>45539.29166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>56275.2</v>
+        <v>56261.8</v>
       </c>
       <c r="C40" t="n">
-        <v>56504.4</v>
+        <v>56825</v>
       </c>
       <c r="D40" t="n">
-        <v>56235.7</v>
+        <v>56261.7</v>
       </c>
       <c r="E40" t="n">
-        <v>56260.4</v>
+        <v>56730</v>
       </c>
       <c r="F40" t="n">
-        <v>34.77093212</v>
+        <v>70.90947052</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45539.29166666666</v>
+        <v>45539.33333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>56261.8</v>
+        <v>56730</v>
       </c>
       <c r="C41" t="n">
-        <v>56825</v>
+        <v>56888.3</v>
       </c>
       <c r="D41" t="n">
-        <v>56261.7</v>
+        <v>56670.7</v>
       </c>
       <c r="E41" t="n">
-        <v>56730</v>
+        <v>56773.4</v>
       </c>
       <c r="F41" t="n">
-        <v>70.90947052</v>
+        <v>72.82400325</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45539.33333333334</v>
+        <v>45539.375</v>
       </c>
       <c r="B42" t="n">
-        <v>56730</v>
+        <v>56773.4</v>
       </c>
       <c r="C42" t="n">
-        <v>56888.3</v>
+        <v>56816.6</v>
       </c>
       <c r="D42" t="n">
-        <v>56670.7</v>
+        <v>56591.8</v>
       </c>
       <c r="E42" t="n">
-        <v>56773.4</v>
+        <v>56595.9</v>
       </c>
       <c r="F42" t="n">
-        <v>72.82400325</v>
+        <v>17.11204682</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45539.375</v>
+        <v>45539.41666666666</v>
       </c>
       <c r="B43" t="n">
-        <v>56773.4</v>
+        <v>56595.9</v>
       </c>
       <c r="C43" t="n">
-        <v>56816.6</v>
+        <v>56701</v>
       </c>
       <c r="D43" t="n">
-        <v>56591.8</v>
+        <v>56451.7</v>
       </c>
       <c r="E43" t="n">
-        <v>56595.9</v>
+        <v>56451.8</v>
       </c>
       <c r="F43" t="n">
-        <v>17.11204682</v>
+        <v>23.15149327</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45539.41666666666</v>
+        <v>45539.45833333334</v>
       </c>
       <c r="B44" t="n">
-        <v>56595.9</v>
+        <v>56451.8</v>
       </c>
       <c r="C44" t="n">
-        <v>56701</v>
+        <v>56670</v>
       </c>
       <c r="D44" t="n">
-        <v>56451.7</v>
+        <v>56446.7</v>
       </c>
       <c r="E44" t="n">
-        <v>56451.8</v>
+        <v>56577.5</v>
       </c>
       <c r="F44" t="n">
-        <v>23.15149327</v>
+        <v>138.88461398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45539.45833333334</v>
+        <v>45539.5</v>
       </c>
       <c r="B45" t="n">
-        <v>56451.8</v>
+        <v>56577.5</v>
       </c>
       <c r="C45" t="n">
-        <v>56670</v>
+        <v>56761</v>
       </c>
       <c r="D45" t="n">
-        <v>56446.7</v>
+        <v>56500</v>
       </c>
       <c r="E45" t="n">
-        <v>56577.5</v>
+        <v>56579.4</v>
       </c>
       <c r="F45" t="n">
-        <v>138.88461398</v>
+        <v>23.06180471</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45539.5</v>
+        <v>45539.54166666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56577.5</v>
+        <v>56595.3</v>
       </c>
       <c r="C46" t="n">
-        <v>56761</v>
+        <v>56673.4</v>
       </c>
       <c r="D46" t="n">
-        <v>56500</v>
+        <v>56336.6</v>
       </c>
       <c r="E46" t="n">
-        <v>56579.4</v>
+        <v>56443.7</v>
       </c>
       <c r="F46" t="n">
-        <v>23.06180471</v>
+        <v>68.58735599000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45539.54166666666</v>
+        <v>45539.58333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>56595.3</v>
+        <v>56451.5</v>
       </c>
       <c r="C47" t="n">
-        <v>56673.4</v>
+        <v>57558.2</v>
       </c>
       <c r="D47" t="n">
-        <v>56336.6</v>
+        <v>56200</v>
       </c>
       <c r="E47" t="n">
-        <v>56443.7</v>
+        <v>57555.1</v>
       </c>
       <c r="F47" t="n">
-        <v>68.58735599000001</v>
+        <v>273.71156796</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45539.58333333334</v>
+        <v>45539.625</v>
       </c>
       <c r="B48" t="n">
-        <v>56451.5</v>
+        <v>57555.1</v>
       </c>
       <c r="C48" t="n">
-        <v>57558.2</v>
+        <v>58132.3</v>
       </c>
       <c r="D48" t="n">
-        <v>56200</v>
+        <v>57375.7</v>
       </c>
       <c r="E48" t="n">
-        <v>57555.1</v>
+        <v>58132.2</v>
       </c>
       <c r="F48" t="n">
-        <v>273.71156796</v>
+        <v>158.46052368</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45539.625</v>
+        <v>45539.66666666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57555.1</v>
+        <v>58132.3</v>
       </c>
       <c r="C49" t="n">
-        <v>58132.3</v>
+        <v>58508</v>
       </c>
       <c r="D49" t="n">
-        <v>57375.7</v>
+        <v>58128.6</v>
       </c>
       <c r="E49" t="n">
-        <v>58132.2</v>
+        <v>58409.8</v>
       </c>
       <c r="F49" t="n">
-        <v>158.46052368</v>
+        <v>227.87421478</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45539.66666666666</v>
+        <v>45539.70833333334</v>
       </c>
       <c r="B50" t="n">
-        <v>58132.3</v>
+        <v>58409.8</v>
       </c>
       <c r="C50" t="n">
-        <v>58508</v>
+        <v>58477.3</v>
       </c>
       <c r="D50" t="n">
-        <v>58128.6</v>
+        <v>57824.9</v>
       </c>
       <c r="E50" t="n">
-        <v>58409.8</v>
+        <v>57918.3</v>
       </c>
       <c r="F50" t="n">
-        <v>227.87421478</v>
+        <v>101.38094371</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45539.70833333334</v>
+        <v>45539.75</v>
       </c>
       <c r="B51" t="n">
-        <v>58409.8</v>
+        <v>57918.3</v>
       </c>
       <c r="C51" t="n">
-        <v>58477.3</v>
+        <v>57989.8</v>
       </c>
       <c r="D51" t="n">
-        <v>57824.9</v>
+        <v>57637.9</v>
       </c>
       <c r="E51" t="n">
-        <v>57918.3</v>
+        <v>57686</v>
       </c>
       <c r="F51" t="n">
-        <v>101.38094371</v>
+        <v>92.14569684</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45539.75</v>
+        <v>45539.79166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57918.3</v>
+        <v>57686</v>
       </c>
       <c r="C52" t="n">
-        <v>57989.8</v>
+        <v>58124</v>
       </c>
       <c r="D52" t="n">
-        <v>57637.9</v>
+        <v>57673</v>
       </c>
       <c r="E52" t="n">
-        <v>57686</v>
+        <v>58035.5</v>
       </c>
       <c r="F52" t="n">
-        <v>92.14569684</v>
+        <v>74.31674502</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45539.79166666666</v>
+        <v>45539.83333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>57686</v>
+        <v>58035.6</v>
       </c>
       <c r="C53" t="n">
-        <v>58124</v>
+        <v>58119.1</v>
       </c>
       <c r="D53" t="n">
-        <v>57673</v>
+        <v>57912.7</v>
       </c>
       <c r="E53" t="n">
-        <v>58035.5</v>
+        <v>58058.1</v>
       </c>
       <c r="F53" t="n">
-        <v>74.31674502</v>
+        <v>77.21076929</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45539.83333333334</v>
+        <v>45539.875</v>
       </c>
       <c r="B54" t="n">
-        <v>58035.6</v>
+        <v>58053.1</v>
       </c>
       <c r="C54" t="n">
-        <v>58119.1</v>
+        <v>58104.5</v>
       </c>
       <c r="D54" t="n">
-        <v>57912.7</v>
+        <v>57980.9</v>
       </c>
       <c r="E54" t="n">
-        <v>58058.1</v>
+        <v>58092.3</v>
       </c>
       <c r="F54" t="n">
-        <v>77.21076929</v>
+        <v>20.80874521</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45539.875</v>
+        <v>45539.91666666666</v>
       </c>
       <c r="B55" t="n">
-        <v>58053.1</v>
+        <v>58092.3</v>
       </c>
       <c r="C55" t="n">
-        <v>58104.5</v>
+        <v>58368.7</v>
       </c>
       <c r="D55" t="n">
-        <v>57980.9</v>
+        <v>58035.2</v>
       </c>
       <c r="E55" t="n">
-        <v>58092.3</v>
+        <v>58133</v>
       </c>
       <c r="F55" t="n">
-        <v>20.80874521</v>
+        <v>27.92613374</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45539.91666666666</v>
+        <v>45539.95833333334</v>
       </c>
       <c r="B56" t="n">
-        <v>58092.3</v>
+        <v>58132.5</v>
       </c>
       <c r="C56" t="n">
-        <v>58368.7</v>
+        <v>58228.4</v>
       </c>
       <c r="D56" t="n">
-        <v>58035.2</v>
+        <v>57941</v>
       </c>
       <c r="E56" t="n">
-        <v>58133</v>
+        <v>57970</v>
       </c>
       <c r="F56" t="n">
-        <v>27.92613374</v>
+        <v>20.73313947</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45539.95833333334</v>
+        <v>45540</v>
       </c>
       <c r="B57" t="n">
-        <v>58132.5</v>
+        <v>57970.1</v>
       </c>
       <c r="C57" t="n">
-        <v>58228.4</v>
+        <v>58285.9</v>
       </c>
       <c r="D57" t="n">
-        <v>57941</v>
+        <v>57970</v>
       </c>
       <c r="E57" t="n">
-        <v>57970</v>
+        <v>58015.1</v>
       </c>
       <c r="F57" t="n">
-        <v>20.73313947</v>
+        <v>33.84136886</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45540</v>
+        <v>45540.04166666666</v>
       </c>
       <c r="B58" t="n">
-        <v>57970.1</v>
+        <v>58015.1</v>
       </c>
       <c r="C58" t="n">
-        <v>58285.9</v>
+        <v>58242.4</v>
       </c>
       <c r="D58" t="n">
-        <v>57970</v>
+        <v>57981.6</v>
       </c>
       <c r="E58" t="n">
-        <v>58015.1</v>
+        <v>58026.1</v>
       </c>
       <c r="F58" t="n">
-        <v>33.84136886</v>
+        <v>27.76975163</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45540.04166666666</v>
+        <v>45540.08333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>58015.1</v>
+        <v>58026.1</v>
       </c>
       <c r="C59" t="n">
-        <v>58242.4</v>
+        <v>58053.5</v>
       </c>
       <c r="D59" t="n">
-        <v>57981.6</v>
+        <v>57696</v>
       </c>
       <c r="E59" t="n">
-        <v>58026.1</v>
+        <v>57696.1</v>
       </c>
       <c r="F59" t="n">
-        <v>27.76975163</v>
+        <v>93.46589954</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45540.08333333334</v>
+        <v>45540.125</v>
       </c>
       <c r="B60" t="n">
-        <v>58026.1</v>
+        <v>57693.3</v>
       </c>
       <c r="C60" t="n">
-        <v>58053.5</v>
+        <v>57693.3</v>
       </c>
       <c r="D60" t="n">
-        <v>57696</v>
+        <v>56914.7</v>
       </c>
       <c r="E60" t="n">
-        <v>57696.1</v>
+        <v>57124.6</v>
       </c>
       <c r="F60" t="n">
-        <v>93.46589954</v>
+        <v>174.45293079</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45540.125</v>
+        <v>45540.16666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>57693.3</v>
+        <v>57124.6</v>
       </c>
       <c r="C61" t="n">
-        <v>57693.3</v>
+        <v>57272.6</v>
       </c>
       <c r="D61" t="n">
-        <v>56914.7</v>
+        <v>57070.6</v>
       </c>
       <c r="E61" t="n">
-        <v>57124.6</v>
+        <v>57208.9</v>
       </c>
       <c r="F61" t="n">
-        <v>174.45293079</v>
+        <v>59.26508358</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45540.16666666666</v>
+        <v>45540.20833333334</v>
       </c>
       <c r="B62" t="n">
-        <v>57124.6</v>
+        <v>57208.9</v>
       </c>
       <c r="C62" t="n">
-        <v>57272.6</v>
+        <v>57215.7</v>
       </c>
       <c r="D62" t="n">
-        <v>57070.6</v>
+        <v>57057.4</v>
       </c>
       <c r="E62" t="n">
-        <v>57208.9</v>
+        <v>57189.9</v>
       </c>
       <c r="F62" t="n">
-        <v>59.26508358</v>
+        <v>26.65803126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45540.20833333334</v>
+        <v>45540.25</v>
       </c>
       <c r="B63" t="n">
-        <v>57208.9</v>
+        <v>57190</v>
       </c>
       <c r="C63" t="n">
-        <v>57215.7</v>
+        <v>57198.3</v>
       </c>
       <c r="D63" t="n">
-        <v>57057.4</v>
+        <v>56567</v>
       </c>
       <c r="E63" t="n">
-        <v>57189.9</v>
+        <v>56909.3</v>
       </c>
       <c r="F63" t="n">
-        <v>26.65803126</v>
+        <v>54.43641993</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45540.25</v>
+        <v>45540.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>57190</v>
+        <v>56909.4</v>
       </c>
       <c r="C64" t="n">
-        <v>57198.3</v>
+        <v>57215.7</v>
       </c>
       <c r="D64" t="n">
-        <v>56567</v>
+        <v>56863.7</v>
       </c>
       <c r="E64" t="n">
-        <v>56909.3</v>
+        <v>57148.1</v>
       </c>
       <c r="F64" t="n">
-        <v>54.43641993</v>
+        <v>36.04270558</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45540.29166666666</v>
+        <v>45540.33333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>56909.4</v>
+        <v>57148.1</v>
       </c>
       <c r="C65" t="n">
-        <v>57215.7</v>
+        <v>57217.5</v>
       </c>
       <c r="D65" t="n">
-        <v>56863.7</v>
+        <v>56990.6</v>
       </c>
       <c r="E65" t="n">
-        <v>57148.1</v>
+        <v>56999.5</v>
       </c>
       <c r="F65" t="n">
-        <v>36.04270558</v>
+        <v>27.42116508</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45540.33333333334</v>
+        <v>45540.375</v>
       </c>
       <c r="B66" t="n">
-        <v>57148.1</v>
+        <v>56999.6</v>
       </c>
       <c r="C66" t="n">
-        <v>57217.5</v>
+        <v>57005</v>
       </c>
       <c r="D66" t="n">
-        <v>56990.6</v>
+        <v>56636</v>
       </c>
       <c r="E66" t="n">
-        <v>56999.5</v>
+        <v>56782</v>
       </c>
       <c r="F66" t="n">
-        <v>27.42116508</v>
+        <v>35.76055256</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45540.375</v>
+        <v>45540.41666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>56999.6</v>
+        <v>56782</v>
       </c>
       <c r="C67" t="n">
-        <v>57005</v>
+        <v>56818.8</v>
       </c>
       <c r="D67" t="n">
-        <v>56636</v>
+        <v>56666.9</v>
       </c>
       <c r="E67" t="n">
-        <v>56782</v>
+        <v>56777</v>
       </c>
       <c r="F67" t="n">
-        <v>35.76055256</v>
+        <v>24.2773893</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45540.41666666666</v>
+        <v>45540.45833333334</v>
       </c>
       <c r="B68" t="n">
-        <v>56782</v>
+        <v>56777.1</v>
       </c>
       <c r="C68" t="n">
-        <v>56818.8</v>
+        <v>56836.4</v>
       </c>
       <c r="D68" t="n">
-        <v>56666.9</v>
+        <v>56684.5</v>
       </c>
       <c r="E68" t="n">
-        <v>56777</v>
+        <v>56700.1</v>
       </c>
       <c r="F68" t="n">
-        <v>24.2773893</v>
+        <v>25.96908646</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45540.45833333334</v>
+        <v>45540.5</v>
       </c>
       <c r="B69" t="n">
-        <v>56777.1</v>
+        <v>56700.1</v>
       </c>
       <c r="C69" t="n">
-        <v>56836.4</v>
+        <v>56790.9</v>
       </c>
       <c r="D69" t="n">
-        <v>56684.5</v>
+        <v>56395.6</v>
       </c>
       <c r="E69" t="n">
-        <v>56700.1</v>
+        <v>56653.1</v>
       </c>
       <c r="F69" t="n">
-        <v>25.96908646</v>
+        <v>128.55436698</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45540.5</v>
+        <v>45540.54166666666</v>
       </c>
       <c r="B70" t="n">
-        <v>56700.1</v>
+        <v>56655.1</v>
       </c>
       <c r="C70" t="n">
-        <v>56790.9</v>
+        <v>57122.2</v>
       </c>
       <c r="D70" t="n">
-        <v>56395.6</v>
+        <v>56600</v>
       </c>
       <c r="E70" t="n">
-        <v>56653.1</v>
+        <v>56977.7</v>
       </c>
       <c r="F70" t="n">
-        <v>128.55436698</v>
+        <v>189.32089158</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45540.54166666666</v>
+        <v>45540.58333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>56655.1</v>
+        <v>56977.7</v>
       </c>
       <c r="C71" t="n">
-        <v>57122.2</v>
+        <v>57265.3</v>
       </c>
       <c r="D71" t="n">
-        <v>56600</v>
+        <v>56499.5</v>
       </c>
       <c r="E71" t="n">
-        <v>56977.7</v>
+        <v>56553.9</v>
       </c>
       <c r="F71" t="n">
-        <v>189.32089158</v>
+        <v>222.56837976</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45540.58333333334</v>
+        <v>45540.625</v>
       </c>
       <c r="B72" t="n">
-        <v>56977.7</v>
+        <v>56567.9</v>
       </c>
       <c r="C72" t="n">
-        <v>57265.3</v>
+        <v>56630.1</v>
       </c>
       <c r="D72" t="n">
-        <v>56499.5</v>
+        <v>55849</v>
       </c>
       <c r="E72" t="n">
-        <v>56553.9</v>
+        <v>55974.4</v>
       </c>
       <c r="F72" t="n">
-        <v>222.56837976</v>
+        <v>244.73606046</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45540.625</v>
+        <v>45540.66666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>56567.9</v>
+        <v>55974.4</v>
       </c>
       <c r="C73" t="n">
-        <v>56630.1</v>
+        <v>56365.3</v>
       </c>
       <c r="D73" t="n">
-        <v>55849</v>
+        <v>55963</v>
       </c>
       <c r="E73" t="n">
-        <v>55974.4</v>
+        <v>56339.8</v>
       </c>
       <c r="F73" t="n">
-        <v>244.73606046</v>
+        <v>51.54050563</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45540.66666666666</v>
+        <v>45540.70833333334</v>
       </c>
       <c r="B74" t="n">
-        <v>55974.4</v>
+        <v>56339.8</v>
       </c>
       <c r="C74" t="n">
-        <v>56365.3</v>
+        <v>56582.6</v>
       </c>
       <c r="D74" t="n">
-        <v>55963</v>
+        <v>56224.4</v>
       </c>
       <c r="E74" t="n">
-        <v>56339.8</v>
+        <v>56582.5</v>
       </c>
       <c r="F74" t="n">
-        <v>51.54050563</v>
+        <v>94.33477436</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45540.70833333334</v>
+        <v>45540.75</v>
       </c>
       <c r="B75" t="n">
-        <v>56339.8</v>
+        <v>56582.6</v>
       </c>
       <c r="C75" t="n">
-        <v>56582.6</v>
+        <v>56698.7</v>
       </c>
       <c r="D75" t="n">
-        <v>56224.4</v>
+        <v>56530.6</v>
       </c>
       <c r="E75" t="n">
-        <v>56582.5</v>
+        <v>56574.2</v>
       </c>
       <c r="F75" t="n">
-        <v>94.33477436</v>
+        <v>31.16285561</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45540.75</v>
+        <v>45540.79166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>56582.6</v>
+        <v>56574.1</v>
       </c>
       <c r="C76" t="n">
-        <v>56698.7</v>
+        <v>56574.1</v>
       </c>
       <c r="D76" t="n">
-        <v>56530.6</v>
+        <v>55800</v>
       </c>
       <c r="E76" t="n">
-        <v>56574.2</v>
+        <v>56015.5</v>
       </c>
       <c r="F76" t="n">
-        <v>31.16285561</v>
+        <v>219.36127309</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45540.79166666666</v>
+        <v>45540.83333333334</v>
       </c>
       <c r="B77" t="n">
-        <v>56574.1</v>
+        <v>56009.5</v>
       </c>
       <c r="C77" t="n">
-        <v>56574.1</v>
+        <v>56210.4</v>
       </c>
       <c r="D77" t="n">
-        <v>55800</v>
+        <v>55993.8</v>
       </c>
       <c r="E77" t="n">
-        <v>56015.5</v>
+        <v>56062.1</v>
       </c>
       <c r="F77" t="n">
-        <v>219.36127309</v>
+        <v>86.57632781</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45540.83333333334</v>
+        <v>45540.875</v>
       </c>
       <c r="B78" t="n">
-        <v>56009.5</v>
+        <v>56061.1</v>
       </c>
       <c r="C78" t="n">
-        <v>56210.4</v>
+        <v>56237.4</v>
       </c>
       <c r="D78" t="n">
-        <v>55993.8</v>
+        <v>55601.5</v>
       </c>
       <c r="E78" t="n">
-        <v>56062.1</v>
+        <v>56163.3</v>
       </c>
       <c r="F78" t="n">
-        <v>86.57632781</v>
+        <v>101.72968464</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45540.875</v>
+        <v>45540.91666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>56061.1</v>
+        <v>56163.2</v>
       </c>
       <c r="C79" t="n">
-        <v>56237.4</v>
+        <v>56198.9</v>
       </c>
       <c r="D79" t="n">
-        <v>55601.5</v>
+        <v>55782.6</v>
       </c>
       <c r="E79" t="n">
-        <v>56163.3</v>
+        <v>56104.7</v>
       </c>
       <c r="F79" t="n">
-        <v>101.72968464</v>
+        <v>98.19975534</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45540.91666666666</v>
+        <v>45540.95833333334</v>
       </c>
       <c r="B80" t="n">
-        <v>56163.2</v>
+        <v>56104.7</v>
       </c>
       <c r="C80" t="n">
-        <v>56198.9</v>
+        <v>56174</v>
       </c>
       <c r="D80" t="n">
-        <v>55782.6</v>
+        <v>55980.8</v>
       </c>
       <c r="E80" t="n">
-        <v>56104.7</v>
+        <v>56163.9</v>
       </c>
       <c r="F80" t="n">
-        <v>98.19975534</v>
+        <v>27.9188315</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45540.95833333334</v>
+        <v>45541</v>
       </c>
       <c r="B81" t="n">
-        <v>56104.7</v>
+        <v>56163.9</v>
       </c>
       <c r="C81" t="n">
-        <v>56174</v>
+        <v>56302.8</v>
       </c>
       <c r="D81" t="n">
-        <v>55980.8</v>
+        <v>56000</v>
       </c>
       <c r="E81" t="n">
-        <v>56163.9</v>
+        <v>56163.2</v>
       </c>
       <c r="F81" t="n">
-        <v>27.9188315</v>
+        <v>20.95995116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45541</v>
+        <v>45541.04166666666</v>
       </c>
       <c r="B82" t="n">
-        <v>56163.9</v>
+        <v>56163.2</v>
       </c>
       <c r="C82" t="n">
-        <v>56302.8</v>
+        <v>56574</v>
       </c>
       <c r="D82" t="n">
-        <v>56000</v>
+        <v>55970.7</v>
       </c>
       <c r="E82" t="n">
-        <v>56163.2</v>
+        <v>56554.7</v>
       </c>
       <c r="F82" t="n">
-        <v>20.95995116</v>
+        <v>97.75916675000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45541.04166666666</v>
+        <v>45541.08333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>56163.2</v>
+        <v>56554.8</v>
       </c>
       <c r="C83" t="n">
-        <v>56574</v>
+        <v>56800.2</v>
       </c>
       <c r="D83" t="n">
-        <v>55970.7</v>
+        <v>56504.2</v>
       </c>
       <c r="E83" t="n">
-        <v>56554.7</v>
+        <v>56720.1</v>
       </c>
       <c r="F83" t="n">
-        <v>97.75916675000001</v>
+        <v>27.60750086</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45541.08333333334</v>
+        <v>45541.125</v>
       </c>
       <c r="B84" t="n">
-        <v>56554.8</v>
+        <v>56720.1</v>
       </c>
       <c r="C84" t="n">
-        <v>56800.2</v>
+        <v>56827.5</v>
       </c>
       <c r="D84" t="n">
-        <v>56504.2</v>
+        <v>56535</v>
       </c>
       <c r="E84" t="n">
-        <v>56720.1</v>
+        <v>56575.3</v>
       </c>
       <c r="F84" t="n">
-        <v>27.60750086</v>
+        <v>65.3940451</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45541.125</v>
+        <v>45541.16666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>56720.1</v>
+        <v>56575.3</v>
       </c>
       <c r="C85" t="n">
-        <v>56827.5</v>
+        <v>56708.5</v>
       </c>
       <c r="D85" t="n">
-        <v>56535</v>
+        <v>56575.3</v>
       </c>
       <c r="E85" t="n">
-        <v>56575.3</v>
+        <v>56612.3</v>
       </c>
       <c r="F85" t="n">
-        <v>65.3940451</v>
+        <v>6.39874313</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45541.16666666666</v>
+        <v>45541.20833333334</v>
       </c>
       <c r="B86" t="n">
-        <v>56575.3</v>
+        <v>56600.1</v>
       </c>
       <c r="C86" t="n">
-        <v>56708.5</v>
+        <v>56633</v>
       </c>
       <c r="D86" t="n">
-        <v>56575.3</v>
+        <v>56321.3</v>
       </c>
       <c r="E86" t="n">
-        <v>56612.3</v>
+        <v>56487.6</v>
       </c>
       <c r="F86" t="n">
-        <v>6.39874313</v>
+        <v>92.64010408999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45541.20833333334</v>
+        <v>45541.25</v>
       </c>
       <c r="B87" t="n">
-        <v>56600.1</v>
+        <v>56480.8</v>
       </c>
       <c r="C87" t="n">
-        <v>56633</v>
+        <v>56480.9</v>
       </c>
       <c r="D87" t="n">
-        <v>56321.3</v>
+        <v>56311.6</v>
       </c>
       <c r="E87" t="n">
-        <v>56487.6</v>
+        <v>56433.5</v>
       </c>
       <c r="F87" t="n">
-        <v>92.64010408999999</v>
+        <v>43.87787639</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45541.25</v>
+        <v>45541.29166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>56480.8</v>
+        <v>56433.5</v>
       </c>
       <c r="C88" t="n">
-        <v>56480.9</v>
+        <v>56433.5</v>
       </c>
       <c r="D88" t="n">
-        <v>56311.6</v>
+        <v>55302.5</v>
       </c>
       <c r="E88" t="n">
-        <v>56433.5</v>
+        <v>55804.8</v>
       </c>
       <c r="F88" t="n">
-        <v>43.87787639</v>
+        <v>126.26370353</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45541.29166666666</v>
+        <v>45541.33333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>56433.5</v>
+        <v>55804.9</v>
       </c>
       <c r="C89" t="n">
-        <v>56433.5</v>
+        <v>55885.6</v>
       </c>
       <c r="D89" t="n">
-        <v>55302.5</v>
+        <v>55640.1</v>
       </c>
       <c r="E89" t="n">
-        <v>55804.8</v>
+        <v>55768.5</v>
       </c>
       <c r="F89" t="n">
-        <v>126.26370353</v>
+        <v>56.27854604</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45541.33333333334</v>
+        <v>45541.375</v>
       </c>
       <c r="B90" t="n">
-        <v>55804.9</v>
+        <v>55768.5</v>
       </c>
       <c r="C90" t="n">
-        <v>55885.6</v>
+        <v>55913</v>
       </c>
       <c r="D90" t="n">
-        <v>55640.1</v>
+        <v>55688</v>
       </c>
       <c r="E90" t="n">
-        <v>55768.5</v>
+        <v>55879.6</v>
       </c>
       <c r="F90" t="n">
-        <v>56.27854604</v>
+        <v>30.19853396</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45541.375</v>
+        <v>45541.41666666666</v>
       </c>
       <c r="B91" t="n">
-        <v>55768.5</v>
+        <v>55879.7</v>
       </c>
       <c r="C91" t="n">
-        <v>55913</v>
+        <v>56239</v>
       </c>
       <c r="D91" t="n">
-        <v>55688</v>
+        <v>55879.7</v>
       </c>
       <c r="E91" t="n">
-        <v>55879.6</v>
+        <v>56159</v>
       </c>
       <c r="F91" t="n">
-        <v>30.19853396</v>
+        <v>58.0257006</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45541.41666666666</v>
+        <v>45541.45833333334</v>
       </c>
       <c r="B92" t="n">
-        <v>55879.7</v>
+        <v>56159</v>
       </c>
       <c r="C92" t="n">
-        <v>56239</v>
+        <v>56197</v>
       </c>
       <c r="D92" t="n">
-        <v>55879.7</v>
+        <v>55847.3</v>
       </c>
       <c r="E92" t="n">
-        <v>56159</v>
+        <v>55980.4</v>
       </c>
       <c r="F92" t="n">
-        <v>58.0257006</v>
+        <v>41.43559861</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45541.45833333334</v>
+        <v>45541.5</v>
       </c>
       <c r="B93" t="n">
-        <v>56159</v>
+        <v>55980.5</v>
       </c>
       <c r="C93" t="n">
-        <v>56197</v>
+        <v>56939.8</v>
       </c>
       <c r="D93" t="n">
-        <v>55847.3</v>
+        <v>55711</v>
       </c>
       <c r="E93" t="n">
-        <v>55980.4</v>
+        <v>56875</v>
       </c>
       <c r="F93" t="n">
-        <v>41.43559861</v>
+        <v>432.05183414</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45541.5</v>
+        <v>45541.54166666666</v>
       </c>
       <c r="B94" t="n">
-        <v>55980.5</v>
+        <v>56875</v>
       </c>
       <c r="C94" t="n">
-        <v>56939.8</v>
+        <v>56964.1</v>
       </c>
       <c r="D94" t="n">
-        <v>55711</v>
+        <v>55828.8</v>
       </c>
       <c r="E94" t="n">
-        <v>56875</v>
+        <v>55900</v>
       </c>
       <c r="F94" t="n">
-        <v>432.05183414</v>
+        <v>220.42304516</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45541.54166666666</v>
+        <v>45541.58333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>56875</v>
+        <v>55900.1</v>
       </c>
       <c r="C95" t="n">
-        <v>56964.1</v>
+        <v>55918.8</v>
       </c>
       <c r="D95" t="n">
-        <v>55828.8</v>
+        <v>54411</v>
       </c>
       <c r="E95" t="n">
-        <v>55900</v>
+        <v>54680.3</v>
       </c>
       <c r="F95" t="n">
-        <v>220.42304516</v>
+        <v>684.70058016</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45541.58333333334</v>
+        <v>45541.625</v>
       </c>
       <c r="B96" t="n">
-        <v>55900.1</v>
+        <v>54680.4</v>
       </c>
       <c r="C96" t="n">
-        <v>55918.8</v>
+        <v>54958.7</v>
       </c>
       <c r="D96" t="n">
-        <v>54411</v>
+        <v>53456</v>
       </c>
       <c r="E96" t="n">
-        <v>54680.3</v>
+        <v>54020</v>
       </c>
       <c r="F96" t="n">
-        <v>684.70058016</v>
+        <v>577.72026799</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45541.625</v>
+        <v>45541.66666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>54680.4</v>
+        <v>54020</v>
       </c>
       <c r="C97" t="n">
-        <v>54958.7</v>
+        <v>54207.3</v>
       </c>
       <c r="D97" t="n">
-        <v>53456</v>
+        <v>53601</v>
       </c>
       <c r="E97" t="n">
-        <v>54020</v>
+        <v>54041</v>
       </c>
       <c r="F97" t="n">
-        <v>577.72026799</v>
+        <v>174.1660159</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45541.66666666666</v>
+        <v>45541.70833333334</v>
       </c>
       <c r="B98" t="n">
-        <v>54020</v>
+        <v>54041.1</v>
       </c>
       <c r="C98" t="n">
-        <v>54207.3</v>
+        <v>54400</v>
       </c>
       <c r="D98" t="n">
-        <v>53601</v>
+        <v>53711.3</v>
       </c>
       <c r="E98" t="n">
-        <v>54041</v>
+        <v>53928.7</v>
       </c>
       <c r="F98" t="n">
-        <v>174.1660159</v>
+        <v>149.1093409</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45541.70833333334</v>
+        <v>45541.75</v>
       </c>
       <c r="B99" t="n">
-        <v>54041.1</v>
+        <v>53928.7</v>
       </c>
       <c r="C99" t="n">
-        <v>54400</v>
+        <v>53947.7</v>
       </c>
       <c r="D99" t="n">
-        <v>53711.3</v>
+        <v>53335</v>
       </c>
       <c r="E99" t="n">
-        <v>53928.7</v>
+        <v>53335.1</v>
       </c>
       <c r="F99" t="n">
-        <v>149.1093409</v>
+        <v>178.89638259</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45541.75</v>
+        <v>45541.79166666666</v>
       </c>
       <c r="B100" t="n">
-        <v>53928.7</v>
+        <v>53335</v>
       </c>
       <c r="C100" t="n">
-        <v>53947.7</v>
+        <v>53905</v>
       </c>
       <c r="D100" t="n">
-        <v>53335</v>
+        <v>53225.8</v>
       </c>
       <c r="E100" t="n">
-        <v>53335.1</v>
+        <v>53473.5</v>
       </c>
       <c r="F100" t="n">
-        <v>178.89638259</v>
+        <v>262.07081873</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45541.79166666666</v>
+        <v>45541.83333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>53335</v>
+        <v>53476.2</v>
       </c>
       <c r="C101" t="n">
-        <v>53905</v>
+        <v>53755.6</v>
       </c>
       <c r="D101" t="n">
-        <v>53225.8</v>
+        <v>52642.8</v>
       </c>
       <c r="E101" t="n">
-        <v>53473.5</v>
+        <v>52850</v>
       </c>
       <c r="F101" t="n">
-        <v>262.07081873</v>
+        <v>215.97762159</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45541.83333333334</v>
+        <v>45541.875</v>
       </c>
       <c r="B102" t="n">
-        <v>53476.2</v>
+        <v>52850.1</v>
       </c>
       <c r="C102" t="n">
-        <v>53755.6</v>
+        <v>53747.4</v>
       </c>
       <c r="D102" t="n">
-        <v>52642.8</v>
+        <v>52569</v>
       </c>
       <c r="E102" t="n">
-        <v>52850</v>
+        <v>53743.5</v>
       </c>
       <c r="F102" t="n">
-        <v>215.97762159</v>
+        <v>141.20797508</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45541.875</v>
+        <v>45541.91666666666</v>
       </c>
       <c r="B103" t="n">
-        <v>52850.1</v>
+        <v>53746.3</v>
       </c>
       <c r="C103" t="n">
-        <v>53747.4</v>
+        <v>53832.1</v>
       </c>
       <c r="D103" t="n">
-        <v>52569</v>
+        <v>53601.5</v>
       </c>
       <c r="E103" t="n">
-        <v>53743.5</v>
+        <v>53606.2</v>
       </c>
       <c r="F103" t="n">
-        <v>141.20797508</v>
+        <v>63.29168774</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45541.91666666666</v>
+        <v>45541.95833333334</v>
       </c>
       <c r="B104" t="n">
-        <v>53746.3</v>
+        <v>53606.2</v>
       </c>
       <c r="C104" t="n">
-        <v>53832.1</v>
+        <v>53948.3</v>
       </c>
       <c r="D104" t="n">
-        <v>53601.5</v>
+        <v>53600</v>
       </c>
       <c r="E104" t="n">
-        <v>53606.2</v>
+        <v>53948.3</v>
       </c>
       <c r="F104" t="n">
-        <v>63.29168774</v>
+        <v>40.23080437</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45541.95833333334</v>
+        <v>45542</v>
       </c>
       <c r="B105" t="n">
-        <v>53606.2</v>
+        <v>53948.3</v>
       </c>
       <c r="C105" t="n">
-        <v>53948.3</v>
+        <v>54040.7</v>
       </c>
       <c r="D105" t="n">
-        <v>53600</v>
+        <v>53879.7</v>
       </c>
       <c r="E105" t="n">
-        <v>53948.3</v>
+        <v>53918.7</v>
       </c>
       <c r="F105" t="n">
-        <v>40.23080437</v>
+        <v>134.12421736</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45542</v>
+        <v>45542.04166666666</v>
       </c>
       <c r="B106" t="n">
-        <v>53948.3</v>
+        <v>53918.7</v>
       </c>
       <c r="C106" t="n">
-        <v>54040.7</v>
+        <v>53980.7</v>
       </c>
       <c r="D106" t="n">
-        <v>53879.7</v>
+        <v>53739</v>
       </c>
       <c r="E106" t="n">
-        <v>53918.7</v>
+        <v>53797.4</v>
       </c>
       <c r="F106" t="n">
-        <v>134.12421736</v>
+        <v>142.42926441</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45542.04166666666</v>
+        <v>45542.08333333334</v>
       </c>
       <c r="B107" t="n">
-        <v>53918.7</v>
+        <v>53798.3</v>
       </c>
       <c r="C107" t="n">
-        <v>53980.7</v>
+        <v>53924.1</v>
       </c>
       <c r="D107" t="n">
-        <v>53739</v>
+        <v>53742.1</v>
       </c>
       <c r="E107" t="n">
-        <v>53797.4</v>
+        <v>53781.3</v>
       </c>
       <c r="F107" t="n">
-        <v>142.42926441</v>
+        <v>85.8849421</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45542.08333333334</v>
+        <v>45542.125</v>
       </c>
       <c r="B108" t="n">
-        <v>53798.3</v>
+        <v>53781.3</v>
       </c>
       <c r="C108" t="n">
-        <v>53924.1</v>
+        <v>53857.5</v>
       </c>
       <c r="D108" t="n">
-        <v>53742.1</v>
+        <v>53781.3</v>
       </c>
       <c r="E108" t="n">
-        <v>53781.3</v>
+        <v>53808.5</v>
       </c>
       <c r="F108" t="n">
-        <v>85.8849421</v>
+        <v>11.47144208</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45542.125</v>
+        <v>45542.16666666666</v>
       </c>
       <c r="B109" t="n">
-        <v>53781.3</v>
+        <v>53808.5</v>
       </c>
       <c r="C109" t="n">
-        <v>53857.5</v>
+        <v>54041</v>
       </c>
       <c r="D109" t="n">
-        <v>53781.3</v>
+        <v>53797.9</v>
       </c>
       <c r="E109" t="n">
-        <v>53808.5</v>
+        <v>54041</v>
       </c>
       <c r="F109" t="n">
-        <v>11.47144208</v>
+        <v>3.08343434</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45542.16666666666</v>
+        <v>45542.20833333334</v>
       </c>
       <c r="B110" t="n">
-        <v>53808.5</v>
+        <v>54041</v>
       </c>
       <c r="C110" t="n">
-        <v>54041</v>
+        <v>54347.1</v>
       </c>
       <c r="D110" t="n">
-        <v>53797.9</v>
+        <v>54007.6</v>
       </c>
       <c r="E110" t="n">
-        <v>54041</v>
+        <v>54170.3</v>
       </c>
       <c r="F110" t="n">
-        <v>3.08343434</v>
+        <v>17.85054136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45542.20833333334</v>
+        <v>45542.25</v>
       </c>
       <c r="B111" t="n">
-        <v>54041</v>
+        <v>54174.5</v>
       </c>
       <c r="C111" t="n">
-        <v>54347.1</v>
+        <v>54349.4</v>
       </c>
       <c r="D111" t="n">
-        <v>54007.6</v>
+        <v>54039.1</v>
       </c>
       <c r="E111" t="n">
-        <v>54170.3</v>
+        <v>54300.9</v>
       </c>
       <c r="F111" t="n">
-        <v>17.85054136</v>
+        <v>34.60793326</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45542.25</v>
+        <v>45542.29166666666</v>
       </c>
       <c r="B112" t="n">
-        <v>54174.5</v>
+        <v>54301</v>
       </c>
       <c r="C112" t="n">
-        <v>54349.4</v>
+        <v>54379.3</v>
       </c>
       <c r="D112" t="n">
-        <v>54039.1</v>
+        <v>54193.9</v>
       </c>
       <c r="E112" t="n">
-        <v>54300.9</v>
+        <v>54284.9</v>
       </c>
       <c r="F112" t="n">
-        <v>34.60793326</v>
+        <v>15.92905594</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45542.29166666666</v>
+        <v>45542.33333333334</v>
       </c>
       <c r="B113" t="n">
-        <v>54301</v>
+        <v>54284.9</v>
       </c>
       <c r="C113" t="n">
-        <v>54379.3</v>
+        <v>54363.6</v>
       </c>
       <c r="D113" t="n">
-        <v>54193.9</v>
+        <v>54226.3</v>
       </c>
       <c r="E113" t="n">
-        <v>54284.9</v>
+        <v>54361.9</v>
       </c>
       <c r="F113" t="n">
-        <v>15.92905594</v>
+        <v>20.79352874</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45542.33333333334</v>
+        <v>45542.375</v>
       </c>
       <c r="B114" t="n">
-        <v>54284.9</v>
+        <v>54362</v>
       </c>
       <c r="C114" t="n">
-        <v>54363.6</v>
+        <v>54379.3</v>
       </c>
       <c r="D114" t="n">
-        <v>54226.3</v>
+        <v>54205</v>
       </c>
       <c r="E114" t="n">
-        <v>54361.9</v>
+        <v>54271.5</v>
       </c>
       <c r="F114" t="n">
-        <v>20.79352874</v>
+        <v>15.90989674</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45542.375</v>
+        <v>45542.41666666666</v>
       </c>
       <c r="B115" t="n">
-        <v>54362</v>
+        <v>54271.5</v>
       </c>
       <c r="C115" t="n">
-        <v>54379.3</v>
+        <v>54432.5</v>
       </c>
       <c r="D115" t="n">
-        <v>54205</v>
+        <v>54245</v>
       </c>
       <c r="E115" t="n">
-        <v>54271.5</v>
+        <v>54346.6</v>
       </c>
       <c r="F115" t="n">
-        <v>15.90989674</v>
+        <v>16.76886221</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45542.41666666666</v>
+        <v>45542.45833333334</v>
       </c>
       <c r="B116" t="n">
-        <v>54271.5</v>
+        <v>54346.6</v>
       </c>
       <c r="C116" t="n">
-        <v>54432.5</v>
+        <v>54451.1</v>
       </c>
       <c r="D116" t="n">
-        <v>54245</v>
+        <v>54296.6</v>
       </c>
       <c r="E116" t="n">
-        <v>54346.6</v>
+        <v>54320.4</v>
       </c>
       <c r="F116" t="n">
-        <v>16.76886221</v>
+        <v>26.4985609</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45542.45833333334</v>
+        <v>45542.5</v>
       </c>
       <c r="B117" t="n">
-        <v>54346.6</v>
+        <v>54320.4</v>
       </c>
       <c r="C117" t="n">
-        <v>54451.1</v>
+        <v>54648</v>
       </c>
       <c r="D117" t="n">
-        <v>54296.6</v>
+        <v>54320.4</v>
       </c>
       <c r="E117" t="n">
-        <v>54320.4</v>
+        <v>54579.4</v>
       </c>
       <c r="F117" t="n">
-        <v>26.4985609</v>
+        <v>48.75897892</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45542.5</v>
+        <v>45542.54166666666</v>
       </c>
       <c r="B118" t="n">
-        <v>54320.4</v>
+        <v>54579.5</v>
       </c>
       <c r="C118" t="n">
-        <v>54648</v>
+        <v>54659</v>
       </c>
       <c r="D118" t="n">
-        <v>54320.4</v>
+        <v>54419.1</v>
       </c>
       <c r="E118" t="n">
-        <v>54579.4</v>
+        <v>54540</v>
       </c>
       <c r="F118" t="n">
-        <v>48.75897892</v>
+        <v>35.0349579</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45542.54166666666</v>
+        <v>45542.58333333334</v>
       </c>
       <c r="B119" t="n">
-        <v>54579.5</v>
+        <v>54541.9</v>
       </c>
       <c r="C119" t="n">
-        <v>54659</v>
+        <v>54648.9</v>
       </c>
       <c r="D119" t="n">
-        <v>54419.1</v>
+        <v>54499.9</v>
       </c>
       <c r="E119" t="n">
-        <v>54540</v>
+        <v>54625.3</v>
       </c>
       <c r="F119" t="n">
-        <v>35.0349579</v>
+        <v>55.58481536</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45542.58333333334</v>
+        <v>45542.625</v>
       </c>
       <c r="B120" t="n">
-        <v>54541.9</v>
+        <v>54625.3</v>
       </c>
       <c r="C120" t="n">
-        <v>54648.9</v>
+        <v>54802.5</v>
       </c>
       <c r="D120" t="n">
-        <v>54499.9</v>
+        <v>54625.3</v>
       </c>
       <c r="E120" t="n">
-        <v>54625.3</v>
+        <v>54779.2</v>
       </c>
       <c r="F120" t="n">
-        <v>55.58481536</v>
+        <v>39.1727236</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45542.625</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="B121" t="n">
-        <v>54625.3</v>
+        <v>54779.2</v>
       </c>
       <c r="C121" t="n">
-        <v>54802.5</v>
+        <v>54810.2</v>
       </c>
       <c r="D121" t="n">
-        <v>54625.3</v>
+        <v>54439.6</v>
       </c>
       <c r="E121" t="n">
-        <v>54779.2</v>
+        <v>54469</v>
       </c>
       <c r="F121" t="n">
-        <v>39.1727236</v>
+        <v>31.49860469</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45542.66666666666</v>
+        <v>45542.70833333334</v>
       </c>
       <c r="B122" t="n">
-        <v>54779.2</v>
+        <v>54469</v>
       </c>
       <c r="C122" t="n">
-        <v>54810.2</v>
+        <v>54511.8</v>
       </c>
       <c r="D122" t="n">
-        <v>54439.6</v>
+        <v>54010.1</v>
       </c>
       <c r="E122" t="n">
-        <v>54469</v>
+        <v>54142.1</v>
       </c>
       <c r="F122" t="n">
-        <v>31.49860469</v>
+        <v>73.84292237</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45542.70833333334</v>
+        <v>45542.75</v>
       </c>
       <c r="B123" t="n">
-        <v>54469</v>
+        <v>54128.6</v>
       </c>
       <c r="C123" t="n">
-        <v>54511.8</v>
+        <v>54385.8</v>
       </c>
       <c r="D123" t="n">
-        <v>54010.1</v>
+        <v>54031.3</v>
       </c>
       <c r="E123" t="n">
-        <v>54142.1</v>
+        <v>54275.3</v>
       </c>
       <c r="F123" t="n">
-        <v>73.84292237</v>
+        <v>41.23666072</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45542.75</v>
+        <v>45542.79166666666</v>
       </c>
       <c r="B124" t="n">
-        <v>54128.6</v>
+        <v>54275.3</v>
       </c>
       <c r="C124" t="n">
-        <v>54385.8</v>
+        <v>54451</v>
       </c>
       <c r="D124" t="n">
-        <v>54031.3</v>
+        <v>54240.1</v>
       </c>
       <c r="E124" t="n">
-        <v>54275.3</v>
+        <v>54411.9</v>
       </c>
       <c r="F124" t="n">
-        <v>41.23666072</v>
+        <v>18.27811193</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45542.79166666666</v>
+        <v>45542.83333333334</v>
       </c>
       <c r="B125" t="n">
-        <v>54275.3</v>
+        <v>54411.9</v>
       </c>
       <c r="C125" t="n">
-        <v>54451</v>
+        <v>54411.9</v>
       </c>
       <c r="D125" t="n">
-        <v>54240.1</v>
+        <v>54167.4</v>
       </c>
       <c r="E125" t="n">
-        <v>54411.9</v>
+        <v>54170.1</v>
       </c>
       <c r="F125" t="n">
-        <v>18.27811193</v>
+        <v>22.42988736</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45542.83333333334</v>
+        <v>45542.875</v>
       </c>
       <c r="B126" t="n">
-        <v>54411.9</v>
+        <v>54170</v>
       </c>
       <c r="C126" t="n">
-        <v>54411.9</v>
+        <v>54179</v>
       </c>
       <c r="D126" t="n">
-        <v>54167.4</v>
+        <v>53900</v>
       </c>
       <c r="E126" t="n">
-        <v>54170.1</v>
+        <v>53922.2</v>
       </c>
       <c r="F126" t="n">
-        <v>22.42988736</v>
+        <v>43.9521687</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45542.875</v>
+        <v>45542.91666666666</v>
       </c>
       <c r="B127" t="n">
-        <v>54170</v>
+        <v>53922.2</v>
       </c>
       <c r="C127" t="n">
-        <v>54179</v>
+        <v>54066.5</v>
       </c>
       <c r="D127" t="n">
-        <v>53900</v>
+        <v>53867</v>
       </c>
       <c r="E127" t="n">
-        <v>53922.2</v>
+        <v>53948.1</v>
       </c>
       <c r="F127" t="n">
-        <v>43.9521687</v>
+        <v>42.3860787</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45542.91666666666</v>
+        <v>45542.95833333334</v>
       </c>
       <c r="B128" t="n">
-        <v>53922.2</v>
+        <v>53948.1</v>
       </c>
       <c r="C128" t="n">
-        <v>54066.5</v>
+        <v>54164.4</v>
       </c>
       <c r="D128" t="n">
-        <v>53867</v>
+        <v>53835</v>
       </c>
       <c r="E128" t="n">
-        <v>53948.1</v>
+        <v>54146.4</v>
       </c>
       <c r="F128" t="n">
-        <v>42.3860787</v>
+        <v>37.8398693</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45542.95833333334</v>
+        <v>45543</v>
       </c>
       <c r="B129" t="n">
-        <v>53948.1</v>
+        <v>54146.5</v>
       </c>
       <c r="C129" t="n">
-        <v>54164.4</v>
+        <v>54169.9</v>
       </c>
       <c r="D129" t="n">
-        <v>53835</v>
+        <v>53977</v>
       </c>
       <c r="E129" t="n">
-        <v>54146.4</v>
+        <v>54133.2</v>
       </c>
       <c r="F129" t="n">
-        <v>37.8398693</v>
+        <v>20.90379915</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45543</v>
+        <v>45543.04166666666</v>
       </c>
       <c r="B130" t="n">
-        <v>54146.5</v>
+        <v>54133.3</v>
       </c>
       <c r="C130" t="n">
-        <v>54169.9</v>
+        <v>54329.3</v>
       </c>
       <c r="D130" t="n">
-        <v>53977</v>
+        <v>54133.3</v>
       </c>
       <c r="E130" t="n">
-        <v>54133.2</v>
+        <v>54226.4</v>
       </c>
       <c r="F130" t="n">
-        <v>20.90379915</v>
+        <v>26.84160842</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45543.04166666666</v>
+        <v>45543.08333333334</v>
       </c>
       <c r="B131" t="n">
-        <v>54133.3</v>
+        <v>54226.4</v>
       </c>
       <c r="C131" t="n">
-        <v>54329.3</v>
+        <v>54500</v>
       </c>
       <c r="D131" t="n">
-        <v>54133.3</v>
+        <v>54226.3</v>
       </c>
       <c r="E131" t="n">
-        <v>54226.4</v>
+        <v>54351.9</v>
       </c>
       <c r="F131" t="n">
-        <v>26.84160842</v>
+        <v>51.86378605</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45543.08333333334</v>
+        <v>45543.125</v>
       </c>
       <c r="B132" t="n">
-        <v>54226.4</v>
+        <v>54351.9</v>
       </c>
       <c r="C132" t="n">
-        <v>54500</v>
+        <v>54369.9</v>
       </c>
       <c r="D132" t="n">
-        <v>54226.3</v>
+        <v>54300</v>
       </c>
       <c r="E132" t="n">
-        <v>54351.9</v>
+        <v>54367</v>
       </c>
       <c r="F132" t="n">
-        <v>51.86378605</v>
+        <v>5.87043343</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45543.125</v>
+        <v>45543.16666666666</v>
       </c>
       <c r="B133" t="n">
-        <v>54351.9</v>
+        <v>54367.1</v>
       </c>
       <c r="C133" t="n">
-        <v>54369.9</v>
+        <v>54555.5</v>
       </c>
       <c r="D133" t="n">
-        <v>54300</v>
+        <v>54367</v>
       </c>
       <c r="E133" t="n">
-        <v>54367</v>
+        <v>54485.8</v>
       </c>
       <c r="F133" t="n">
-        <v>5.87043343</v>
+        <v>10.82022916</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45543.16666666666</v>
+        <v>45543.20833333334</v>
       </c>
       <c r="B134" t="n">
-        <v>54367.1</v>
+        <v>54485.9</v>
       </c>
       <c r="C134" t="n">
-        <v>54555.5</v>
+        <v>54517</v>
       </c>
       <c r="D134" t="n">
-        <v>54367</v>
+        <v>54339.1</v>
       </c>
       <c r="E134" t="n">
-        <v>54485.8</v>
+        <v>54339.1</v>
       </c>
       <c r="F134" t="n">
-        <v>10.82022916</v>
+        <v>11.13993271</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45543.20833333334</v>
+        <v>45543.25</v>
       </c>
       <c r="B135" t="n">
-        <v>54485.9</v>
+        <v>54339.2</v>
       </c>
       <c r="C135" t="n">
-        <v>54517</v>
+        <v>54413.2</v>
       </c>
       <c r="D135" t="n">
-        <v>54339.1</v>
+        <v>54290</v>
       </c>
       <c r="E135" t="n">
-        <v>54339.1</v>
+        <v>54290.1</v>
       </c>
       <c r="F135" t="n">
-        <v>11.13993271</v>
+        <v>11.75655365</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45543.25</v>
+        <v>45543.29166666666</v>
       </c>
       <c r="B136" t="n">
-        <v>54339.2</v>
+        <v>54290.1</v>
       </c>
       <c r="C136" t="n">
-        <v>54413.2</v>
+        <v>54505.5</v>
       </c>
       <c r="D136" t="n">
         <v>54290</v>
       </c>
       <c r="E136" t="n">
-        <v>54290.1</v>
+        <v>54454.1</v>
       </c>
       <c r="F136" t="n">
-        <v>11.75655365</v>
+        <v>12.81992423</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45543.29166666666</v>
+        <v>45543.33333333334</v>
       </c>
       <c r="B137" t="n">
-        <v>54290.1</v>
+        <v>54454.2</v>
       </c>
       <c r="C137" t="n">
-        <v>54505.5</v>
+        <v>54454.2</v>
       </c>
       <c r="D137" t="n">
-        <v>54290</v>
+        <v>54345.6</v>
       </c>
       <c r="E137" t="n">
-        <v>54454.1</v>
+        <v>54444.9</v>
       </c>
       <c r="F137" t="n">
-        <v>12.81992423</v>
+        <v>9.92177676</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45543.33333333334</v>
+        <v>45543.375</v>
       </c>
       <c r="B138" t="n">
-        <v>54454.2</v>
+        <v>54445</v>
       </c>
       <c r="C138" t="n">
-        <v>54454.2</v>
+        <v>54693.3</v>
       </c>
       <c r="D138" t="n">
-        <v>54345.6</v>
+        <v>54445</v>
       </c>
       <c r="E138" t="n">
-        <v>54444.9</v>
+        <v>54470.2</v>
       </c>
       <c r="F138" t="n">
-        <v>9.92177676</v>
+        <v>32.08276011</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45543.375</v>
+        <v>45543.41666666666</v>
       </c>
       <c r="B139" t="n">
-        <v>54445</v>
+        <v>54470.2</v>
       </c>
       <c r="C139" t="n">
-        <v>54693.3</v>
+        <v>54624.5</v>
       </c>
       <c r="D139" t="n">
-        <v>54445</v>
+        <v>54470.1</v>
       </c>
       <c r="E139" t="n">
-        <v>54470.2</v>
+        <v>54603.2</v>
       </c>
       <c r="F139" t="n">
-        <v>32.08276011</v>
+        <v>9.292037880000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45543.41666666666</v>
+        <v>45543.45833333334</v>
       </c>
       <c r="B140" t="n">
-        <v>54470.2</v>
+        <v>54603.2</v>
       </c>
       <c r="C140" t="n">
-        <v>54624.5</v>
+        <v>54660.5</v>
       </c>
       <c r="D140" t="n">
-        <v>54470.1</v>
+        <v>54504.1</v>
       </c>
       <c r="E140" t="n">
-        <v>54603.2</v>
+        <v>54551.5</v>
       </c>
       <c r="F140" t="n">
-        <v>9.292037880000001</v>
+        <v>32.34354621</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45543.45833333334</v>
+        <v>45543.5</v>
       </c>
       <c r="B141" t="n">
-        <v>54603.2</v>
+        <v>54553.3</v>
       </c>
       <c r="C141" t="n">
-        <v>54660.5</v>
+        <v>54555</v>
       </c>
       <c r="D141" t="n">
-        <v>54504.1</v>
+        <v>54131.9</v>
       </c>
       <c r="E141" t="n">
-        <v>54551.5</v>
+        <v>54198.2</v>
       </c>
       <c r="F141" t="n">
-        <v>32.34354621</v>
+        <v>34.3787407</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45543.5</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="B142" t="n">
-        <v>54553.3</v>
+        <v>54198.3</v>
       </c>
       <c r="C142" t="n">
-        <v>54555</v>
+        <v>54399.9</v>
       </c>
       <c r="D142" t="n">
-        <v>54131.9</v>
+        <v>54076.7</v>
       </c>
       <c r="E142" t="n">
-        <v>54198.2</v>
+        <v>54399.8</v>
       </c>
       <c r="F142" t="n">
-        <v>34.3787407</v>
+        <v>16.87738234</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45543.54166666666</v>
+        <v>45543.58333333334</v>
       </c>
       <c r="B143" t="n">
-        <v>54198.3</v>
+        <v>54399.9</v>
       </c>
       <c r="C143" t="n">
         <v>54399.9</v>
       </c>
       <c r="D143" t="n">
-        <v>54076.7</v>
+        <v>54100</v>
       </c>
       <c r="E143" t="n">
-        <v>54399.8</v>
+        <v>54150</v>
       </c>
       <c r="F143" t="n">
-        <v>16.87738234</v>
+        <v>20.05291836</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45543.58333333334</v>
+        <v>45543.625</v>
       </c>
       <c r="B144" t="n">
-        <v>54399.9</v>
+        <v>54150.1</v>
       </c>
       <c r="C144" t="n">
-        <v>54399.9</v>
+        <v>54151</v>
       </c>
       <c r="D144" t="n">
-        <v>54100</v>
+        <v>53643.7</v>
       </c>
       <c r="E144" t="n">
-        <v>54150</v>
+        <v>53686.6</v>
       </c>
       <c r="F144" t="n">
-        <v>20.05291836</v>
+        <v>106.36885184</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45543.625</v>
+        <v>45543.66666666666</v>
       </c>
       <c r="B145" t="n">
-        <v>54150.1</v>
+        <v>53689.6</v>
       </c>
       <c r="C145" t="n">
-        <v>54151</v>
+        <v>54008.6</v>
       </c>
       <c r="D145" t="n">
-        <v>53643.7</v>
+        <v>53636.6</v>
       </c>
       <c r="E145" t="n">
-        <v>53686.6</v>
+        <v>53918.3</v>
       </c>
       <c r="F145" t="n">
-        <v>106.36885184</v>
+        <v>53.34825894</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45543.66666666666</v>
+        <v>45543.70833333334</v>
       </c>
       <c r="B146" t="n">
-        <v>53689.6</v>
+        <v>53918.3</v>
       </c>
       <c r="C146" t="n">
-        <v>54008.6</v>
+        <v>54510.8</v>
       </c>
       <c r="D146" t="n">
-        <v>53636.6</v>
+        <v>53918.3</v>
       </c>
       <c r="E146" t="n">
-        <v>53918.3</v>
+        <v>54509</v>
       </c>
       <c r="F146" t="n">
-        <v>53.34825894</v>
+        <v>50.06330475</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45543.70833333334</v>
+        <v>45543.75</v>
       </c>
       <c r="B147" t="n">
-        <v>53918.3</v>
+        <v>54509</v>
       </c>
       <c r="C147" t="n">
-        <v>54510.8</v>
+        <v>54510.9</v>
       </c>
       <c r="D147" t="n">
-        <v>53918.3</v>
+        <v>54279.4</v>
       </c>
       <c r="E147" t="n">
-        <v>54509</v>
+        <v>54428</v>
       </c>
       <c r="F147" t="n">
-        <v>50.06330475</v>
+        <v>122.93167411</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45543.75</v>
+        <v>45543.79166666666</v>
       </c>
       <c r="B148" t="n">
-        <v>54509</v>
+        <v>54428</v>
       </c>
       <c r="C148" t="n">
-        <v>54510.9</v>
+        <v>54466.1</v>
       </c>
       <c r="D148" t="n">
-        <v>54279.4</v>
+        <v>54325.9</v>
       </c>
       <c r="E148" t="n">
-        <v>54428</v>
+        <v>54341.5</v>
       </c>
       <c r="F148" t="n">
-        <v>122.93167411</v>
+        <v>10.97314122</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45543.79166666666</v>
+        <v>45543.83333333334</v>
       </c>
       <c r="B149" t="n">
-        <v>54428</v>
+        <v>54341.5</v>
       </c>
       <c r="C149" t="n">
-        <v>54466.1</v>
+        <v>54380.2</v>
       </c>
       <c r="D149" t="n">
-        <v>54325.9</v>
+        <v>54186.1</v>
       </c>
       <c r="E149" t="n">
-        <v>54341.5</v>
+        <v>54380</v>
       </c>
       <c r="F149" t="n">
-        <v>10.97314122</v>
+        <v>13.63001727</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45543.83333333334</v>
+        <v>45543.875</v>
       </c>
       <c r="B150" t="n">
-        <v>54341.5</v>
+        <v>54380.1</v>
       </c>
       <c r="C150" t="n">
-        <v>54380.2</v>
+        <v>54570.2</v>
       </c>
       <c r="D150" t="n">
-        <v>54186.1</v>
+        <v>54345.1</v>
       </c>
       <c r="E150" t="n">
-        <v>54380</v>
+        <v>54465.2</v>
       </c>
       <c r="F150" t="n">
-        <v>13.63001727</v>
+        <v>30.41859799</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45543.875</v>
+        <v>45543.91666666666</v>
       </c>
       <c r="B151" t="n">
-        <v>54380.1</v>
+        <v>54465.2</v>
       </c>
       <c r="C151" t="n">
-        <v>54570.2</v>
+        <v>55317.6</v>
       </c>
       <c r="D151" t="n">
-        <v>54345.1</v>
+        <v>54365.8</v>
       </c>
       <c r="E151" t="n">
-        <v>54465.2</v>
+        <v>54526.4</v>
       </c>
       <c r="F151" t="n">
-        <v>30.41859799</v>
+        <v>253.41859302</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45543.91666666666</v>
+        <v>45543.95833333334</v>
       </c>
       <c r="B152" t="n">
-        <v>54465.2</v>
+        <v>54533.2</v>
       </c>
       <c r="C152" t="n">
-        <v>55317.6</v>
+        <v>54943.4</v>
       </c>
       <c r="D152" t="n">
-        <v>54365.8</v>
+        <v>54464.2</v>
       </c>
       <c r="E152" t="n">
-        <v>54526.4</v>
+        <v>54856.8</v>
       </c>
       <c r="F152" t="n">
-        <v>253.41859302</v>
+        <v>32.52291682</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45543.95833333334</v>
+        <v>45544</v>
       </c>
       <c r="B153" t="n">
-        <v>54533.2</v>
+        <v>54856.9</v>
       </c>
       <c r="C153" t="n">
-        <v>54943.4</v>
+        <v>55198.8</v>
       </c>
       <c r="D153" t="n">
-        <v>54464.2</v>
+        <v>54739.4</v>
       </c>
       <c r="E153" t="n">
-        <v>54856.8</v>
+        <v>55065.2</v>
       </c>
       <c r="F153" t="n">
-        <v>32.52291682</v>
+        <v>109.43843154</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45544</v>
+        <v>45544.04166666666</v>
       </c>
       <c r="B154" t="n">
-        <v>54856.9</v>
+        <v>55065.2</v>
       </c>
       <c r="C154" t="n">
-        <v>55198.8</v>
+        <v>55371</v>
       </c>
       <c r="D154" t="n">
-        <v>54739.4</v>
+        <v>54914.5</v>
       </c>
       <c r="E154" t="n">
-        <v>55065.2</v>
+        <v>55098.6</v>
       </c>
       <c r="F154" t="n">
-        <v>109.43843154</v>
+        <v>50.89663273</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45544.04166666666</v>
+        <v>45544.08333333334</v>
       </c>
       <c r="B155" t="n">
-        <v>55065.2</v>
+        <v>55098.7</v>
       </c>
       <c r="C155" t="n">
-        <v>55371</v>
+        <v>55122.4</v>
       </c>
       <c r="D155" t="n">
-        <v>54914.5</v>
+        <v>54846.9</v>
       </c>
       <c r="E155" t="n">
-        <v>55098.6</v>
+        <v>55113.3</v>
       </c>
       <c r="F155" t="n">
-        <v>50.89663273</v>
+        <v>11.00599009</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45544.08333333334</v>
+        <v>45544.125</v>
       </c>
       <c r="B156" t="n">
-        <v>55098.7</v>
+        <v>55113.4</v>
       </c>
       <c r="C156" t="n">
-        <v>55122.4</v>
+        <v>55183.6</v>
       </c>
       <c r="D156" t="n">
-        <v>54846.9</v>
+        <v>54818.3</v>
       </c>
       <c r="E156" t="n">
-        <v>55113.3</v>
+        <v>55117</v>
       </c>
       <c r="F156" t="n">
-        <v>11.00599009</v>
+        <v>31.10210406</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45544.125</v>
+        <v>45544.16666666666</v>
       </c>
       <c r="B157" t="n">
-        <v>55113.4</v>
+        <v>55118.2</v>
       </c>
       <c r="C157" t="n">
-        <v>55183.6</v>
+        <v>55147.1</v>
       </c>
       <c r="D157" t="n">
-        <v>54818.3</v>
+        <v>54890</v>
       </c>
       <c r="E157" t="n">
-        <v>55117</v>
+        <v>54890</v>
       </c>
       <c r="F157" t="n">
-        <v>31.10210406</v>
+        <v>18.80635264</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45544.16666666666</v>
+        <v>45544.20833333334</v>
       </c>
       <c r="B158" t="n">
-        <v>55118.2</v>
+        <v>54890.1</v>
       </c>
       <c r="C158" t="n">
-        <v>55147.1</v>
+        <v>54900</v>
       </c>
       <c r="D158" t="n">
-        <v>54890</v>
+        <v>54580.3</v>
       </c>
       <c r="E158" t="n">
-        <v>54890</v>
+        <v>54657.9</v>
       </c>
       <c r="F158" t="n">
-        <v>18.80635264</v>
+        <v>28.77866165</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45544.20833333334</v>
+        <v>45544.25</v>
       </c>
       <c r="B159" t="n">
-        <v>54890.1</v>
+        <v>54668.3</v>
       </c>
       <c r="C159" t="n">
-        <v>54900</v>
+        <v>54930.2</v>
       </c>
       <c r="D159" t="n">
-        <v>54580.3</v>
+        <v>54640.6</v>
       </c>
       <c r="E159" t="n">
-        <v>54657.9</v>
+        <v>54890.5</v>
       </c>
       <c r="F159" t="n">
-        <v>28.77866165</v>
+        <v>10.78709476</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45544.25</v>
+        <v>45544.29166666666</v>
       </c>
       <c r="B160" t="n">
-        <v>54668.3</v>
+        <v>54890.5</v>
       </c>
       <c r="C160" t="n">
-        <v>54930.2</v>
+        <v>54994.7</v>
       </c>
       <c r="D160" t="n">
-        <v>54640.6</v>
+        <v>54760</v>
       </c>
       <c r="E160" t="n">
-        <v>54890.5</v>
+        <v>54974.4</v>
       </c>
       <c r="F160" t="n">
-        <v>10.78709476</v>
+        <v>15.15384588</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45544.29166666666</v>
+        <v>45544.33333333334</v>
       </c>
       <c r="B161" t="n">
-        <v>54890.5</v>
+        <v>54968.6</v>
       </c>
       <c r="C161" t="n">
-        <v>54994.7</v>
+        <v>55300</v>
       </c>
       <c r="D161" t="n">
-        <v>54760</v>
+        <v>54968.6</v>
       </c>
       <c r="E161" t="n">
-        <v>54974.4</v>
+        <v>55228.2</v>
       </c>
       <c r="F161" t="n">
-        <v>15.15384588</v>
+        <v>21.7036124</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45544.33333333334</v>
+        <v>45544.375</v>
       </c>
       <c r="B162" t="n">
-        <v>54968.6</v>
+        <v>55228.3</v>
       </c>
       <c r="C162" t="n">
-        <v>55300</v>
+        <v>55500</v>
       </c>
       <c r="D162" t="n">
-        <v>54968.6</v>
+        <v>55132.3</v>
       </c>
       <c r="E162" t="n">
-        <v>55228.2</v>
+        <v>55155</v>
       </c>
       <c r="F162" t="n">
-        <v>21.7036124</v>
+        <v>34.5143033</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45544.375</v>
+        <v>45544.41666666666</v>
       </c>
       <c r="B163" t="n">
-        <v>55228.3</v>
+        <v>55155.1</v>
       </c>
       <c r="C163" t="n">
-        <v>55500</v>
+        <v>55433.4</v>
       </c>
       <c r="D163" t="n">
-        <v>55132.3</v>
+        <v>55098.5</v>
       </c>
       <c r="E163" t="n">
-        <v>55155</v>
+        <v>55380</v>
       </c>
       <c r="F163" t="n">
-        <v>34.5143033</v>
+        <v>40.86992649</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45544.41666666666</v>
+        <v>45544.45833333334</v>
       </c>
       <c r="B164" t="n">
-        <v>55155.1</v>
+        <v>55380.1</v>
       </c>
       <c r="C164" t="n">
-        <v>55433.4</v>
+        <v>55380.1</v>
       </c>
       <c r="D164" t="n">
-        <v>55098.5</v>
+        <v>55183.7</v>
       </c>
       <c r="E164" t="n">
-        <v>55380</v>
+        <v>55245</v>
       </c>
       <c r="F164" t="n">
-        <v>40.86992649</v>
+        <v>41.46124632</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45544.45833333334</v>
+        <v>45544.5</v>
       </c>
       <c r="B165" t="n">
-        <v>55380.1</v>
+        <v>55245</v>
       </c>
       <c r="C165" t="n">
-        <v>55380.1</v>
+        <v>55333.7</v>
       </c>
       <c r="D165" t="n">
-        <v>55183.7</v>
+        <v>54975.9</v>
       </c>
       <c r="E165" t="n">
-        <v>55245</v>
+        <v>55333.7</v>
       </c>
       <c r="F165" t="n">
-        <v>41.46124632</v>
+        <v>36.69056772</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45544.5</v>
+        <v>45544.54166666666</v>
       </c>
       <c r="B166" t="n">
-        <v>55245</v>
+        <v>55333.7</v>
       </c>
       <c r="C166" t="n">
-        <v>55333.7</v>
+        <v>55756.4</v>
       </c>
       <c r="D166" t="n">
-        <v>54975.9</v>
+        <v>55278.4</v>
       </c>
       <c r="E166" t="n">
-        <v>55333.7</v>
+        <v>55694.1</v>
       </c>
       <c r="F166" t="n">
-        <v>36.69056772</v>
+        <v>119.28896421</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45544.54166666666</v>
+        <v>45544.58333333334</v>
       </c>
       <c r="B167" t="n">
-        <v>55333.7</v>
+        <v>55691.7</v>
       </c>
       <c r="C167" t="n">
-        <v>55543.3</v>
+        <v>55738.6</v>
       </c>
       <c r="D167" t="n">
-        <v>55278.4</v>
+        <v>55493.9</v>
       </c>
       <c r="E167" t="n">
-        <v>55471.2</v>
+        <v>55594</v>
       </c>
       <c r="F167" t="n">
-        <v>69.56341494999999</v>
+        <v>15.77851292</v>
       </c>
     </row>
   </sheetData>
@@ -3845,3322 +3845,3322 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45537.66666666666</v>
+        <v>45537.70833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>2515.09</v>
+        <v>2511.51</v>
       </c>
       <c r="C2" t="n">
-        <v>2520.96</v>
+        <v>2523.66</v>
       </c>
       <c r="D2" t="n">
-        <v>2506.27</v>
+        <v>2511.51</v>
       </c>
       <c r="E2" t="n">
-        <v>2510.96</v>
+        <v>2522.79</v>
       </c>
       <c r="F2" t="n">
-        <v>105.11776642</v>
+        <v>137.18667503</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45537.70833333334</v>
+        <v>45537.75</v>
       </c>
       <c r="B3" t="n">
-        <v>2511.51</v>
+        <v>2522.66</v>
       </c>
       <c r="C3" t="n">
-        <v>2523.66</v>
+        <v>2529.68</v>
       </c>
       <c r="D3" t="n">
-        <v>2511.51</v>
+        <v>2516.54</v>
       </c>
       <c r="E3" t="n">
-        <v>2522.79</v>
+        <v>2524.08</v>
       </c>
       <c r="F3" t="n">
-        <v>137.18667503</v>
+        <v>208.45622028</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45537.75</v>
+        <v>45537.79166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>2522.66</v>
+        <v>2523.69</v>
       </c>
       <c r="C4" t="n">
-        <v>2529.68</v>
+        <v>2524.74</v>
       </c>
       <c r="D4" t="n">
-        <v>2516.54</v>
+        <v>2519.86</v>
       </c>
       <c r="E4" t="n">
-        <v>2524.08</v>
+        <v>2523.93</v>
       </c>
       <c r="F4" t="n">
-        <v>208.45622028</v>
+        <v>95.95316228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45537.79166666666</v>
+        <v>45537.83333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>2523.69</v>
+        <v>2524.4</v>
       </c>
       <c r="C5" t="n">
-        <v>2524.74</v>
+        <v>2564.36</v>
       </c>
       <c r="D5" t="n">
-        <v>2519.86</v>
+        <v>2522.51</v>
       </c>
       <c r="E5" t="n">
-        <v>2523.93</v>
+        <v>2556.22</v>
       </c>
       <c r="F5" t="n">
-        <v>95.95316228</v>
+        <v>976.80492187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537.83333333334</v>
+        <v>45537.875</v>
       </c>
       <c r="B6" t="n">
-        <v>2524.4</v>
+        <v>2556.21</v>
       </c>
       <c r="C6" t="n">
-        <v>2564.36</v>
+        <v>2561.45</v>
       </c>
       <c r="D6" t="n">
-        <v>2522.51</v>
+        <v>2537.52</v>
       </c>
       <c r="E6" t="n">
-        <v>2556.22</v>
+        <v>2546.89</v>
       </c>
       <c r="F6" t="n">
-        <v>976.80492187</v>
+        <v>218.29629431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45537.875</v>
+        <v>45537.91666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>2556.21</v>
+        <v>2544.95</v>
       </c>
       <c r="C7" t="n">
-        <v>2561.45</v>
+        <v>2547.43</v>
       </c>
       <c r="D7" t="n">
-        <v>2537.52</v>
+        <v>2541.44</v>
       </c>
       <c r="E7" t="n">
-        <v>2546.89</v>
+        <v>2544.01</v>
       </c>
       <c r="F7" t="n">
-        <v>218.29629431</v>
+        <v>100.2577235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45537.91666666666</v>
+        <v>45537.95833333334</v>
       </c>
       <c r="B8" t="n">
-        <v>2544.95</v>
+        <v>2544.02</v>
       </c>
       <c r="C8" t="n">
-        <v>2547.43</v>
+        <v>2545.96</v>
       </c>
       <c r="D8" t="n">
-        <v>2541.44</v>
+        <v>2534.57</v>
       </c>
       <c r="E8" t="n">
-        <v>2544.01</v>
+        <v>2538.48</v>
       </c>
       <c r="F8" t="n">
-        <v>100.2577235</v>
+        <v>130.44683531</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45537.95833333334</v>
+        <v>45538</v>
       </c>
       <c r="B9" t="n">
-        <v>2544.02</v>
+        <v>2538.49</v>
       </c>
       <c r="C9" t="n">
-        <v>2545.96</v>
+        <v>2538.49</v>
       </c>
       <c r="D9" t="n">
-        <v>2534.57</v>
+        <v>2528.72</v>
       </c>
       <c r="E9" t="n">
-        <v>2538.48</v>
+        <v>2534.74</v>
       </c>
       <c r="F9" t="n">
-        <v>130.44683531</v>
+        <v>61.16489908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45538</v>
+        <v>45538.04166666666</v>
       </c>
       <c r="B10" t="n">
-        <v>2538.49</v>
+        <v>2534.75</v>
       </c>
       <c r="C10" t="n">
-        <v>2538.49</v>
+        <v>2541.91</v>
       </c>
       <c r="D10" t="n">
-        <v>2528.72</v>
+        <v>2527.87</v>
       </c>
       <c r="E10" t="n">
-        <v>2534.74</v>
+        <v>2534.29</v>
       </c>
       <c r="F10" t="n">
-        <v>61.16489908</v>
+        <v>92.02302862000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45538.04166666666</v>
+        <v>45538.08333333334</v>
       </c>
       <c r="B11" t="n">
-        <v>2534.75</v>
+        <v>2534.28</v>
       </c>
       <c r="C11" t="n">
-        <v>2541.91</v>
+        <v>2551.53</v>
       </c>
       <c r="D11" t="n">
-        <v>2527.87</v>
+        <v>2530</v>
       </c>
       <c r="E11" t="n">
-        <v>2534.29</v>
+        <v>2530</v>
       </c>
       <c r="F11" t="n">
-        <v>92.02302862000001</v>
+        <v>80.71875896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45538.08333333334</v>
+        <v>45538.125</v>
       </c>
       <c r="B12" t="n">
-        <v>2534.28</v>
+        <v>2530</v>
       </c>
       <c r="C12" t="n">
-        <v>2551.53</v>
+        <v>2530.01</v>
       </c>
       <c r="D12" t="n">
-        <v>2530</v>
+        <v>2515.76</v>
       </c>
       <c r="E12" t="n">
-        <v>2530</v>
+        <v>2515.77</v>
       </c>
       <c r="F12" t="n">
-        <v>80.71875896</v>
+        <v>205.11846297</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45538.125</v>
+        <v>45538.16666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>2530</v>
+        <v>2515.78</v>
       </c>
       <c r="C13" t="n">
-        <v>2530.01</v>
+        <v>2521.8</v>
       </c>
       <c r="D13" t="n">
-        <v>2515.76</v>
+        <v>2513.61</v>
       </c>
       <c r="E13" t="n">
-        <v>2515.77</v>
+        <v>2516.09</v>
       </c>
       <c r="F13" t="n">
-        <v>205.11846297</v>
+        <v>80.39960349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45538.16666666666</v>
+        <v>45538.20833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>2515.78</v>
+        <v>2517.34</v>
       </c>
       <c r="C14" t="n">
-        <v>2521.8</v>
+        <v>2525.39</v>
       </c>
       <c r="D14" t="n">
-        <v>2513.61</v>
+        <v>2516.43</v>
       </c>
       <c r="E14" t="n">
-        <v>2516.09</v>
+        <v>2521.2</v>
       </c>
       <c r="F14" t="n">
-        <v>80.39960349</v>
+        <v>722.2749608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45538.20833333334</v>
+        <v>45538.25</v>
       </c>
       <c r="B15" t="n">
-        <v>2517.34</v>
+        <v>2520.94</v>
       </c>
       <c r="C15" t="n">
-        <v>2525.39</v>
+        <v>2520.94</v>
       </c>
       <c r="D15" t="n">
-        <v>2516.43</v>
+        <v>2513.47</v>
       </c>
       <c r="E15" t="n">
-        <v>2521.2</v>
+        <v>2513.93</v>
       </c>
       <c r="F15" t="n">
-        <v>722.2749608</v>
+        <v>48.04355734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45538.25</v>
+        <v>45538.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>2520.94</v>
+        <v>2513.47</v>
       </c>
       <c r="C16" t="n">
-        <v>2520.94</v>
+        <v>2523.19</v>
       </c>
       <c r="D16" t="n">
         <v>2513.47</v>
       </c>
       <c r="E16" t="n">
-        <v>2513.93</v>
+        <v>2520.38</v>
       </c>
       <c r="F16" t="n">
-        <v>48.04355734</v>
+        <v>38.64648451</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45538.29166666666</v>
+        <v>45538.33333333334</v>
       </c>
       <c r="B17" t="n">
-        <v>2513.47</v>
+        <v>2520.23</v>
       </c>
       <c r="C17" t="n">
-        <v>2523.19</v>
+        <v>2520.23</v>
       </c>
       <c r="D17" t="n">
-        <v>2513.47</v>
+        <v>2495.58</v>
       </c>
       <c r="E17" t="n">
-        <v>2520.38</v>
+        <v>2500.3</v>
       </c>
       <c r="F17" t="n">
-        <v>38.64648451</v>
+        <v>781.2630842</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45538.33333333334</v>
+        <v>45538.375</v>
       </c>
       <c r="B18" t="n">
-        <v>2520.23</v>
+        <v>2499.74</v>
       </c>
       <c r="C18" t="n">
-        <v>2520.23</v>
+        <v>2507.43</v>
       </c>
       <c r="D18" t="n">
-        <v>2495.58</v>
+        <v>2497.85</v>
       </c>
       <c r="E18" t="n">
-        <v>2500.3</v>
+        <v>2503.11</v>
       </c>
       <c r="F18" t="n">
-        <v>781.2630842</v>
+        <v>215.44200023</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45538.375</v>
+        <v>45538.41666666666</v>
       </c>
       <c r="B19" t="n">
-        <v>2499.74</v>
+        <v>2502.93</v>
       </c>
       <c r="C19" t="n">
-        <v>2507.43</v>
+        <v>2512.05</v>
       </c>
       <c r="D19" t="n">
-        <v>2497.85</v>
+        <v>2500</v>
       </c>
       <c r="E19" t="n">
-        <v>2503.11</v>
+        <v>2504.58</v>
       </c>
       <c r="F19" t="n">
-        <v>215.44200023</v>
+        <v>59.3709534</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45538.41666666666</v>
+        <v>45538.45833333334</v>
       </c>
       <c r="B20" t="n">
-        <v>2502.93</v>
+        <v>2504.58</v>
       </c>
       <c r="C20" t="n">
-        <v>2512.05</v>
+        <v>2510.14</v>
       </c>
       <c r="D20" t="n">
-        <v>2500</v>
+        <v>2502.59</v>
       </c>
       <c r="E20" t="n">
-        <v>2504.58</v>
+        <v>2508.27</v>
       </c>
       <c r="F20" t="n">
-        <v>59.3709534</v>
+        <v>47.67759126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45538.45833333334</v>
+        <v>45538.5</v>
       </c>
       <c r="B21" t="n">
-        <v>2504.58</v>
+        <v>2508.87</v>
       </c>
       <c r="C21" t="n">
-        <v>2510.14</v>
+        <v>2516.85</v>
       </c>
       <c r="D21" t="n">
-        <v>2502.59</v>
+        <v>2506.29</v>
       </c>
       <c r="E21" t="n">
-        <v>2508.27</v>
+        <v>2511.91</v>
       </c>
       <c r="F21" t="n">
-        <v>47.67759126</v>
+        <v>146.19845227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45538.5</v>
+        <v>45538.54166666666</v>
       </c>
       <c r="B22" t="n">
-        <v>2508.87</v>
+        <v>2511.92</v>
       </c>
       <c r="C22" t="n">
-        <v>2516.85</v>
+        <v>2516.81</v>
       </c>
       <c r="D22" t="n">
-        <v>2506.29</v>
+        <v>2460</v>
       </c>
       <c r="E22" t="n">
-        <v>2511.91</v>
+        <v>2464.64</v>
       </c>
       <c r="F22" t="n">
-        <v>146.19845227</v>
+        <v>696.5574978</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45538.54166666666</v>
+        <v>45538.58333333334</v>
       </c>
       <c r="B23" t="n">
-        <v>2511.92</v>
+        <v>2464.13</v>
       </c>
       <c r="C23" t="n">
-        <v>2516.81</v>
+        <v>2467.13</v>
       </c>
       <c r="D23" t="n">
-        <v>2460</v>
+        <v>2443.14</v>
       </c>
       <c r="E23" t="n">
-        <v>2464.64</v>
+        <v>2445.36</v>
       </c>
       <c r="F23" t="n">
-        <v>696.5574978</v>
+        <v>995.35920506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45538.58333333334</v>
+        <v>45538.625</v>
       </c>
       <c r="B24" t="n">
-        <v>2464.13</v>
+        <v>2445.9</v>
       </c>
       <c r="C24" t="n">
-        <v>2467.13</v>
+        <v>2453.97</v>
       </c>
       <c r="D24" t="n">
-        <v>2443.14</v>
+        <v>2436.44</v>
       </c>
       <c r="E24" t="n">
-        <v>2445.36</v>
+        <v>2441.9</v>
       </c>
       <c r="F24" t="n">
-        <v>995.35920506</v>
+        <v>642.64490184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45538.625</v>
+        <v>45538.66666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>2445.9</v>
+        <v>2443.9</v>
       </c>
       <c r="C25" t="n">
-        <v>2453.97</v>
+        <v>2446.94</v>
       </c>
       <c r="D25" t="n">
-        <v>2436.44</v>
+        <v>2437.22</v>
       </c>
       <c r="E25" t="n">
-        <v>2441.9</v>
+        <v>2439.86</v>
       </c>
       <c r="F25" t="n">
-        <v>642.64490184</v>
+        <v>871.52140862</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45538.66666666666</v>
+        <v>45538.70833333334</v>
       </c>
       <c r="B26" t="n">
-        <v>2443.9</v>
+        <v>2439.88</v>
       </c>
       <c r="C26" t="n">
-        <v>2446.94</v>
+        <v>2461.47</v>
       </c>
       <c r="D26" t="n">
-        <v>2437.22</v>
+        <v>2438.96</v>
       </c>
       <c r="E26" t="n">
-        <v>2439.86</v>
+        <v>2442.19</v>
       </c>
       <c r="F26" t="n">
-        <v>871.52140862</v>
+        <v>752.97807665</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45538.70833333334</v>
+        <v>45538.75</v>
       </c>
       <c r="B27" t="n">
-        <v>2439.88</v>
+        <v>2442</v>
       </c>
       <c r="C27" t="n">
-        <v>2461.47</v>
+        <v>2455.61</v>
       </c>
       <c r="D27" t="n">
-        <v>2438.96</v>
+        <v>2436</v>
       </c>
       <c r="E27" t="n">
-        <v>2442.19</v>
+        <v>2451.05</v>
       </c>
       <c r="F27" t="n">
-        <v>752.97807665</v>
+        <v>611.14568619</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45538.75</v>
+        <v>45538.79166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>2442</v>
+        <v>2451.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2455.61</v>
+        <v>2467.34</v>
       </c>
       <c r="D28" t="n">
-        <v>2436</v>
+        <v>2445.42</v>
       </c>
       <c r="E28" t="n">
-        <v>2451.05</v>
+        <v>2445.42</v>
       </c>
       <c r="F28" t="n">
-        <v>611.14568619</v>
+        <v>748.8080943799999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45538.79166666666</v>
+        <v>45538.83333333334</v>
       </c>
       <c r="B29" t="n">
-        <v>2451.05</v>
+        <v>2446.16</v>
       </c>
       <c r="C29" t="n">
-        <v>2467.34</v>
+        <v>2463.53</v>
       </c>
       <c r="D29" t="n">
-        <v>2445.42</v>
+        <v>2446.16</v>
       </c>
       <c r="E29" t="n">
-        <v>2445.42</v>
+        <v>2461.73</v>
       </c>
       <c r="F29" t="n">
-        <v>748.8080943799999</v>
+        <v>425.99524386</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45538.83333333334</v>
+        <v>45538.875</v>
       </c>
       <c r="B30" t="n">
-        <v>2446.16</v>
+        <v>2461.73</v>
       </c>
       <c r="C30" t="n">
-        <v>2463.53</v>
+        <v>2469.39</v>
       </c>
       <c r="D30" t="n">
-        <v>2446.16</v>
+        <v>2449.31</v>
       </c>
       <c r="E30" t="n">
-        <v>2461.73</v>
+        <v>2463.62</v>
       </c>
       <c r="F30" t="n">
-        <v>425.99524386</v>
+        <v>656.37964487</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45538.875</v>
+        <v>45538.91666666666</v>
       </c>
       <c r="B31" t="n">
-        <v>2461.73</v>
+        <v>2463.62</v>
       </c>
       <c r="C31" t="n">
-        <v>2469.39</v>
+        <v>2464.09</v>
       </c>
       <c r="D31" t="n">
-        <v>2449.31</v>
+        <v>2453.18</v>
       </c>
       <c r="E31" t="n">
-        <v>2463.62</v>
+        <v>2453.18</v>
       </c>
       <c r="F31" t="n">
-        <v>656.37964487</v>
+        <v>239.70520025</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45538.91666666666</v>
+        <v>45538.95833333334</v>
       </c>
       <c r="B32" t="n">
-        <v>2463.62</v>
+        <v>2452.89</v>
       </c>
       <c r="C32" t="n">
-        <v>2464.09</v>
+        <v>2453.9</v>
       </c>
       <c r="D32" t="n">
-        <v>2453.18</v>
+        <v>2414.3</v>
       </c>
       <c r="E32" t="n">
-        <v>2453.18</v>
+        <v>2422.26</v>
       </c>
       <c r="F32" t="n">
-        <v>239.70520025</v>
+        <v>881.85736443</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45538.95833333334</v>
+        <v>45539</v>
       </c>
       <c r="B33" t="n">
-        <v>2452.89</v>
+        <v>2424.81</v>
       </c>
       <c r="C33" t="n">
-        <v>2453.9</v>
+        <v>2448.16</v>
       </c>
       <c r="D33" t="n">
-        <v>2414.3</v>
+        <v>2391.37</v>
       </c>
       <c r="E33" t="n">
-        <v>2422.26</v>
+        <v>2395.73</v>
       </c>
       <c r="F33" t="n">
-        <v>881.85736443</v>
+        <v>725.73469711</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45539</v>
+        <v>45539.04166666666</v>
       </c>
       <c r="B34" t="n">
-        <v>2424.81</v>
+        <v>2395.78</v>
       </c>
       <c r="C34" t="n">
-        <v>2448.16</v>
+        <v>2395.95</v>
       </c>
       <c r="D34" t="n">
-        <v>2391.37</v>
+        <v>2308</v>
       </c>
       <c r="E34" t="n">
-        <v>2395.73</v>
+        <v>2365.51</v>
       </c>
       <c r="F34" t="n">
-        <v>725.73469711</v>
+        <v>2954.01979959</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45539.04166666666</v>
+        <v>45539.08333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>2395.78</v>
+        <v>2365.49</v>
       </c>
       <c r="C35" t="n">
-        <v>2395.95</v>
+        <v>2370.21</v>
       </c>
       <c r="D35" t="n">
-        <v>2308</v>
+        <v>2356.03</v>
       </c>
       <c r="E35" t="n">
-        <v>2365.51</v>
+        <v>2364.36</v>
       </c>
       <c r="F35" t="n">
-        <v>2954.01979959</v>
+        <v>2041.65799756</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45539.08333333334</v>
+        <v>45539.125</v>
       </c>
       <c r="B36" t="n">
-        <v>2365.49</v>
+        <v>2364.35</v>
       </c>
       <c r="C36" t="n">
-        <v>2370.21</v>
+        <v>2381.6</v>
       </c>
       <c r="D36" t="n">
-        <v>2356.03</v>
+        <v>2364.35</v>
       </c>
       <c r="E36" t="n">
-        <v>2364.36</v>
+        <v>2372.67</v>
       </c>
       <c r="F36" t="n">
-        <v>2041.65799756</v>
+        <v>532.73716538</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45539.125</v>
+        <v>45539.16666666666</v>
       </c>
       <c r="B37" t="n">
-        <v>2364.35</v>
+        <v>2372.68</v>
       </c>
       <c r="C37" t="n">
-        <v>2381.6</v>
+        <v>2377.88</v>
       </c>
       <c r="D37" t="n">
-        <v>2364.35</v>
+        <v>2365.57</v>
       </c>
       <c r="E37" t="n">
-        <v>2372.67</v>
+        <v>2377.88</v>
       </c>
       <c r="F37" t="n">
-        <v>532.73716538</v>
+        <v>607.51668193</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45539.16666666666</v>
+        <v>45539.20833333334</v>
       </c>
       <c r="B38" t="n">
-        <v>2372.68</v>
+        <v>2377.6</v>
       </c>
       <c r="C38" t="n">
-        <v>2377.88</v>
+        <v>2380.95</v>
       </c>
       <c r="D38" t="n">
-        <v>2365.57</v>
+        <v>2363.72</v>
       </c>
       <c r="E38" t="n">
-        <v>2377.88</v>
+        <v>2364.87</v>
       </c>
       <c r="F38" t="n">
-        <v>607.51668193</v>
+        <v>490.10212531</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45539.20833333334</v>
+        <v>45539.25</v>
       </c>
       <c r="B39" t="n">
-        <v>2377.6</v>
+        <v>2364.86</v>
       </c>
       <c r="C39" t="n">
-        <v>2380.95</v>
+        <v>2382.67</v>
       </c>
       <c r="D39" t="n">
-        <v>2363.72</v>
+        <v>2364.86</v>
       </c>
       <c r="E39" t="n">
-        <v>2364.87</v>
+        <v>2372.14</v>
       </c>
       <c r="F39" t="n">
-        <v>490.10212531</v>
+        <v>306.95003249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45539.25</v>
+        <v>45539.29166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>2364.86</v>
+        <v>2372.03</v>
       </c>
       <c r="C40" t="n">
-        <v>2382.67</v>
+        <v>2412.75</v>
       </c>
       <c r="D40" t="n">
-        <v>2364.86</v>
+        <v>2370.37</v>
       </c>
       <c r="E40" t="n">
-        <v>2372.14</v>
+        <v>2400.18</v>
       </c>
       <c r="F40" t="n">
-        <v>306.95003249</v>
+        <v>470.1515653</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45539.29166666666</v>
+        <v>45539.33333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>2372.03</v>
+        <v>2400.43</v>
       </c>
       <c r="C41" t="n">
-        <v>2412.75</v>
+        <v>2408.78</v>
       </c>
       <c r="D41" t="n">
-        <v>2370.37</v>
+        <v>2395.13</v>
       </c>
       <c r="E41" t="n">
-        <v>2400.18</v>
+        <v>2402.12</v>
       </c>
       <c r="F41" t="n">
-        <v>470.1515653</v>
+        <v>448.75111899</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45539.33333333334</v>
+        <v>45539.375</v>
       </c>
       <c r="B42" t="n">
-        <v>2400.43</v>
+        <v>2402.11</v>
       </c>
       <c r="C42" t="n">
-        <v>2408.78</v>
+        <v>2403.9</v>
       </c>
       <c r="D42" t="n">
-        <v>2395.13</v>
+        <v>2392.69</v>
       </c>
       <c r="E42" t="n">
-        <v>2402.12</v>
+        <v>2392.95</v>
       </c>
       <c r="F42" t="n">
-        <v>448.75111899</v>
+        <v>371.45359911</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45539.375</v>
+        <v>45539.41666666666</v>
       </c>
       <c r="B43" t="n">
-        <v>2402.11</v>
+        <v>2392.99</v>
       </c>
       <c r="C43" t="n">
-        <v>2403.9</v>
+        <v>2401.99</v>
       </c>
       <c r="D43" t="n">
-        <v>2392.69</v>
+        <v>2387.99</v>
       </c>
       <c r="E43" t="n">
-        <v>2392.95</v>
+        <v>2389.59</v>
       </c>
       <c r="F43" t="n">
-        <v>371.45359911</v>
+        <v>281.68146375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45539.41666666666</v>
+        <v>45539.45833333334</v>
       </c>
       <c r="B44" t="n">
-        <v>2392.99</v>
+        <v>2389.7</v>
       </c>
       <c r="C44" t="n">
-        <v>2401.99</v>
+        <v>2401.8</v>
       </c>
       <c r="D44" t="n">
-        <v>2387.99</v>
+        <v>2388.88</v>
       </c>
       <c r="E44" t="n">
-        <v>2389.59</v>
+        <v>2400.2</v>
       </c>
       <c r="F44" t="n">
-        <v>281.68146375</v>
+        <v>303.52616642</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45539.45833333334</v>
+        <v>45539.5</v>
       </c>
       <c r="B45" t="n">
-        <v>2389.7</v>
+        <v>2400.21</v>
       </c>
       <c r="C45" t="n">
-        <v>2401.8</v>
+        <v>2412</v>
       </c>
       <c r="D45" t="n">
-        <v>2388.88</v>
+        <v>2396.66</v>
       </c>
       <c r="E45" t="n">
-        <v>2400.2</v>
+        <v>2405</v>
       </c>
       <c r="F45" t="n">
-        <v>303.52616642</v>
+        <v>400.26090158</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45539.5</v>
+        <v>45539.54166666666</v>
       </c>
       <c r="B46" t="n">
-        <v>2400.21</v>
+        <v>2403.27</v>
       </c>
       <c r="C46" t="n">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="D46" t="n">
-        <v>2396.66</v>
+        <v>2394.8</v>
       </c>
       <c r="E46" t="n">
-        <v>2405</v>
+        <v>2403.44</v>
       </c>
       <c r="F46" t="n">
-        <v>400.26090158</v>
+        <v>124.42729971</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45539.54166666666</v>
+        <v>45539.58333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>2403.27</v>
+        <v>2403.43</v>
       </c>
       <c r="C47" t="n">
-        <v>2408</v>
+        <v>2448.58</v>
       </c>
       <c r="D47" t="n">
-        <v>2394.8</v>
+        <v>2393.79</v>
       </c>
       <c r="E47" t="n">
-        <v>2403.44</v>
+        <v>2437.82</v>
       </c>
       <c r="F47" t="n">
-        <v>124.42729971</v>
+        <v>707.0315574700001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45539.58333333334</v>
+        <v>45539.625</v>
       </c>
       <c r="B48" t="n">
-        <v>2403.43</v>
+        <v>2438.28</v>
       </c>
       <c r="C48" t="n">
-        <v>2448.58</v>
+        <v>2457.17</v>
       </c>
       <c r="D48" t="n">
-        <v>2393.79</v>
+        <v>2426.54</v>
       </c>
       <c r="E48" t="n">
-        <v>2437.82</v>
+        <v>2456.06</v>
       </c>
       <c r="F48" t="n">
-        <v>707.0315574700001</v>
+        <v>834.76307407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45539.625</v>
+        <v>45539.66666666666</v>
       </c>
       <c r="B49" t="n">
-        <v>2438.28</v>
+        <v>2455.7</v>
       </c>
       <c r="C49" t="n">
-        <v>2457.17</v>
+        <v>2488.55</v>
       </c>
       <c r="D49" t="n">
-        <v>2426.54</v>
+        <v>2450.83</v>
       </c>
       <c r="E49" t="n">
-        <v>2456.06</v>
+        <v>2477.07</v>
       </c>
       <c r="F49" t="n">
-        <v>834.76307407</v>
+        <v>286.72200984</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45539.66666666666</v>
+        <v>45539.70833333334</v>
       </c>
       <c r="B50" t="n">
-        <v>2455.7</v>
+        <v>2477.52</v>
       </c>
       <c r="C50" t="n">
-        <v>2488.55</v>
+        <v>2477.81</v>
       </c>
       <c r="D50" t="n">
-        <v>2450.83</v>
+        <v>2448.86</v>
       </c>
       <c r="E50" t="n">
-        <v>2477.07</v>
+        <v>2450.37</v>
       </c>
       <c r="F50" t="n">
-        <v>286.72200984</v>
+        <v>2827.12934868</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45539.70833333334</v>
+        <v>45539.75</v>
       </c>
       <c r="B51" t="n">
-        <v>2477.52</v>
+        <v>2449.19</v>
       </c>
       <c r="C51" t="n">
-        <v>2477.81</v>
+        <v>2455.67</v>
       </c>
       <c r="D51" t="n">
-        <v>2448.86</v>
+        <v>2440.59</v>
       </c>
       <c r="E51" t="n">
-        <v>2450.37</v>
+        <v>2442.23</v>
       </c>
       <c r="F51" t="n">
-        <v>2827.12934868</v>
+        <v>253.66930354</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45539.75</v>
+        <v>45539.79166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>2449.19</v>
+        <v>2442.23</v>
       </c>
       <c r="C52" t="n">
-        <v>2455.67</v>
+        <v>2454.3</v>
       </c>
       <c r="D52" t="n">
-        <v>2440.59</v>
+        <v>2440.92</v>
       </c>
       <c r="E52" t="n">
-        <v>2442.23</v>
+        <v>2451.93</v>
       </c>
       <c r="F52" t="n">
-        <v>253.66930354</v>
+        <v>441.68879797</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45539.79166666666</v>
+        <v>45539.83333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>2442.23</v>
+        <v>2451.93</v>
       </c>
       <c r="C53" t="n">
-        <v>2454.3</v>
+        <v>2457.4</v>
       </c>
       <c r="D53" t="n">
-        <v>2440.92</v>
+        <v>2446.27</v>
       </c>
       <c r="E53" t="n">
-        <v>2451.93</v>
+        <v>2455.69</v>
       </c>
       <c r="F53" t="n">
-        <v>441.68879797</v>
+        <v>90.71147023</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45539.83333333334</v>
+        <v>45539.875</v>
       </c>
       <c r="B54" t="n">
-        <v>2451.93</v>
+        <v>2455.28</v>
       </c>
       <c r="C54" t="n">
-        <v>2457.4</v>
+        <v>2463.93</v>
       </c>
       <c r="D54" t="n">
-        <v>2446.27</v>
+        <v>2451.08</v>
       </c>
       <c r="E54" t="n">
-        <v>2455.69</v>
+        <v>2462.93</v>
       </c>
       <c r="F54" t="n">
-        <v>90.71147023</v>
+        <v>243.88526675</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45539.875</v>
+        <v>45539.91666666666</v>
       </c>
       <c r="B55" t="n">
-        <v>2455.28</v>
+        <v>2463.04</v>
       </c>
       <c r="C55" t="n">
-        <v>2463.93</v>
+        <v>2467.97</v>
       </c>
       <c r="D55" t="n">
-        <v>2451.08</v>
+        <v>2458.8</v>
       </c>
       <c r="E55" t="n">
-        <v>2462.93</v>
+        <v>2462.22</v>
       </c>
       <c r="F55" t="n">
-        <v>243.88526675</v>
+        <v>80.17119932</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45539.91666666666</v>
+        <v>45539.95833333334</v>
       </c>
       <c r="B56" t="n">
-        <v>2463.04</v>
+        <v>2462.22</v>
       </c>
       <c r="C56" t="n">
-        <v>2467.97</v>
+        <v>2464.18</v>
       </c>
       <c r="D56" t="n">
-        <v>2458.8</v>
+        <v>2445.37</v>
       </c>
       <c r="E56" t="n">
-        <v>2462.22</v>
+        <v>2450.08</v>
       </c>
       <c r="F56" t="n">
-        <v>80.17119932</v>
+        <v>71.53226401000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45539.95833333334</v>
+        <v>45540</v>
       </c>
       <c r="B57" t="n">
-        <v>2462.22</v>
+        <v>2450.4</v>
       </c>
       <c r="C57" t="n">
-        <v>2464.18</v>
+        <v>2461.85</v>
       </c>
       <c r="D57" t="n">
-        <v>2445.37</v>
+        <v>2448</v>
       </c>
       <c r="E57" t="n">
-        <v>2450.08</v>
+        <v>2455.01</v>
       </c>
       <c r="F57" t="n">
-        <v>71.53226401000001</v>
+        <v>123.83480276</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45540</v>
+        <v>45540.04166666666</v>
       </c>
       <c r="B58" t="n">
-        <v>2450.4</v>
+        <v>2455.01</v>
       </c>
       <c r="C58" t="n">
-        <v>2461.85</v>
+        <v>2465.48</v>
       </c>
       <c r="D58" t="n">
-        <v>2448</v>
+        <v>2452.43</v>
       </c>
       <c r="E58" t="n">
-        <v>2455.01</v>
+        <v>2459.85</v>
       </c>
       <c r="F58" t="n">
-        <v>123.83480276</v>
+        <v>117.14823563</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45540.04166666666</v>
+        <v>45540.08333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>2455.01</v>
+        <v>2459.86</v>
       </c>
       <c r="C59" t="n">
-        <v>2465.48</v>
+        <v>2459.86</v>
       </c>
       <c r="D59" t="n">
-        <v>2452.43</v>
+        <v>2445.22</v>
       </c>
       <c r="E59" t="n">
-        <v>2459.85</v>
+        <v>2446.21</v>
       </c>
       <c r="F59" t="n">
-        <v>117.14823563</v>
+        <v>407.652466</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45540.08333333334</v>
+        <v>45540.125</v>
       </c>
       <c r="B60" t="n">
-        <v>2459.86</v>
+        <v>2446.21</v>
       </c>
       <c r="C60" t="n">
-        <v>2459.86</v>
+        <v>2446.21</v>
       </c>
       <c r="D60" t="n">
-        <v>2445.22</v>
+        <v>2404.47</v>
       </c>
       <c r="E60" t="n">
-        <v>2446.21</v>
+        <v>2404.47</v>
       </c>
       <c r="F60" t="n">
-        <v>407.652466</v>
+        <v>492.15682274</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45540.125</v>
+        <v>45540.16666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>2446.21</v>
+        <v>2404.7</v>
       </c>
       <c r="C61" t="n">
-        <v>2446.21</v>
+        <v>2417.45</v>
       </c>
       <c r="D61" t="n">
-        <v>2404.47</v>
+        <v>2402.75</v>
       </c>
       <c r="E61" t="n">
-        <v>2404.47</v>
+        <v>2414.09</v>
       </c>
       <c r="F61" t="n">
-        <v>492.15682274</v>
+        <v>97.77510399000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45540.16666666666</v>
+        <v>45540.20833333334</v>
       </c>
       <c r="B62" t="n">
-        <v>2404.7</v>
+        <v>2414.08</v>
       </c>
       <c r="C62" t="n">
-        <v>2417.45</v>
+        <v>2414.61</v>
       </c>
       <c r="D62" t="n">
-        <v>2402.75</v>
+        <v>2403.4</v>
       </c>
       <c r="E62" t="n">
-        <v>2414.09</v>
+        <v>2409.45</v>
       </c>
       <c r="F62" t="n">
-        <v>97.77510399000001</v>
+        <v>154.69139597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45540.20833333334</v>
+        <v>45540.25</v>
       </c>
       <c r="B63" t="n">
-        <v>2414.08</v>
+        <v>2409.45</v>
       </c>
       <c r="C63" t="n">
-        <v>2414.61</v>
+        <v>2409.45</v>
       </c>
       <c r="D63" t="n">
-        <v>2403.4</v>
+        <v>2377.36</v>
       </c>
       <c r="E63" t="n">
-        <v>2409.45</v>
+        <v>2399.12</v>
       </c>
       <c r="F63" t="n">
-        <v>154.69139597</v>
+        <v>253.14020419</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45540.25</v>
+        <v>45540.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>2409.45</v>
+        <v>2398.9</v>
       </c>
       <c r="C64" t="n">
-        <v>2409.45</v>
+        <v>2415.47</v>
       </c>
       <c r="D64" t="n">
-        <v>2377.36</v>
+        <v>2397.64</v>
       </c>
       <c r="E64" t="n">
-        <v>2399.12</v>
+        <v>2412.47</v>
       </c>
       <c r="F64" t="n">
-        <v>253.14020419</v>
+        <v>377.65128033</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45540.29166666666</v>
+        <v>45540.33333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>2398.9</v>
+        <v>2412.48</v>
       </c>
       <c r="C65" t="n">
-        <v>2415.47</v>
+        <v>2415.25</v>
       </c>
       <c r="D65" t="n">
-        <v>2397.64</v>
+        <v>2400.04</v>
       </c>
       <c r="E65" t="n">
-        <v>2412.47</v>
+        <v>2405.71</v>
       </c>
       <c r="F65" t="n">
-        <v>377.65128033</v>
+        <v>154.56941378</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45540.33333333334</v>
+        <v>45540.375</v>
       </c>
       <c r="B66" t="n">
-        <v>2412.48</v>
+        <v>2405.72</v>
       </c>
       <c r="C66" t="n">
-        <v>2415.25</v>
+        <v>2405.72</v>
       </c>
       <c r="D66" t="n">
-        <v>2400.04</v>
+        <v>2386.59</v>
       </c>
       <c r="E66" t="n">
-        <v>2405.71</v>
+        <v>2391.31</v>
       </c>
       <c r="F66" t="n">
-        <v>154.56941378</v>
+        <v>70.03372362</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45540.375</v>
+        <v>45540.41666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>2405.72</v>
+        <v>2391.32</v>
       </c>
       <c r="C67" t="n">
-        <v>2405.72</v>
+        <v>2393.89</v>
       </c>
       <c r="D67" t="n">
-        <v>2386.59</v>
+        <v>2383.46</v>
       </c>
       <c r="E67" t="n">
-        <v>2391.31</v>
+        <v>2392.01</v>
       </c>
       <c r="F67" t="n">
-        <v>70.03372362</v>
+        <v>303.88408809</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45540.41666666666</v>
+        <v>45540.45833333334</v>
       </c>
       <c r="B68" t="n">
-        <v>2391.32</v>
+        <v>2392</v>
       </c>
       <c r="C68" t="n">
-        <v>2393.89</v>
+        <v>2395.12</v>
       </c>
       <c r="D68" t="n">
-        <v>2383.46</v>
+        <v>2387.11</v>
       </c>
       <c r="E68" t="n">
-        <v>2392.01</v>
+        <v>2388.85</v>
       </c>
       <c r="F68" t="n">
-        <v>303.88408809</v>
+        <v>193.71810297</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45540.45833333334</v>
+        <v>45540.5</v>
       </c>
       <c r="B69" t="n">
-        <v>2392</v>
+        <v>2388.86</v>
       </c>
       <c r="C69" t="n">
-        <v>2395.12</v>
+        <v>2397.13</v>
       </c>
       <c r="D69" t="n">
-        <v>2387.11</v>
+        <v>2378.12</v>
       </c>
       <c r="E69" t="n">
-        <v>2388.85</v>
+        <v>2390.87</v>
       </c>
       <c r="F69" t="n">
-        <v>193.71810297</v>
+        <v>512.49793993</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45540.5</v>
+        <v>45540.54166666666</v>
       </c>
       <c r="B70" t="n">
-        <v>2388.86</v>
+        <v>2390.87</v>
       </c>
       <c r="C70" t="n">
-        <v>2397.13</v>
+        <v>2412.15</v>
       </c>
       <c r="D70" t="n">
-        <v>2378.12</v>
+        <v>2387.24</v>
       </c>
       <c r="E70" t="n">
-        <v>2390.87</v>
+        <v>2400.16</v>
       </c>
       <c r="F70" t="n">
-        <v>512.49793993</v>
+        <v>260.51828774</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45540.54166666666</v>
+        <v>45540.58333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>2390.87</v>
+        <v>2400.35</v>
       </c>
       <c r="C71" t="n">
-        <v>2412.15</v>
+        <v>2413.05</v>
       </c>
       <c r="D71" t="n">
-        <v>2387.24</v>
+        <v>2364.88</v>
       </c>
       <c r="E71" t="n">
-        <v>2400.16</v>
+        <v>2375.52</v>
       </c>
       <c r="F71" t="n">
-        <v>260.51828774</v>
+        <v>809.13428939</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45540.58333333334</v>
+        <v>45540.625</v>
       </c>
       <c r="B72" t="n">
-        <v>2400.35</v>
+        <v>2376.43</v>
       </c>
       <c r="C72" t="n">
-        <v>2413.05</v>
+        <v>2383.32</v>
       </c>
       <c r="D72" t="n">
-        <v>2364.88</v>
+        <v>2356.05</v>
       </c>
       <c r="E72" t="n">
-        <v>2375.52</v>
+        <v>2371.7</v>
       </c>
       <c r="F72" t="n">
-        <v>809.13428939</v>
+        <v>855.84493732</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45540.625</v>
+        <v>45540.66666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>2376.43</v>
+        <v>2371.61</v>
       </c>
       <c r="C73" t="n">
-        <v>2383.32</v>
+        <v>2377.68</v>
       </c>
       <c r="D73" t="n">
-        <v>2356.05</v>
+        <v>2367.06</v>
       </c>
       <c r="E73" t="n">
-        <v>2371.7</v>
+        <v>2374.78</v>
       </c>
       <c r="F73" t="n">
-        <v>855.84493732</v>
+        <v>321.48775839</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45540.66666666666</v>
+        <v>45540.70833333334</v>
       </c>
       <c r="B74" t="n">
-        <v>2371.61</v>
+        <v>2374.78</v>
       </c>
       <c r="C74" t="n">
-        <v>2377.68</v>
+        <v>2391.9</v>
       </c>
       <c r="D74" t="n">
-        <v>2367.06</v>
+        <v>2371.68</v>
       </c>
       <c r="E74" t="n">
-        <v>2374.78</v>
+        <v>2391.9</v>
       </c>
       <c r="F74" t="n">
-        <v>321.48775839</v>
+        <v>332.67448795</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45540.70833333334</v>
+        <v>45540.75</v>
       </c>
       <c r="B75" t="n">
-        <v>2374.78</v>
+        <v>2392.08</v>
       </c>
       <c r="C75" t="n">
-        <v>2391.9</v>
+        <v>2394.72</v>
       </c>
       <c r="D75" t="n">
-        <v>2371.68</v>
+        <v>2388.01</v>
       </c>
       <c r="E75" t="n">
-        <v>2391.9</v>
+        <v>2389.13</v>
       </c>
       <c r="F75" t="n">
-        <v>332.67448795</v>
+        <v>103.5725822</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45540.75</v>
+        <v>45540.79166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>2392.08</v>
+        <v>2389.03</v>
       </c>
       <c r="C76" t="n">
-        <v>2394.72</v>
+        <v>2389.42</v>
       </c>
       <c r="D76" t="n">
-        <v>2388.01</v>
+        <v>2347.6</v>
       </c>
       <c r="E76" t="n">
-        <v>2389.13</v>
+        <v>2361.99</v>
       </c>
       <c r="F76" t="n">
-        <v>103.5725822</v>
+        <v>742.49587375</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45540.79166666666</v>
+        <v>45540.83333333334</v>
       </c>
       <c r="B77" t="n">
-        <v>2389.03</v>
+        <v>2362</v>
       </c>
       <c r="C77" t="n">
-        <v>2389.42</v>
+        <v>2376.96</v>
       </c>
       <c r="D77" t="n">
-        <v>2347.6</v>
+        <v>2361.99</v>
       </c>
       <c r="E77" t="n">
-        <v>2361.99</v>
+        <v>2368.05</v>
       </c>
       <c r="F77" t="n">
-        <v>742.49587375</v>
+        <v>516.89576491</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45540.83333333334</v>
+        <v>45540.875</v>
       </c>
       <c r="B78" t="n">
-        <v>2362</v>
+        <v>2367.49</v>
       </c>
       <c r="C78" t="n">
-        <v>2376.96</v>
+        <v>2376.06</v>
       </c>
       <c r="D78" t="n">
-        <v>2361.99</v>
+        <v>2350.98</v>
       </c>
       <c r="E78" t="n">
-        <v>2368.05</v>
+        <v>2372.08</v>
       </c>
       <c r="F78" t="n">
-        <v>516.89576491</v>
+        <v>816.82794625</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45540.875</v>
+        <v>45540.91666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>2367.49</v>
+        <v>2372.08</v>
       </c>
       <c r="C79" t="n">
-        <v>2376.06</v>
+        <v>2373.6</v>
       </c>
       <c r="D79" t="n">
-        <v>2350.98</v>
+        <v>2355.76</v>
       </c>
       <c r="E79" t="n">
-        <v>2372.08</v>
+        <v>2370.49</v>
       </c>
       <c r="F79" t="n">
-        <v>816.82794625</v>
+        <v>220.41855846</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45540.91666666666</v>
+        <v>45540.95833333334</v>
       </c>
       <c r="B80" t="n">
-        <v>2372.08</v>
+        <v>2370.49</v>
       </c>
       <c r="C80" t="n">
-        <v>2373.6</v>
+        <v>2372.22</v>
       </c>
       <c r="D80" t="n">
-        <v>2355.76</v>
+        <v>2364.93</v>
       </c>
       <c r="E80" t="n">
-        <v>2370.49</v>
+        <v>2368.47</v>
       </c>
       <c r="F80" t="n">
-        <v>220.41855846</v>
+        <v>98.13638895</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45540.95833333334</v>
+        <v>45541</v>
       </c>
       <c r="B81" t="n">
-        <v>2370.49</v>
+        <v>2368.17</v>
       </c>
       <c r="C81" t="n">
-        <v>2372.22</v>
+        <v>2375.59</v>
       </c>
       <c r="D81" t="n">
-        <v>2364.93</v>
+        <v>2357.12</v>
       </c>
       <c r="E81" t="n">
-        <v>2368.47</v>
+        <v>2371.58</v>
       </c>
       <c r="F81" t="n">
-        <v>98.13638895</v>
+        <v>177.77564688</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45541</v>
+        <v>45541.04166666666</v>
       </c>
       <c r="B82" t="n">
-        <v>2368.17</v>
+        <v>2371.59</v>
       </c>
       <c r="C82" t="n">
-        <v>2375.59</v>
+        <v>2397.95</v>
       </c>
       <c r="D82" t="n">
-        <v>2357.12</v>
+        <v>2364.26</v>
       </c>
       <c r="E82" t="n">
-        <v>2371.58</v>
+        <v>2390.76</v>
       </c>
       <c r="F82" t="n">
-        <v>177.77564688</v>
+        <v>277.57343808</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45541.04166666666</v>
+        <v>45541.08333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>2371.59</v>
+        <v>2390.77</v>
       </c>
       <c r="C83" t="n">
-        <v>2397.95</v>
+        <v>2406.03</v>
       </c>
       <c r="D83" t="n">
-        <v>2364.26</v>
+        <v>2389.99</v>
       </c>
       <c r="E83" t="n">
-        <v>2390.76</v>
+        <v>2401.36</v>
       </c>
       <c r="F83" t="n">
-        <v>277.57343808</v>
+        <v>130.2975789</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45541.08333333334</v>
+        <v>45541.125</v>
       </c>
       <c r="B84" t="n">
-        <v>2390.77</v>
+        <v>2401.36</v>
       </c>
       <c r="C84" t="n">
-        <v>2406.03</v>
+        <v>2402.09</v>
       </c>
       <c r="D84" t="n">
-        <v>2389.99</v>
+        <v>2391.79</v>
       </c>
       <c r="E84" t="n">
-        <v>2401.36</v>
+        <v>2393.47</v>
       </c>
       <c r="F84" t="n">
-        <v>130.2975789</v>
+        <v>125.81183604</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45541.125</v>
+        <v>45541.16666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>2401.36</v>
+        <v>2392.33</v>
       </c>
       <c r="C85" t="n">
-        <v>2402.09</v>
+        <v>2395.62</v>
       </c>
       <c r="D85" t="n">
-        <v>2391.79</v>
+        <v>2385.75</v>
       </c>
       <c r="E85" t="n">
-        <v>2393.47</v>
+        <v>2386.92</v>
       </c>
       <c r="F85" t="n">
-        <v>125.81183604</v>
+        <v>62.15647969</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45541.16666666666</v>
+        <v>45541.20833333334</v>
       </c>
       <c r="B86" t="n">
-        <v>2392.33</v>
+        <v>2386.92</v>
       </c>
       <c r="C86" t="n">
-        <v>2395.62</v>
+        <v>2388.76</v>
       </c>
       <c r="D86" t="n">
-        <v>2385.75</v>
+        <v>2376.38</v>
       </c>
       <c r="E86" t="n">
-        <v>2386.92</v>
+        <v>2383.93</v>
       </c>
       <c r="F86" t="n">
-        <v>62.15647969</v>
+        <v>101.75248538</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45541.20833333334</v>
+        <v>45541.25</v>
       </c>
       <c r="B87" t="n">
-        <v>2386.92</v>
+        <v>2383.93</v>
       </c>
       <c r="C87" t="n">
-        <v>2388.76</v>
+        <v>2383.95</v>
       </c>
       <c r="D87" t="n">
-        <v>2376.38</v>
+        <v>2373</v>
       </c>
       <c r="E87" t="n">
-        <v>2383.93</v>
+        <v>2378.98</v>
       </c>
       <c r="F87" t="n">
-        <v>101.75248538</v>
+        <v>63.40639599</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45541.25</v>
+        <v>45541.29166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>2383.93</v>
+        <v>2378.98</v>
       </c>
       <c r="C88" t="n">
-        <v>2383.95</v>
+        <v>2378.98</v>
       </c>
       <c r="D88" t="n">
-        <v>2373</v>
+        <v>2323</v>
       </c>
       <c r="E88" t="n">
-        <v>2378.98</v>
+        <v>2345.16</v>
       </c>
       <c r="F88" t="n">
-        <v>63.40639599</v>
+        <v>983.87107455</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45541.29166666666</v>
+        <v>45541.33333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>2378.98</v>
+        <v>2345.14</v>
       </c>
       <c r="C89" t="n">
-        <v>2378.98</v>
+        <v>2356.49</v>
       </c>
       <c r="D89" t="n">
-        <v>2323</v>
+        <v>2338.3</v>
       </c>
       <c r="E89" t="n">
-        <v>2345.16</v>
+        <v>2349.72</v>
       </c>
       <c r="F89" t="n">
-        <v>983.87107455</v>
+        <v>199.0108345</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45541.33333333334</v>
+        <v>45541.375</v>
       </c>
       <c r="B90" t="n">
-        <v>2345.14</v>
+        <v>2348.95</v>
       </c>
       <c r="C90" t="n">
-        <v>2356.49</v>
+        <v>2357.1</v>
       </c>
       <c r="D90" t="n">
-        <v>2338.3</v>
+        <v>2345.86</v>
       </c>
       <c r="E90" t="n">
-        <v>2349.72</v>
+        <v>2357.09</v>
       </c>
       <c r="F90" t="n">
-        <v>199.0108345</v>
+        <v>114.06879485</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45541.375</v>
+        <v>45541.41666666666</v>
       </c>
       <c r="B91" t="n">
-        <v>2348.95</v>
+        <v>2357.41</v>
       </c>
       <c r="C91" t="n">
-        <v>2357.1</v>
+        <v>2375.59</v>
       </c>
       <c r="D91" t="n">
-        <v>2345.86</v>
+        <v>2355.91</v>
       </c>
       <c r="E91" t="n">
-        <v>2357.09</v>
+        <v>2367.37</v>
       </c>
       <c r="F91" t="n">
-        <v>114.06879485</v>
+        <v>151.11515649</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45541.41666666666</v>
+        <v>45541.45833333334</v>
       </c>
       <c r="B92" t="n">
-        <v>2357.41</v>
+        <v>2367.97</v>
       </c>
       <c r="C92" t="n">
-        <v>2375.59</v>
+        <v>2378.76</v>
       </c>
       <c r="D92" t="n">
-        <v>2355.91</v>
+        <v>2365.45</v>
       </c>
       <c r="E92" t="n">
-        <v>2367.37</v>
+        <v>2372.53</v>
       </c>
       <c r="F92" t="n">
-        <v>151.11515649</v>
+        <v>88.81018027</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45541.45833333334</v>
+        <v>45541.5</v>
       </c>
       <c r="B93" t="n">
-        <v>2367.97</v>
+        <v>2372.53</v>
       </c>
       <c r="C93" t="n">
-        <v>2378.76</v>
+        <v>2406.23</v>
       </c>
       <c r="D93" t="n">
-        <v>2365.45</v>
+        <v>2358.6</v>
       </c>
       <c r="E93" t="n">
-        <v>2372.53</v>
+        <v>2399.92</v>
       </c>
       <c r="F93" t="n">
-        <v>88.81018027</v>
+        <v>1307.90948022</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45541.5</v>
+        <v>45541.54166666666</v>
       </c>
       <c r="B94" t="n">
-        <v>2372.53</v>
+        <v>2399.91</v>
       </c>
       <c r="C94" t="n">
-        <v>2406.23</v>
+        <v>2399.92</v>
       </c>
       <c r="D94" t="n">
-        <v>2358.6</v>
+        <v>2358.21</v>
       </c>
       <c r="E94" t="n">
-        <v>2399.92</v>
+        <v>2363.47</v>
       </c>
       <c r="F94" t="n">
-        <v>1307.90948022</v>
+        <v>801.95164553</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45541.54166666666</v>
+        <v>45541.58333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>2399.91</v>
+        <v>2363.27</v>
       </c>
       <c r="C95" t="n">
-        <v>2399.92</v>
+        <v>2365.76</v>
       </c>
       <c r="D95" t="n">
-        <v>2358.21</v>
+        <v>2312.09</v>
       </c>
       <c r="E95" t="n">
-        <v>2363.47</v>
+        <v>2326.96</v>
       </c>
       <c r="F95" t="n">
-        <v>801.95164553</v>
+        <v>1394.53676316</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45541.58333333334</v>
+        <v>45541.625</v>
       </c>
       <c r="B96" t="n">
-        <v>2363.27</v>
+        <v>2326.3</v>
       </c>
       <c r="C96" t="n">
-        <v>2365.76</v>
+        <v>2337.1</v>
       </c>
       <c r="D96" t="n">
-        <v>2312.09</v>
+        <v>2263.74</v>
       </c>
       <c r="E96" t="n">
-        <v>2326.96</v>
+        <v>2288.19</v>
       </c>
       <c r="F96" t="n">
-        <v>1394.53676316</v>
+        <v>6219.49262227</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45541.625</v>
+        <v>45541.66666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>2326.3</v>
+        <v>2288.19</v>
       </c>
       <c r="C97" t="n">
-        <v>2337.1</v>
+        <v>2290.31</v>
       </c>
       <c r="D97" t="n">
-        <v>2263.74</v>
+        <v>2250.8</v>
       </c>
       <c r="E97" t="n">
-        <v>2288.19</v>
+        <v>2265.2</v>
       </c>
       <c r="F97" t="n">
-        <v>6219.49262227</v>
+        <v>1522.16232375</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45541.66666666666</v>
+        <v>45541.70833333334</v>
       </c>
       <c r="B98" t="n">
-        <v>2288.19</v>
+        <v>2264.96</v>
       </c>
       <c r="C98" t="n">
-        <v>2290.31</v>
+        <v>2274.53</v>
       </c>
       <c r="D98" t="n">
-        <v>2250.8</v>
+        <v>2225.4</v>
       </c>
       <c r="E98" t="n">
-        <v>2265.2</v>
+        <v>2244.8</v>
       </c>
       <c r="F98" t="n">
-        <v>1522.16232375</v>
+        <v>2318.2030541</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45541.70833333334</v>
+        <v>45541.75</v>
       </c>
       <c r="B99" t="n">
-        <v>2264.96</v>
+        <v>2244.81</v>
       </c>
       <c r="C99" t="n">
-        <v>2274.53</v>
+        <v>2245.96</v>
       </c>
       <c r="D99" t="n">
-        <v>2225.4</v>
+        <v>2210.5</v>
       </c>
       <c r="E99" t="n">
-        <v>2244.8</v>
+        <v>2210.5</v>
       </c>
       <c r="F99" t="n">
-        <v>2318.2030541</v>
+        <v>1052.1124154</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45541.75</v>
+        <v>45541.79166666666</v>
       </c>
       <c r="B100" t="n">
-        <v>2244.81</v>
+        <v>2210.01</v>
       </c>
       <c r="C100" t="n">
-        <v>2245.96</v>
+        <v>2241.52</v>
       </c>
       <c r="D100" t="n">
-        <v>2210.5</v>
+        <v>2207.01</v>
       </c>
       <c r="E100" t="n">
-        <v>2210.5</v>
+        <v>2220.74</v>
       </c>
       <c r="F100" t="n">
-        <v>1052.1124154</v>
+        <v>2247.64066529</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45541.79166666666</v>
+        <v>45541.83333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>2210.01</v>
+        <v>2220.02</v>
       </c>
       <c r="C101" t="n">
-        <v>2241.52</v>
+        <v>2226.88</v>
       </c>
       <c r="D101" t="n">
-        <v>2207.01</v>
+        <v>2167.3</v>
       </c>
       <c r="E101" t="n">
-        <v>2220.74</v>
+        <v>2169.17</v>
       </c>
       <c r="F101" t="n">
-        <v>2247.64066529</v>
+        <v>3361.74044142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45541.83333333334</v>
+        <v>45541.875</v>
       </c>
       <c r="B102" t="n">
-        <v>2220.02</v>
+        <v>2168.49</v>
       </c>
       <c r="C102" t="n">
-        <v>2226.88</v>
+        <v>2218.3</v>
       </c>
       <c r="D102" t="n">
-        <v>2167.3</v>
+        <v>2150</v>
       </c>
       <c r="E102" t="n">
-        <v>2169.17</v>
+        <v>2217.69</v>
       </c>
       <c r="F102" t="n">
-        <v>3361.74044142</v>
+        <v>1346.31685158</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45541.875</v>
+        <v>45541.91666666666</v>
       </c>
       <c r="B103" t="n">
-        <v>2168.49</v>
+        <v>2217.68</v>
       </c>
       <c r="C103" t="n">
-        <v>2218.3</v>
+        <v>2221.27</v>
       </c>
       <c r="D103" t="n">
-        <v>2150</v>
+        <v>2206.62</v>
       </c>
       <c r="E103" t="n">
-        <v>2217.69</v>
+        <v>2208.83</v>
       </c>
       <c r="F103" t="n">
-        <v>1346.31685158</v>
+        <v>601.93297089</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45541.91666666666</v>
+        <v>45541.95833333334</v>
       </c>
       <c r="B104" t="n">
-        <v>2217.68</v>
+        <v>2208.8</v>
       </c>
       <c r="C104" t="n">
-        <v>2221.27</v>
+        <v>2224.6</v>
       </c>
       <c r="D104" t="n">
-        <v>2206.62</v>
+        <v>2208.8</v>
       </c>
       <c r="E104" t="n">
-        <v>2208.83</v>
+        <v>2224.45</v>
       </c>
       <c r="F104" t="n">
-        <v>601.93297089</v>
+        <v>144.09728079</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45541.95833333334</v>
+        <v>45542</v>
       </c>
       <c r="B105" t="n">
-        <v>2208.8</v>
+        <v>2224.45</v>
       </c>
       <c r="C105" t="n">
-        <v>2224.6</v>
+        <v>2241.3</v>
       </c>
       <c r="D105" t="n">
-        <v>2208.8</v>
+        <v>2224.44</v>
       </c>
       <c r="E105" t="n">
-        <v>2224.45</v>
+        <v>2233.5</v>
       </c>
       <c r="F105" t="n">
-        <v>144.09728079</v>
+        <v>3415.27140841</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45542</v>
+        <v>45542.04166666666</v>
       </c>
       <c r="B106" t="n">
-        <v>2224.45</v>
+        <v>2233.51</v>
       </c>
       <c r="C106" t="n">
-        <v>2241.3</v>
+        <v>2236.17</v>
       </c>
       <c r="D106" t="n">
-        <v>2224.44</v>
+        <v>2222</v>
       </c>
       <c r="E106" t="n">
-        <v>2233.5</v>
+        <v>2224.98</v>
       </c>
       <c r="F106" t="n">
-        <v>3415.27140841</v>
+        <v>2034.05306651</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45542.04166666666</v>
+        <v>45542.08333333334</v>
       </c>
       <c r="B107" t="n">
-        <v>2233.51</v>
+        <v>2224.97</v>
       </c>
       <c r="C107" t="n">
-        <v>2236.17</v>
+        <v>2239.15</v>
       </c>
       <c r="D107" t="n">
-        <v>2222</v>
+        <v>2223.23</v>
       </c>
       <c r="E107" t="n">
-        <v>2224.98</v>
+        <v>2232.76</v>
       </c>
       <c r="F107" t="n">
-        <v>2034.05306651</v>
+        <v>899.48971262</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45542.08333333334</v>
+        <v>45542.125</v>
       </c>
       <c r="B108" t="n">
-        <v>2224.97</v>
+        <v>2232.87</v>
       </c>
       <c r="C108" t="n">
-        <v>2239.15</v>
+        <v>2240.42</v>
       </c>
       <c r="D108" t="n">
-        <v>2223.23</v>
+        <v>2232.67</v>
       </c>
       <c r="E108" t="n">
-        <v>2232.76</v>
+        <v>2238.02</v>
       </c>
       <c r="F108" t="n">
-        <v>899.48971262</v>
+        <v>175.73439984</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45542.125</v>
+        <v>45542.16666666666</v>
       </c>
       <c r="B109" t="n">
-        <v>2232.87</v>
+        <v>2238.02</v>
       </c>
       <c r="C109" t="n">
-        <v>2240.42</v>
+        <v>2249.97</v>
       </c>
       <c r="D109" t="n">
-        <v>2232.67</v>
+        <v>2238.01</v>
       </c>
       <c r="E109" t="n">
-        <v>2238.02</v>
+        <v>2249.95</v>
       </c>
       <c r="F109" t="n">
-        <v>175.73439984</v>
+        <v>104.09019889</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45542.16666666666</v>
+        <v>45542.20833333334</v>
       </c>
       <c r="B110" t="n">
-        <v>2238.02</v>
+        <v>2249.98</v>
       </c>
       <c r="C110" t="n">
-        <v>2249.97</v>
+        <v>2274.19</v>
       </c>
       <c r="D110" t="n">
-        <v>2238.01</v>
+        <v>2246.48</v>
       </c>
       <c r="E110" t="n">
-        <v>2249.95</v>
+        <v>2262.74</v>
       </c>
       <c r="F110" t="n">
-        <v>104.09019889</v>
+        <v>424.6422858</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45542.20833333334</v>
+        <v>45542.25</v>
       </c>
       <c r="B111" t="n">
-        <v>2249.98</v>
+        <v>2263.55</v>
       </c>
       <c r="C111" t="n">
-        <v>2274.19</v>
+        <v>2280.87</v>
       </c>
       <c r="D111" t="n">
-        <v>2246.48</v>
+        <v>2258.99</v>
       </c>
       <c r="E111" t="n">
-        <v>2262.74</v>
+        <v>2276.69</v>
       </c>
       <c r="F111" t="n">
-        <v>424.6422858</v>
+        <v>176.58492903</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45542.25</v>
+        <v>45542.29166666666</v>
       </c>
       <c r="B112" t="n">
-        <v>2263.55</v>
+        <v>2276.81</v>
       </c>
       <c r="C112" t="n">
-        <v>2280.87</v>
+        <v>2293.44</v>
       </c>
       <c r="D112" t="n">
-        <v>2258.99</v>
+        <v>2275.31</v>
       </c>
       <c r="E112" t="n">
-        <v>2276.69</v>
+        <v>2288.73</v>
       </c>
       <c r="F112" t="n">
-        <v>176.58492903</v>
+        <v>430.04334943</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45542.29166666666</v>
+        <v>45542.33333333334</v>
       </c>
       <c r="B113" t="n">
-        <v>2276.81</v>
+        <v>2288.72</v>
       </c>
       <c r="C113" t="n">
-        <v>2293.44</v>
+        <v>2297.68</v>
       </c>
       <c r="D113" t="n">
-        <v>2275.31</v>
+        <v>2275.92</v>
       </c>
       <c r="E113" t="n">
-        <v>2288.73</v>
+        <v>2295.28</v>
       </c>
       <c r="F113" t="n">
-        <v>430.04334943</v>
+        <v>234.6300542</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45542.33333333334</v>
+        <v>45542.375</v>
       </c>
       <c r="B114" t="n">
-        <v>2288.72</v>
+        <v>2295.59</v>
       </c>
       <c r="C114" t="n">
-        <v>2297.68</v>
+        <v>2295.95</v>
       </c>
       <c r="D114" t="n">
-        <v>2275.92</v>
+        <v>2278.42</v>
       </c>
       <c r="E114" t="n">
-        <v>2295.28</v>
+        <v>2282.27</v>
       </c>
       <c r="F114" t="n">
-        <v>234.6300542</v>
+        <v>59.25080438</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45542.375</v>
+        <v>45542.41666666666</v>
       </c>
       <c r="B115" t="n">
-        <v>2295.59</v>
+        <v>2281.73</v>
       </c>
       <c r="C115" t="n">
-        <v>2295.95</v>
+        <v>2289.21</v>
       </c>
       <c r="D115" t="n">
-        <v>2278.42</v>
+        <v>2281.73</v>
       </c>
       <c r="E115" t="n">
-        <v>2282.27</v>
+        <v>2282.78</v>
       </c>
       <c r="F115" t="n">
-        <v>59.25080438</v>
+        <v>37.73972559</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45542.41666666666</v>
+        <v>45542.45833333334</v>
       </c>
       <c r="B116" t="n">
-        <v>2281.73</v>
+        <v>2282.79</v>
       </c>
       <c r="C116" t="n">
-        <v>2289.21</v>
+        <v>2288.43</v>
       </c>
       <c r="D116" t="n">
-        <v>2281.73</v>
+        <v>2280.5</v>
       </c>
       <c r="E116" t="n">
-        <v>2282.78</v>
+        <v>2284.12</v>
       </c>
       <c r="F116" t="n">
-        <v>37.73972559</v>
+        <v>181.8776094</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45542.45833333334</v>
+        <v>45542.5</v>
       </c>
       <c r="B117" t="n">
-        <v>2282.79</v>
+        <v>2284.12</v>
       </c>
       <c r="C117" t="n">
-        <v>2288.43</v>
+        <v>2295.86</v>
       </c>
       <c r="D117" t="n">
-        <v>2280.5</v>
+        <v>2284.12</v>
       </c>
       <c r="E117" t="n">
-        <v>2284.12</v>
+        <v>2290.55</v>
       </c>
       <c r="F117" t="n">
-        <v>181.8776094</v>
+        <v>255.86659328</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45542.5</v>
+        <v>45542.54166666666</v>
       </c>
       <c r="B118" t="n">
-        <v>2284.12</v>
+        <v>2290.55</v>
       </c>
       <c r="C118" t="n">
-        <v>2295.86</v>
+        <v>2297.61</v>
       </c>
       <c r="D118" t="n">
-        <v>2284.12</v>
+        <v>2282.92</v>
       </c>
       <c r="E118" t="n">
-        <v>2290.55</v>
+        <v>2291.42</v>
       </c>
       <c r="F118" t="n">
-        <v>255.86659328</v>
+        <v>77.38138637</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45542.54166666666</v>
+        <v>45542.58333333334</v>
       </c>
       <c r="B119" t="n">
-        <v>2290.55</v>
+        <v>2291.43</v>
       </c>
       <c r="C119" t="n">
-        <v>2297.61</v>
+        <v>2296.05</v>
       </c>
       <c r="D119" t="n">
-        <v>2282.92</v>
+        <v>2289.23</v>
       </c>
       <c r="E119" t="n">
-        <v>2291.42</v>
+        <v>2293.14</v>
       </c>
       <c r="F119" t="n">
-        <v>77.38138637</v>
+        <v>53.61004501</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45542.58333333334</v>
+        <v>45542.625</v>
       </c>
       <c r="B120" t="n">
-        <v>2291.43</v>
+        <v>2293.15</v>
       </c>
       <c r="C120" t="n">
-        <v>2296.05</v>
+        <v>2309.57</v>
       </c>
       <c r="D120" t="n">
-        <v>2289.23</v>
+        <v>2292</v>
       </c>
       <c r="E120" t="n">
-        <v>2293.14</v>
+        <v>2300.51</v>
       </c>
       <c r="F120" t="n">
-        <v>53.61004501</v>
+        <v>295.14253923</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45542.625</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="B121" t="n">
-        <v>2293.15</v>
+        <v>2300.46</v>
       </c>
       <c r="C121" t="n">
-        <v>2309.57</v>
+        <v>2302.64</v>
       </c>
       <c r="D121" t="n">
-        <v>2292</v>
+        <v>2284.06</v>
       </c>
       <c r="E121" t="n">
-        <v>2300.51</v>
+        <v>2290.13</v>
       </c>
       <c r="F121" t="n">
-        <v>295.14253923</v>
+        <v>116.08842429</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45542.66666666666</v>
+        <v>45542.70833333334</v>
       </c>
       <c r="B122" t="n">
-        <v>2300.46</v>
+        <v>2289.14</v>
       </c>
       <c r="C122" t="n">
-        <v>2302.64</v>
+        <v>2291.08</v>
       </c>
       <c r="D122" t="n">
-        <v>2284.06</v>
+        <v>2265.01</v>
       </c>
       <c r="E122" t="n">
-        <v>2290.13</v>
+        <v>2271.67</v>
       </c>
       <c r="F122" t="n">
-        <v>116.08842429</v>
+        <v>494.41138065</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45542.70833333334</v>
+        <v>45542.75</v>
       </c>
       <c r="B123" t="n">
-        <v>2289.14</v>
+        <v>2272.61</v>
       </c>
       <c r="C123" t="n">
-        <v>2291.08</v>
+        <v>2287.44</v>
       </c>
       <c r="D123" t="n">
-        <v>2265.01</v>
+        <v>2268.69</v>
       </c>
       <c r="E123" t="n">
-        <v>2271.67</v>
+        <v>2281.35</v>
       </c>
       <c r="F123" t="n">
-        <v>494.41138065</v>
+        <v>83.83117728000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45542.75</v>
+        <v>45542.79166666666</v>
       </c>
       <c r="B124" t="n">
-        <v>2272.61</v>
+        <v>2281.35</v>
       </c>
       <c r="C124" t="n">
-        <v>2287.44</v>
+        <v>2292.35</v>
       </c>
       <c r="D124" t="n">
-        <v>2268.69</v>
+        <v>2280.03</v>
       </c>
       <c r="E124" t="n">
-        <v>2281.35</v>
+        <v>2290.29</v>
       </c>
       <c r="F124" t="n">
-        <v>83.83117728000001</v>
+        <v>121.89588937</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45542.79166666666</v>
+        <v>45542.83333333334</v>
       </c>
       <c r="B125" t="n">
-        <v>2281.35</v>
+        <v>2290.29</v>
       </c>
       <c r="C125" t="n">
-        <v>2292.35</v>
+        <v>2290.29</v>
       </c>
       <c r="D125" t="n">
-        <v>2280.03</v>
+        <v>2272.33</v>
       </c>
       <c r="E125" t="n">
-        <v>2290.29</v>
+        <v>2272.65</v>
       </c>
       <c r="F125" t="n">
-        <v>121.89588937</v>
+        <v>140.77803771</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45542.83333333334</v>
+        <v>45542.875</v>
       </c>
       <c r="B126" t="n">
-        <v>2290.29</v>
+        <v>2271.54</v>
       </c>
       <c r="C126" t="n">
-        <v>2290.29</v>
+        <v>2272.44</v>
       </c>
       <c r="D126" t="n">
-        <v>2272.33</v>
+        <v>2259.48</v>
       </c>
       <c r="E126" t="n">
-        <v>2272.65</v>
+        <v>2264.27</v>
       </c>
       <c r="F126" t="n">
-        <v>140.77803771</v>
+        <v>144.66844278</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45542.875</v>
+        <v>45542.91666666666</v>
       </c>
       <c r="B127" t="n">
-        <v>2271.54</v>
+        <v>2264.51</v>
       </c>
       <c r="C127" t="n">
-        <v>2272.44</v>
+        <v>2269.97</v>
       </c>
       <c r="D127" t="n">
-        <v>2259.48</v>
+        <v>2262.17</v>
       </c>
       <c r="E127" t="n">
-        <v>2264.27</v>
+        <v>2265.35</v>
       </c>
       <c r="F127" t="n">
-        <v>144.66844278</v>
+        <v>90.93648042</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45542.91666666666</v>
+        <v>45542.95833333334</v>
       </c>
       <c r="B128" t="n">
-        <v>2264.51</v>
+        <v>2264.25</v>
       </c>
       <c r="C128" t="n">
-        <v>2269.97</v>
+        <v>2275.78</v>
       </c>
       <c r="D128" t="n">
-        <v>2262.17</v>
+        <v>2258.71</v>
       </c>
       <c r="E128" t="n">
-        <v>2265.35</v>
+        <v>2273.1</v>
       </c>
       <c r="F128" t="n">
-        <v>90.93648042</v>
+        <v>110.30583293</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45542.95833333334</v>
+        <v>45543</v>
       </c>
       <c r="B129" t="n">
-        <v>2264.25</v>
+        <v>2273.11</v>
       </c>
       <c r="C129" t="n">
-        <v>2275.78</v>
+        <v>2274.25</v>
       </c>
       <c r="D129" t="n">
-        <v>2258.71</v>
+        <v>2263.48</v>
       </c>
       <c r="E129" t="n">
-        <v>2273.1</v>
+        <v>2268.98</v>
       </c>
       <c r="F129" t="n">
-        <v>110.30583293</v>
+        <v>565.06845985</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45543</v>
+        <v>45543.04166666666</v>
       </c>
       <c r="B130" t="n">
-        <v>2273.11</v>
+        <v>2268.91</v>
       </c>
       <c r="C130" t="n">
-        <v>2274.25</v>
+        <v>2279.76</v>
       </c>
       <c r="D130" t="n">
-        <v>2263.48</v>
+        <v>2268.87</v>
       </c>
       <c r="E130" t="n">
-        <v>2268.98</v>
+        <v>2279.75</v>
       </c>
       <c r="F130" t="n">
-        <v>565.06845985</v>
+        <v>61.46513248</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45543.04166666666</v>
+        <v>45543.08333333334</v>
       </c>
       <c r="B131" t="n">
-        <v>2268.91</v>
+        <v>2279.76</v>
       </c>
       <c r="C131" t="n">
-        <v>2279.76</v>
+        <v>2287.78</v>
       </c>
       <c r="D131" t="n">
-        <v>2268.87</v>
+        <v>2279.43</v>
       </c>
       <c r="E131" t="n">
-        <v>2279.75</v>
+        <v>2283.49</v>
       </c>
       <c r="F131" t="n">
-        <v>61.46513248</v>
+        <v>262.30890358</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45543.08333333334</v>
+        <v>45543.125</v>
       </c>
       <c r="B132" t="n">
-        <v>2279.76</v>
+        <v>2283.93</v>
       </c>
       <c r="C132" t="n">
-        <v>2287.78</v>
+        <v>2286.58</v>
       </c>
       <c r="D132" t="n">
-        <v>2279.43</v>
+        <v>2280.25</v>
       </c>
       <c r="E132" t="n">
-        <v>2283.49</v>
+        <v>2285.11</v>
       </c>
       <c r="F132" t="n">
-        <v>262.30890358</v>
+        <v>82.83881843</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45543.125</v>
+        <v>45543.16666666666</v>
       </c>
       <c r="B133" t="n">
-        <v>2283.93</v>
+        <v>2285.11</v>
       </c>
       <c r="C133" t="n">
-        <v>2286.58</v>
+        <v>2302.76</v>
       </c>
       <c r="D133" t="n">
-        <v>2280.25</v>
+        <v>2285.1</v>
       </c>
       <c r="E133" t="n">
-        <v>2285.11</v>
+        <v>2299</v>
       </c>
       <c r="F133" t="n">
-        <v>82.83881843</v>
+        <v>84.99304845</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45543.16666666666</v>
+        <v>45543.20833333334</v>
       </c>
       <c r="B134" t="n">
-        <v>2285.11</v>
+        <v>2299.01</v>
       </c>
       <c r="C134" t="n">
-        <v>2302.76</v>
+        <v>2299.01</v>
       </c>
       <c r="D134" t="n">
-        <v>2285.1</v>
+        <v>2283.98</v>
       </c>
       <c r="E134" t="n">
-        <v>2299</v>
+        <v>2284.88</v>
       </c>
       <c r="F134" t="n">
-        <v>84.99304845</v>
+        <v>218.53674292</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45543.20833333334</v>
+        <v>45543.25</v>
       </c>
       <c r="B135" t="n">
-        <v>2299.01</v>
+        <v>2284.88</v>
       </c>
       <c r="C135" t="n">
-        <v>2299.01</v>
+        <v>2287.75</v>
       </c>
       <c r="D135" t="n">
-        <v>2283.98</v>
+        <v>2284.73</v>
       </c>
       <c r="E135" t="n">
-        <v>2284.88</v>
+        <v>2286.5</v>
       </c>
       <c r="F135" t="n">
-        <v>218.53674292</v>
+        <v>104.31176556</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45543.25</v>
+        <v>45543.29166666666</v>
       </c>
       <c r="B136" t="n">
-        <v>2284.88</v>
+        <v>2286.5</v>
       </c>
       <c r="C136" t="n">
-        <v>2287.75</v>
+        <v>2298.94</v>
       </c>
       <c r="D136" t="n">
-        <v>2284.73</v>
+        <v>2286.49</v>
       </c>
       <c r="E136" t="n">
-        <v>2286.5</v>
+        <v>2295.26</v>
       </c>
       <c r="F136" t="n">
-        <v>104.31176556</v>
+        <v>35.55093087</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45543.29166666666</v>
+        <v>45543.33333333334</v>
       </c>
       <c r="B137" t="n">
-        <v>2286.5</v>
+        <v>2295.27</v>
       </c>
       <c r="C137" t="n">
-        <v>2298.94</v>
+        <v>2296.21</v>
       </c>
       <c r="D137" t="n">
-        <v>2286.49</v>
+        <v>2287.59</v>
       </c>
       <c r="E137" t="n">
-        <v>2295.26</v>
+        <v>2295.53</v>
       </c>
       <c r="F137" t="n">
-        <v>35.55093087</v>
+        <v>118.40255676</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45543.33333333334</v>
+        <v>45543.375</v>
       </c>
       <c r="B138" t="n">
-        <v>2295.27</v>
+        <v>2295.67</v>
       </c>
       <c r="C138" t="n">
-        <v>2296.21</v>
+        <v>2307.47</v>
       </c>
       <c r="D138" t="n">
-        <v>2287.59</v>
+        <v>2295.67</v>
       </c>
       <c r="E138" t="n">
-        <v>2295.53</v>
+        <v>2297.02</v>
       </c>
       <c r="F138" t="n">
-        <v>118.40255676</v>
+        <v>147.82008116</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45543.375</v>
+        <v>45543.41666666666</v>
       </c>
       <c r="B139" t="n">
-        <v>2295.67</v>
+        <v>2295.33</v>
       </c>
       <c r="C139" t="n">
-        <v>2307.47</v>
+        <v>2307.3</v>
       </c>
       <c r="D139" t="n">
-        <v>2295.67</v>
+        <v>2295.33</v>
       </c>
       <c r="E139" t="n">
-        <v>2297.02</v>
+        <v>2303</v>
       </c>
       <c r="F139" t="n">
-        <v>147.82008116</v>
+        <v>102.94293845</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45543.41666666666</v>
+        <v>45543.45833333334</v>
       </c>
       <c r="B140" t="n">
-        <v>2295.33</v>
+        <v>2303</v>
       </c>
       <c r="C140" t="n">
-        <v>2307.3</v>
+        <v>2305.7</v>
       </c>
       <c r="D140" t="n">
-        <v>2295.33</v>
+        <v>2294.44</v>
       </c>
       <c r="E140" t="n">
-        <v>2303</v>
+        <v>2295.66</v>
       </c>
       <c r="F140" t="n">
-        <v>102.94293845</v>
+        <v>110.38867231</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45543.45833333334</v>
+        <v>45543.5</v>
       </c>
       <c r="B141" t="n">
-        <v>2303</v>
+        <v>2295.66</v>
       </c>
       <c r="C141" t="n">
-        <v>2305.7</v>
+        <v>2297</v>
       </c>
       <c r="D141" t="n">
-        <v>2294.44</v>
+        <v>2272.58</v>
       </c>
       <c r="E141" t="n">
-        <v>2295.66</v>
+        <v>2276.22</v>
       </c>
       <c r="F141" t="n">
-        <v>110.38867231</v>
+        <v>291.79458085</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45543.5</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="B142" t="n">
-        <v>2295.66</v>
+        <v>2276.69</v>
       </c>
       <c r="C142" t="n">
-        <v>2297</v>
+        <v>2284.58</v>
       </c>
       <c r="D142" t="n">
-        <v>2272.58</v>
+        <v>2267.98</v>
       </c>
       <c r="E142" t="n">
-        <v>2276.22</v>
+        <v>2283.01</v>
       </c>
       <c r="F142" t="n">
-        <v>291.79458085</v>
+        <v>137.28058439</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45543.54166666666</v>
+        <v>45543.58333333334</v>
       </c>
       <c r="B143" t="n">
-        <v>2276.69</v>
+        <v>2283.01</v>
       </c>
       <c r="C143" t="n">
-        <v>2284.58</v>
+        <v>2283.5</v>
       </c>
       <c r="D143" t="n">
         <v>2267.98</v>
       </c>
       <c r="E143" t="n">
-        <v>2283.01</v>
+        <v>2268.32</v>
       </c>
       <c r="F143" t="n">
-        <v>137.28058439</v>
+        <v>392.93279861</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45543.58333333334</v>
+        <v>45543.625</v>
       </c>
       <c r="B144" t="n">
-        <v>2283.01</v>
+        <v>2269.37</v>
       </c>
       <c r="C144" t="n">
-        <v>2283.5</v>
+        <v>2270.49</v>
       </c>
       <c r="D144" t="n">
-        <v>2267.98</v>
+        <v>2242.87</v>
       </c>
       <c r="E144" t="n">
-        <v>2268.32</v>
+        <v>2244.14</v>
       </c>
       <c r="F144" t="n">
-        <v>392.93279861</v>
+        <v>326.11933942</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45543.625</v>
+        <v>45543.66666666666</v>
       </c>
       <c r="B145" t="n">
-        <v>2269.37</v>
+        <v>2244.14</v>
       </c>
       <c r="C145" t="n">
-        <v>2270.49</v>
+        <v>2259.63</v>
       </c>
       <c r="D145" t="n">
-        <v>2242.87</v>
+        <v>2243.48</v>
       </c>
       <c r="E145" t="n">
-        <v>2244.14</v>
+        <v>2250.81</v>
       </c>
       <c r="F145" t="n">
-        <v>326.11933942</v>
+        <v>504.6521973</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45543.66666666666</v>
+        <v>45543.70833333334</v>
       </c>
       <c r="B146" t="n">
-        <v>2244.14</v>
+        <v>2250.81</v>
       </c>
       <c r="C146" t="n">
-        <v>2259.63</v>
+        <v>2282.1</v>
       </c>
       <c r="D146" t="n">
-        <v>2243.48</v>
+        <v>2250.8</v>
       </c>
       <c r="E146" t="n">
-        <v>2250.81</v>
+        <v>2282.1</v>
       </c>
       <c r="F146" t="n">
-        <v>504.6521973</v>
+        <v>642.50310633</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45543.70833333334</v>
+        <v>45543.75</v>
       </c>
       <c r="B147" t="n">
-        <v>2250.81</v>
+        <v>2282.3</v>
       </c>
       <c r="C147" t="n">
-        <v>2282.1</v>
+        <v>2282.3</v>
       </c>
       <c r="D147" t="n">
-        <v>2250.8</v>
+        <v>2272.74</v>
       </c>
       <c r="E147" t="n">
-        <v>2282.1</v>
+        <v>2275.84</v>
       </c>
       <c r="F147" t="n">
-        <v>642.50310633</v>
+        <v>116.07695598</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45543.75</v>
+        <v>45543.79166666666</v>
       </c>
       <c r="B148" t="n">
-        <v>2282.3</v>
+        <v>2275.84</v>
       </c>
       <c r="C148" t="n">
-        <v>2282.3</v>
+        <v>2277.09</v>
       </c>
       <c r="D148" t="n">
-        <v>2272.74</v>
+        <v>2270.09</v>
       </c>
       <c r="E148" t="n">
-        <v>2275.84</v>
+        <v>2271.7</v>
       </c>
       <c r="F148" t="n">
-        <v>116.07695598</v>
+        <v>70.05122054</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45543.79166666666</v>
+        <v>45543.83333333334</v>
       </c>
       <c r="B149" t="n">
-        <v>2275.84</v>
+        <v>2271.7</v>
       </c>
       <c r="C149" t="n">
-        <v>2277.09</v>
+        <v>2276.03</v>
       </c>
       <c r="D149" t="n">
-        <v>2270.09</v>
+        <v>2267.25</v>
       </c>
       <c r="E149" t="n">
-        <v>2271.7</v>
+        <v>2275.13</v>
       </c>
       <c r="F149" t="n">
-        <v>70.05122054</v>
+        <v>91.57025381</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45543.83333333334</v>
+        <v>45543.875</v>
       </c>
       <c r="B150" t="n">
-        <v>2271.7</v>
+        <v>2275.12</v>
       </c>
       <c r="C150" t="n">
-        <v>2276.03</v>
+        <v>2288</v>
       </c>
       <c r="D150" t="n">
-        <v>2267.25</v>
+        <v>2275.12</v>
       </c>
       <c r="E150" t="n">
-        <v>2275.13</v>
+        <v>2280.4</v>
       </c>
       <c r="F150" t="n">
-        <v>91.57025381</v>
+        <v>271.27101995</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45543.875</v>
+        <v>45543.91666666666</v>
       </c>
       <c r="B151" t="n">
-        <v>2275.12</v>
+        <v>2280.4</v>
       </c>
       <c r="C151" t="n">
-        <v>2288</v>
+        <v>2333.02</v>
       </c>
       <c r="D151" t="n">
-        <v>2275.12</v>
+        <v>2280</v>
       </c>
       <c r="E151" t="n">
-        <v>2280.4</v>
+        <v>2293.64</v>
       </c>
       <c r="F151" t="n">
-        <v>271.27101995</v>
+        <v>877.77520724</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45543.91666666666</v>
+        <v>45543.95833333334</v>
       </c>
       <c r="B152" t="n">
-        <v>2280.4</v>
+        <v>2294.03</v>
       </c>
       <c r="C152" t="n">
-        <v>2333.02</v>
+        <v>2304.76</v>
       </c>
       <c r="D152" t="n">
-        <v>2280</v>
+        <v>2289.83</v>
       </c>
       <c r="E152" t="n">
-        <v>2293.64</v>
+        <v>2296.92</v>
       </c>
       <c r="F152" t="n">
-        <v>877.77520724</v>
+        <v>145.39303666</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45543.95833333334</v>
+        <v>45544</v>
       </c>
       <c r="B153" t="n">
-        <v>2294.03</v>
+        <v>2297.31</v>
       </c>
       <c r="C153" t="n">
-        <v>2304.76</v>
+        <v>2310.99</v>
       </c>
       <c r="D153" t="n">
-        <v>2289.83</v>
+        <v>2288.22</v>
       </c>
       <c r="E153" t="n">
-        <v>2296.92</v>
+        <v>2307.29</v>
       </c>
       <c r="F153" t="n">
-        <v>145.39303666</v>
+        <v>157.05954753</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45544</v>
+        <v>45544.04166666666</v>
       </c>
       <c r="B154" t="n">
-        <v>2297.31</v>
+        <v>2307.29</v>
       </c>
       <c r="C154" t="n">
-        <v>2310.99</v>
+        <v>2318.46</v>
       </c>
       <c r="D154" t="n">
-        <v>2288.22</v>
+        <v>2297.93</v>
       </c>
       <c r="E154" t="n">
-        <v>2307.29</v>
+        <v>2310.69</v>
       </c>
       <c r="F154" t="n">
-        <v>157.05954753</v>
+        <v>148.25944536</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45544.04166666666</v>
+        <v>45544.08333333334</v>
       </c>
       <c r="B155" t="n">
-        <v>2307.29</v>
+        <v>2310.63</v>
       </c>
       <c r="C155" t="n">
-        <v>2318.46</v>
+        <v>2310.99</v>
       </c>
       <c r="D155" t="n">
-        <v>2297.93</v>
+        <v>2297.92</v>
       </c>
       <c r="E155" t="n">
-        <v>2310.69</v>
+        <v>2305.8</v>
       </c>
       <c r="F155" t="n">
-        <v>148.25944536</v>
+        <v>165.97836023</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45544.08333333334</v>
+        <v>45544.125</v>
       </c>
       <c r="B156" t="n">
-        <v>2310.63</v>
+        <v>2305.88</v>
       </c>
       <c r="C156" t="n">
-        <v>2310.99</v>
+        <v>2306.48</v>
       </c>
       <c r="D156" t="n">
-        <v>2297.92</v>
+        <v>2290.68</v>
       </c>
       <c r="E156" t="n">
-        <v>2305.8</v>
+        <v>2303.86</v>
       </c>
       <c r="F156" t="n">
-        <v>165.97836023</v>
+        <v>239.37065156</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45544.125</v>
+        <v>45544.16666666666</v>
       </c>
       <c r="B157" t="n">
-        <v>2305.88</v>
+        <v>2303.86</v>
       </c>
       <c r="C157" t="n">
-        <v>2306.48</v>
+        <v>2305.98</v>
       </c>
       <c r="D157" t="n">
-        <v>2290.68</v>
+        <v>2295.49</v>
       </c>
       <c r="E157" t="n">
-        <v>2303.86</v>
+        <v>2297.01</v>
       </c>
       <c r="F157" t="n">
-        <v>239.37065156</v>
+        <v>72.29565377999999</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45544.16666666666</v>
+        <v>45544.20833333334</v>
       </c>
       <c r="B158" t="n">
-        <v>2303.86</v>
+        <v>2297</v>
       </c>
       <c r="C158" t="n">
-        <v>2305.98</v>
+        <v>2297.79</v>
       </c>
       <c r="D158" t="n">
-        <v>2295.49</v>
+        <v>2284.4</v>
       </c>
       <c r="E158" t="n">
-        <v>2297.01</v>
+        <v>2288.19</v>
       </c>
       <c r="F158" t="n">
-        <v>72.29565377999999</v>
+        <v>122.98290107</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45544.20833333334</v>
+        <v>45544.25</v>
       </c>
       <c r="B159" t="n">
-        <v>2297</v>
+        <v>2288.18</v>
       </c>
       <c r="C159" t="n">
-        <v>2297.79</v>
+        <v>2304.65</v>
       </c>
       <c r="D159" t="n">
-        <v>2284.4</v>
+        <v>2287.18</v>
       </c>
       <c r="E159" t="n">
-        <v>2288.19</v>
+        <v>2304.65</v>
       </c>
       <c r="F159" t="n">
-        <v>122.98290107</v>
+        <v>373.38661438</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45544.25</v>
+        <v>45544.29166666666</v>
       </c>
       <c r="B160" t="n">
-        <v>2288.18</v>
+        <v>2304.95</v>
       </c>
       <c r="C160" t="n">
-        <v>2304.65</v>
+        <v>2315.21</v>
       </c>
       <c r="D160" t="n">
-        <v>2287.18</v>
+        <v>2299.4</v>
       </c>
       <c r="E160" t="n">
-        <v>2304.65</v>
+        <v>2313.75</v>
       </c>
       <c r="F160" t="n">
-        <v>373.38661438</v>
+        <v>156.95846811</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45544.29166666666</v>
+        <v>45544.33333333334</v>
       </c>
       <c r="B161" t="n">
-        <v>2304.95</v>
+        <v>2313.63</v>
       </c>
       <c r="C161" t="n">
-        <v>2315.21</v>
+        <v>2328.37</v>
       </c>
       <c r="D161" t="n">
-        <v>2299.4</v>
+        <v>2313.63</v>
       </c>
       <c r="E161" t="n">
-        <v>2313.75</v>
+        <v>2324.98</v>
       </c>
       <c r="F161" t="n">
-        <v>156.95846811</v>
+        <v>462.08099243</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45544.33333333334</v>
+        <v>45544.375</v>
       </c>
       <c r="B162" t="n">
-        <v>2313.63</v>
+        <v>2324.99</v>
       </c>
       <c r="C162" t="n">
-        <v>2328.37</v>
+        <v>2337.09</v>
       </c>
       <c r="D162" t="n">
-        <v>2313.63</v>
+        <v>2315.78</v>
       </c>
       <c r="E162" t="n">
-        <v>2324.98</v>
+        <v>2317.22</v>
       </c>
       <c r="F162" t="n">
-        <v>462.08099243</v>
+        <v>146.39186484</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45544.375</v>
+        <v>45544.41666666666</v>
       </c>
       <c r="B163" t="n">
-        <v>2324.99</v>
+        <v>2317.22</v>
       </c>
       <c r="C163" t="n">
-        <v>2337.09</v>
+        <v>2324.69</v>
       </c>
       <c r="D163" t="n">
-        <v>2315.78</v>
+        <v>2312.99</v>
       </c>
       <c r="E163" t="n">
-        <v>2317.22</v>
+        <v>2319.44</v>
       </c>
       <c r="F163" t="n">
-        <v>146.39186484</v>
+        <v>310.33041222</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45544.41666666666</v>
+        <v>45544.45833333334</v>
       </c>
       <c r="B164" t="n">
-        <v>2317.22</v>
+        <v>2320.09</v>
       </c>
       <c r="C164" t="n">
-        <v>2324.69</v>
+        <v>2320.53</v>
       </c>
       <c r="D164" t="n">
-        <v>2312.99</v>
+        <v>2312.61</v>
       </c>
       <c r="E164" t="n">
-        <v>2319.44</v>
+        <v>2314.12</v>
       </c>
       <c r="F164" t="n">
-        <v>310.33041222</v>
+        <v>135.36671154</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45544.45833333334</v>
+        <v>45544.5</v>
       </c>
       <c r="B165" t="n">
-        <v>2320.09</v>
+        <v>2314.12</v>
       </c>
       <c r="C165" t="n">
-        <v>2320.53</v>
+        <v>2314.99</v>
       </c>
       <c r="D165" t="n">
-        <v>2312.61</v>
+        <v>2300.81</v>
       </c>
       <c r="E165" t="n">
-        <v>2314.12</v>
+        <v>2312.78</v>
       </c>
       <c r="F165" t="n">
-        <v>135.36671154</v>
+        <v>596.8403416800001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45544.5</v>
+        <v>45544.54166666666</v>
       </c>
       <c r="B166" t="n">
-        <v>2314.12</v>
+        <v>2313.04</v>
       </c>
       <c r="C166" t="n">
-        <v>2314.99</v>
+        <v>2324.67</v>
       </c>
       <c r="D166" t="n">
-        <v>2300.81</v>
+        <v>2307.1</v>
       </c>
       <c r="E166" t="n">
-        <v>2312.78</v>
+        <v>2322.62</v>
       </c>
       <c r="F166" t="n">
-        <v>596.8403416800001</v>
+        <v>303.24295226</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45544.54166666666</v>
+        <v>45544.58333333334</v>
       </c>
       <c r="B167" t="n">
-        <v>2313.04</v>
+        <v>2320.82</v>
       </c>
       <c r="C167" t="n">
-        <v>2316.99</v>
+        <v>2321.64</v>
       </c>
       <c r="D167" t="n">
-        <v>2307.1</v>
+        <v>2309.46</v>
       </c>
       <c r="E167" t="n">
-        <v>2311.91</v>
+        <v>2311.19</v>
       </c>
       <c r="F167" t="n">
-        <v>117.64152531</v>
+        <v>44.72736388</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos.xlsx
+++ b/cryptos.xlsx
@@ -474,3322 +474,3322 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45537.70833333334</v>
+        <v>45537.75</v>
       </c>
       <c r="B2" t="n">
-        <v>58338.2</v>
+        <v>58515</v>
       </c>
       <c r="C2" t="n">
-        <v>58527.1</v>
+        <v>58627</v>
       </c>
       <c r="D2" t="n">
         <v>58318</v>
       </c>
       <c r="E2" t="n">
-        <v>58515</v>
+        <v>58449.9</v>
       </c>
       <c r="F2" t="n">
-        <v>32.47344041</v>
+        <v>63.55732801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45537.75</v>
+        <v>45537.79166666666</v>
       </c>
       <c r="B3" t="n">
-        <v>58515</v>
+        <v>58450</v>
       </c>
       <c r="C3" t="n">
-        <v>58627</v>
+        <v>58561.5</v>
       </c>
       <c r="D3" t="n">
-        <v>58318</v>
+        <v>58406.9</v>
       </c>
       <c r="E3" t="n">
-        <v>58449.9</v>
+        <v>58437.7</v>
       </c>
       <c r="F3" t="n">
-        <v>63.55732801</v>
+        <v>17.08158141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45537.79166666666</v>
+        <v>45537.83333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>58450</v>
+        <v>58437.8</v>
       </c>
       <c r="C4" t="n">
-        <v>58561.5</v>
+        <v>59188</v>
       </c>
       <c r="D4" t="n">
-        <v>58406.9</v>
+        <v>58429.8</v>
       </c>
       <c r="E4" t="n">
-        <v>58437.7</v>
+        <v>59016.5</v>
       </c>
       <c r="F4" t="n">
-        <v>17.08158141</v>
+        <v>102.62445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45537.83333333334</v>
+        <v>45537.875</v>
       </c>
       <c r="B5" t="n">
-        <v>58437.8</v>
+        <v>59005.7</v>
       </c>
       <c r="C5" t="n">
-        <v>59188</v>
+        <v>59278.2</v>
       </c>
       <c r="D5" t="n">
-        <v>58429.8</v>
+        <v>58915.2</v>
       </c>
       <c r="E5" t="n">
-        <v>59016.5</v>
+        <v>59041</v>
       </c>
       <c r="F5" t="n">
-        <v>102.62445</v>
+        <v>98.35279558000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537.875</v>
+        <v>45537.91666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>59005.7</v>
+        <v>59041</v>
       </c>
       <c r="C6" t="n">
-        <v>59278.2</v>
+        <v>59293.4</v>
       </c>
       <c r="D6" t="n">
-        <v>58915.2</v>
+        <v>58993.2</v>
       </c>
       <c r="E6" t="n">
-        <v>59041</v>
+        <v>59293.3</v>
       </c>
       <c r="F6" t="n">
-        <v>98.35279558000001</v>
+        <v>24.24227232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45537.91666666666</v>
+        <v>45537.95833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>59041</v>
+        <v>59293.3</v>
       </c>
       <c r="C7" t="n">
-        <v>59293.4</v>
+        <v>59388</v>
       </c>
       <c r="D7" t="n">
-        <v>58993.2</v>
+        <v>59083.4</v>
       </c>
       <c r="E7" t="n">
-        <v>59293.3</v>
+        <v>59128.6</v>
       </c>
       <c r="F7" t="n">
-        <v>24.24227232</v>
+        <v>7.95907315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45537.95833333334</v>
+        <v>45538</v>
       </c>
       <c r="B8" t="n">
-        <v>59293.3</v>
+        <v>59128.7</v>
       </c>
       <c r="C8" t="n">
-        <v>59388</v>
+        <v>59220.5</v>
       </c>
       <c r="D8" t="n">
-        <v>59083.4</v>
+        <v>59029.3</v>
       </c>
       <c r="E8" t="n">
-        <v>59128.6</v>
+        <v>59220.5</v>
       </c>
       <c r="F8" t="n">
-        <v>7.95907315</v>
+        <v>46.86105443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45538</v>
+        <v>45538.04166666666</v>
       </c>
       <c r="B9" t="n">
-        <v>59128.7</v>
+        <v>59220.5</v>
       </c>
       <c r="C9" t="n">
-        <v>59220.5</v>
+        <v>59388</v>
       </c>
       <c r="D9" t="n">
-        <v>59029.3</v>
+        <v>59189.1</v>
       </c>
       <c r="E9" t="n">
-        <v>59220.5</v>
+        <v>59376.9</v>
       </c>
       <c r="F9" t="n">
-        <v>46.86105443</v>
+        <v>23.69985216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45538.04166666666</v>
+        <v>45538.08333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>59220.5</v>
+        <v>59376.9</v>
       </c>
       <c r="C10" t="n">
-        <v>59388</v>
+        <v>59773</v>
       </c>
       <c r="D10" t="n">
-        <v>59189.1</v>
+        <v>59314.9</v>
       </c>
       <c r="E10" t="n">
-        <v>59376.9</v>
+        <v>59315</v>
       </c>
       <c r="F10" t="n">
-        <v>23.69985216</v>
+        <v>51.81755867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45538.08333333334</v>
+        <v>45538.125</v>
       </c>
       <c r="B11" t="n">
-        <v>59376.9</v>
+        <v>59315</v>
       </c>
       <c r="C11" t="n">
-        <v>59773</v>
+        <v>59337.5</v>
       </c>
       <c r="D11" t="n">
-        <v>59314.9</v>
+        <v>59094.9</v>
       </c>
       <c r="E11" t="n">
-        <v>59315</v>
+        <v>59095.5</v>
       </c>
       <c r="F11" t="n">
-        <v>51.81755867</v>
+        <v>21.38344787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45538.125</v>
+        <v>45538.16666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>59315</v>
+        <v>59095.6</v>
       </c>
       <c r="C12" t="n">
-        <v>59337.5</v>
+        <v>59200</v>
       </c>
       <c r="D12" t="n">
-        <v>59094.9</v>
+        <v>59016.6</v>
       </c>
       <c r="E12" t="n">
-        <v>59095.5</v>
+        <v>59089.5</v>
       </c>
       <c r="F12" t="n">
-        <v>21.38344787</v>
+        <v>17.48434155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45538.16666666666</v>
+        <v>45538.20833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>59095.6</v>
+        <v>59089.6</v>
       </c>
       <c r="C13" t="n">
-        <v>59200</v>
+        <v>59250.1</v>
       </c>
       <c r="D13" t="n">
-        <v>59016.6</v>
+        <v>59040</v>
       </c>
       <c r="E13" t="n">
-        <v>59089.5</v>
+        <v>59182.2</v>
       </c>
       <c r="F13" t="n">
-        <v>17.48434155</v>
+        <v>31.54283144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45538.20833333334</v>
+        <v>45538.25</v>
       </c>
       <c r="B14" t="n">
-        <v>59089.6</v>
+        <v>59182.1</v>
       </c>
       <c r="C14" t="n">
-        <v>59250.1</v>
+        <v>59182.2</v>
       </c>
       <c r="D14" t="n">
-        <v>59040</v>
+        <v>58882.2</v>
       </c>
       <c r="E14" t="n">
-        <v>59182.2</v>
+        <v>58886.7</v>
       </c>
       <c r="F14" t="n">
-        <v>31.54283144</v>
+        <v>42.60916045</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45538.25</v>
+        <v>45538.29166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>59182.1</v>
+        <v>58886.7</v>
       </c>
       <c r="C15" t="n">
-        <v>59182.2</v>
+        <v>59090</v>
       </c>
       <c r="D15" t="n">
-        <v>58882.2</v>
+        <v>58886.6</v>
       </c>
       <c r="E15" t="n">
-        <v>58886.7</v>
+        <v>59090</v>
       </c>
       <c r="F15" t="n">
-        <v>42.60916045</v>
+        <v>22.49755357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45538.29166666666</v>
+        <v>45538.33333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>58886.7</v>
+        <v>59090</v>
       </c>
       <c r="C16" t="n">
-        <v>59090</v>
+        <v>59107.7</v>
       </c>
       <c r="D16" t="n">
-        <v>58886.6</v>
+        <v>58702.8</v>
       </c>
       <c r="E16" t="n">
-        <v>59090</v>
+        <v>58807.8</v>
       </c>
       <c r="F16" t="n">
-        <v>22.49755357</v>
+        <v>42.6152072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45538.33333333334</v>
+        <v>45538.375</v>
       </c>
       <c r="B17" t="n">
-        <v>59090</v>
+        <v>58807.9</v>
       </c>
       <c r="C17" t="n">
-        <v>59107.7</v>
+        <v>58943.8</v>
       </c>
       <c r="D17" t="n">
-        <v>58702.8</v>
+        <v>58791.7</v>
       </c>
       <c r="E17" t="n">
-        <v>58807.8</v>
+        <v>58860.8</v>
       </c>
       <c r="F17" t="n">
-        <v>42.6152072</v>
+        <v>14.62084471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45538.375</v>
+        <v>45538.41666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>58807.9</v>
+        <v>58860.9</v>
       </c>
       <c r="C18" t="n">
-        <v>58943.8</v>
+        <v>59182.2</v>
       </c>
       <c r="D18" t="n">
-        <v>58791.7</v>
+        <v>58835.6</v>
       </c>
       <c r="E18" t="n">
-        <v>58860.8</v>
+        <v>59068.3</v>
       </c>
       <c r="F18" t="n">
-        <v>14.62084471</v>
+        <v>22.63135998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45538.41666666666</v>
+        <v>45538.45833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>58860.9</v>
+        <v>59068.3</v>
       </c>
       <c r="C19" t="n">
-        <v>59182.2</v>
+        <v>59085.3</v>
       </c>
       <c r="D19" t="n">
-        <v>58835.6</v>
+        <v>58940.3</v>
       </c>
       <c r="E19" t="n">
-        <v>59068.3</v>
+        <v>59049.2</v>
       </c>
       <c r="F19" t="n">
-        <v>22.63135998</v>
+        <v>15.63797626</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45538.45833333334</v>
+        <v>45538.5</v>
       </c>
       <c r="B20" t="n">
-        <v>59068.3</v>
+        <v>59049.2</v>
       </c>
       <c r="C20" t="n">
-        <v>59085.3</v>
+        <v>59314.8</v>
       </c>
       <c r="D20" t="n">
-        <v>58940.3</v>
+        <v>59049.1</v>
       </c>
       <c r="E20" t="n">
-        <v>59049.2</v>
+        <v>59160.2</v>
       </c>
       <c r="F20" t="n">
-        <v>15.63797626</v>
+        <v>16.81711094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45538.5</v>
+        <v>45538.54166666666</v>
       </c>
       <c r="B21" t="n">
-        <v>59049.2</v>
+        <v>59160.2</v>
       </c>
       <c r="C21" t="n">
-        <v>59314.8</v>
+        <v>59293.7</v>
       </c>
       <c r="D21" t="n">
-        <v>59049.1</v>
+        <v>58225.4</v>
       </c>
       <c r="E21" t="n">
-        <v>59160.2</v>
+        <v>58388.2</v>
       </c>
       <c r="F21" t="n">
-        <v>16.81711094</v>
+        <v>109.33062449</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45538.54166666666</v>
+        <v>45538.58333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>59160.2</v>
+        <v>58388.3</v>
       </c>
       <c r="C22" t="n">
-        <v>59293.7</v>
+        <v>58388.3</v>
       </c>
       <c r="D22" t="n">
-        <v>58225.4</v>
+        <v>57541.5</v>
       </c>
       <c r="E22" t="n">
-        <v>58388.2</v>
+        <v>57649.4</v>
       </c>
       <c r="F22" t="n">
-        <v>109.33062449</v>
+        <v>187.63249372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45538.58333333334</v>
+        <v>45538.625</v>
       </c>
       <c r="B23" t="n">
-        <v>58388.3</v>
+        <v>57649.4</v>
       </c>
       <c r="C23" t="n">
-        <v>58388.3</v>
+        <v>57977.8</v>
       </c>
       <c r="D23" t="n">
-        <v>57541.5</v>
+        <v>57609.3</v>
       </c>
       <c r="E23" t="n">
-        <v>57649.4</v>
+        <v>57737.2</v>
       </c>
       <c r="F23" t="n">
-        <v>187.63249372</v>
+        <v>83.64088246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45538.625</v>
+        <v>45538.66666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>57649.4</v>
+        <v>57707.3</v>
       </c>
       <c r="C24" t="n">
-        <v>57977.8</v>
+        <v>57900</v>
       </c>
       <c r="D24" t="n">
-        <v>57609.3</v>
+        <v>57629.9</v>
       </c>
       <c r="E24" t="n">
-        <v>57737.2</v>
+        <v>57690</v>
       </c>
       <c r="F24" t="n">
-        <v>83.64088246</v>
+        <v>34.03965887</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45538.66666666666</v>
+        <v>45538.70833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>57707.3</v>
+        <v>57689.9</v>
       </c>
       <c r="C25" t="n">
-        <v>57900</v>
+        <v>58024.9</v>
       </c>
       <c r="D25" t="n">
-        <v>57629.9</v>
+        <v>57675</v>
       </c>
       <c r="E25" t="n">
-        <v>57690</v>
+        <v>57680.9</v>
       </c>
       <c r="F25" t="n">
-        <v>34.03965887</v>
+        <v>126.42552435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45538.70833333334</v>
+        <v>45538.75</v>
       </c>
       <c r="B26" t="n">
-        <v>57689.9</v>
+        <v>57680.8</v>
       </c>
       <c r="C26" t="n">
-        <v>58024.9</v>
+        <v>58000</v>
       </c>
       <c r="D26" t="n">
-        <v>57675</v>
+        <v>57600</v>
       </c>
       <c r="E26" t="n">
-        <v>57680.9</v>
+        <v>57901</v>
       </c>
       <c r="F26" t="n">
-        <v>126.42552435</v>
+        <v>97.51147340999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45538.75</v>
+        <v>45538.79166666666</v>
       </c>
       <c r="B27" t="n">
-        <v>57680.8</v>
+        <v>57900.9</v>
       </c>
       <c r="C27" t="n">
-        <v>58000</v>
+        <v>58226.5</v>
       </c>
       <c r="D27" t="n">
-        <v>57600</v>
+        <v>57822.4</v>
       </c>
       <c r="E27" t="n">
-        <v>57901</v>
+        <v>57994.6</v>
       </c>
       <c r="F27" t="n">
-        <v>97.51147340999999</v>
+        <v>118.12551202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45538.79166666666</v>
+        <v>45538.83333333334</v>
       </c>
       <c r="B28" t="n">
-        <v>57900.9</v>
+        <v>57994.6</v>
       </c>
       <c r="C28" t="n">
-        <v>58226.5</v>
+        <v>58172.9</v>
       </c>
       <c r="D28" t="n">
-        <v>57822.4</v>
+        <v>57994.6</v>
       </c>
       <c r="E28" t="n">
-        <v>57994.6</v>
+        <v>58172.9</v>
       </c>
       <c r="F28" t="n">
-        <v>118.12551202</v>
+        <v>140.38737342</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45538.83333333334</v>
+        <v>45538.875</v>
       </c>
       <c r="B29" t="n">
-        <v>57994.6</v>
+        <v>58172.9</v>
       </c>
       <c r="C29" t="n">
         <v>58172.9</v>
       </c>
       <c r="D29" t="n">
-        <v>57994.6</v>
+        <v>57972.1</v>
       </c>
       <c r="E29" t="n">
-        <v>58172.9</v>
+        <v>58089</v>
       </c>
       <c r="F29" t="n">
-        <v>140.38737342</v>
+        <v>26.5104132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45538.875</v>
+        <v>45538.91666666666</v>
       </c>
       <c r="B30" t="n">
-        <v>58172.9</v>
+        <v>58089</v>
       </c>
       <c r="C30" t="n">
-        <v>58172.9</v>
+        <v>58155</v>
       </c>
       <c r="D30" t="n">
-        <v>57972.1</v>
+        <v>57858.2</v>
       </c>
       <c r="E30" t="n">
-        <v>58089</v>
+        <v>57870.1</v>
       </c>
       <c r="F30" t="n">
-        <v>26.5104132</v>
+        <v>84.88440487</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45538.91666666666</v>
+        <v>45538.95833333334</v>
       </c>
       <c r="B31" t="n">
-        <v>58089</v>
+        <v>57870.2</v>
       </c>
       <c r="C31" t="n">
-        <v>58155</v>
+        <v>57880</v>
       </c>
       <c r="D31" t="n">
-        <v>57858.2</v>
+        <v>57406.4</v>
       </c>
       <c r="E31" t="n">
-        <v>57870.1</v>
+        <v>57497.6</v>
       </c>
       <c r="F31" t="n">
-        <v>84.88440487</v>
+        <v>65.99529876</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45538.95833333334</v>
+        <v>45539</v>
       </c>
       <c r="B32" t="n">
-        <v>57870.2</v>
+        <v>57482.4</v>
       </c>
       <c r="C32" t="n">
-        <v>57880</v>
+        <v>57918</v>
       </c>
       <c r="D32" t="n">
-        <v>57406.4</v>
+        <v>57155</v>
       </c>
       <c r="E32" t="n">
-        <v>57497.6</v>
+        <v>57155</v>
       </c>
       <c r="F32" t="n">
-        <v>65.99529876</v>
+        <v>115.05509602</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45539</v>
+        <v>45539.04166666666</v>
       </c>
       <c r="B33" t="n">
-        <v>57482.4</v>
+        <v>57155.1</v>
       </c>
       <c r="C33" t="n">
-        <v>57918</v>
+        <v>57155.1</v>
       </c>
       <c r="D33" t="n">
-        <v>57155</v>
+        <v>55617.7</v>
       </c>
       <c r="E33" t="n">
-        <v>57155</v>
+        <v>56789.9</v>
       </c>
       <c r="F33" t="n">
-        <v>115.05509602</v>
+        <v>318.9211953</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45539.04166666666</v>
+        <v>45539.08333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>57155.1</v>
+        <v>56789.9</v>
       </c>
       <c r="C34" t="n">
-        <v>57155.1</v>
+        <v>56816.8</v>
       </c>
       <c r="D34" t="n">
-        <v>55617.7</v>
+        <v>56508.6</v>
       </c>
       <c r="E34" t="n">
-        <v>56789.9</v>
+        <v>56634.9</v>
       </c>
       <c r="F34" t="n">
-        <v>318.9211953</v>
+        <v>168.12117661</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45539.08333333334</v>
+        <v>45539.125</v>
       </c>
       <c r="B35" t="n">
-        <v>56789.9</v>
+        <v>56634.9</v>
       </c>
       <c r="C35" t="n">
-        <v>56816.8</v>
+        <v>56825</v>
       </c>
       <c r="D35" t="n">
-        <v>56508.6</v>
+        <v>56619.8</v>
       </c>
       <c r="E35" t="n">
-        <v>56634.9</v>
+        <v>56642.9</v>
       </c>
       <c r="F35" t="n">
-        <v>168.12117661</v>
+        <v>49.00594773</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45539.125</v>
+        <v>45539.16666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>56634.9</v>
+        <v>56643</v>
       </c>
       <c r="C36" t="n">
-        <v>56825</v>
+        <v>56714.3</v>
       </c>
       <c r="D36" t="n">
-        <v>56619.8</v>
+        <v>56553.1</v>
       </c>
       <c r="E36" t="n">
-        <v>56642.9</v>
+        <v>56680.1</v>
       </c>
       <c r="F36" t="n">
-        <v>49.00594773</v>
+        <v>31.6001979</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45539.16666666666</v>
+        <v>45539.20833333334</v>
       </c>
       <c r="B37" t="n">
-        <v>56643</v>
+        <v>56682.8</v>
       </c>
       <c r="C37" t="n">
-        <v>56714.3</v>
+        <v>56685.5</v>
       </c>
       <c r="D37" t="n">
-        <v>56553.1</v>
+        <v>56171.8</v>
       </c>
       <c r="E37" t="n">
-        <v>56680.1</v>
+        <v>56275.1</v>
       </c>
       <c r="F37" t="n">
-        <v>31.6001979</v>
+        <v>47.06743529</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45539.20833333334</v>
+        <v>45539.25</v>
       </c>
       <c r="B38" t="n">
-        <v>56682.8</v>
+        <v>56275.2</v>
       </c>
       <c r="C38" t="n">
-        <v>56685.5</v>
+        <v>56504.4</v>
       </c>
       <c r="D38" t="n">
-        <v>56171.8</v>
+        <v>56235.7</v>
       </c>
       <c r="E38" t="n">
-        <v>56275.1</v>
+        <v>56260.4</v>
       </c>
       <c r="F38" t="n">
-        <v>47.06743529</v>
+        <v>34.77093212</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45539.25</v>
+        <v>45539.29166666666</v>
       </c>
       <c r="B39" t="n">
-        <v>56275.2</v>
+        <v>56261.8</v>
       </c>
       <c r="C39" t="n">
-        <v>56504.4</v>
+        <v>56825</v>
       </c>
       <c r="D39" t="n">
-        <v>56235.7</v>
+        <v>56261.7</v>
       </c>
       <c r="E39" t="n">
-        <v>56260.4</v>
+        <v>56730</v>
       </c>
       <c r="F39" t="n">
-        <v>34.77093212</v>
+        <v>70.90947052</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45539.29166666666</v>
+        <v>45539.33333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>56261.8</v>
+        <v>56730</v>
       </c>
       <c r="C40" t="n">
-        <v>56825</v>
+        <v>56888.3</v>
       </c>
       <c r="D40" t="n">
-        <v>56261.7</v>
+        <v>56670.7</v>
       </c>
       <c r="E40" t="n">
-        <v>56730</v>
+        <v>56773.4</v>
       </c>
       <c r="F40" t="n">
-        <v>70.90947052</v>
+        <v>72.82400325</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45539.33333333334</v>
+        <v>45539.375</v>
       </c>
       <c r="B41" t="n">
-        <v>56730</v>
+        <v>56773.4</v>
       </c>
       <c r="C41" t="n">
-        <v>56888.3</v>
+        <v>56816.6</v>
       </c>
       <c r="D41" t="n">
-        <v>56670.7</v>
+        <v>56591.8</v>
       </c>
       <c r="E41" t="n">
-        <v>56773.4</v>
+        <v>56595.9</v>
       </c>
       <c r="F41" t="n">
-        <v>72.82400325</v>
+        <v>17.11204682</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45539.375</v>
+        <v>45539.41666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>56773.4</v>
+        <v>56595.9</v>
       </c>
       <c r="C42" t="n">
-        <v>56816.6</v>
+        <v>56701</v>
       </c>
       <c r="D42" t="n">
-        <v>56591.8</v>
+        <v>56451.7</v>
       </c>
       <c r="E42" t="n">
-        <v>56595.9</v>
+        <v>56451.8</v>
       </c>
       <c r="F42" t="n">
-        <v>17.11204682</v>
+        <v>23.15149327</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45539.41666666666</v>
+        <v>45539.45833333334</v>
       </c>
       <c r="B43" t="n">
-        <v>56595.9</v>
+        <v>56451.8</v>
       </c>
       <c r="C43" t="n">
-        <v>56701</v>
+        <v>56670</v>
       </c>
       <c r="D43" t="n">
-        <v>56451.7</v>
+        <v>56446.7</v>
       </c>
       <c r="E43" t="n">
-        <v>56451.8</v>
+        <v>56577.5</v>
       </c>
       <c r="F43" t="n">
-        <v>23.15149327</v>
+        <v>138.88461398</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45539.45833333334</v>
+        <v>45539.5</v>
       </c>
       <c r="B44" t="n">
-        <v>56451.8</v>
+        <v>56577.5</v>
       </c>
       <c r="C44" t="n">
-        <v>56670</v>
+        <v>56761</v>
       </c>
       <c r="D44" t="n">
-        <v>56446.7</v>
+        <v>56500</v>
       </c>
       <c r="E44" t="n">
-        <v>56577.5</v>
+        <v>56579.4</v>
       </c>
       <c r="F44" t="n">
-        <v>138.88461398</v>
+        <v>23.06180471</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45539.5</v>
+        <v>45539.54166666666</v>
       </c>
       <c r="B45" t="n">
-        <v>56577.5</v>
+        <v>56595.3</v>
       </c>
       <c r="C45" t="n">
-        <v>56761</v>
+        <v>56673.4</v>
       </c>
       <c r="D45" t="n">
-        <v>56500</v>
+        <v>56336.6</v>
       </c>
       <c r="E45" t="n">
-        <v>56579.4</v>
+        <v>56443.7</v>
       </c>
       <c r="F45" t="n">
-        <v>23.06180471</v>
+        <v>68.58735599000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45539.54166666666</v>
+        <v>45539.58333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>56595.3</v>
+        <v>56451.5</v>
       </c>
       <c r="C46" t="n">
-        <v>56673.4</v>
+        <v>57558.2</v>
       </c>
       <c r="D46" t="n">
-        <v>56336.6</v>
+        <v>56200</v>
       </c>
       <c r="E46" t="n">
-        <v>56443.7</v>
+        <v>57555.1</v>
       </c>
       <c r="F46" t="n">
-        <v>68.58735599000001</v>
+        <v>273.71156796</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45539.58333333334</v>
+        <v>45539.625</v>
       </c>
       <c r="B47" t="n">
-        <v>56451.5</v>
+        <v>57555.1</v>
       </c>
       <c r="C47" t="n">
-        <v>57558.2</v>
+        <v>58132.3</v>
       </c>
       <c r="D47" t="n">
-        <v>56200</v>
+        <v>57375.7</v>
       </c>
       <c r="E47" t="n">
-        <v>57555.1</v>
+        <v>58132.2</v>
       </c>
       <c r="F47" t="n">
-        <v>273.71156796</v>
+        <v>158.46052368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45539.625</v>
+        <v>45539.66666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>57555.1</v>
+        <v>58132.3</v>
       </c>
       <c r="C48" t="n">
-        <v>58132.3</v>
+        <v>58508</v>
       </c>
       <c r="D48" t="n">
-        <v>57375.7</v>
+        <v>58128.6</v>
       </c>
       <c r="E48" t="n">
-        <v>58132.2</v>
+        <v>58409.8</v>
       </c>
       <c r="F48" t="n">
-        <v>158.46052368</v>
+        <v>227.87421478</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45539.66666666666</v>
+        <v>45539.70833333334</v>
       </c>
       <c r="B49" t="n">
-        <v>58132.3</v>
+        <v>58409.8</v>
       </c>
       <c r="C49" t="n">
-        <v>58508</v>
+        <v>58477.3</v>
       </c>
       <c r="D49" t="n">
-        <v>58128.6</v>
+        <v>57824.9</v>
       </c>
       <c r="E49" t="n">
-        <v>58409.8</v>
+        <v>57918.3</v>
       </c>
       <c r="F49" t="n">
-        <v>227.87421478</v>
+        <v>101.38094371</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45539.70833333334</v>
+        <v>45539.75</v>
       </c>
       <c r="B50" t="n">
-        <v>58409.8</v>
+        <v>57918.3</v>
       </c>
       <c r="C50" t="n">
-        <v>58477.3</v>
+        <v>57989.8</v>
       </c>
       <c r="D50" t="n">
-        <v>57824.9</v>
+        <v>57637.9</v>
       </c>
       <c r="E50" t="n">
-        <v>57918.3</v>
+        <v>57686</v>
       </c>
       <c r="F50" t="n">
-        <v>101.38094371</v>
+        <v>92.14569684</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45539.75</v>
+        <v>45539.79166666666</v>
       </c>
       <c r="B51" t="n">
-        <v>57918.3</v>
+        <v>57686</v>
       </c>
       <c r="C51" t="n">
-        <v>57989.8</v>
+        <v>58124</v>
       </c>
       <c r="D51" t="n">
-        <v>57637.9</v>
+        <v>57673</v>
       </c>
       <c r="E51" t="n">
-        <v>57686</v>
+        <v>58035.5</v>
       </c>
       <c r="F51" t="n">
-        <v>92.14569684</v>
+        <v>74.31674502</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45539.79166666666</v>
+        <v>45539.83333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>57686</v>
+        <v>58035.6</v>
       </c>
       <c r="C52" t="n">
-        <v>58124</v>
+        <v>58119.1</v>
       </c>
       <c r="D52" t="n">
-        <v>57673</v>
+        <v>57912.7</v>
       </c>
       <c r="E52" t="n">
-        <v>58035.5</v>
+        <v>58058.1</v>
       </c>
       <c r="F52" t="n">
-        <v>74.31674502</v>
+        <v>77.21076929</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45539.83333333334</v>
+        <v>45539.875</v>
       </c>
       <c r="B53" t="n">
-        <v>58035.6</v>
+        <v>58053.1</v>
       </c>
       <c r="C53" t="n">
-        <v>58119.1</v>
+        <v>58104.5</v>
       </c>
       <c r="D53" t="n">
-        <v>57912.7</v>
+        <v>57980.9</v>
       </c>
       <c r="E53" t="n">
-        <v>58058.1</v>
+        <v>58092.3</v>
       </c>
       <c r="F53" t="n">
-        <v>77.21076929</v>
+        <v>20.80874521</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45539.875</v>
+        <v>45539.91666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>58053.1</v>
+        <v>58092.3</v>
       </c>
       <c r="C54" t="n">
-        <v>58104.5</v>
+        <v>58368.7</v>
       </c>
       <c r="D54" t="n">
-        <v>57980.9</v>
+        <v>58035.2</v>
       </c>
       <c r="E54" t="n">
-        <v>58092.3</v>
+        <v>58133</v>
       </c>
       <c r="F54" t="n">
-        <v>20.80874521</v>
+        <v>27.92613374</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45539.91666666666</v>
+        <v>45539.95833333334</v>
       </c>
       <c r="B55" t="n">
-        <v>58092.3</v>
+        <v>58132.5</v>
       </c>
       <c r="C55" t="n">
-        <v>58368.7</v>
+        <v>58228.4</v>
       </c>
       <c r="D55" t="n">
-        <v>58035.2</v>
+        <v>57941</v>
       </c>
       <c r="E55" t="n">
-        <v>58133</v>
+        <v>57970</v>
       </c>
       <c r="F55" t="n">
-        <v>27.92613374</v>
+        <v>20.73313947</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45539.95833333334</v>
+        <v>45540</v>
       </c>
       <c r="B56" t="n">
-        <v>58132.5</v>
+        <v>57970.1</v>
       </c>
       <c r="C56" t="n">
-        <v>58228.4</v>
+        <v>58285.9</v>
       </c>
       <c r="D56" t="n">
-        <v>57941</v>
+        <v>57970</v>
       </c>
       <c r="E56" t="n">
-        <v>57970</v>
+        <v>58015.1</v>
       </c>
       <c r="F56" t="n">
-        <v>20.73313947</v>
+        <v>33.84136886</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45540</v>
+        <v>45540.04166666666</v>
       </c>
       <c r="B57" t="n">
-        <v>57970.1</v>
+        <v>58015.1</v>
       </c>
       <c r="C57" t="n">
-        <v>58285.9</v>
+        <v>58242.4</v>
       </c>
       <c r="D57" t="n">
-        <v>57970</v>
+        <v>57981.6</v>
       </c>
       <c r="E57" t="n">
-        <v>58015.1</v>
+        <v>58026.1</v>
       </c>
       <c r="F57" t="n">
-        <v>33.84136886</v>
+        <v>27.76975163</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45540.04166666666</v>
+        <v>45540.08333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>58015.1</v>
+        <v>58026.1</v>
       </c>
       <c r="C58" t="n">
-        <v>58242.4</v>
+        <v>58053.5</v>
       </c>
       <c r="D58" t="n">
-        <v>57981.6</v>
+        <v>57696</v>
       </c>
       <c r="E58" t="n">
-        <v>58026.1</v>
+        <v>57696.1</v>
       </c>
       <c r="F58" t="n">
-        <v>27.76975163</v>
+        <v>93.46589954</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45540.08333333334</v>
+        <v>45540.125</v>
       </c>
       <c r="B59" t="n">
-        <v>58026.1</v>
+        <v>57693.3</v>
       </c>
       <c r="C59" t="n">
-        <v>58053.5</v>
+        <v>57693.3</v>
       </c>
       <c r="D59" t="n">
-        <v>57696</v>
+        <v>56914.7</v>
       </c>
       <c r="E59" t="n">
-        <v>57696.1</v>
+        <v>57124.6</v>
       </c>
       <c r="F59" t="n">
-        <v>93.46589954</v>
+        <v>174.45293079</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45540.125</v>
+        <v>45540.16666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>57693.3</v>
+        <v>57124.6</v>
       </c>
       <c r="C60" t="n">
-        <v>57693.3</v>
+        <v>57272.6</v>
       </c>
       <c r="D60" t="n">
-        <v>56914.7</v>
+        <v>57070.6</v>
       </c>
       <c r="E60" t="n">
-        <v>57124.6</v>
+        <v>57208.9</v>
       </c>
       <c r="F60" t="n">
-        <v>174.45293079</v>
+        <v>59.26508358</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45540.16666666666</v>
+        <v>45540.20833333334</v>
       </c>
       <c r="B61" t="n">
-        <v>57124.6</v>
+        <v>57208.9</v>
       </c>
       <c r="C61" t="n">
-        <v>57272.6</v>
+        <v>57215.7</v>
       </c>
       <c r="D61" t="n">
-        <v>57070.6</v>
+        <v>57057.4</v>
       </c>
       <c r="E61" t="n">
-        <v>57208.9</v>
+        <v>57189.9</v>
       </c>
       <c r="F61" t="n">
-        <v>59.26508358</v>
+        <v>26.65803126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45540.20833333334</v>
+        <v>45540.25</v>
       </c>
       <c r="B62" t="n">
-        <v>57208.9</v>
+        <v>57190</v>
       </c>
       <c r="C62" t="n">
-        <v>57215.7</v>
+        <v>57198.3</v>
       </c>
       <c r="D62" t="n">
-        <v>57057.4</v>
+        <v>56567</v>
       </c>
       <c r="E62" t="n">
-        <v>57189.9</v>
+        <v>56909.3</v>
       </c>
       <c r="F62" t="n">
-        <v>26.65803126</v>
+        <v>54.43641993</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45540.25</v>
+        <v>45540.29166666666</v>
       </c>
       <c r="B63" t="n">
-        <v>57190</v>
+        <v>56909.4</v>
       </c>
       <c r="C63" t="n">
-        <v>57198.3</v>
+        <v>57215.7</v>
       </c>
       <c r="D63" t="n">
-        <v>56567</v>
+        <v>56863.7</v>
       </c>
       <c r="E63" t="n">
-        <v>56909.3</v>
+        <v>57148.1</v>
       </c>
       <c r="F63" t="n">
-        <v>54.43641993</v>
+        <v>36.04270558</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45540.29166666666</v>
+        <v>45540.33333333334</v>
       </c>
       <c r="B64" t="n">
-        <v>56909.4</v>
+        <v>57148.1</v>
       </c>
       <c r="C64" t="n">
-        <v>57215.7</v>
+        <v>57217.5</v>
       </c>
       <c r="D64" t="n">
-        <v>56863.7</v>
+        <v>56990.6</v>
       </c>
       <c r="E64" t="n">
-        <v>57148.1</v>
+        <v>56999.5</v>
       </c>
       <c r="F64" t="n">
-        <v>36.04270558</v>
+        <v>27.42116508</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45540.33333333334</v>
+        <v>45540.375</v>
       </c>
       <c r="B65" t="n">
-        <v>57148.1</v>
+        <v>56999.6</v>
       </c>
       <c r="C65" t="n">
-        <v>57217.5</v>
+        <v>57005</v>
       </c>
       <c r="D65" t="n">
-        <v>56990.6</v>
+        <v>56636</v>
       </c>
       <c r="E65" t="n">
-        <v>56999.5</v>
+        <v>56782</v>
       </c>
       <c r="F65" t="n">
-        <v>27.42116508</v>
+        <v>35.76055256</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45540.375</v>
+        <v>45540.41666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>56999.6</v>
+        <v>56782</v>
       </c>
       <c r="C66" t="n">
-        <v>57005</v>
+        <v>56818.8</v>
       </c>
       <c r="D66" t="n">
-        <v>56636</v>
+        <v>56666.9</v>
       </c>
       <c r="E66" t="n">
-        <v>56782</v>
+        <v>56777</v>
       </c>
       <c r="F66" t="n">
-        <v>35.76055256</v>
+        <v>24.2773893</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45540.41666666666</v>
+        <v>45540.45833333334</v>
       </c>
       <c r="B67" t="n">
-        <v>56782</v>
+        <v>56777.1</v>
       </c>
       <c r="C67" t="n">
-        <v>56818.8</v>
+        <v>56836.4</v>
       </c>
       <c r="D67" t="n">
-        <v>56666.9</v>
+        <v>56684.5</v>
       </c>
       <c r="E67" t="n">
-        <v>56777</v>
+        <v>56700.1</v>
       </c>
       <c r="F67" t="n">
-        <v>24.2773893</v>
+        <v>25.96908646</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45540.45833333334</v>
+        <v>45540.5</v>
       </c>
       <c r="B68" t="n">
-        <v>56777.1</v>
+        <v>56700.1</v>
       </c>
       <c r="C68" t="n">
-        <v>56836.4</v>
+        <v>56790.9</v>
       </c>
       <c r="D68" t="n">
-        <v>56684.5</v>
+        <v>56395.6</v>
       </c>
       <c r="E68" t="n">
-        <v>56700.1</v>
+        <v>56653.1</v>
       </c>
       <c r="F68" t="n">
-        <v>25.96908646</v>
+        <v>128.55436698</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45540.5</v>
+        <v>45540.54166666666</v>
       </c>
       <c r="B69" t="n">
-        <v>56700.1</v>
+        <v>56655.1</v>
       </c>
       <c r="C69" t="n">
-        <v>56790.9</v>
+        <v>57122.2</v>
       </c>
       <c r="D69" t="n">
-        <v>56395.6</v>
+        <v>56600</v>
       </c>
       <c r="E69" t="n">
-        <v>56653.1</v>
+        <v>56977.7</v>
       </c>
       <c r="F69" t="n">
-        <v>128.55436698</v>
+        <v>189.32089158</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45540.54166666666</v>
+        <v>45540.58333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>56655.1</v>
+        <v>56977.7</v>
       </c>
       <c r="C70" t="n">
-        <v>57122.2</v>
+        <v>57265.3</v>
       </c>
       <c r="D70" t="n">
-        <v>56600</v>
+        <v>56499.5</v>
       </c>
       <c r="E70" t="n">
-        <v>56977.7</v>
+        <v>56553.9</v>
       </c>
       <c r="F70" t="n">
-        <v>189.32089158</v>
+        <v>222.56837976</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45540.58333333334</v>
+        <v>45540.625</v>
       </c>
       <c r="B71" t="n">
-        <v>56977.7</v>
+        <v>56567.9</v>
       </c>
       <c r="C71" t="n">
-        <v>57265.3</v>
+        <v>56630.1</v>
       </c>
       <c r="D71" t="n">
-        <v>56499.5</v>
+        <v>55849</v>
       </c>
       <c r="E71" t="n">
-        <v>56553.9</v>
+        <v>55974.4</v>
       </c>
       <c r="F71" t="n">
-        <v>222.56837976</v>
+        <v>244.73606046</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45540.625</v>
+        <v>45540.66666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>56567.9</v>
+        <v>55974.4</v>
       </c>
       <c r="C72" t="n">
-        <v>56630.1</v>
+        <v>56365.3</v>
       </c>
       <c r="D72" t="n">
-        <v>55849</v>
+        <v>55963</v>
       </c>
       <c r="E72" t="n">
-        <v>55974.4</v>
+        <v>56339.8</v>
       </c>
       <c r="F72" t="n">
-        <v>244.73606046</v>
+        <v>51.54050563</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45540.66666666666</v>
+        <v>45540.70833333334</v>
       </c>
       <c r="B73" t="n">
-        <v>55974.4</v>
+        <v>56339.8</v>
       </c>
       <c r="C73" t="n">
-        <v>56365.3</v>
+        <v>56582.6</v>
       </c>
       <c r="D73" t="n">
-        <v>55963</v>
+        <v>56224.4</v>
       </c>
       <c r="E73" t="n">
-        <v>56339.8</v>
+        <v>56582.5</v>
       </c>
       <c r="F73" t="n">
-        <v>51.54050563</v>
+        <v>94.33477436</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45540.70833333334</v>
+        <v>45540.75</v>
       </c>
       <c r="B74" t="n">
-        <v>56339.8</v>
+        <v>56582.6</v>
       </c>
       <c r="C74" t="n">
-        <v>56582.6</v>
+        <v>56698.7</v>
       </c>
       <c r="D74" t="n">
-        <v>56224.4</v>
+        <v>56530.6</v>
       </c>
       <c r="E74" t="n">
-        <v>56582.5</v>
+        <v>56574.2</v>
       </c>
       <c r="F74" t="n">
-        <v>94.33477436</v>
+        <v>31.16285561</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45540.75</v>
+        <v>45540.79166666666</v>
       </c>
       <c r="B75" t="n">
-        <v>56582.6</v>
+        <v>56574.1</v>
       </c>
       <c r="C75" t="n">
-        <v>56698.7</v>
+        <v>56574.1</v>
       </c>
       <c r="D75" t="n">
-        <v>56530.6</v>
+        <v>55800</v>
       </c>
       <c r="E75" t="n">
-        <v>56574.2</v>
+        <v>56015.5</v>
       </c>
       <c r="F75" t="n">
-        <v>31.16285561</v>
+        <v>219.36127309</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45540.79166666666</v>
+        <v>45540.83333333334</v>
       </c>
       <c r="B76" t="n">
-        <v>56574.1</v>
+        <v>56009.5</v>
       </c>
       <c r="C76" t="n">
-        <v>56574.1</v>
+        <v>56210.4</v>
       </c>
       <c r="D76" t="n">
-        <v>55800</v>
+        <v>55993.8</v>
       </c>
       <c r="E76" t="n">
-        <v>56015.5</v>
+        <v>56062.1</v>
       </c>
       <c r="F76" t="n">
-        <v>219.36127309</v>
+        <v>86.57632781</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45540.83333333334</v>
+        <v>45540.875</v>
       </c>
       <c r="B77" t="n">
-        <v>56009.5</v>
+        <v>56061.1</v>
       </c>
       <c r="C77" t="n">
-        <v>56210.4</v>
+        <v>56237.4</v>
       </c>
       <c r="D77" t="n">
-        <v>55993.8</v>
+        <v>55601.5</v>
       </c>
       <c r="E77" t="n">
-        <v>56062.1</v>
+        <v>56163.3</v>
       </c>
       <c r="F77" t="n">
-        <v>86.57632781</v>
+        <v>101.72968464</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45540.875</v>
+        <v>45540.91666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>56061.1</v>
+        <v>56163.2</v>
       </c>
       <c r="C78" t="n">
-        <v>56237.4</v>
+        <v>56198.9</v>
       </c>
       <c r="D78" t="n">
-        <v>55601.5</v>
+        <v>55782.6</v>
       </c>
       <c r="E78" t="n">
-        <v>56163.3</v>
+        <v>56104.7</v>
       </c>
       <c r="F78" t="n">
-        <v>101.72968464</v>
+        <v>98.19975534</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45540.91666666666</v>
+        <v>45540.95833333334</v>
       </c>
       <c r="B79" t="n">
-        <v>56163.2</v>
+        <v>56104.7</v>
       </c>
       <c r="C79" t="n">
-        <v>56198.9</v>
+        <v>56174</v>
       </c>
       <c r="D79" t="n">
-        <v>55782.6</v>
+        <v>55980.8</v>
       </c>
       <c r="E79" t="n">
-        <v>56104.7</v>
+        <v>56163.9</v>
       </c>
       <c r="F79" t="n">
-        <v>98.19975534</v>
+        <v>27.9188315</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45540.95833333334</v>
+        <v>45541</v>
       </c>
       <c r="B80" t="n">
-        <v>56104.7</v>
+        <v>56163.9</v>
       </c>
       <c r="C80" t="n">
-        <v>56174</v>
+        <v>56302.8</v>
       </c>
       <c r="D80" t="n">
-        <v>55980.8</v>
+        <v>56000</v>
       </c>
       <c r="E80" t="n">
-        <v>56163.9</v>
+        <v>56163.2</v>
       </c>
       <c r="F80" t="n">
-        <v>27.9188315</v>
+        <v>20.95995116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45541</v>
+        <v>45541.04166666666</v>
       </c>
       <c r="B81" t="n">
-        <v>56163.9</v>
+        <v>56163.2</v>
       </c>
       <c r="C81" t="n">
-        <v>56302.8</v>
+        <v>56574</v>
       </c>
       <c r="D81" t="n">
-        <v>56000</v>
+        <v>55970.7</v>
       </c>
       <c r="E81" t="n">
-        <v>56163.2</v>
+        <v>56554.7</v>
       </c>
       <c r="F81" t="n">
-        <v>20.95995116</v>
+        <v>97.75916675000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45541.04166666666</v>
+        <v>45541.08333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>56163.2</v>
+        <v>56554.8</v>
       </c>
       <c r="C82" t="n">
-        <v>56574</v>
+        <v>56800.2</v>
       </c>
       <c r="D82" t="n">
-        <v>55970.7</v>
+        <v>56504.2</v>
       </c>
       <c r="E82" t="n">
-        <v>56554.7</v>
+        <v>56720.1</v>
       </c>
       <c r="F82" t="n">
-        <v>97.75916675000001</v>
+        <v>27.60750086</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45541.08333333334</v>
+        <v>45541.125</v>
       </c>
       <c r="B83" t="n">
-        <v>56554.8</v>
+        <v>56720.1</v>
       </c>
       <c r="C83" t="n">
-        <v>56800.2</v>
+        <v>56827.5</v>
       </c>
       <c r="D83" t="n">
-        <v>56504.2</v>
+        <v>56535</v>
       </c>
       <c r="E83" t="n">
-        <v>56720.1</v>
+        <v>56575.3</v>
       </c>
       <c r="F83" t="n">
-        <v>27.60750086</v>
+        <v>65.3940451</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45541.125</v>
+        <v>45541.16666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>56720.1</v>
+        <v>56575.3</v>
       </c>
       <c r="C84" t="n">
-        <v>56827.5</v>
+        <v>56708.5</v>
       </c>
       <c r="D84" t="n">
-        <v>56535</v>
+        <v>56575.3</v>
       </c>
       <c r="E84" t="n">
-        <v>56575.3</v>
+        <v>56612.3</v>
       </c>
       <c r="F84" t="n">
-        <v>65.3940451</v>
+        <v>6.39874313</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45541.16666666666</v>
+        <v>45541.20833333334</v>
       </c>
       <c r="B85" t="n">
-        <v>56575.3</v>
+        <v>56600.1</v>
       </c>
       <c r="C85" t="n">
-        <v>56708.5</v>
+        <v>56633</v>
       </c>
       <c r="D85" t="n">
-        <v>56575.3</v>
+        <v>56321.3</v>
       </c>
       <c r="E85" t="n">
-        <v>56612.3</v>
+        <v>56487.6</v>
       </c>
       <c r="F85" t="n">
-        <v>6.39874313</v>
+        <v>92.64010408999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45541.20833333334</v>
+        <v>45541.25</v>
       </c>
       <c r="B86" t="n">
-        <v>56600.1</v>
+        <v>56480.8</v>
       </c>
       <c r="C86" t="n">
-        <v>56633</v>
+        <v>56480.9</v>
       </c>
       <c r="D86" t="n">
-        <v>56321.3</v>
+        <v>56311.6</v>
       </c>
       <c r="E86" t="n">
-        <v>56487.6</v>
+        <v>56433.5</v>
       </c>
       <c r="F86" t="n">
-        <v>92.64010408999999</v>
+        <v>43.87787639</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45541.25</v>
+        <v>45541.29166666666</v>
       </c>
       <c r="B87" t="n">
-        <v>56480.8</v>
+        <v>56433.5</v>
       </c>
       <c r="C87" t="n">
-        <v>56480.9</v>
+        <v>56433.5</v>
       </c>
       <c r="D87" t="n">
-        <v>56311.6</v>
+        <v>55302.5</v>
       </c>
       <c r="E87" t="n">
-        <v>56433.5</v>
+        <v>55804.8</v>
       </c>
       <c r="F87" t="n">
-        <v>43.87787639</v>
+        <v>126.26370353</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45541.29166666666</v>
+        <v>45541.33333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>56433.5</v>
+        <v>55804.9</v>
       </c>
       <c r="C88" t="n">
-        <v>56433.5</v>
+        <v>55885.6</v>
       </c>
       <c r="D88" t="n">
-        <v>55302.5</v>
+        <v>55640.1</v>
       </c>
       <c r="E88" t="n">
-        <v>55804.8</v>
+        <v>55768.5</v>
       </c>
       <c r="F88" t="n">
-        <v>126.26370353</v>
+        <v>56.27854604</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45541.33333333334</v>
+        <v>45541.375</v>
       </c>
       <c r="B89" t="n">
-        <v>55804.9</v>
+        <v>55768.5</v>
       </c>
       <c r="C89" t="n">
-        <v>55885.6</v>
+        <v>55913</v>
       </c>
       <c r="D89" t="n">
-        <v>55640.1</v>
+        <v>55688</v>
       </c>
       <c r="E89" t="n">
-        <v>55768.5</v>
+        <v>55879.6</v>
       </c>
       <c r="F89" t="n">
-        <v>56.27854604</v>
+        <v>30.19853396</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45541.375</v>
+        <v>45541.41666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>55768.5</v>
+        <v>55879.7</v>
       </c>
       <c r="C90" t="n">
-        <v>55913</v>
+        <v>56239</v>
       </c>
       <c r="D90" t="n">
-        <v>55688</v>
+        <v>55879.7</v>
       </c>
       <c r="E90" t="n">
-        <v>55879.6</v>
+        <v>56159</v>
       </c>
       <c r="F90" t="n">
-        <v>30.19853396</v>
+        <v>58.0257006</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45541.41666666666</v>
+        <v>45541.45833333334</v>
       </c>
       <c r="B91" t="n">
-        <v>55879.7</v>
+        <v>56159</v>
       </c>
       <c r="C91" t="n">
-        <v>56239</v>
+        <v>56197</v>
       </c>
       <c r="D91" t="n">
-        <v>55879.7</v>
+        <v>55847.3</v>
       </c>
       <c r="E91" t="n">
-        <v>56159</v>
+        <v>55980.4</v>
       </c>
       <c r="F91" t="n">
-        <v>58.0257006</v>
+        <v>41.43559861</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45541.45833333334</v>
+        <v>45541.5</v>
       </c>
       <c r="B92" t="n">
-        <v>56159</v>
+        <v>55980.5</v>
       </c>
       <c r="C92" t="n">
-        <v>56197</v>
+        <v>56939.8</v>
       </c>
       <c r="D92" t="n">
-        <v>55847.3</v>
+        <v>55711</v>
       </c>
       <c r="E92" t="n">
-        <v>55980.4</v>
+        <v>56875</v>
       </c>
       <c r="F92" t="n">
-        <v>41.43559861</v>
+        <v>432.05183414</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45541.5</v>
+        <v>45541.54166666666</v>
       </c>
       <c r="B93" t="n">
-        <v>55980.5</v>
+        <v>56875</v>
       </c>
       <c r="C93" t="n">
-        <v>56939.8</v>
+        <v>56964.1</v>
       </c>
       <c r="D93" t="n">
-        <v>55711</v>
+        <v>55828.8</v>
       </c>
       <c r="E93" t="n">
-        <v>56875</v>
+        <v>55900</v>
       </c>
       <c r="F93" t="n">
-        <v>432.05183414</v>
+        <v>220.42304516</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45541.54166666666</v>
+        <v>45541.58333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>56875</v>
+        <v>55900.1</v>
       </c>
       <c r="C94" t="n">
-        <v>56964.1</v>
+        <v>55918.8</v>
       </c>
       <c r="D94" t="n">
-        <v>55828.8</v>
+        <v>54411</v>
       </c>
       <c r="E94" t="n">
-        <v>55900</v>
+        <v>54680.3</v>
       </c>
       <c r="F94" t="n">
-        <v>220.42304516</v>
+        <v>684.70058016</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45541.58333333334</v>
+        <v>45541.625</v>
       </c>
       <c r="B95" t="n">
-        <v>55900.1</v>
+        <v>54680.4</v>
       </c>
       <c r="C95" t="n">
-        <v>55918.8</v>
+        <v>54958.7</v>
       </c>
       <c r="D95" t="n">
-        <v>54411</v>
+        <v>53456</v>
       </c>
       <c r="E95" t="n">
-        <v>54680.3</v>
+        <v>54020</v>
       </c>
       <c r="F95" t="n">
-        <v>684.70058016</v>
+        <v>577.72026799</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45541.625</v>
+        <v>45541.66666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>54680.4</v>
+        <v>54020</v>
       </c>
       <c r="C96" t="n">
-        <v>54958.7</v>
+        <v>54207.3</v>
       </c>
       <c r="D96" t="n">
-        <v>53456</v>
+        <v>53601</v>
       </c>
       <c r="E96" t="n">
-        <v>54020</v>
+        <v>54041</v>
       </c>
       <c r="F96" t="n">
-        <v>577.72026799</v>
+        <v>174.1660159</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45541.66666666666</v>
+        <v>45541.70833333334</v>
       </c>
       <c r="B97" t="n">
-        <v>54020</v>
+        <v>54041.1</v>
       </c>
       <c r="C97" t="n">
-        <v>54207.3</v>
+        <v>54400</v>
       </c>
       <c r="D97" t="n">
-        <v>53601</v>
+        <v>53711.3</v>
       </c>
       <c r="E97" t="n">
-        <v>54041</v>
+        <v>53928.7</v>
       </c>
       <c r="F97" t="n">
-        <v>174.1660159</v>
+        <v>149.1093409</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45541.70833333334</v>
+        <v>45541.75</v>
       </c>
       <c r="B98" t="n">
-        <v>54041.1</v>
+        <v>53928.7</v>
       </c>
       <c r="C98" t="n">
-        <v>54400</v>
+        <v>53947.7</v>
       </c>
       <c r="D98" t="n">
-        <v>53711.3</v>
+        <v>53335</v>
       </c>
       <c r="E98" t="n">
-        <v>53928.7</v>
+        <v>53335.1</v>
       </c>
       <c r="F98" t="n">
-        <v>149.1093409</v>
+        <v>178.89638259</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45541.75</v>
+        <v>45541.79166666666</v>
       </c>
       <c r="B99" t="n">
-        <v>53928.7</v>
+        <v>53335</v>
       </c>
       <c r="C99" t="n">
-        <v>53947.7</v>
+        <v>53905</v>
       </c>
       <c r="D99" t="n">
-        <v>53335</v>
+        <v>53225.8</v>
       </c>
       <c r="E99" t="n">
-        <v>53335.1</v>
+        <v>53473.5</v>
       </c>
       <c r="F99" t="n">
-        <v>178.89638259</v>
+        <v>262.07081873</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45541.79166666666</v>
+        <v>45541.83333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>53335</v>
+        <v>53476.2</v>
       </c>
       <c r="C100" t="n">
-        <v>53905</v>
+        <v>53755.6</v>
       </c>
       <c r="D100" t="n">
-        <v>53225.8</v>
+        <v>52642.8</v>
       </c>
       <c r="E100" t="n">
-        <v>53473.5</v>
+        <v>52850</v>
       </c>
       <c r="F100" t="n">
-        <v>262.07081873</v>
+        <v>215.97762159</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45541.83333333334</v>
+        <v>45541.875</v>
       </c>
       <c r="B101" t="n">
-        <v>53476.2</v>
+        <v>52850.1</v>
       </c>
       <c r="C101" t="n">
-        <v>53755.6</v>
+        <v>53747.4</v>
       </c>
       <c r="D101" t="n">
-        <v>52642.8</v>
+        <v>52569</v>
       </c>
       <c r="E101" t="n">
-        <v>52850</v>
+        <v>53743.5</v>
       </c>
       <c r="F101" t="n">
-        <v>215.97762159</v>
+        <v>141.20797508</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45541.875</v>
+        <v>45541.91666666666</v>
       </c>
       <c r="B102" t="n">
-        <v>52850.1</v>
+        <v>53746.3</v>
       </c>
       <c r="C102" t="n">
-        <v>53747.4</v>
+        <v>53832.1</v>
       </c>
       <c r="D102" t="n">
-        <v>52569</v>
+        <v>53601.5</v>
       </c>
       <c r="E102" t="n">
-        <v>53743.5</v>
+        <v>53606.2</v>
       </c>
       <c r="F102" t="n">
-        <v>141.20797508</v>
+        <v>63.29168774</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45541.91666666666</v>
+        <v>45541.95833333334</v>
       </c>
       <c r="B103" t="n">
-        <v>53746.3</v>
+        <v>53606.2</v>
       </c>
       <c r="C103" t="n">
-        <v>53832.1</v>
+        <v>53948.3</v>
       </c>
       <c r="D103" t="n">
-        <v>53601.5</v>
+        <v>53600</v>
       </c>
       <c r="E103" t="n">
-        <v>53606.2</v>
+        <v>53948.3</v>
       </c>
       <c r="F103" t="n">
-        <v>63.29168774</v>
+        <v>40.23080437</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45541.95833333334</v>
+        <v>45542</v>
       </c>
       <c r="B104" t="n">
-        <v>53606.2</v>
+        <v>53948.3</v>
       </c>
       <c r="C104" t="n">
-        <v>53948.3</v>
+        <v>54040.7</v>
       </c>
       <c r="D104" t="n">
-        <v>53600</v>
+        <v>53879.7</v>
       </c>
       <c r="E104" t="n">
-        <v>53948.3</v>
+        <v>53918.7</v>
       </c>
       <c r="F104" t="n">
-        <v>40.23080437</v>
+        <v>134.12421736</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45542</v>
+        <v>45542.04166666666</v>
       </c>
       <c r="B105" t="n">
-        <v>53948.3</v>
+        <v>53918.7</v>
       </c>
       <c r="C105" t="n">
-        <v>54040.7</v>
+        <v>53980.7</v>
       </c>
       <c r="D105" t="n">
-        <v>53879.7</v>
+        <v>53739</v>
       </c>
       <c r="E105" t="n">
-        <v>53918.7</v>
+        <v>53797.4</v>
       </c>
       <c r="F105" t="n">
-        <v>134.12421736</v>
+        <v>142.42926441</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45542.04166666666</v>
+        <v>45542.08333333334</v>
       </c>
       <c r="B106" t="n">
-        <v>53918.7</v>
+        <v>53798.3</v>
       </c>
       <c r="C106" t="n">
-        <v>53980.7</v>
+        <v>53924.1</v>
       </c>
       <c r="D106" t="n">
-        <v>53739</v>
+        <v>53742.1</v>
       </c>
       <c r="E106" t="n">
-        <v>53797.4</v>
+        <v>53781.3</v>
       </c>
       <c r="F106" t="n">
-        <v>142.42926441</v>
+        <v>85.8849421</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45542.08333333334</v>
+        <v>45542.125</v>
       </c>
       <c r="B107" t="n">
-        <v>53798.3</v>
+        <v>53781.3</v>
       </c>
       <c r="C107" t="n">
-        <v>53924.1</v>
+        <v>53857.5</v>
       </c>
       <c r="D107" t="n">
-        <v>53742.1</v>
+        <v>53781.3</v>
       </c>
       <c r="E107" t="n">
-        <v>53781.3</v>
+        <v>53808.5</v>
       </c>
       <c r="F107" t="n">
-        <v>85.8849421</v>
+        <v>11.47144208</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45542.125</v>
+        <v>45542.16666666666</v>
       </c>
       <c r="B108" t="n">
-        <v>53781.3</v>
+        <v>53808.5</v>
       </c>
       <c r="C108" t="n">
-        <v>53857.5</v>
+        <v>54041</v>
       </c>
       <c r="D108" t="n">
-        <v>53781.3</v>
+        <v>53797.9</v>
       </c>
       <c r="E108" t="n">
-        <v>53808.5</v>
+        <v>54041</v>
       </c>
       <c r="F108" t="n">
-        <v>11.47144208</v>
+        <v>3.08343434</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45542.16666666666</v>
+        <v>45542.20833333334</v>
       </c>
       <c r="B109" t="n">
-        <v>53808.5</v>
+        <v>54041</v>
       </c>
       <c r="C109" t="n">
-        <v>54041</v>
+        <v>54347.1</v>
       </c>
       <c r="D109" t="n">
-        <v>53797.9</v>
+        <v>54007.6</v>
       </c>
       <c r="E109" t="n">
-        <v>54041</v>
+        <v>54170.3</v>
       </c>
       <c r="F109" t="n">
-        <v>3.08343434</v>
+        <v>17.85054136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45542.20833333334</v>
+        <v>45542.25</v>
       </c>
       <c r="B110" t="n">
-        <v>54041</v>
+        <v>54174.5</v>
       </c>
       <c r="C110" t="n">
-        <v>54347.1</v>
+        <v>54349.4</v>
       </c>
       <c r="D110" t="n">
-        <v>54007.6</v>
+        <v>54039.1</v>
       </c>
       <c r="E110" t="n">
-        <v>54170.3</v>
+        <v>54300.9</v>
       </c>
       <c r="F110" t="n">
-        <v>17.85054136</v>
+        <v>34.60793326</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45542.25</v>
+        <v>45542.29166666666</v>
       </c>
       <c r="B111" t="n">
-        <v>54174.5</v>
+        <v>54301</v>
       </c>
       <c r="C111" t="n">
-        <v>54349.4</v>
+        <v>54379.3</v>
       </c>
       <c r="D111" t="n">
-        <v>54039.1</v>
+        <v>54193.9</v>
       </c>
       <c r="E111" t="n">
-        <v>54300.9</v>
+        <v>54284.9</v>
       </c>
       <c r="F111" t="n">
-        <v>34.60793326</v>
+        <v>15.92905594</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45542.29166666666</v>
+        <v>45542.33333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>54301</v>
+        <v>54284.9</v>
       </c>
       <c r="C112" t="n">
-        <v>54379.3</v>
+        <v>54363.6</v>
       </c>
       <c r="D112" t="n">
-        <v>54193.9</v>
+        <v>54226.3</v>
       </c>
       <c r="E112" t="n">
-        <v>54284.9</v>
+        <v>54361.9</v>
       </c>
       <c r="F112" t="n">
-        <v>15.92905594</v>
+        <v>20.79352874</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45542.33333333334</v>
+        <v>45542.375</v>
       </c>
       <c r="B113" t="n">
-        <v>54284.9</v>
+        <v>54362</v>
       </c>
       <c r="C113" t="n">
-        <v>54363.6</v>
+        <v>54379.3</v>
       </c>
       <c r="D113" t="n">
-        <v>54226.3</v>
+        <v>54205</v>
       </c>
       <c r="E113" t="n">
-        <v>54361.9</v>
+        <v>54271.5</v>
       </c>
       <c r="F113" t="n">
-        <v>20.79352874</v>
+        <v>15.90989674</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45542.375</v>
+        <v>45542.41666666666</v>
       </c>
       <c r="B114" t="n">
-        <v>54362</v>
+        <v>54271.5</v>
       </c>
       <c r="C114" t="n">
-        <v>54379.3</v>
+        <v>54432.5</v>
       </c>
       <c r="D114" t="n">
-        <v>54205</v>
+        <v>54245</v>
       </c>
       <c r="E114" t="n">
-        <v>54271.5</v>
+        <v>54346.6</v>
       </c>
       <c r="F114" t="n">
-        <v>15.90989674</v>
+        <v>16.76886221</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45542.41666666666</v>
+        <v>45542.45833333334</v>
       </c>
       <c r="B115" t="n">
-        <v>54271.5</v>
+        <v>54346.6</v>
       </c>
       <c r="C115" t="n">
-        <v>54432.5</v>
+        <v>54451.1</v>
       </c>
       <c r="D115" t="n">
-        <v>54245</v>
+        <v>54296.6</v>
       </c>
       <c r="E115" t="n">
-        <v>54346.6</v>
+        <v>54320.4</v>
       </c>
       <c r="F115" t="n">
-        <v>16.76886221</v>
+        <v>26.4985609</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45542.45833333334</v>
+        <v>45542.5</v>
       </c>
       <c r="B116" t="n">
-        <v>54346.6</v>
+        <v>54320.4</v>
       </c>
       <c r="C116" t="n">
-        <v>54451.1</v>
+        <v>54648</v>
       </c>
       <c r="D116" t="n">
-        <v>54296.6</v>
+        <v>54320.4</v>
       </c>
       <c r="E116" t="n">
-        <v>54320.4</v>
+        <v>54579.4</v>
       </c>
       <c r="F116" t="n">
-        <v>26.4985609</v>
+        <v>48.75897892</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45542.5</v>
+        <v>45542.54166666666</v>
       </c>
       <c r="B117" t="n">
-        <v>54320.4</v>
+        <v>54579.5</v>
       </c>
       <c r="C117" t="n">
-        <v>54648</v>
+        <v>54659</v>
       </c>
       <c r="D117" t="n">
-        <v>54320.4</v>
+        <v>54419.1</v>
       </c>
       <c r="E117" t="n">
-        <v>54579.4</v>
+        <v>54540</v>
       </c>
       <c r="F117" t="n">
-        <v>48.75897892</v>
+        <v>35.0349579</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45542.54166666666</v>
+        <v>45542.58333333334</v>
       </c>
       <c r="B118" t="n">
-        <v>54579.5</v>
+        <v>54541.9</v>
       </c>
       <c r="C118" t="n">
-        <v>54659</v>
+        <v>54648.9</v>
       </c>
       <c r="D118" t="n">
-        <v>54419.1</v>
+        <v>54499.9</v>
       </c>
       <c r="E118" t="n">
-        <v>54540</v>
+        <v>54625.3</v>
       </c>
       <c r="F118" t="n">
-        <v>35.0349579</v>
+        <v>55.58481536</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45542.58333333334</v>
+        <v>45542.625</v>
       </c>
       <c r="B119" t="n">
-        <v>54541.9</v>
+        <v>54625.3</v>
       </c>
       <c r="C119" t="n">
-        <v>54648.9</v>
+        <v>54802.5</v>
       </c>
       <c r="D119" t="n">
-        <v>54499.9</v>
+        <v>54625.3</v>
       </c>
       <c r="E119" t="n">
-        <v>54625.3</v>
+        <v>54779.2</v>
       </c>
       <c r="F119" t="n">
-        <v>55.58481536</v>
+        <v>39.1727236</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45542.625</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="B120" t="n">
-        <v>54625.3</v>
+        <v>54779.2</v>
       </c>
       <c r="C120" t="n">
-        <v>54802.5</v>
+        <v>54810.2</v>
       </c>
       <c r="D120" t="n">
-        <v>54625.3</v>
+        <v>54439.6</v>
       </c>
       <c r="E120" t="n">
-        <v>54779.2</v>
+        <v>54469</v>
       </c>
       <c r="F120" t="n">
-        <v>39.1727236</v>
+        <v>31.49860469</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45542.66666666666</v>
+        <v>45542.70833333334</v>
       </c>
       <c r="B121" t="n">
-        <v>54779.2</v>
+        <v>54469</v>
       </c>
       <c r="C121" t="n">
-        <v>54810.2</v>
+        <v>54511.8</v>
       </c>
       <c r="D121" t="n">
-        <v>54439.6</v>
+        <v>54010.1</v>
       </c>
       <c r="E121" t="n">
-        <v>54469</v>
+        <v>54142.1</v>
       </c>
       <c r="F121" t="n">
-        <v>31.49860469</v>
+        <v>73.84292237</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45542.70833333334</v>
+        <v>45542.75</v>
       </c>
       <c r="B122" t="n">
-        <v>54469</v>
+        <v>54128.6</v>
       </c>
       <c r="C122" t="n">
-        <v>54511.8</v>
+        <v>54385.8</v>
       </c>
       <c r="D122" t="n">
-        <v>54010.1</v>
+        <v>54031.3</v>
       </c>
       <c r="E122" t="n">
-        <v>54142.1</v>
+        <v>54275.3</v>
       </c>
       <c r="F122" t="n">
-        <v>73.84292237</v>
+        <v>41.23666072</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45542.75</v>
+        <v>45542.79166666666</v>
       </c>
       <c r="B123" t="n">
-        <v>54128.6</v>
+        <v>54275.3</v>
       </c>
       <c r="C123" t="n">
-        <v>54385.8</v>
+        <v>54451</v>
       </c>
       <c r="D123" t="n">
-        <v>54031.3</v>
+        <v>54240.1</v>
       </c>
       <c r="E123" t="n">
-        <v>54275.3</v>
+        <v>54411.9</v>
       </c>
       <c r="F123" t="n">
-        <v>41.23666072</v>
+        <v>18.27811193</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45542.79166666666</v>
+        <v>45542.83333333334</v>
       </c>
       <c r="B124" t="n">
-        <v>54275.3</v>
+        <v>54411.9</v>
       </c>
       <c r="C124" t="n">
-        <v>54451</v>
+        <v>54411.9</v>
       </c>
       <c r="D124" t="n">
-        <v>54240.1</v>
+        <v>54167.4</v>
       </c>
       <c r="E124" t="n">
-        <v>54411.9</v>
+        <v>54170.1</v>
       </c>
       <c r="F124" t="n">
-        <v>18.27811193</v>
+        <v>22.42988736</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45542.83333333334</v>
+        <v>45542.875</v>
       </c>
       <c r="B125" t="n">
-        <v>54411.9</v>
+        <v>54170</v>
       </c>
       <c r="C125" t="n">
-        <v>54411.9</v>
+        <v>54179</v>
       </c>
       <c r="D125" t="n">
-        <v>54167.4</v>
+        <v>53900</v>
       </c>
       <c r="E125" t="n">
-        <v>54170.1</v>
+        <v>53922.2</v>
       </c>
       <c r="F125" t="n">
-        <v>22.42988736</v>
+        <v>43.9521687</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45542.875</v>
+        <v>45542.91666666666</v>
       </c>
       <c r="B126" t="n">
-        <v>54170</v>
+        <v>53922.2</v>
       </c>
       <c r="C126" t="n">
-        <v>54179</v>
+        <v>54066.5</v>
       </c>
       <c r="D126" t="n">
-        <v>53900</v>
+        <v>53867</v>
       </c>
       <c r="E126" t="n">
-        <v>53922.2</v>
+        <v>53948.1</v>
       </c>
       <c r="F126" t="n">
-        <v>43.9521687</v>
+        <v>42.3860787</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45542.91666666666</v>
+        <v>45542.95833333334</v>
       </c>
       <c r="B127" t="n">
-        <v>53922.2</v>
+        <v>53948.1</v>
       </c>
       <c r="C127" t="n">
-        <v>54066.5</v>
+        <v>54164.4</v>
       </c>
       <c r="D127" t="n">
-        <v>53867</v>
+        <v>53835</v>
       </c>
       <c r="E127" t="n">
-        <v>53948.1</v>
+        <v>54146.4</v>
       </c>
       <c r="F127" t="n">
-        <v>42.3860787</v>
+        <v>37.8398693</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45542.95833333334</v>
+        <v>45543</v>
       </c>
       <c r="B128" t="n">
-        <v>53948.1</v>
+        <v>54146.5</v>
       </c>
       <c r="C128" t="n">
-        <v>54164.4</v>
+        <v>54169.9</v>
       </c>
       <c r="D128" t="n">
-        <v>53835</v>
+        <v>53977</v>
       </c>
       <c r="E128" t="n">
-        <v>54146.4</v>
+        <v>54133.2</v>
       </c>
       <c r="F128" t="n">
-        <v>37.8398693</v>
+        <v>20.90379915</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45543</v>
+        <v>45543.04166666666</v>
       </c>
       <c r="B129" t="n">
-        <v>54146.5</v>
+        <v>54133.3</v>
       </c>
       <c r="C129" t="n">
-        <v>54169.9</v>
+        <v>54329.3</v>
       </c>
       <c r="D129" t="n">
-        <v>53977</v>
+        <v>54133.3</v>
       </c>
       <c r="E129" t="n">
-        <v>54133.2</v>
+        <v>54226.4</v>
       </c>
       <c r="F129" t="n">
-        <v>20.90379915</v>
+        <v>26.84160842</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45543.04166666666</v>
+        <v>45543.08333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>54133.3</v>
+        <v>54226.4</v>
       </c>
       <c r="C130" t="n">
-        <v>54329.3</v>
+        <v>54500</v>
       </c>
       <c r="D130" t="n">
-        <v>54133.3</v>
+        <v>54226.3</v>
       </c>
       <c r="E130" t="n">
-        <v>54226.4</v>
+        <v>54351.9</v>
       </c>
       <c r="F130" t="n">
-        <v>26.84160842</v>
+        <v>51.86378605</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45543.08333333334</v>
+        <v>45543.125</v>
       </c>
       <c r="B131" t="n">
-        <v>54226.4</v>
+        <v>54351.9</v>
       </c>
       <c r="C131" t="n">
-        <v>54500</v>
+        <v>54369.9</v>
       </c>
       <c r="D131" t="n">
-        <v>54226.3</v>
+        <v>54300</v>
       </c>
       <c r="E131" t="n">
-        <v>54351.9</v>
+        <v>54367</v>
       </c>
       <c r="F131" t="n">
-        <v>51.86378605</v>
+        <v>5.87043343</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45543.125</v>
+        <v>45543.16666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>54351.9</v>
+        <v>54367.1</v>
       </c>
       <c r="C132" t="n">
-        <v>54369.9</v>
+        <v>54555.5</v>
       </c>
       <c r="D132" t="n">
-        <v>54300</v>
+        <v>54367</v>
       </c>
       <c r="E132" t="n">
-        <v>54367</v>
+        <v>54485.8</v>
       </c>
       <c r="F132" t="n">
-        <v>5.87043343</v>
+        <v>10.82022916</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45543.16666666666</v>
+        <v>45543.20833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>54367.1</v>
+        <v>54485.9</v>
       </c>
       <c r="C133" t="n">
-        <v>54555.5</v>
+        <v>54517</v>
       </c>
       <c r="D133" t="n">
-        <v>54367</v>
+        <v>54339.1</v>
       </c>
       <c r="E133" t="n">
-        <v>54485.8</v>
+        <v>54339.1</v>
       </c>
       <c r="F133" t="n">
-        <v>10.82022916</v>
+        <v>11.13993271</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45543.20833333334</v>
+        <v>45543.25</v>
       </c>
       <c r="B134" t="n">
-        <v>54485.9</v>
+        <v>54339.2</v>
       </c>
       <c r="C134" t="n">
-        <v>54517</v>
+        <v>54413.2</v>
       </c>
       <c r="D134" t="n">
-        <v>54339.1</v>
+        <v>54290</v>
       </c>
       <c r="E134" t="n">
-        <v>54339.1</v>
+        <v>54290.1</v>
       </c>
       <c r="F134" t="n">
-        <v>11.13993271</v>
+        <v>11.75655365</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45543.25</v>
+        <v>45543.29166666666</v>
       </c>
       <c r="B135" t="n">
-        <v>54339.2</v>
+        <v>54290.1</v>
       </c>
       <c r="C135" t="n">
-        <v>54413.2</v>
+        <v>54505.5</v>
       </c>
       <c r="D135" t="n">
         <v>54290</v>
       </c>
       <c r="E135" t="n">
-        <v>54290.1</v>
+        <v>54454.1</v>
       </c>
       <c r="F135" t="n">
-        <v>11.75655365</v>
+        <v>12.81992423</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45543.29166666666</v>
+        <v>45543.33333333334</v>
       </c>
       <c r="B136" t="n">
-        <v>54290.1</v>
+        <v>54454.2</v>
       </c>
       <c r="C136" t="n">
-        <v>54505.5</v>
+        <v>54454.2</v>
       </c>
       <c r="D136" t="n">
-        <v>54290</v>
+        <v>54345.6</v>
       </c>
       <c r="E136" t="n">
-        <v>54454.1</v>
+        <v>54444.9</v>
       </c>
       <c r="F136" t="n">
-        <v>12.81992423</v>
+        <v>9.92177676</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45543.33333333334</v>
+        <v>45543.375</v>
       </c>
       <c r="B137" t="n">
-        <v>54454.2</v>
+        <v>54445</v>
       </c>
       <c r="C137" t="n">
-        <v>54454.2</v>
+        <v>54693.3</v>
       </c>
       <c r="D137" t="n">
-        <v>54345.6</v>
+        <v>54445</v>
       </c>
       <c r="E137" t="n">
-        <v>54444.9</v>
+        <v>54470.2</v>
       </c>
       <c r="F137" t="n">
-        <v>9.92177676</v>
+        <v>32.08276011</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45543.375</v>
+        <v>45543.41666666666</v>
       </c>
       <c r="B138" t="n">
-        <v>54445</v>
+        <v>54470.2</v>
       </c>
       <c r="C138" t="n">
-        <v>54693.3</v>
+        <v>54624.5</v>
       </c>
       <c r="D138" t="n">
-        <v>54445</v>
+        <v>54470.1</v>
       </c>
       <c r="E138" t="n">
-        <v>54470.2</v>
+        <v>54603.2</v>
       </c>
       <c r="F138" t="n">
-        <v>32.08276011</v>
+        <v>9.292037880000001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45543.41666666666</v>
+        <v>45543.45833333334</v>
       </c>
       <c r="B139" t="n">
-        <v>54470.2</v>
+        <v>54603.2</v>
       </c>
       <c r="C139" t="n">
-        <v>54624.5</v>
+        <v>54660.5</v>
       </c>
       <c r="D139" t="n">
-        <v>54470.1</v>
+        <v>54504.1</v>
       </c>
       <c r="E139" t="n">
-        <v>54603.2</v>
+        <v>54551.5</v>
       </c>
       <c r="F139" t="n">
-        <v>9.292037880000001</v>
+        <v>32.34354621</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45543.45833333334</v>
+        <v>45543.5</v>
       </c>
       <c r="B140" t="n">
-        <v>54603.2</v>
+        <v>54553.3</v>
       </c>
       <c r="C140" t="n">
-        <v>54660.5</v>
+        <v>54555</v>
       </c>
       <c r="D140" t="n">
-        <v>54504.1</v>
+        <v>54131.9</v>
       </c>
       <c r="E140" t="n">
-        <v>54551.5</v>
+        <v>54198.2</v>
       </c>
       <c r="F140" t="n">
-        <v>32.34354621</v>
+        <v>34.3787407</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45543.5</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="B141" t="n">
-        <v>54553.3</v>
+        <v>54198.3</v>
       </c>
       <c r="C141" t="n">
-        <v>54555</v>
+        <v>54399.9</v>
       </c>
       <c r="D141" t="n">
-        <v>54131.9</v>
+        <v>54076.7</v>
       </c>
       <c r="E141" t="n">
-        <v>54198.2</v>
+        <v>54399.8</v>
       </c>
       <c r="F141" t="n">
-        <v>34.3787407</v>
+        <v>16.87738234</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45543.54166666666</v>
+        <v>45543.58333333334</v>
       </c>
       <c r="B142" t="n">
-        <v>54198.3</v>
+        <v>54399.9</v>
       </c>
       <c r="C142" t="n">
         <v>54399.9</v>
       </c>
       <c r="D142" t="n">
-        <v>54076.7</v>
+        <v>54100</v>
       </c>
       <c r="E142" t="n">
-        <v>54399.8</v>
+        <v>54150</v>
       </c>
       <c r="F142" t="n">
-        <v>16.87738234</v>
+        <v>20.05291836</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45543.58333333334</v>
+        <v>45543.625</v>
       </c>
       <c r="B143" t="n">
-        <v>54399.9</v>
+        <v>54150.1</v>
       </c>
       <c r="C143" t="n">
-        <v>54399.9</v>
+        <v>54151</v>
       </c>
       <c r="D143" t="n">
-        <v>54100</v>
+        <v>53643.7</v>
       </c>
       <c r="E143" t="n">
-        <v>54150</v>
+        <v>53686.6</v>
       </c>
       <c r="F143" t="n">
-        <v>20.05291836</v>
+        <v>106.36885184</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45543.625</v>
+        <v>45543.66666666666</v>
       </c>
       <c r="B144" t="n">
-        <v>54150.1</v>
+        <v>53689.6</v>
       </c>
       <c r="C144" t="n">
-        <v>54151</v>
+        <v>54008.6</v>
       </c>
       <c r="D144" t="n">
-        <v>53643.7</v>
+        <v>53636.6</v>
       </c>
       <c r="E144" t="n">
-        <v>53686.6</v>
+        <v>53918.3</v>
       </c>
       <c r="F144" t="n">
-        <v>106.36885184</v>
+        <v>53.34825894</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45543.66666666666</v>
+        <v>45543.70833333334</v>
       </c>
       <c r="B145" t="n">
-        <v>53689.6</v>
+        <v>53918.3</v>
       </c>
       <c r="C145" t="n">
-        <v>54008.6</v>
+        <v>54510.8</v>
       </c>
       <c r="D145" t="n">
-        <v>53636.6</v>
+        <v>53918.3</v>
       </c>
       <c r="E145" t="n">
-        <v>53918.3</v>
+        <v>54509</v>
       </c>
       <c r="F145" t="n">
-        <v>53.34825894</v>
+        <v>50.06330475</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45543.70833333334</v>
+        <v>45543.75</v>
       </c>
       <c r="B146" t="n">
-        <v>53918.3</v>
+        <v>54509</v>
       </c>
       <c r="C146" t="n">
-        <v>54510.8</v>
+        <v>54510.9</v>
       </c>
       <c r="D146" t="n">
-        <v>53918.3</v>
+        <v>54279.4</v>
       </c>
       <c r="E146" t="n">
-        <v>54509</v>
+        <v>54428</v>
       </c>
       <c r="F146" t="n">
-        <v>50.06330475</v>
+        <v>122.93167411</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45543.75</v>
+        <v>45543.79166666666</v>
       </c>
       <c r="B147" t="n">
-        <v>54509</v>
+        <v>54428</v>
       </c>
       <c r="C147" t="n">
-        <v>54510.9</v>
+        <v>54466.1</v>
       </c>
       <c r="D147" t="n">
-        <v>54279.4</v>
+        <v>54325.9</v>
       </c>
       <c r="E147" t="n">
-        <v>54428</v>
+        <v>54341.5</v>
       </c>
       <c r="F147" t="n">
-        <v>122.93167411</v>
+        <v>10.97314122</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45543.79166666666</v>
+        <v>45543.83333333334</v>
       </c>
       <c r="B148" t="n">
-        <v>54428</v>
+        <v>54341.5</v>
       </c>
       <c r="C148" t="n">
-        <v>54466.1</v>
+        <v>54380.2</v>
       </c>
       <c r="D148" t="n">
-        <v>54325.9</v>
+        <v>54186.1</v>
       </c>
       <c r="E148" t="n">
-        <v>54341.5</v>
+        <v>54380</v>
       </c>
       <c r="F148" t="n">
-        <v>10.97314122</v>
+        <v>13.63001727</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45543.83333333334</v>
+        <v>45543.875</v>
       </c>
       <c r="B149" t="n">
-        <v>54341.5</v>
+        <v>54380.1</v>
       </c>
       <c r="C149" t="n">
-        <v>54380.2</v>
+        <v>54570.2</v>
       </c>
       <c r="D149" t="n">
-        <v>54186.1</v>
+        <v>54345.1</v>
       </c>
       <c r="E149" t="n">
-        <v>54380</v>
+        <v>54465.2</v>
       </c>
       <c r="F149" t="n">
-        <v>13.63001727</v>
+        <v>30.41859799</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45543.875</v>
+        <v>45543.91666666666</v>
       </c>
       <c r="B150" t="n">
-        <v>54380.1</v>
+        <v>54465.2</v>
       </c>
       <c r="C150" t="n">
-        <v>54570.2</v>
+        <v>55317.6</v>
       </c>
       <c r="D150" t="n">
-        <v>54345.1</v>
+        <v>54365.8</v>
       </c>
       <c r="E150" t="n">
-        <v>54465.2</v>
+        <v>54526.4</v>
       </c>
       <c r="F150" t="n">
-        <v>30.41859799</v>
+        <v>253.41859302</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45543.91666666666</v>
+        <v>45543.95833333334</v>
       </c>
       <c r="B151" t="n">
-        <v>54465.2</v>
+        <v>54533.2</v>
       </c>
       <c r="C151" t="n">
-        <v>55317.6</v>
+        <v>54943.4</v>
       </c>
       <c r="D151" t="n">
-        <v>54365.8</v>
+        <v>54464.2</v>
       </c>
       <c r="E151" t="n">
-        <v>54526.4</v>
+        <v>54856.8</v>
       </c>
       <c r="F151" t="n">
-        <v>253.41859302</v>
+        <v>32.52291682</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45543.95833333334</v>
+        <v>45544</v>
       </c>
       <c r="B152" t="n">
-        <v>54533.2</v>
+        <v>54856.9</v>
       </c>
       <c r="C152" t="n">
-        <v>54943.4</v>
+        <v>55198.8</v>
       </c>
       <c r="D152" t="n">
-        <v>54464.2</v>
+        <v>54739.4</v>
       </c>
       <c r="E152" t="n">
-        <v>54856.8</v>
+        <v>55065.2</v>
       </c>
       <c r="F152" t="n">
-        <v>32.52291682</v>
+        <v>109.43843154</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45544</v>
+        <v>45544.04166666666</v>
       </c>
       <c r="B153" t="n">
-        <v>54856.9</v>
+        <v>55065.2</v>
       </c>
       <c r="C153" t="n">
-        <v>55198.8</v>
+        <v>55371</v>
       </c>
       <c r="D153" t="n">
-        <v>54739.4</v>
+        <v>54914.5</v>
       </c>
       <c r="E153" t="n">
-        <v>55065.2</v>
+        <v>55098.6</v>
       </c>
       <c r="F153" t="n">
-        <v>109.43843154</v>
+        <v>50.89663273</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45544.04166666666</v>
+        <v>45544.08333333334</v>
       </c>
       <c r="B154" t="n">
-        <v>55065.2</v>
+        <v>55098.7</v>
       </c>
       <c r="C154" t="n">
-        <v>55371</v>
+        <v>55122.4</v>
       </c>
       <c r="D154" t="n">
-        <v>54914.5</v>
+        <v>54846.9</v>
       </c>
       <c r="E154" t="n">
-        <v>55098.6</v>
+        <v>55113.3</v>
       </c>
       <c r="F154" t="n">
-        <v>50.89663273</v>
+        <v>11.00599009</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45544.08333333334</v>
+        <v>45544.125</v>
       </c>
       <c r="B155" t="n">
-        <v>55098.7</v>
+        <v>55113.4</v>
       </c>
       <c r="C155" t="n">
-        <v>55122.4</v>
+        <v>55183.6</v>
       </c>
       <c r="D155" t="n">
-        <v>54846.9</v>
+        <v>54818.3</v>
       </c>
       <c r="E155" t="n">
-        <v>55113.3</v>
+        <v>55117</v>
       </c>
       <c r="F155" t="n">
-        <v>11.00599009</v>
+        <v>31.10210406</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45544.125</v>
+        <v>45544.16666666666</v>
       </c>
       <c r="B156" t="n">
-        <v>55113.4</v>
+        <v>55118.2</v>
       </c>
       <c r="C156" t="n">
-        <v>55183.6</v>
+        <v>55147.1</v>
       </c>
       <c r="D156" t="n">
-        <v>54818.3</v>
+        <v>54890</v>
       </c>
       <c r="E156" t="n">
-        <v>55117</v>
+        <v>54890</v>
       </c>
       <c r="F156" t="n">
-        <v>31.10210406</v>
+        <v>18.80635264</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45544.16666666666</v>
+        <v>45544.20833333334</v>
       </c>
       <c r="B157" t="n">
-        <v>55118.2</v>
+        <v>54890.1</v>
       </c>
       <c r="C157" t="n">
-        <v>55147.1</v>
+        <v>54900</v>
       </c>
       <c r="D157" t="n">
-        <v>54890</v>
+        <v>54580.3</v>
       </c>
       <c r="E157" t="n">
-        <v>54890</v>
+        <v>54657.9</v>
       </c>
       <c r="F157" t="n">
-        <v>18.80635264</v>
+        <v>28.77866165</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45544.20833333334</v>
+        <v>45544.25</v>
       </c>
       <c r="B158" t="n">
-        <v>54890.1</v>
+        <v>54668.3</v>
       </c>
       <c r="C158" t="n">
-        <v>54900</v>
+        <v>54930.2</v>
       </c>
       <c r="D158" t="n">
-        <v>54580.3</v>
+        <v>54640.6</v>
       </c>
       <c r="E158" t="n">
-        <v>54657.9</v>
+        <v>54890.5</v>
       </c>
       <c r="F158" t="n">
-        <v>28.77866165</v>
+        <v>10.78709476</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45544.25</v>
+        <v>45544.29166666666</v>
       </c>
       <c r="B159" t="n">
-        <v>54668.3</v>
+        <v>54890.5</v>
       </c>
       <c r="C159" t="n">
-        <v>54930.2</v>
+        <v>54994.7</v>
       </c>
       <c r="D159" t="n">
-        <v>54640.6</v>
+        <v>54760</v>
       </c>
       <c r="E159" t="n">
-        <v>54890.5</v>
+        <v>54974.4</v>
       </c>
       <c r="F159" t="n">
-        <v>10.78709476</v>
+        <v>15.15384588</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45544.29166666666</v>
+        <v>45544.33333333334</v>
       </c>
       <c r="B160" t="n">
-        <v>54890.5</v>
+        <v>54968.6</v>
       </c>
       <c r="C160" t="n">
-        <v>54994.7</v>
+        <v>55300</v>
       </c>
       <c r="D160" t="n">
-        <v>54760</v>
+        <v>54968.6</v>
       </c>
       <c r="E160" t="n">
-        <v>54974.4</v>
+        <v>55228.2</v>
       </c>
       <c r="F160" t="n">
-        <v>15.15384588</v>
+        <v>21.7036124</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45544.33333333334</v>
+        <v>45544.375</v>
       </c>
       <c r="B161" t="n">
-        <v>54968.6</v>
+        <v>55228.3</v>
       </c>
       <c r="C161" t="n">
-        <v>55300</v>
+        <v>55500</v>
       </c>
       <c r="D161" t="n">
-        <v>54968.6</v>
+        <v>55132.3</v>
       </c>
       <c r="E161" t="n">
-        <v>55228.2</v>
+        <v>55155</v>
       </c>
       <c r="F161" t="n">
-        <v>21.7036124</v>
+        <v>34.5143033</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45544.375</v>
+        <v>45544.41666666666</v>
       </c>
       <c r="B162" t="n">
-        <v>55228.3</v>
+        <v>55155.1</v>
       </c>
       <c r="C162" t="n">
-        <v>55500</v>
+        <v>55433.4</v>
       </c>
       <c r="D162" t="n">
-        <v>55132.3</v>
+        <v>55098.5</v>
       </c>
       <c r="E162" t="n">
-        <v>55155</v>
+        <v>55380</v>
       </c>
       <c r="F162" t="n">
-        <v>34.5143033</v>
+        <v>40.86992649</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45544.41666666666</v>
+        <v>45544.45833333334</v>
       </c>
       <c r="B163" t="n">
-        <v>55155.1</v>
+        <v>55380.1</v>
       </c>
       <c r="C163" t="n">
-        <v>55433.4</v>
+        <v>55380.1</v>
       </c>
       <c r="D163" t="n">
-        <v>55098.5</v>
+        <v>55183.7</v>
       </c>
       <c r="E163" t="n">
-        <v>55380</v>
+        <v>55245</v>
       </c>
       <c r="F163" t="n">
-        <v>40.86992649</v>
+        <v>41.46124632</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45544.45833333334</v>
+        <v>45544.5</v>
       </c>
       <c r="B164" t="n">
-        <v>55380.1</v>
+        <v>55245</v>
       </c>
       <c r="C164" t="n">
-        <v>55380.1</v>
+        <v>55333.7</v>
       </c>
       <c r="D164" t="n">
-        <v>55183.7</v>
+        <v>54975.9</v>
       </c>
       <c r="E164" t="n">
-        <v>55245</v>
+        <v>55333.7</v>
       </c>
       <c r="F164" t="n">
-        <v>41.46124632</v>
+        <v>36.69056772</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45544.5</v>
+        <v>45544.54166666666</v>
       </c>
       <c r="B165" t="n">
-        <v>55245</v>
+        <v>55333.7</v>
       </c>
       <c r="C165" t="n">
-        <v>55333.7</v>
+        <v>55756.4</v>
       </c>
       <c r="D165" t="n">
-        <v>54975.9</v>
+        <v>55278.4</v>
       </c>
       <c r="E165" t="n">
-        <v>55333.7</v>
+        <v>55694.1</v>
       </c>
       <c r="F165" t="n">
-        <v>36.69056772</v>
+        <v>119.28896421</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45544.54166666666</v>
+        <v>45544.58333333334</v>
       </c>
       <c r="B166" t="n">
-        <v>55333.7</v>
+        <v>55691.7</v>
       </c>
       <c r="C166" t="n">
-        <v>55756.4</v>
+        <v>55738.6</v>
       </c>
       <c r="D166" t="n">
-        <v>55278.4</v>
+        <v>54843.2</v>
       </c>
       <c r="E166" t="n">
-        <v>55694.1</v>
+        <v>54869.8</v>
       </c>
       <c r="F166" t="n">
-        <v>119.28896421</v>
+        <v>93.8935326</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45544.58333333334</v>
+        <v>45544.625</v>
       </c>
       <c r="B167" t="n">
-        <v>55691.7</v>
+        <v>54869.8</v>
       </c>
       <c r="C167" t="n">
-        <v>55738.6</v>
+        <v>55299.3</v>
       </c>
       <c r="D167" t="n">
-        <v>55493.9</v>
+        <v>54863.6</v>
       </c>
       <c r="E167" t="n">
-        <v>55594</v>
+        <v>55246.5</v>
       </c>
       <c r="F167" t="n">
-        <v>15.77851292</v>
+        <v>51.71488736</v>
       </c>
     </row>
   </sheetData>
@@ -3845,3322 +3845,3322 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45537.70833333334</v>
+        <v>45537.75</v>
       </c>
       <c r="B2" t="n">
-        <v>2511.51</v>
+        <v>2522.66</v>
       </c>
       <c r="C2" t="n">
-        <v>2523.66</v>
+        <v>2529.68</v>
       </c>
       <c r="D2" t="n">
-        <v>2511.51</v>
+        <v>2516.54</v>
       </c>
       <c r="E2" t="n">
-        <v>2522.79</v>
+        <v>2524.08</v>
       </c>
       <c r="F2" t="n">
-        <v>137.18667503</v>
+        <v>208.45622028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45537.75</v>
+        <v>45537.79166666666</v>
       </c>
       <c r="B3" t="n">
-        <v>2522.66</v>
+        <v>2523.69</v>
       </c>
       <c r="C3" t="n">
-        <v>2529.68</v>
+        <v>2524.74</v>
       </c>
       <c r="D3" t="n">
-        <v>2516.54</v>
+        <v>2519.86</v>
       </c>
       <c r="E3" t="n">
-        <v>2524.08</v>
+        <v>2523.93</v>
       </c>
       <c r="F3" t="n">
-        <v>208.45622028</v>
+        <v>95.95316228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45537.79166666666</v>
+        <v>45537.83333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>2523.69</v>
+        <v>2524.4</v>
       </c>
       <c r="C4" t="n">
-        <v>2524.74</v>
+        <v>2564.36</v>
       </c>
       <c r="D4" t="n">
-        <v>2519.86</v>
+        <v>2522.51</v>
       </c>
       <c r="E4" t="n">
-        <v>2523.93</v>
+        <v>2556.22</v>
       </c>
       <c r="F4" t="n">
-        <v>95.95316228</v>
+        <v>976.80492187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45537.83333333334</v>
+        <v>45537.875</v>
       </c>
       <c r="B5" t="n">
-        <v>2524.4</v>
+        <v>2556.21</v>
       </c>
       <c r="C5" t="n">
-        <v>2564.36</v>
+        <v>2561.45</v>
       </c>
       <c r="D5" t="n">
-        <v>2522.51</v>
+        <v>2537.52</v>
       </c>
       <c r="E5" t="n">
-        <v>2556.22</v>
+        <v>2546.89</v>
       </c>
       <c r="F5" t="n">
-        <v>976.80492187</v>
+        <v>218.29629431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537.875</v>
+        <v>45537.91666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>2556.21</v>
+        <v>2544.95</v>
       </c>
       <c r="C6" t="n">
-        <v>2561.45</v>
+        <v>2547.43</v>
       </c>
       <c r="D6" t="n">
-        <v>2537.52</v>
+        <v>2541.44</v>
       </c>
       <c r="E6" t="n">
-        <v>2546.89</v>
+        <v>2544.01</v>
       </c>
       <c r="F6" t="n">
-        <v>218.29629431</v>
+        <v>100.2577235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45537.91666666666</v>
+        <v>45537.95833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>2544.95</v>
+        <v>2544.02</v>
       </c>
       <c r="C7" t="n">
-        <v>2547.43</v>
+        <v>2545.96</v>
       </c>
       <c r="D7" t="n">
-        <v>2541.44</v>
+        <v>2534.57</v>
       </c>
       <c r="E7" t="n">
-        <v>2544.01</v>
+        <v>2538.48</v>
       </c>
       <c r="F7" t="n">
-        <v>100.2577235</v>
+        <v>130.44683531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45537.95833333334</v>
+        <v>45538</v>
       </c>
       <c r="B8" t="n">
-        <v>2544.02</v>
+        <v>2538.49</v>
       </c>
       <c r="C8" t="n">
-        <v>2545.96</v>
+        <v>2538.49</v>
       </c>
       <c r="D8" t="n">
-        <v>2534.57</v>
+        <v>2528.72</v>
       </c>
       <c r="E8" t="n">
-        <v>2538.48</v>
+        <v>2534.74</v>
       </c>
       <c r="F8" t="n">
-        <v>130.44683531</v>
+        <v>61.16489908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45538</v>
+        <v>45538.04166666666</v>
       </c>
       <c r="B9" t="n">
-        <v>2538.49</v>
+        <v>2534.75</v>
       </c>
       <c r="C9" t="n">
-        <v>2538.49</v>
+        <v>2541.91</v>
       </c>
       <c r="D9" t="n">
-        <v>2528.72</v>
+        <v>2527.87</v>
       </c>
       <c r="E9" t="n">
-        <v>2534.74</v>
+        <v>2534.29</v>
       </c>
       <c r="F9" t="n">
-        <v>61.16489908</v>
+        <v>92.02302862000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45538.04166666666</v>
+        <v>45538.08333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>2534.75</v>
+        <v>2534.28</v>
       </c>
       <c r="C10" t="n">
-        <v>2541.91</v>
+        <v>2551.53</v>
       </c>
       <c r="D10" t="n">
-        <v>2527.87</v>
+        <v>2530</v>
       </c>
       <c r="E10" t="n">
-        <v>2534.29</v>
+        <v>2530</v>
       </c>
       <c r="F10" t="n">
-        <v>92.02302862000001</v>
+        <v>80.71875896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45538.08333333334</v>
+        <v>45538.125</v>
       </c>
       <c r="B11" t="n">
-        <v>2534.28</v>
+        <v>2530</v>
       </c>
       <c r="C11" t="n">
-        <v>2551.53</v>
+        <v>2530.01</v>
       </c>
       <c r="D11" t="n">
-        <v>2530</v>
+        <v>2515.76</v>
       </c>
       <c r="E11" t="n">
-        <v>2530</v>
+        <v>2515.77</v>
       </c>
       <c r="F11" t="n">
-        <v>80.71875896</v>
+        <v>205.11846297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45538.125</v>
+        <v>45538.16666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>2530</v>
+        <v>2515.78</v>
       </c>
       <c r="C12" t="n">
-        <v>2530.01</v>
+        <v>2521.8</v>
       </c>
       <c r="D12" t="n">
-        <v>2515.76</v>
+        <v>2513.61</v>
       </c>
       <c r="E12" t="n">
-        <v>2515.77</v>
+        <v>2516.09</v>
       </c>
       <c r="F12" t="n">
-        <v>205.11846297</v>
+        <v>80.39960349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45538.16666666666</v>
+        <v>45538.20833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>2515.78</v>
+        <v>2517.34</v>
       </c>
       <c r="C13" t="n">
-        <v>2521.8</v>
+        <v>2525.39</v>
       </c>
       <c r="D13" t="n">
-        <v>2513.61</v>
+        <v>2516.43</v>
       </c>
       <c r="E13" t="n">
-        <v>2516.09</v>
+        <v>2521.2</v>
       </c>
       <c r="F13" t="n">
-        <v>80.39960349</v>
+        <v>722.2749608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45538.20833333334</v>
+        <v>45538.25</v>
       </c>
       <c r="B14" t="n">
-        <v>2517.34</v>
+        <v>2520.94</v>
       </c>
       <c r="C14" t="n">
-        <v>2525.39</v>
+        <v>2520.94</v>
       </c>
       <c r="D14" t="n">
-        <v>2516.43</v>
+        <v>2513.47</v>
       </c>
       <c r="E14" t="n">
-        <v>2521.2</v>
+        <v>2513.93</v>
       </c>
       <c r="F14" t="n">
-        <v>722.2749608</v>
+        <v>48.04355734</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45538.25</v>
+        <v>45538.29166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>2520.94</v>
+        <v>2513.47</v>
       </c>
       <c r="C15" t="n">
-        <v>2520.94</v>
+        <v>2523.19</v>
       </c>
       <c r="D15" t="n">
         <v>2513.47</v>
       </c>
       <c r="E15" t="n">
-        <v>2513.93</v>
+        <v>2520.38</v>
       </c>
       <c r="F15" t="n">
-        <v>48.04355734</v>
+        <v>38.64648451</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45538.29166666666</v>
+        <v>45538.33333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>2513.47</v>
+        <v>2520.23</v>
       </c>
       <c r="C16" t="n">
-        <v>2523.19</v>
+        <v>2520.23</v>
       </c>
       <c r="D16" t="n">
-        <v>2513.47</v>
+        <v>2495.58</v>
       </c>
       <c r="E16" t="n">
-        <v>2520.38</v>
+        <v>2500.3</v>
       </c>
       <c r="F16" t="n">
-        <v>38.64648451</v>
+        <v>781.2630842</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45538.33333333334</v>
+        <v>45538.375</v>
       </c>
       <c r="B17" t="n">
-        <v>2520.23</v>
+        <v>2499.74</v>
       </c>
       <c r="C17" t="n">
-        <v>2520.23</v>
+        <v>2507.43</v>
       </c>
       <c r="D17" t="n">
-        <v>2495.58</v>
+        <v>2497.85</v>
       </c>
       <c r="E17" t="n">
-        <v>2500.3</v>
+        <v>2503.11</v>
       </c>
       <c r="F17" t="n">
-        <v>781.2630842</v>
+        <v>215.44200023</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45538.375</v>
+        <v>45538.41666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>2499.74</v>
+        <v>2502.93</v>
       </c>
       <c r="C18" t="n">
-        <v>2507.43</v>
+        <v>2512.05</v>
       </c>
       <c r="D18" t="n">
-        <v>2497.85</v>
+        <v>2500</v>
       </c>
       <c r="E18" t="n">
-        <v>2503.11</v>
+        <v>2504.58</v>
       </c>
       <c r="F18" t="n">
-        <v>215.44200023</v>
+        <v>59.3709534</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45538.41666666666</v>
+        <v>45538.45833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>2502.93</v>
+        <v>2504.58</v>
       </c>
       <c r="C19" t="n">
-        <v>2512.05</v>
+        <v>2510.14</v>
       </c>
       <c r="D19" t="n">
-        <v>2500</v>
+        <v>2502.59</v>
       </c>
       <c r="E19" t="n">
-        <v>2504.58</v>
+        <v>2508.27</v>
       </c>
       <c r="F19" t="n">
-        <v>59.3709534</v>
+        <v>47.67759126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45538.45833333334</v>
+        <v>45538.5</v>
       </c>
       <c r="B20" t="n">
-        <v>2504.58</v>
+        <v>2508.87</v>
       </c>
       <c r="C20" t="n">
-        <v>2510.14</v>
+        <v>2516.85</v>
       </c>
       <c r="D20" t="n">
-        <v>2502.59</v>
+        <v>2506.29</v>
       </c>
       <c r="E20" t="n">
-        <v>2508.27</v>
+        <v>2511.91</v>
       </c>
       <c r="F20" t="n">
-        <v>47.67759126</v>
+        <v>146.19845227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45538.5</v>
+        <v>45538.54166666666</v>
       </c>
       <c r="B21" t="n">
-        <v>2508.87</v>
+        <v>2511.92</v>
       </c>
       <c r="C21" t="n">
-        <v>2516.85</v>
+        <v>2516.81</v>
       </c>
       <c r="D21" t="n">
-        <v>2506.29</v>
+        <v>2460</v>
       </c>
       <c r="E21" t="n">
-        <v>2511.91</v>
+        <v>2464.64</v>
       </c>
       <c r="F21" t="n">
-        <v>146.19845227</v>
+        <v>696.5574978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45538.54166666666</v>
+        <v>45538.58333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>2511.92</v>
+        <v>2464.13</v>
       </c>
       <c r="C22" t="n">
-        <v>2516.81</v>
+        <v>2467.13</v>
       </c>
       <c r="D22" t="n">
-        <v>2460</v>
+        <v>2443.14</v>
       </c>
       <c r="E22" t="n">
-        <v>2464.64</v>
+        <v>2445.36</v>
       </c>
       <c r="F22" t="n">
-        <v>696.5574978</v>
+        <v>995.35920506</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45538.58333333334</v>
+        <v>45538.625</v>
       </c>
       <c r="B23" t="n">
-        <v>2464.13</v>
+        <v>2445.9</v>
       </c>
       <c r="C23" t="n">
-        <v>2467.13</v>
+        <v>2453.97</v>
       </c>
       <c r="D23" t="n">
-        <v>2443.14</v>
+        <v>2436.44</v>
       </c>
       <c r="E23" t="n">
-        <v>2445.36</v>
+        <v>2441.9</v>
       </c>
       <c r="F23" t="n">
-        <v>995.35920506</v>
+        <v>642.64490184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45538.625</v>
+        <v>45538.66666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>2445.9</v>
+        <v>2443.9</v>
       </c>
       <c r="C24" t="n">
-        <v>2453.97</v>
+        <v>2446.94</v>
       </c>
       <c r="D24" t="n">
-        <v>2436.44</v>
+        <v>2437.22</v>
       </c>
       <c r="E24" t="n">
-        <v>2441.9</v>
+        <v>2439.86</v>
       </c>
       <c r="F24" t="n">
-        <v>642.64490184</v>
+        <v>871.52140862</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45538.66666666666</v>
+        <v>45538.70833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>2443.9</v>
+        <v>2439.88</v>
       </c>
       <c r="C25" t="n">
-        <v>2446.94</v>
+        <v>2461.47</v>
       </c>
       <c r="D25" t="n">
-        <v>2437.22</v>
+        <v>2438.96</v>
       </c>
       <c r="E25" t="n">
-        <v>2439.86</v>
+        <v>2442.19</v>
       </c>
       <c r="F25" t="n">
-        <v>871.52140862</v>
+        <v>752.97807665</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45538.70833333334</v>
+        <v>45538.75</v>
       </c>
       <c r="B26" t="n">
-        <v>2439.88</v>
+        <v>2442</v>
       </c>
       <c r="C26" t="n">
-        <v>2461.47</v>
+        <v>2455.61</v>
       </c>
       <c r="D26" t="n">
-        <v>2438.96</v>
+        <v>2436</v>
       </c>
       <c r="E26" t="n">
-        <v>2442.19</v>
+        <v>2451.05</v>
       </c>
       <c r="F26" t="n">
-        <v>752.97807665</v>
+        <v>611.14568619</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45538.75</v>
+        <v>45538.79166666666</v>
       </c>
       <c r="B27" t="n">
-        <v>2442</v>
+        <v>2451.05</v>
       </c>
       <c r="C27" t="n">
-        <v>2455.61</v>
+        <v>2467.34</v>
       </c>
       <c r="D27" t="n">
-        <v>2436</v>
+        <v>2445.42</v>
       </c>
       <c r="E27" t="n">
-        <v>2451.05</v>
+        <v>2445.42</v>
       </c>
       <c r="F27" t="n">
-        <v>611.14568619</v>
+        <v>748.8080943799999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45538.79166666666</v>
+        <v>45538.83333333334</v>
       </c>
       <c r="B28" t="n">
-        <v>2451.05</v>
+        <v>2446.16</v>
       </c>
       <c r="C28" t="n">
-        <v>2467.34</v>
+        <v>2463.53</v>
       </c>
       <c r="D28" t="n">
-        <v>2445.42</v>
+        <v>2446.16</v>
       </c>
       <c r="E28" t="n">
-        <v>2445.42</v>
+        <v>2461.73</v>
       </c>
       <c r="F28" t="n">
-        <v>748.8080943799999</v>
+        <v>425.99524386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45538.83333333334</v>
+        <v>45538.875</v>
       </c>
       <c r="B29" t="n">
-        <v>2446.16</v>
+        <v>2461.73</v>
       </c>
       <c r="C29" t="n">
-        <v>2463.53</v>
+        <v>2469.39</v>
       </c>
       <c r="D29" t="n">
-        <v>2446.16</v>
+        <v>2449.31</v>
       </c>
       <c r="E29" t="n">
-        <v>2461.73</v>
+        <v>2463.62</v>
       </c>
       <c r="F29" t="n">
-        <v>425.99524386</v>
+        <v>656.37964487</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45538.875</v>
+        <v>45538.91666666666</v>
       </c>
       <c r="B30" t="n">
-        <v>2461.73</v>
+        <v>2463.62</v>
       </c>
       <c r="C30" t="n">
-        <v>2469.39</v>
+        <v>2464.09</v>
       </c>
       <c r="D30" t="n">
-        <v>2449.31</v>
+        <v>2453.18</v>
       </c>
       <c r="E30" t="n">
-        <v>2463.62</v>
+        <v>2453.18</v>
       </c>
       <c r="F30" t="n">
-        <v>656.37964487</v>
+        <v>239.70520025</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45538.91666666666</v>
+        <v>45538.95833333334</v>
       </c>
       <c r="B31" t="n">
-        <v>2463.62</v>
+        <v>2452.89</v>
       </c>
       <c r="C31" t="n">
-        <v>2464.09</v>
+        <v>2453.9</v>
       </c>
       <c r="D31" t="n">
-        <v>2453.18</v>
+        <v>2414.3</v>
       </c>
       <c r="E31" t="n">
-        <v>2453.18</v>
+        <v>2422.26</v>
       </c>
       <c r="F31" t="n">
-        <v>239.70520025</v>
+        <v>881.85736443</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45538.95833333334</v>
+        <v>45539</v>
       </c>
       <c r="B32" t="n">
-        <v>2452.89</v>
+        <v>2424.81</v>
       </c>
       <c r="C32" t="n">
-        <v>2453.9</v>
+        <v>2448.16</v>
       </c>
       <c r="D32" t="n">
-        <v>2414.3</v>
+        <v>2391.37</v>
       </c>
       <c r="E32" t="n">
-        <v>2422.26</v>
+        <v>2395.73</v>
       </c>
       <c r="F32" t="n">
-        <v>881.85736443</v>
+        <v>725.73469711</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45539</v>
+        <v>45539.04166666666</v>
       </c>
       <c r="B33" t="n">
-        <v>2424.81</v>
+        <v>2395.78</v>
       </c>
       <c r="C33" t="n">
-        <v>2448.16</v>
+        <v>2395.95</v>
       </c>
       <c r="D33" t="n">
-        <v>2391.37</v>
+        <v>2308</v>
       </c>
       <c r="E33" t="n">
-        <v>2395.73</v>
+        <v>2365.51</v>
       </c>
       <c r="F33" t="n">
-        <v>725.73469711</v>
+        <v>2954.01979959</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45539.04166666666</v>
+        <v>45539.08333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>2395.78</v>
+        <v>2365.49</v>
       </c>
       <c r="C34" t="n">
-        <v>2395.95</v>
+        <v>2370.21</v>
       </c>
       <c r="D34" t="n">
-        <v>2308</v>
+        <v>2356.03</v>
       </c>
       <c r="E34" t="n">
-        <v>2365.51</v>
+        <v>2364.36</v>
       </c>
       <c r="F34" t="n">
-        <v>2954.01979959</v>
+        <v>2041.65799756</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45539.08333333334</v>
+        <v>45539.125</v>
       </c>
       <c r="B35" t="n">
-        <v>2365.49</v>
+        <v>2364.35</v>
       </c>
       <c r="C35" t="n">
-        <v>2370.21</v>
+        <v>2381.6</v>
       </c>
       <c r="D35" t="n">
-        <v>2356.03</v>
+        <v>2364.35</v>
       </c>
       <c r="E35" t="n">
-        <v>2364.36</v>
+        <v>2372.67</v>
       </c>
       <c r="F35" t="n">
-        <v>2041.65799756</v>
+        <v>532.73716538</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45539.125</v>
+        <v>45539.16666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>2364.35</v>
+        <v>2372.68</v>
       </c>
       <c r="C36" t="n">
-        <v>2381.6</v>
+        <v>2377.88</v>
       </c>
       <c r="D36" t="n">
-        <v>2364.35</v>
+        <v>2365.57</v>
       </c>
       <c r="E36" t="n">
-        <v>2372.67</v>
+        <v>2377.88</v>
       </c>
       <c r="F36" t="n">
-        <v>532.73716538</v>
+        <v>607.51668193</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45539.16666666666</v>
+        <v>45539.20833333334</v>
       </c>
       <c r="B37" t="n">
-        <v>2372.68</v>
+        <v>2377.6</v>
       </c>
       <c r="C37" t="n">
-        <v>2377.88</v>
+        <v>2380.95</v>
       </c>
       <c r="D37" t="n">
-        <v>2365.57</v>
+        <v>2363.72</v>
       </c>
       <c r="E37" t="n">
-        <v>2377.88</v>
+        <v>2364.87</v>
       </c>
       <c r="F37" t="n">
-        <v>607.51668193</v>
+        <v>490.10212531</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45539.20833333334</v>
+        <v>45539.25</v>
       </c>
       <c r="B38" t="n">
-        <v>2377.6</v>
+        <v>2364.86</v>
       </c>
       <c r="C38" t="n">
-        <v>2380.95</v>
+        <v>2382.67</v>
       </c>
       <c r="D38" t="n">
-        <v>2363.72</v>
+        <v>2364.86</v>
       </c>
       <c r="E38" t="n">
-        <v>2364.87</v>
+        <v>2372.14</v>
       </c>
       <c r="F38" t="n">
-        <v>490.10212531</v>
+        <v>306.95003249</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45539.25</v>
+        <v>45539.29166666666</v>
       </c>
       <c r="B39" t="n">
-        <v>2364.86</v>
+        <v>2372.03</v>
       </c>
       <c r="C39" t="n">
-        <v>2382.67</v>
+        <v>2412.75</v>
       </c>
       <c r="D39" t="n">
-        <v>2364.86</v>
+        <v>2370.37</v>
       </c>
       <c r="E39" t="n">
-        <v>2372.14</v>
+        <v>2400.18</v>
       </c>
       <c r="F39" t="n">
-        <v>306.95003249</v>
+        <v>470.1515653</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45539.29166666666</v>
+        <v>45539.33333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>2372.03</v>
+        <v>2400.43</v>
       </c>
       <c r="C40" t="n">
-        <v>2412.75</v>
+        <v>2408.78</v>
       </c>
       <c r="D40" t="n">
-        <v>2370.37</v>
+        <v>2395.13</v>
       </c>
       <c r="E40" t="n">
-        <v>2400.18</v>
+        <v>2402.12</v>
       </c>
       <c r="F40" t="n">
-        <v>470.1515653</v>
+        <v>448.75111899</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45539.33333333334</v>
+        <v>45539.375</v>
       </c>
       <c r="B41" t="n">
-        <v>2400.43</v>
+        <v>2402.11</v>
       </c>
       <c r="C41" t="n">
-        <v>2408.78</v>
+        <v>2403.9</v>
       </c>
       <c r="D41" t="n">
-        <v>2395.13</v>
+        <v>2392.69</v>
       </c>
       <c r="E41" t="n">
-        <v>2402.12</v>
+        <v>2392.95</v>
       </c>
       <c r="F41" t="n">
-        <v>448.75111899</v>
+        <v>371.45359911</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45539.375</v>
+        <v>45539.41666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>2402.11</v>
+        <v>2392.99</v>
       </c>
       <c r="C42" t="n">
-        <v>2403.9</v>
+        <v>2401.99</v>
       </c>
       <c r="D42" t="n">
-        <v>2392.69</v>
+        <v>2387.99</v>
       </c>
       <c r="E42" t="n">
-        <v>2392.95</v>
+        <v>2389.59</v>
       </c>
       <c r="F42" t="n">
-        <v>371.45359911</v>
+        <v>281.68146375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45539.41666666666</v>
+        <v>45539.45833333334</v>
       </c>
       <c r="B43" t="n">
-        <v>2392.99</v>
+        <v>2389.7</v>
       </c>
       <c r="C43" t="n">
-        <v>2401.99</v>
+        <v>2401.8</v>
       </c>
       <c r="D43" t="n">
-        <v>2387.99</v>
+        <v>2388.88</v>
       </c>
       <c r="E43" t="n">
-        <v>2389.59</v>
+        <v>2400.2</v>
       </c>
       <c r="F43" t="n">
-        <v>281.68146375</v>
+        <v>303.52616642</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45539.45833333334</v>
+        <v>45539.5</v>
       </c>
       <c r="B44" t="n">
-        <v>2389.7</v>
+        <v>2400.21</v>
       </c>
       <c r="C44" t="n">
-        <v>2401.8</v>
+        <v>2412</v>
       </c>
       <c r="D44" t="n">
-        <v>2388.88</v>
+        <v>2396.66</v>
       </c>
       <c r="E44" t="n">
-        <v>2400.2</v>
+        <v>2405</v>
       </c>
       <c r="F44" t="n">
-        <v>303.52616642</v>
+        <v>400.26090158</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45539.5</v>
+        <v>45539.54166666666</v>
       </c>
       <c r="B45" t="n">
-        <v>2400.21</v>
+        <v>2403.27</v>
       </c>
       <c r="C45" t="n">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="D45" t="n">
-        <v>2396.66</v>
+        <v>2394.8</v>
       </c>
       <c r="E45" t="n">
-        <v>2405</v>
+        <v>2403.44</v>
       </c>
       <c r="F45" t="n">
-        <v>400.26090158</v>
+        <v>124.42729971</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45539.54166666666</v>
+        <v>45539.58333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>2403.27</v>
+        <v>2403.43</v>
       </c>
       <c r="C46" t="n">
-        <v>2408</v>
+        <v>2448.58</v>
       </c>
       <c r="D46" t="n">
-        <v>2394.8</v>
+        <v>2393.79</v>
       </c>
       <c r="E46" t="n">
-        <v>2403.44</v>
+        <v>2437.82</v>
       </c>
       <c r="F46" t="n">
-        <v>124.42729971</v>
+        <v>707.0315574700001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45539.58333333334</v>
+        <v>45539.625</v>
       </c>
       <c r="B47" t="n">
-        <v>2403.43</v>
+        <v>2438.28</v>
       </c>
       <c r="C47" t="n">
-        <v>2448.58</v>
+        <v>2457.17</v>
       </c>
       <c r="D47" t="n">
-        <v>2393.79</v>
+        <v>2426.54</v>
       </c>
       <c r="E47" t="n">
-        <v>2437.82</v>
+        <v>2456.06</v>
       </c>
       <c r="F47" t="n">
-        <v>707.0315574700001</v>
+        <v>834.76307407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45539.625</v>
+        <v>45539.66666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>2438.28</v>
+        <v>2455.7</v>
       </c>
       <c r="C48" t="n">
-        <v>2457.17</v>
+        <v>2488.55</v>
       </c>
       <c r="D48" t="n">
-        <v>2426.54</v>
+        <v>2450.83</v>
       </c>
       <c r="E48" t="n">
-        <v>2456.06</v>
+        <v>2477.07</v>
       </c>
       <c r="F48" t="n">
-        <v>834.76307407</v>
+        <v>286.72200984</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45539.66666666666</v>
+        <v>45539.70833333334</v>
       </c>
       <c r="B49" t="n">
-        <v>2455.7</v>
+        <v>2477.52</v>
       </c>
       <c r="C49" t="n">
-        <v>2488.55</v>
+        <v>2477.81</v>
       </c>
       <c r="D49" t="n">
-        <v>2450.83</v>
+        <v>2448.86</v>
       </c>
       <c r="E49" t="n">
-        <v>2477.07</v>
+        <v>2450.37</v>
       </c>
       <c r="F49" t="n">
-        <v>286.72200984</v>
+        <v>2827.12934868</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45539.70833333334</v>
+        <v>45539.75</v>
       </c>
       <c r="B50" t="n">
-        <v>2477.52</v>
+        <v>2449.19</v>
       </c>
       <c r="C50" t="n">
-        <v>2477.81</v>
+        <v>2455.67</v>
       </c>
       <c r="D50" t="n">
-        <v>2448.86</v>
+        <v>2440.59</v>
       </c>
       <c r="E50" t="n">
-        <v>2450.37</v>
+        <v>2442.23</v>
       </c>
       <c r="F50" t="n">
-        <v>2827.12934868</v>
+        <v>253.66930354</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45539.75</v>
+        <v>45539.79166666666</v>
       </c>
       <c r="B51" t="n">
-        <v>2449.19</v>
+        <v>2442.23</v>
       </c>
       <c r="C51" t="n">
-        <v>2455.67</v>
+        <v>2454.3</v>
       </c>
       <c r="D51" t="n">
-        <v>2440.59</v>
+        <v>2440.92</v>
       </c>
       <c r="E51" t="n">
-        <v>2442.23</v>
+        <v>2451.93</v>
       </c>
       <c r="F51" t="n">
-        <v>253.66930354</v>
+        <v>441.68879797</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45539.79166666666</v>
+        <v>45539.83333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>2442.23</v>
+        <v>2451.93</v>
       </c>
       <c r="C52" t="n">
-        <v>2454.3</v>
+        <v>2457.4</v>
       </c>
       <c r="D52" t="n">
-        <v>2440.92</v>
+        <v>2446.27</v>
       </c>
       <c r="E52" t="n">
-        <v>2451.93</v>
+        <v>2455.69</v>
       </c>
       <c r="F52" t="n">
-        <v>441.68879797</v>
+        <v>90.71147023</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45539.83333333334</v>
+        <v>45539.875</v>
       </c>
       <c r="B53" t="n">
-        <v>2451.93</v>
+        <v>2455.28</v>
       </c>
       <c r="C53" t="n">
-        <v>2457.4</v>
+        <v>2463.93</v>
       </c>
       <c r="D53" t="n">
-        <v>2446.27</v>
+        <v>2451.08</v>
       </c>
       <c r="E53" t="n">
-        <v>2455.69</v>
+        <v>2462.93</v>
       </c>
       <c r="F53" t="n">
-        <v>90.71147023</v>
+        <v>243.88526675</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45539.875</v>
+        <v>45539.91666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>2455.28</v>
+        <v>2463.04</v>
       </c>
       <c r="C54" t="n">
-        <v>2463.93</v>
+        <v>2467.97</v>
       </c>
       <c r="D54" t="n">
-        <v>2451.08</v>
+        <v>2458.8</v>
       </c>
       <c r="E54" t="n">
-        <v>2462.93</v>
+        <v>2462.22</v>
       </c>
       <c r="F54" t="n">
-        <v>243.88526675</v>
+        <v>80.17119932</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45539.91666666666</v>
+        <v>45539.95833333334</v>
       </c>
       <c r="B55" t="n">
-        <v>2463.04</v>
+        <v>2462.22</v>
       </c>
       <c r="C55" t="n">
-        <v>2467.97</v>
+        <v>2464.18</v>
       </c>
       <c r="D55" t="n">
-        <v>2458.8</v>
+        <v>2445.37</v>
       </c>
       <c r="E55" t="n">
-        <v>2462.22</v>
+        <v>2450.08</v>
       </c>
       <c r="F55" t="n">
-        <v>80.17119932</v>
+        <v>71.53226401000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45539.95833333334</v>
+        <v>45540</v>
       </c>
       <c r="B56" t="n">
-        <v>2462.22</v>
+        <v>2450.4</v>
       </c>
       <c r="C56" t="n">
-        <v>2464.18</v>
+        <v>2461.85</v>
       </c>
       <c r="D56" t="n">
-        <v>2445.37</v>
+        <v>2448</v>
       </c>
       <c r="E56" t="n">
-        <v>2450.08</v>
+        <v>2455.01</v>
       </c>
       <c r="F56" t="n">
-        <v>71.53226401000001</v>
+        <v>123.83480276</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45540</v>
+        <v>45540.04166666666</v>
       </c>
       <c r="B57" t="n">
-        <v>2450.4</v>
+        <v>2455.01</v>
       </c>
       <c r="C57" t="n">
-        <v>2461.85</v>
+        <v>2465.48</v>
       </c>
       <c r="D57" t="n">
-        <v>2448</v>
+        <v>2452.43</v>
       </c>
       <c r="E57" t="n">
-        <v>2455.01</v>
+        <v>2459.85</v>
       </c>
       <c r="F57" t="n">
-        <v>123.83480276</v>
+        <v>117.14823563</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45540.04166666666</v>
+        <v>45540.08333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>2455.01</v>
+        <v>2459.86</v>
       </c>
       <c r="C58" t="n">
-        <v>2465.48</v>
+        <v>2459.86</v>
       </c>
       <c r="D58" t="n">
-        <v>2452.43</v>
+        <v>2445.22</v>
       </c>
       <c r="E58" t="n">
-        <v>2459.85</v>
+        <v>2446.21</v>
       </c>
       <c r="F58" t="n">
-        <v>117.14823563</v>
+        <v>407.652466</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45540.08333333334</v>
+        <v>45540.125</v>
       </c>
       <c r="B59" t="n">
-        <v>2459.86</v>
+        <v>2446.21</v>
       </c>
       <c r="C59" t="n">
-        <v>2459.86</v>
+        <v>2446.21</v>
       </c>
       <c r="D59" t="n">
-        <v>2445.22</v>
+        <v>2404.47</v>
       </c>
       <c r="E59" t="n">
-        <v>2446.21</v>
+        <v>2404.47</v>
       </c>
       <c r="F59" t="n">
-        <v>407.652466</v>
+        <v>492.15682274</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45540.125</v>
+        <v>45540.16666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>2446.21</v>
+        <v>2404.7</v>
       </c>
       <c r="C60" t="n">
-        <v>2446.21</v>
+        <v>2417.45</v>
       </c>
       <c r="D60" t="n">
-        <v>2404.47</v>
+        <v>2402.75</v>
       </c>
       <c r="E60" t="n">
-        <v>2404.47</v>
+        <v>2414.09</v>
       </c>
       <c r="F60" t="n">
-        <v>492.15682274</v>
+        <v>97.77510399000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45540.16666666666</v>
+        <v>45540.20833333334</v>
       </c>
       <c r="B61" t="n">
-        <v>2404.7</v>
+        <v>2414.08</v>
       </c>
       <c r="C61" t="n">
-        <v>2417.45</v>
+        <v>2414.61</v>
       </c>
       <c r="D61" t="n">
-        <v>2402.75</v>
+        <v>2403.4</v>
       </c>
       <c r="E61" t="n">
-        <v>2414.09</v>
+        <v>2409.45</v>
       </c>
       <c r="F61" t="n">
-        <v>97.77510399000001</v>
+        <v>154.69139597</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45540.20833333334</v>
+        <v>45540.25</v>
       </c>
       <c r="B62" t="n">
-        <v>2414.08</v>
+        <v>2409.45</v>
       </c>
       <c r="C62" t="n">
-        <v>2414.61</v>
+        <v>2409.45</v>
       </c>
       <c r="D62" t="n">
-        <v>2403.4</v>
+        <v>2377.36</v>
       </c>
       <c r="E62" t="n">
-        <v>2409.45</v>
+        <v>2399.12</v>
       </c>
       <c r="F62" t="n">
-        <v>154.69139597</v>
+        <v>253.14020419</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45540.25</v>
+        <v>45540.29166666666</v>
       </c>
       <c r="B63" t="n">
-        <v>2409.45</v>
+        <v>2398.9</v>
       </c>
       <c r="C63" t="n">
-        <v>2409.45</v>
+        <v>2415.47</v>
       </c>
       <c r="D63" t="n">
-        <v>2377.36</v>
+        <v>2397.64</v>
       </c>
       <c r="E63" t="n">
-        <v>2399.12</v>
+        <v>2412.47</v>
       </c>
       <c r="F63" t="n">
-        <v>253.14020419</v>
+        <v>377.65128033</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45540.29166666666</v>
+        <v>45540.33333333334</v>
       </c>
       <c r="B64" t="n">
-        <v>2398.9</v>
+        <v>2412.48</v>
       </c>
       <c r="C64" t="n">
-        <v>2415.47</v>
+        <v>2415.25</v>
       </c>
       <c r="D64" t="n">
-        <v>2397.64</v>
+        <v>2400.04</v>
       </c>
       <c r="E64" t="n">
-        <v>2412.47</v>
+        <v>2405.71</v>
       </c>
       <c r="F64" t="n">
-        <v>377.65128033</v>
+        <v>154.56941378</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45540.33333333334</v>
+        <v>45540.375</v>
       </c>
       <c r="B65" t="n">
-        <v>2412.48</v>
+        <v>2405.72</v>
       </c>
       <c r="C65" t="n">
-        <v>2415.25</v>
+        <v>2405.72</v>
       </c>
       <c r="D65" t="n">
-        <v>2400.04</v>
+        <v>2386.59</v>
       </c>
       <c r="E65" t="n">
-        <v>2405.71</v>
+        <v>2391.31</v>
       </c>
       <c r="F65" t="n">
-        <v>154.56941378</v>
+        <v>70.03372362</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45540.375</v>
+        <v>45540.41666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>2405.72</v>
+        <v>2391.32</v>
       </c>
       <c r="C66" t="n">
-        <v>2405.72</v>
+        <v>2393.89</v>
       </c>
       <c r="D66" t="n">
-        <v>2386.59</v>
+        <v>2383.46</v>
       </c>
       <c r="E66" t="n">
-        <v>2391.31</v>
+        <v>2392.01</v>
       </c>
       <c r="F66" t="n">
-        <v>70.03372362</v>
+        <v>303.88408809</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45540.41666666666</v>
+        <v>45540.45833333334</v>
       </c>
       <c r="B67" t="n">
-        <v>2391.32</v>
+        <v>2392</v>
       </c>
       <c r="C67" t="n">
-        <v>2393.89</v>
+        <v>2395.12</v>
       </c>
       <c r="D67" t="n">
-        <v>2383.46</v>
+        <v>2387.11</v>
       </c>
       <c r="E67" t="n">
-        <v>2392.01</v>
+        <v>2388.85</v>
       </c>
       <c r="F67" t="n">
-        <v>303.88408809</v>
+        <v>193.71810297</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45540.45833333334</v>
+        <v>45540.5</v>
       </c>
       <c r="B68" t="n">
-        <v>2392</v>
+        <v>2388.86</v>
       </c>
       <c r="C68" t="n">
-        <v>2395.12</v>
+        <v>2397.13</v>
       </c>
       <c r="D68" t="n">
-        <v>2387.11</v>
+        <v>2378.12</v>
       </c>
       <c r="E68" t="n">
-        <v>2388.85</v>
+        <v>2390.87</v>
       </c>
       <c r="F68" t="n">
-        <v>193.71810297</v>
+        <v>512.49793993</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45540.5</v>
+        <v>45540.54166666666</v>
       </c>
       <c r="B69" t="n">
-        <v>2388.86</v>
+        <v>2390.87</v>
       </c>
       <c r="C69" t="n">
-        <v>2397.13</v>
+        <v>2412.15</v>
       </c>
       <c r="D69" t="n">
-        <v>2378.12</v>
+        <v>2387.24</v>
       </c>
       <c r="E69" t="n">
-        <v>2390.87</v>
+        <v>2400.16</v>
       </c>
       <c r="F69" t="n">
-        <v>512.49793993</v>
+        <v>260.51828774</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45540.54166666666</v>
+        <v>45540.58333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>2390.87</v>
+        <v>2400.35</v>
       </c>
       <c r="C70" t="n">
-        <v>2412.15</v>
+        <v>2413.05</v>
       </c>
       <c r="D70" t="n">
-        <v>2387.24</v>
+        <v>2364.88</v>
       </c>
       <c r="E70" t="n">
-        <v>2400.16</v>
+        <v>2375.52</v>
       </c>
       <c r="F70" t="n">
-        <v>260.51828774</v>
+        <v>809.13428939</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45540.58333333334</v>
+        <v>45540.625</v>
       </c>
       <c r="B71" t="n">
-        <v>2400.35</v>
+        <v>2376.43</v>
       </c>
       <c r="C71" t="n">
-        <v>2413.05</v>
+        <v>2383.32</v>
       </c>
       <c r="D71" t="n">
-        <v>2364.88</v>
+        <v>2356.05</v>
       </c>
       <c r="E71" t="n">
-        <v>2375.52</v>
+        <v>2371.7</v>
       </c>
       <c r="F71" t="n">
-        <v>809.13428939</v>
+        <v>855.84493732</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45540.625</v>
+        <v>45540.66666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>2376.43</v>
+        <v>2371.61</v>
       </c>
       <c r="C72" t="n">
-        <v>2383.32</v>
+        <v>2377.68</v>
       </c>
       <c r="D72" t="n">
-        <v>2356.05</v>
+        <v>2367.06</v>
       </c>
       <c r="E72" t="n">
-        <v>2371.7</v>
+        <v>2374.78</v>
       </c>
       <c r="F72" t="n">
-        <v>855.84493732</v>
+        <v>321.48775839</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45540.66666666666</v>
+        <v>45540.70833333334</v>
       </c>
       <c r="B73" t="n">
-        <v>2371.61</v>
+        <v>2374.78</v>
       </c>
       <c r="C73" t="n">
-        <v>2377.68</v>
+        <v>2391.9</v>
       </c>
       <c r="D73" t="n">
-        <v>2367.06</v>
+        <v>2371.68</v>
       </c>
       <c r="E73" t="n">
-        <v>2374.78</v>
+        <v>2391.9</v>
       </c>
       <c r="F73" t="n">
-        <v>321.48775839</v>
+        <v>332.67448795</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45540.70833333334</v>
+        <v>45540.75</v>
       </c>
       <c r="B74" t="n">
-        <v>2374.78</v>
+        <v>2392.08</v>
       </c>
       <c r="C74" t="n">
-        <v>2391.9</v>
+        <v>2394.72</v>
       </c>
       <c r="D74" t="n">
-        <v>2371.68</v>
+        <v>2388.01</v>
       </c>
       <c r="E74" t="n">
-        <v>2391.9</v>
+        <v>2389.13</v>
       </c>
       <c r="F74" t="n">
-        <v>332.67448795</v>
+        <v>103.5725822</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45540.75</v>
+        <v>45540.79166666666</v>
       </c>
       <c r="B75" t="n">
-        <v>2392.08</v>
+        <v>2389.03</v>
       </c>
       <c r="C75" t="n">
-        <v>2394.72</v>
+        <v>2389.42</v>
       </c>
       <c r="D75" t="n">
-        <v>2388.01</v>
+        <v>2347.6</v>
       </c>
       <c r="E75" t="n">
-        <v>2389.13</v>
+        <v>2361.99</v>
       </c>
       <c r="F75" t="n">
-        <v>103.5725822</v>
+        <v>742.49587375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45540.79166666666</v>
+        <v>45540.83333333334</v>
       </c>
       <c r="B76" t="n">
-        <v>2389.03</v>
+        <v>2362</v>
       </c>
       <c r="C76" t="n">
-        <v>2389.42</v>
+        <v>2376.96</v>
       </c>
       <c r="D76" t="n">
-        <v>2347.6</v>
+        <v>2361.99</v>
       </c>
       <c r="E76" t="n">
-        <v>2361.99</v>
+        <v>2368.05</v>
       </c>
       <c r="F76" t="n">
-        <v>742.49587375</v>
+        <v>516.89576491</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45540.83333333334</v>
+        <v>45540.875</v>
       </c>
       <c r="B77" t="n">
-        <v>2362</v>
+        <v>2367.49</v>
       </c>
       <c r="C77" t="n">
-        <v>2376.96</v>
+        <v>2376.06</v>
       </c>
       <c r="D77" t="n">
-        <v>2361.99</v>
+        <v>2350.98</v>
       </c>
       <c r="E77" t="n">
-        <v>2368.05</v>
+        <v>2372.08</v>
       </c>
       <c r="F77" t="n">
-        <v>516.89576491</v>
+        <v>816.82794625</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45540.875</v>
+        <v>45540.91666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>2367.49</v>
+        <v>2372.08</v>
       </c>
       <c r="C78" t="n">
-        <v>2376.06</v>
+        <v>2373.6</v>
       </c>
       <c r="D78" t="n">
-        <v>2350.98</v>
+        <v>2355.76</v>
       </c>
       <c r="E78" t="n">
-        <v>2372.08</v>
+        <v>2370.49</v>
       </c>
       <c r="F78" t="n">
-        <v>816.82794625</v>
+        <v>220.41855846</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45540.91666666666</v>
+        <v>45540.95833333334</v>
       </c>
       <c r="B79" t="n">
-        <v>2372.08</v>
+        <v>2370.49</v>
       </c>
       <c r="C79" t="n">
-        <v>2373.6</v>
+        <v>2372.22</v>
       </c>
       <c r="D79" t="n">
-        <v>2355.76</v>
+        <v>2364.93</v>
       </c>
       <c r="E79" t="n">
-        <v>2370.49</v>
+        <v>2368.47</v>
       </c>
       <c r="F79" t="n">
-        <v>220.41855846</v>
+        <v>98.13638895</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45540.95833333334</v>
+        <v>45541</v>
       </c>
       <c r="B80" t="n">
-        <v>2370.49</v>
+        <v>2368.17</v>
       </c>
       <c r="C80" t="n">
-        <v>2372.22</v>
+        <v>2375.59</v>
       </c>
       <c r="D80" t="n">
-        <v>2364.93</v>
+        <v>2357.12</v>
       </c>
       <c r="E80" t="n">
-        <v>2368.47</v>
+        <v>2371.58</v>
       </c>
       <c r="F80" t="n">
-        <v>98.13638895</v>
+        <v>177.77564688</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45541</v>
+        <v>45541.04166666666</v>
       </c>
       <c r="B81" t="n">
-        <v>2368.17</v>
+        <v>2371.59</v>
       </c>
       <c r="C81" t="n">
-        <v>2375.59</v>
+        <v>2397.95</v>
       </c>
       <c r="D81" t="n">
-        <v>2357.12</v>
+        <v>2364.26</v>
       </c>
       <c r="E81" t="n">
-        <v>2371.58</v>
+        <v>2390.76</v>
       </c>
       <c r="F81" t="n">
-        <v>177.77564688</v>
+        <v>277.57343808</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45541.04166666666</v>
+        <v>45541.08333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>2371.59</v>
+        <v>2390.77</v>
       </c>
       <c r="C82" t="n">
-        <v>2397.95</v>
+        <v>2406.03</v>
       </c>
       <c r="D82" t="n">
-        <v>2364.26</v>
+        <v>2389.99</v>
       </c>
       <c r="E82" t="n">
-        <v>2390.76</v>
+        <v>2401.36</v>
       </c>
       <c r="F82" t="n">
-        <v>277.57343808</v>
+        <v>130.2975789</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45541.08333333334</v>
+        <v>45541.125</v>
       </c>
       <c r="B83" t="n">
-        <v>2390.77</v>
+        <v>2401.36</v>
       </c>
       <c r="C83" t="n">
-        <v>2406.03</v>
+        <v>2402.09</v>
       </c>
       <c r="D83" t="n">
-        <v>2389.99</v>
+        <v>2391.79</v>
       </c>
       <c r="E83" t="n">
-        <v>2401.36</v>
+        <v>2393.47</v>
       </c>
       <c r="F83" t="n">
-        <v>130.2975789</v>
+        <v>125.81183604</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45541.125</v>
+        <v>45541.16666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>2401.36</v>
+        <v>2392.33</v>
       </c>
       <c r="C84" t="n">
-        <v>2402.09</v>
+        <v>2395.62</v>
       </c>
       <c r="D84" t="n">
-        <v>2391.79</v>
+        <v>2385.75</v>
       </c>
       <c r="E84" t="n">
-        <v>2393.47</v>
+        <v>2386.92</v>
       </c>
       <c r="F84" t="n">
-        <v>125.81183604</v>
+        <v>62.15647969</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45541.16666666666</v>
+        <v>45541.20833333334</v>
       </c>
       <c r="B85" t="n">
-        <v>2392.33</v>
+        <v>2386.92</v>
       </c>
       <c r="C85" t="n">
-        <v>2395.62</v>
+        <v>2388.76</v>
       </c>
       <c r="D85" t="n">
-        <v>2385.75</v>
+        <v>2376.38</v>
       </c>
       <c r="E85" t="n">
-        <v>2386.92</v>
+        <v>2383.93</v>
       </c>
       <c r="F85" t="n">
-        <v>62.15647969</v>
+        <v>101.75248538</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45541.20833333334</v>
+        <v>45541.25</v>
       </c>
       <c r="B86" t="n">
-        <v>2386.92</v>
+        <v>2383.93</v>
       </c>
       <c r="C86" t="n">
-        <v>2388.76</v>
+        <v>2383.95</v>
       </c>
       <c r="D86" t="n">
-        <v>2376.38</v>
+        <v>2373</v>
       </c>
       <c r="E86" t="n">
-        <v>2383.93</v>
+        <v>2378.98</v>
       </c>
       <c r="F86" t="n">
-        <v>101.75248538</v>
+        <v>63.40639599</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45541.25</v>
+        <v>45541.29166666666</v>
       </c>
       <c r="B87" t="n">
-        <v>2383.93</v>
+        <v>2378.98</v>
       </c>
       <c r="C87" t="n">
-        <v>2383.95</v>
+        <v>2378.98</v>
       </c>
       <c r="D87" t="n">
-        <v>2373</v>
+        <v>2323</v>
       </c>
       <c r="E87" t="n">
-        <v>2378.98</v>
+        <v>2345.16</v>
       </c>
       <c r="F87" t="n">
-        <v>63.40639599</v>
+        <v>983.87107455</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45541.29166666666</v>
+        <v>45541.33333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>2378.98</v>
+        <v>2345.14</v>
       </c>
       <c r="C88" t="n">
-        <v>2378.98</v>
+        <v>2356.49</v>
       </c>
       <c r="D88" t="n">
-        <v>2323</v>
+        <v>2338.3</v>
       </c>
       <c r="E88" t="n">
-        <v>2345.16</v>
+        <v>2349.72</v>
       </c>
       <c r="F88" t="n">
-        <v>983.87107455</v>
+        <v>199.0108345</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45541.33333333334</v>
+        <v>45541.375</v>
       </c>
       <c r="B89" t="n">
-        <v>2345.14</v>
+        <v>2348.95</v>
       </c>
       <c r="C89" t="n">
-        <v>2356.49</v>
+        <v>2357.1</v>
       </c>
       <c r="D89" t="n">
-        <v>2338.3</v>
+        <v>2345.86</v>
       </c>
       <c r="E89" t="n">
-        <v>2349.72</v>
+        <v>2357.09</v>
       </c>
       <c r="F89" t="n">
-        <v>199.0108345</v>
+        <v>114.06879485</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45541.375</v>
+        <v>45541.41666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>2348.95</v>
+        <v>2357.41</v>
       </c>
       <c r="C90" t="n">
-        <v>2357.1</v>
+        <v>2375.59</v>
       </c>
       <c r="D90" t="n">
-        <v>2345.86</v>
+        <v>2355.91</v>
       </c>
       <c r="E90" t="n">
-        <v>2357.09</v>
+        <v>2367.37</v>
       </c>
       <c r="F90" t="n">
-        <v>114.06879485</v>
+        <v>151.11515649</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45541.41666666666</v>
+        <v>45541.45833333334</v>
       </c>
       <c r="B91" t="n">
-        <v>2357.41</v>
+        <v>2367.97</v>
       </c>
       <c r="C91" t="n">
-        <v>2375.59</v>
+        <v>2378.76</v>
       </c>
       <c r="D91" t="n">
-        <v>2355.91</v>
+        <v>2365.45</v>
       </c>
       <c r="E91" t="n">
-        <v>2367.37</v>
+        <v>2372.53</v>
       </c>
       <c r="F91" t="n">
-        <v>151.11515649</v>
+        <v>88.81018027</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45541.45833333334</v>
+        <v>45541.5</v>
       </c>
       <c r="B92" t="n">
-        <v>2367.97</v>
+        <v>2372.53</v>
       </c>
       <c r="C92" t="n">
-        <v>2378.76</v>
+        <v>2406.23</v>
       </c>
       <c r="D92" t="n">
-        <v>2365.45</v>
+        <v>2358.6</v>
       </c>
       <c r="E92" t="n">
-        <v>2372.53</v>
+        <v>2399.92</v>
       </c>
       <c r="F92" t="n">
-        <v>88.81018027</v>
+        <v>1307.90948022</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45541.5</v>
+        <v>45541.54166666666</v>
       </c>
       <c r="B93" t="n">
-        <v>2372.53</v>
+        <v>2399.91</v>
       </c>
       <c r="C93" t="n">
-        <v>2406.23</v>
+        <v>2399.92</v>
       </c>
       <c r="D93" t="n">
-        <v>2358.6</v>
+        <v>2358.21</v>
       </c>
       <c r="E93" t="n">
-        <v>2399.92</v>
+        <v>2363.47</v>
       </c>
       <c r="F93" t="n">
-        <v>1307.90948022</v>
+        <v>801.95164553</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45541.54166666666</v>
+        <v>45541.58333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>2399.91</v>
+        <v>2363.27</v>
       </c>
       <c r="C94" t="n">
-        <v>2399.92</v>
+        <v>2365.76</v>
       </c>
       <c r="D94" t="n">
-        <v>2358.21</v>
+        <v>2312.09</v>
       </c>
       <c r="E94" t="n">
-        <v>2363.47</v>
+        <v>2326.96</v>
       </c>
       <c r="F94" t="n">
-        <v>801.95164553</v>
+        <v>1394.53676316</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45541.58333333334</v>
+        <v>45541.625</v>
       </c>
       <c r="B95" t="n">
-        <v>2363.27</v>
+        <v>2326.3</v>
       </c>
       <c r="C95" t="n">
-        <v>2365.76</v>
+        <v>2337.1</v>
       </c>
       <c r="D95" t="n">
-        <v>2312.09</v>
+        <v>2263.74</v>
       </c>
       <c r="E95" t="n">
-        <v>2326.96</v>
+        <v>2288.19</v>
       </c>
       <c r="F95" t="n">
-        <v>1394.53676316</v>
+        <v>6219.49262227</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45541.625</v>
+        <v>45541.66666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>2326.3</v>
+        <v>2288.19</v>
       </c>
       <c r="C96" t="n">
-        <v>2337.1</v>
+        <v>2290.31</v>
       </c>
       <c r="D96" t="n">
-        <v>2263.74</v>
+        <v>2250.8</v>
       </c>
       <c r="E96" t="n">
-        <v>2288.19</v>
+        <v>2265.2</v>
       </c>
       <c r="F96" t="n">
-        <v>6219.49262227</v>
+        <v>1522.16232375</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45541.66666666666</v>
+        <v>45541.70833333334</v>
       </c>
       <c r="B97" t="n">
-        <v>2288.19</v>
+        <v>2264.96</v>
       </c>
       <c r="C97" t="n">
-        <v>2290.31</v>
+        <v>2274.53</v>
       </c>
       <c r="D97" t="n">
-        <v>2250.8</v>
+        <v>2225.4</v>
       </c>
       <c r="E97" t="n">
-        <v>2265.2</v>
+        <v>2244.8</v>
       </c>
       <c r="F97" t="n">
-        <v>1522.16232375</v>
+        <v>2318.2030541</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45541.70833333334</v>
+        <v>45541.75</v>
       </c>
       <c r="B98" t="n">
-        <v>2264.96</v>
+        <v>2244.81</v>
       </c>
       <c r="C98" t="n">
-        <v>2274.53</v>
+        <v>2245.96</v>
       </c>
       <c r="D98" t="n">
-        <v>2225.4</v>
+        <v>2210.5</v>
       </c>
       <c r="E98" t="n">
-        <v>2244.8</v>
+        <v>2210.5</v>
       </c>
       <c r="F98" t="n">
-        <v>2318.2030541</v>
+        <v>1052.1124154</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45541.75</v>
+        <v>45541.79166666666</v>
       </c>
       <c r="B99" t="n">
-        <v>2244.81</v>
+        <v>2210.01</v>
       </c>
       <c r="C99" t="n">
-        <v>2245.96</v>
+        <v>2241.52</v>
       </c>
       <c r="D99" t="n">
-        <v>2210.5</v>
+        <v>2207.01</v>
       </c>
       <c r="E99" t="n">
-        <v>2210.5</v>
+        <v>2220.74</v>
       </c>
       <c r="F99" t="n">
-        <v>1052.1124154</v>
+        <v>2247.64066529</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45541.79166666666</v>
+        <v>45541.83333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>2210.01</v>
+        <v>2220.02</v>
       </c>
       <c r="C100" t="n">
-        <v>2241.52</v>
+        <v>2226.88</v>
       </c>
       <c r="D100" t="n">
-        <v>2207.01</v>
+        <v>2167.3</v>
       </c>
       <c r="E100" t="n">
-        <v>2220.74</v>
+        <v>2169.17</v>
       </c>
       <c r="F100" t="n">
-        <v>2247.64066529</v>
+        <v>3361.74044142</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45541.83333333334</v>
+        <v>45541.875</v>
       </c>
       <c r="B101" t="n">
-        <v>2220.02</v>
+        <v>2168.49</v>
       </c>
       <c r="C101" t="n">
-        <v>2226.88</v>
+        <v>2218.3</v>
       </c>
       <c r="D101" t="n">
-        <v>2167.3</v>
+        <v>2150</v>
       </c>
       <c r="E101" t="n">
-        <v>2169.17</v>
+        <v>2217.69</v>
       </c>
       <c r="F101" t="n">
-        <v>3361.74044142</v>
+        <v>1346.31685158</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45541.875</v>
+        <v>45541.91666666666</v>
       </c>
       <c r="B102" t="n">
-        <v>2168.49</v>
+        <v>2217.68</v>
       </c>
       <c r="C102" t="n">
-        <v>2218.3</v>
+        <v>2221.27</v>
       </c>
       <c r="D102" t="n">
-        <v>2150</v>
+        <v>2206.62</v>
       </c>
       <c r="E102" t="n">
-        <v>2217.69</v>
+        <v>2208.83</v>
       </c>
       <c r="F102" t="n">
-        <v>1346.31685158</v>
+        <v>601.93297089</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45541.91666666666</v>
+        <v>45541.95833333334</v>
       </c>
       <c r="B103" t="n">
-        <v>2217.68</v>
+        <v>2208.8</v>
       </c>
       <c r="C103" t="n">
-        <v>2221.27</v>
+        <v>2224.6</v>
       </c>
       <c r="D103" t="n">
-        <v>2206.62</v>
+        <v>2208.8</v>
       </c>
       <c r="E103" t="n">
-        <v>2208.83</v>
+        <v>2224.45</v>
       </c>
       <c r="F103" t="n">
-        <v>601.93297089</v>
+        <v>144.09728079</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45541.95833333334</v>
+        <v>45542</v>
       </c>
       <c r="B104" t="n">
-        <v>2208.8</v>
+        <v>2224.45</v>
       </c>
       <c r="C104" t="n">
-        <v>2224.6</v>
+        <v>2241.3</v>
       </c>
       <c r="D104" t="n">
-        <v>2208.8</v>
+        <v>2224.44</v>
       </c>
       <c r="E104" t="n">
-        <v>2224.45</v>
+        <v>2233.5</v>
       </c>
       <c r="F104" t="n">
-        <v>144.09728079</v>
+        <v>3415.27140841</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45542</v>
+        <v>45542.04166666666</v>
       </c>
       <c r="B105" t="n">
-        <v>2224.45</v>
+        <v>2233.51</v>
       </c>
       <c r="C105" t="n">
-        <v>2241.3</v>
+        <v>2236.17</v>
       </c>
       <c r="D105" t="n">
-        <v>2224.44</v>
+        <v>2222</v>
       </c>
       <c r="E105" t="n">
-        <v>2233.5</v>
+        <v>2224.98</v>
       </c>
       <c r="F105" t="n">
-        <v>3415.27140841</v>
+        <v>2034.05306651</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45542.04166666666</v>
+        <v>45542.08333333334</v>
       </c>
       <c r="B106" t="n">
-        <v>2233.51</v>
+        <v>2224.97</v>
       </c>
       <c r="C106" t="n">
-        <v>2236.17</v>
+        <v>2239.15</v>
       </c>
       <c r="D106" t="n">
-        <v>2222</v>
+        <v>2223.23</v>
       </c>
       <c r="E106" t="n">
-        <v>2224.98</v>
+        <v>2232.76</v>
       </c>
       <c r="F106" t="n">
-        <v>2034.05306651</v>
+        <v>899.48971262</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45542.08333333334</v>
+        <v>45542.125</v>
       </c>
       <c r="B107" t="n">
-        <v>2224.97</v>
+        <v>2232.87</v>
       </c>
       <c r="C107" t="n">
-        <v>2239.15</v>
+        <v>2240.42</v>
       </c>
       <c r="D107" t="n">
-        <v>2223.23</v>
+        <v>2232.67</v>
       </c>
       <c r="E107" t="n">
-        <v>2232.76</v>
+        <v>2238.02</v>
       </c>
       <c r="F107" t="n">
-        <v>899.48971262</v>
+        <v>175.73439984</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45542.125</v>
+        <v>45542.16666666666</v>
       </c>
       <c r="B108" t="n">
-        <v>2232.87</v>
+        <v>2238.02</v>
       </c>
       <c r="C108" t="n">
-        <v>2240.42</v>
+        <v>2249.97</v>
       </c>
       <c r="D108" t="n">
-        <v>2232.67</v>
+        <v>2238.01</v>
       </c>
       <c r="E108" t="n">
-        <v>2238.02</v>
+        <v>2249.95</v>
       </c>
       <c r="F108" t="n">
-        <v>175.73439984</v>
+        <v>104.09019889</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45542.16666666666</v>
+        <v>45542.20833333334</v>
       </c>
       <c r="B109" t="n">
-        <v>2238.02</v>
+        <v>2249.98</v>
       </c>
       <c r="C109" t="n">
-        <v>2249.97</v>
+        <v>2274.19</v>
       </c>
       <c r="D109" t="n">
-        <v>2238.01</v>
+        <v>2246.48</v>
       </c>
       <c r="E109" t="n">
-        <v>2249.95</v>
+        <v>2262.74</v>
       </c>
       <c r="F109" t="n">
-        <v>104.09019889</v>
+        <v>424.6422858</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45542.20833333334</v>
+        <v>45542.25</v>
       </c>
       <c r="B110" t="n">
-        <v>2249.98</v>
+        <v>2263.55</v>
       </c>
       <c r="C110" t="n">
-        <v>2274.19</v>
+        <v>2280.87</v>
       </c>
       <c r="D110" t="n">
-        <v>2246.48</v>
+        <v>2258.99</v>
       </c>
       <c r="E110" t="n">
-        <v>2262.74</v>
+        <v>2276.69</v>
       </c>
       <c r="F110" t="n">
-        <v>424.6422858</v>
+        <v>176.58492903</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45542.25</v>
+        <v>45542.29166666666</v>
       </c>
       <c r="B111" t="n">
-        <v>2263.55</v>
+        <v>2276.81</v>
       </c>
       <c r="C111" t="n">
-        <v>2280.87</v>
+        <v>2293.44</v>
       </c>
       <c r="D111" t="n">
-        <v>2258.99</v>
+        <v>2275.31</v>
       </c>
       <c r="E111" t="n">
-        <v>2276.69</v>
+        <v>2288.73</v>
       </c>
       <c r="F111" t="n">
-        <v>176.58492903</v>
+        <v>430.04334943</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45542.29166666666</v>
+        <v>45542.33333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>2276.81</v>
+        <v>2288.72</v>
       </c>
       <c r="C112" t="n">
-        <v>2293.44</v>
+        <v>2297.68</v>
       </c>
       <c r="D112" t="n">
-        <v>2275.31</v>
+        <v>2275.92</v>
       </c>
       <c r="E112" t="n">
-        <v>2288.73</v>
+        <v>2295.28</v>
       </c>
       <c r="F112" t="n">
-        <v>430.04334943</v>
+        <v>234.6300542</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45542.33333333334</v>
+        <v>45542.375</v>
       </c>
       <c r="B113" t="n">
-        <v>2288.72</v>
+        <v>2295.59</v>
       </c>
       <c r="C113" t="n">
-        <v>2297.68</v>
+        <v>2295.95</v>
       </c>
       <c r="D113" t="n">
-        <v>2275.92</v>
+        <v>2278.42</v>
       </c>
       <c r="E113" t="n">
-        <v>2295.28</v>
+        <v>2282.27</v>
       </c>
       <c r="F113" t="n">
-        <v>234.6300542</v>
+        <v>59.25080438</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45542.375</v>
+        <v>45542.41666666666</v>
       </c>
       <c r="B114" t="n">
-        <v>2295.59</v>
+        <v>2281.73</v>
       </c>
       <c r="C114" t="n">
-        <v>2295.95</v>
+        <v>2289.21</v>
       </c>
       <c r="D114" t="n">
-        <v>2278.42</v>
+        <v>2281.73</v>
       </c>
       <c r="E114" t="n">
-        <v>2282.27</v>
+        <v>2282.78</v>
       </c>
       <c r="F114" t="n">
-        <v>59.25080438</v>
+        <v>37.73972559</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45542.41666666666</v>
+        <v>45542.45833333334</v>
       </c>
       <c r="B115" t="n">
-        <v>2281.73</v>
+        <v>2282.79</v>
       </c>
       <c r="C115" t="n">
-        <v>2289.21</v>
+        <v>2288.43</v>
       </c>
       <c r="D115" t="n">
-        <v>2281.73</v>
+        <v>2280.5</v>
       </c>
       <c r="E115" t="n">
-        <v>2282.78</v>
+        <v>2284.12</v>
       </c>
       <c r="F115" t="n">
-        <v>37.73972559</v>
+        <v>181.8776094</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45542.45833333334</v>
+        <v>45542.5</v>
       </c>
       <c r="B116" t="n">
-        <v>2282.79</v>
+        <v>2284.12</v>
       </c>
       <c r="C116" t="n">
-        <v>2288.43</v>
+        <v>2295.86</v>
       </c>
       <c r="D116" t="n">
-        <v>2280.5</v>
+        <v>2284.12</v>
       </c>
       <c r="E116" t="n">
-        <v>2284.12</v>
+        <v>2290.55</v>
       </c>
       <c r="F116" t="n">
-        <v>181.8776094</v>
+        <v>255.86659328</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45542.5</v>
+        <v>45542.54166666666</v>
       </c>
       <c r="B117" t="n">
-        <v>2284.12</v>
+        <v>2290.55</v>
       </c>
       <c r="C117" t="n">
-        <v>2295.86</v>
+        <v>2297.61</v>
       </c>
       <c r="D117" t="n">
-        <v>2284.12</v>
+        <v>2282.92</v>
       </c>
       <c r="E117" t="n">
-        <v>2290.55</v>
+        <v>2291.42</v>
       </c>
       <c r="F117" t="n">
-        <v>255.86659328</v>
+        <v>77.38138637</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45542.54166666666</v>
+        <v>45542.58333333334</v>
       </c>
       <c r="B118" t="n">
-        <v>2290.55</v>
+        <v>2291.43</v>
       </c>
       <c r="C118" t="n">
-        <v>2297.61</v>
+        <v>2296.05</v>
       </c>
       <c r="D118" t="n">
-        <v>2282.92</v>
+        <v>2289.23</v>
       </c>
       <c r="E118" t="n">
-        <v>2291.42</v>
+        <v>2293.14</v>
       </c>
       <c r="F118" t="n">
-        <v>77.38138637</v>
+        <v>53.61004501</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45542.58333333334</v>
+        <v>45542.625</v>
       </c>
       <c r="B119" t="n">
-        <v>2291.43</v>
+        <v>2293.15</v>
       </c>
       <c r="C119" t="n">
-        <v>2296.05</v>
+        <v>2309.57</v>
       </c>
       <c r="D119" t="n">
-        <v>2289.23</v>
+        <v>2292</v>
       </c>
       <c r="E119" t="n">
-        <v>2293.14</v>
+        <v>2300.51</v>
       </c>
       <c r="F119" t="n">
-        <v>53.61004501</v>
+        <v>295.14253923</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45542.625</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="B120" t="n">
-        <v>2293.15</v>
+        <v>2300.46</v>
       </c>
       <c r="C120" t="n">
-        <v>2309.57</v>
+        <v>2302.64</v>
       </c>
       <c r="D120" t="n">
-        <v>2292</v>
+        <v>2284.06</v>
       </c>
       <c r="E120" t="n">
-        <v>2300.51</v>
+        <v>2290.13</v>
       </c>
       <c r="F120" t="n">
-        <v>295.14253923</v>
+        <v>116.08842429</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45542.66666666666</v>
+        <v>45542.70833333334</v>
       </c>
       <c r="B121" t="n">
-        <v>2300.46</v>
+        <v>2289.14</v>
       </c>
       <c r="C121" t="n">
-        <v>2302.64</v>
+        <v>2291.08</v>
       </c>
       <c r="D121" t="n">
-        <v>2284.06</v>
+        <v>2265.01</v>
       </c>
       <c r="E121" t="n">
-        <v>2290.13</v>
+        <v>2271.67</v>
       </c>
       <c r="F121" t="n">
-        <v>116.08842429</v>
+        <v>494.41138065</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45542.70833333334</v>
+        <v>45542.75</v>
       </c>
       <c r="B122" t="n">
-        <v>2289.14</v>
+        <v>2272.61</v>
       </c>
       <c r="C122" t="n">
-        <v>2291.08</v>
+        <v>2287.44</v>
       </c>
       <c r="D122" t="n">
-        <v>2265.01</v>
+        <v>2268.69</v>
       </c>
       <c r="E122" t="n">
-        <v>2271.67</v>
+        <v>2281.35</v>
       </c>
       <c r="F122" t="n">
-        <v>494.41138065</v>
+        <v>83.83117728000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45542.75</v>
+        <v>45542.79166666666</v>
       </c>
       <c r="B123" t="n">
-        <v>2272.61</v>
+        <v>2281.35</v>
       </c>
       <c r="C123" t="n">
-        <v>2287.44</v>
+        <v>2292.35</v>
       </c>
       <c r="D123" t="n">
-        <v>2268.69</v>
+        <v>2280.03</v>
       </c>
       <c r="E123" t="n">
-        <v>2281.35</v>
+        <v>2290.29</v>
       </c>
       <c r="F123" t="n">
-        <v>83.83117728000001</v>
+        <v>121.89588937</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45542.79166666666</v>
+        <v>45542.83333333334</v>
       </c>
       <c r="B124" t="n">
-        <v>2281.35</v>
+        <v>2290.29</v>
       </c>
       <c r="C124" t="n">
-        <v>2292.35</v>
+        <v>2290.29</v>
       </c>
       <c r="D124" t="n">
-        <v>2280.03</v>
+        <v>2272.33</v>
       </c>
       <c r="E124" t="n">
-        <v>2290.29</v>
+        <v>2272.65</v>
       </c>
       <c r="F124" t="n">
-        <v>121.89588937</v>
+        <v>140.77803771</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45542.83333333334</v>
+        <v>45542.875</v>
       </c>
       <c r="B125" t="n">
-        <v>2290.29</v>
+        <v>2271.54</v>
       </c>
       <c r="C125" t="n">
-        <v>2290.29</v>
+        <v>2272.44</v>
       </c>
       <c r="D125" t="n">
-        <v>2272.33</v>
+        <v>2259.48</v>
       </c>
       <c r="E125" t="n">
-        <v>2272.65</v>
+        <v>2264.27</v>
       </c>
       <c r="F125" t="n">
-        <v>140.77803771</v>
+        <v>144.66844278</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45542.875</v>
+        <v>45542.91666666666</v>
       </c>
       <c r="B126" t="n">
-        <v>2271.54</v>
+        <v>2264.51</v>
       </c>
       <c r="C126" t="n">
-        <v>2272.44</v>
+        <v>2269.97</v>
       </c>
       <c r="D126" t="n">
-        <v>2259.48</v>
+        <v>2262.17</v>
       </c>
       <c r="E126" t="n">
-        <v>2264.27</v>
+        <v>2265.35</v>
       </c>
       <c r="F126" t="n">
-        <v>144.66844278</v>
+        <v>90.93648042</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45542.91666666666</v>
+        <v>45542.95833333334</v>
       </c>
       <c r="B127" t="n">
-        <v>2264.51</v>
+        <v>2264.25</v>
       </c>
       <c r="C127" t="n">
-        <v>2269.97</v>
+        <v>2275.78</v>
       </c>
       <c r="D127" t="n">
-        <v>2262.17</v>
+        <v>2258.71</v>
       </c>
       <c r="E127" t="n">
-        <v>2265.35</v>
+        <v>2273.1</v>
       </c>
       <c r="F127" t="n">
-        <v>90.93648042</v>
+        <v>110.30583293</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45542.95833333334</v>
+        <v>45543</v>
       </c>
       <c r="B128" t="n">
-        <v>2264.25</v>
+        <v>2273.11</v>
       </c>
       <c r="C128" t="n">
-        <v>2275.78</v>
+        <v>2274.25</v>
       </c>
       <c r="D128" t="n">
-        <v>2258.71</v>
+        <v>2263.48</v>
       </c>
       <c r="E128" t="n">
-        <v>2273.1</v>
+        <v>2268.98</v>
       </c>
       <c r="F128" t="n">
-        <v>110.30583293</v>
+        <v>565.06845985</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45543</v>
+        <v>45543.04166666666</v>
       </c>
       <c r="B129" t="n">
-        <v>2273.11</v>
+        <v>2268.91</v>
       </c>
       <c r="C129" t="n">
-        <v>2274.25</v>
+        <v>2279.76</v>
       </c>
       <c r="D129" t="n">
-        <v>2263.48</v>
+        <v>2268.87</v>
       </c>
       <c r="E129" t="n">
-        <v>2268.98</v>
+        <v>2279.75</v>
       </c>
       <c r="F129" t="n">
-        <v>565.06845985</v>
+        <v>61.46513248</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45543.04166666666</v>
+        <v>45543.08333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>2268.91</v>
+        <v>2279.76</v>
       </c>
       <c r="C130" t="n">
-        <v>2279.76</v>
+        <v>2287.78</v>
       </c>
       <c r="D130" t="n">
-        <v>2268.87</v>
+        <v>2279.43</v>
       </c>
       <c r="E130" t="n">
-        <v>2279.75</v>
+        <v>2283.49</v>
       </c>
       <c r="F130" t="n">
-        <v>61.46513248</v>
+        <v>262.30890358</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45543.08333333334</v>
+        <v>45543.125</v>
       </c>
       <c r="B131" t="n">
-        <v>2279.76</v>
+        <v>2283.93</v>
       </c>
       <c r="C131" t="n">
-        <v>2287.78</v>
+        <v>2286.58</v>
       </c>
       <c r="D131" t="n">
-        <v>2279.43</v>
+        <v>2280.25</v>
       </c>
       <c r="E131" t="n">
-        <v>2283.49</v>
+        <v>2285.11</v>
       </c>
       <c r="F131" t="n">
-        <v>262.30890358</v>
+        <v>82.83881843</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45543.125</v>
+        <v>45543.16666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>2283.93</v>
+        <v>2285.11</v>
       </c>
       <c r="C132" t="n">
-        <v>2286.58</v>
+        <v>2302.76</v>
       </c>
       <c r="D132" t="n">
-        <v>2280.25</v>
+        <v>2285.1</v>
       </c>
       <c r="E132" t="n">
-        <v>2285.11</v>
+        <v>2299</v>
       </c>
       <c r="F132" t="n">
-        <v>82.83881843</v>
+        <v>84.99304845</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45543.16666666666</v>
+        <v>45543.20833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>2285.11</v>
+        <v>2299.01</v>
       </c>
       <c r="C133" t="n">
-        <v>2302.76</v>
+        <v>2299.01</v>
       </c>
       <c r="D133" t="n">
-        <v>2285.1</v>
+        <v>2283.98</v>
       </c>
       <c r="E133" t="n">
-        <v>2299</v>
+        <v>2284.88</v>
       </c>
       <c r="F133" t="n">
-        <v>84.99304845</v>
+        <v>218.53674292</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45543.20833333334</v>
+        <v>45543.25</v>
       </c>
       <c r="B134" t="n">
-        <v>2299.01</v>
+        <v>2284.88</v>
       </c>
       <c r="C134" t="n">
-        <v>2299.01</v>
+        <v>2287.75</v>
       </c>
       <c r="D134" t="n">
-        <v>2283.98</v>
+        <v>2284.73</v>
       </c>
       <c r="E134" t="n">
-        <v>2284.88</v>
+        <v>2286.5</v>
       </c>
       <c r="F134" t="n">
-        <v>218.53674292</v>
+        <v>104.31176556</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45543.25</v>
+        <v>45543.29166666666</v>
       </c>
       <c r="B135" t="n">
-        <v>2284.88</v>
+        <v>2286.5</v>
       </c>
       <c r="C135" t="n">
-        <v>2287.75</v>
+        <v>2298.94</v>
       </c>
       <c r="D135" t="n">
-        <v>2284.73</v>
+        <v>2286.49</v>
       </c>
       <c r="E135" t="n">
-        <v>2286.5</v>
+        <v>2295.26</v>
       </c>
       <c r="F135" t="n">
-        <v>104.31176556</v>
+        <v>35.55093087</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45543.29166666666</v>
+        <v>45543.33333333334</v>
       </c>
       <c r="B136" t="n">
-        <v>2286.5</v>
+        <v>2295.27</v>
       </c>
       <c r="C136" t="n">
-        <v>2298.94</v>
+        <v>2296.21</v>
       </c>
       <c r="D136" t="n">
-        <v>2286.49</v>
+        <v>2287.59</v>
       </c>
       <c r="E136" t="n">
-        <v>2295.26</v>
+        <v>2295.53</v>
       </c>
       <c r="F136" t="n">
-        <v>35.55093087</v>
+        <v>118.40255676</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45543.33333333334</v>
+        <v>45543.375</v>
       </c>
       <c r="B137" t="n">
-        <v>2295.27</v>
+        <v>2295.67</v>
       </c>
       <c r="C137" t="n">
-        <v>2296.21</v>
+        <v>2307.47</v>
       </c>
       <c r="D137" t="n">
-        <v>2287.59</v>
+        <v>2295.67</v>
       </c>
       <c r="E137" t="n">
-        <v>2295.53</v>
+        <v>2297.02</v>
       </c>
       <c r="F137" t="n">
-        <v>118.40255676</v>
+        <v>147.82008116</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45543.375</v>
+        <v>45543.41666666666</v>
       </c>
       <c r="B138" t="n">
-        <v>2295.67</v>
+        <v>2295.33</v>
       </c>
       <c r="C138" t="n">
-        <v>2307.47</v>
+        <v>2307.3</v>
       </c>
       <c r="D138" t="n">
-        <v>2295.67</v>
+        <v>2295.33</v>
       </c>
       <c r="E138" t="n">
-        <v>2297.02</v>
+        <v>2303</v>
       </c>
       <c r="F138" t="n">
-        <v>147.82008116</v>
+        <v>102.94293845</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45543.41666666666</v>
+        <v>45543.45833333334</v>
       </c>
       <c r="B139" t="n">
-        <v>2295.33</v>
+        <v>2303</v>
       </c>
       <c r="C139" t="n">
-        <v>2307.3</v>
+        <v>2305.7</v>
       </c>
       <c r="D139" t="n">
-        <v>2295.33</v>
+        <v>2294.44</v>
       </c>
       <c r="E139" t="n">
-        <v>2303</v>
+        <v>2295.66</v>
       </c>
       <c r="F139" t="n">
-        <v>102.94293845</v>
+        <v>110.38867231</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45543.45833333334</v>
+        <v>45543.5</v>
       </c>
       <c r="B140" t="n">
-        <v>2303</v>
+        <v>2295.66</v>
       </c>
       <c r="C140" t="n">
-        <v>2305.7</v>
+        <v>2297</v>
       </c>
       <c r="D140" t="n">
-        <v>2294.44</v>
+        <v>2272.58</v>
       </c>
       <c r="E140" t="n">
-        <v>2295.66</v>
+        <v>2276.22</v>
       </c>
       <c r="F140" t="n">
-        <v>110.38867231</v>
+        <v>291.79458085</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45543.5</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="B141" t="n">
-        <v>2295.66</v>
+        <v>2276.69</v>
       </c>
       <c r="C141" t="n">
-        <v>2297</v>
+        <v>2284.58</v>
       </c>
       <c r="D141" t="n">
-        <v>2272.58</v>
+        <v>2267.98</v>
       </c>
       <c r="E141" t="n">
-        <v>2276.22</v>
+        <v>2283.01</v>
       </c>
       <c r="F141" t="n">
-        <v>291.79458085</v>
+        <v>137.28058439</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45543.54166666666</v>
+        <v>45543.58333333334</v>
       </c>
       <c r="B142" t="n">
-        <v>2276.69</v>
+        <v>2283.01</v>
       </c>
       <c r="C142" t="n">
-        <v>2284.58</v>
+        <v>2283.5</v>
       </c>
       <c r="D142" t="n">
         <v>2267.98</v>
       </c>
       <c r="E142" t="n">
-        <v>2283.01</v>
+        <v>2268.32</v>
       </c>
       <c r="F142" t="n">
-        <v>137.28058439</v>
+        <v>392.93279861</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45543.58333333334</v>
+        <v>45543.625</v>
       </c>
       <c r="B143" t="n">
-        <v>2283.01</v>
+        <v>2269.37</v>
       </c>
       <c r="C143" t="n">
-        <v>2283.5</v>
+        <v>2270.49</v>
       </c>
       <c r="D143" t="n">
-        <v>2267.98</v>
+        <v>2242.87</v>
       </c>
       <c r="E143" t="n">
-        <v>2268.32</v>
+        <v>2244.14</v>
       </c>
       <c r="F143" t="n">
-        <v>392.93279861</v>
+        <v>326.11933942</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45543.625</v>
+        <v>45543.66666666666</v>
       </c>
       <c r="B144" t="n">
-        <v>2269.37</v>
+        <v>2244.14</v>
       </c>
       <c r="C144" t="n">
-        <v>2270.49</v>
+        <v>2259.63</v>
       </c>
       <c r="D144" t="n">
-        <v>2242.87</v>
+        <v>2243.48</v>
       </c>
       <c r="E144" t="n">
-        <v>2244.14</v>
+        <v>2250.81</v>
       </c>
       <c r="F144" t="n">
-        <v>326.11933942</v>
+        <v>504.6521973</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45543.66666666666</v>
+        <v>45543.70833333334</v>
       </c>
       <c r="B145" t="n">
-        <v>2244.14</v>
+        <v>2250.81</v>
       </c>
       <c r="C145" t="n">
-        <v>2259.63</v>
+        <v>2282.1</v>
       </c>
       <c r="D145" t="n">
-        <v>2243.48</v>
+        <v>2250.8</v>
       </c>
       <c r="E145" t="n">
-        <v>2250.81</v>
+        <v>2282.1</v>
       </c>
       <c r="F145" t="n">
-        <v>504.6521973</v>
+        <v>642.50310633</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45543.70833333334</v>
+        <v>45543.75</v>
       </c>
       <c r="B146" t="n">
-        <v>2250.81</v>
+        <v>2282.3</v>
       </c>
       <c r="C146" t="n">
-        <v>2282.1</v>
+        <v>2282.3</v>
       </c>
       <c r="D146" t="n">
-        <v>2250.8</v>
+        <v>2272.74</v>
       </c>
       <c r="E146" t="n">
-        <v>2282.1</v>
+        <v>2275.84</v>
       </c>
       <c r="F146" t="n">
-        <v>642.50310633</v>
+        <v>116.07695598</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45543.75</v>
+        <v>45543.79166666666</v>
       </c>
       <c r="B147" t="n">
-        <v>2282.3</v>
+        <v>2275.84</v>
       </c>
       <c r="C147" t="n">
-        <v>2282.3</v>
+        <v>2277.09</v>
       </c>
       <c r="D147" t="n">
-        <v>2272.74</v>
+        <v>2270.09</v>
       </c>
       <c r="E147" t="n">
-        <v>2275.84</v>
+        <v>2271.7</v>
       </c>
       <c r="F147" t="n">
-        <v>116.07695598</v>
+        <v>70.05122054</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45543.79166666666</v>
+        <v>45543.83333333334</v>
       </c>
       <c r="B148" t="n">
-        <v>2275.84</v>
+        <v>2271.7</v>
       </c>
       <c r="C148" t="n">
-        <v>2277.09</v>
+        <v>2276.03</v>
       </c>
       <c r="D148" t="n">
-        <v>2270.09</v>
+        <v>2267.25</v>
       </c>
       <c r="E148" t="n">
-        <v>2271.7</v>
+        <v>2275.13</v>
       </c>
       <c r="F148" t="n">
-        <v>70.05122054</v>
+        <v>91.57025381</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45543.83333333334</v>
+        <v>45543.875</v>
       </c>
       <c r="B149" t="n">
-        <v>2271.7</v>
+        <v>2275.12</v>
       </c>
       <c r="C149" t="n">
-        <v>2276.03</v>
+        <v>2288</v>
       </c>
       <c r="D149" t="n">
-        <v>2267.25</v>
+        <v>2275.12</v>
       </c>
       <c r="E149" t="n">
-        <v>2275.13</v>
+        <v>2280.4</v>
       </c>
       <c r="F149" t="n">
-        <v>91.57025381</v>
+        <v>271.27101995</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45543.875</v>
+        <v>45543.91666666666</v>
       </c>
       <c r="B150" t="n">
-        <v>2275.12</v>
+        <v>2280.4</v>
       </c>
       <c r="C150" t="n">
-        <v>2288</v>
+        <v>2333.02</v>
       </c>
       <c r="D150" t="n">
-        <v>2275.12</v>
+        <v>2280</v>
       </c>
       <c r="E150" t="n">
-        <v>2280.4</v>
+        <v>2293.64</v>
       </c>
       <c r="F150" t="n">
-        <v>271.27101995</v>
+        <v>877.77520724</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45543.91666666666</v>
+        <v>45543.95833333334</v>
       </c>
       <c r="B151" t="n">
-        <v>2280.4</v>
+        <v>2294.03</v>
       </c>
       <c r="C151" t="n">
-        <v>2333.02</v>
+        <v>2304.76</v>
       </c>
       <c r="D151" t="n">
-        <v>2280</v>
+        <v>2289.83</v>
       </c>
       <c r="E151" t="n">
-        <v>2293.64</v>
+        <v>2296.92</v>
       </c>
       <c r="F151" t="n">
-        <v>877.77520724</v>
+        <v>145.39303666</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45543.95833333334</v>
+        <v>45544</v>
       </c>
       <c r="B152" t="n">
-        <v>2294.03</v>
+        <v>2297.31</v>
       </c>
       <c r="C152" t="n">
-        <v>2304.76</v>
+        <v>2310.99</v>
       </c>
       <c r="D152" t="n">
-        <v>2289.83</v>
+        <v>2288.22</v>
       </c>
       <c r="E152" t="n">
-        <v>2296.92</v>
+        <v>2307.29</v>
       </c>
       <c r="F152" t="n">
-        <v>145.39303666</v>
+        <v>157.05954753</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45544</v>
+        <v>45544.04166666666</v>
       </c>
       <c r="B153" t="n">
-        <v>2297.31</v>
+        <v>2307.29</v>
       </c>
       <c r="C153" t="n">
-        <v>2310.99</v>
+        <v>2318.46</v>
       </c>
       <c r="D153" t="n">
-        <v>2288.22</v>
+        <v>2297.93</v>
       </c>
       <c r="E153" t="n">
-        <v>2307.29</v>
+        <v>2310.69</v>
       </c>
       <c r="F153" t="n">
-        <v>157.05954753</v>
+        <v>148.25944536</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45544.04166666666</v>
+        <v>45544.08333333334</v>
       </c>
       <c r="B154" t="n">
-        <v>2307.29</v>
+        <v>2310.63</v>
       </c>
       <c r="C154" t="n">
-        <v>2318.46</v>
+        <v>2310.99</v>
       </c>
       <c r="D154" t="n">
-        <v>2297.93</v>
+        <v>2297.92</v>
       </c>
       <c r="E154" t="n">
-        <v>2310.69</v>
+        <v>2305.8</v>
       </c>
       <c r="F154" t="n">
-        <v>148.25944536</v>
+        <v>165.97836023</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45544.08333333334</v>
+        <v>45544.125</v>
       </c>
       <c r="B155" t="n">
-        <v>2310.63</v>
+        <v>2305.88</v>
       </c>
       <c r="C155" t="n">
-        <v>2310.99</v>
+        <v>2306.48</v>
       </c>
       <c r="D155" t="n">
-        <v>2297.92</v>
+        <v>2290.68</v>
       </c>
       <c r="E155" t="n">
-        <v>2305.8</v>
+        <v>2303.86</v>
       </c>
       <c r="F155" t="n">
-        <v>165.97836023</v>
+        <v>239.37065156</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45544.125</v>
+        <v>45544.16666666666</v>
       </c>
       <c r="B156" t="n">
-        <v>2305.88</v>
+        <v>2303.86</v>
       </c>
       <c r="C156" t="n">
-        <v>2306.48</v>
+        <v>2305.98</v>
       </c>
       <c r="D156" t="n">
-        <v>2290.68</v>
+        <v>2295.49</v>
       </c>
       <c r="E156" t="n">
-        <v>2303.86</v>
+        <v>2297.01</v>
       </c>
       <c r="F156" t="n">
-        <v>239.37065156</v>
+        <v>72.29565377999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45544.16666666666</v>
+        <v>45544.20833333334</v>
       </c>
       <c r="B157" t="n">
-        <v>2303.86</v>
+        <v>2297</v>
       </c>
       <c r="C157" t="n">
-        <v>2305.98</v>
+        <v>2297.79</v>
       </c>
       <c r="D157" t="n">
-        <v>2295.49</v>
+        <v>2284.4</v>
       </c>
       <c r="E157" t="n">
-        <v>2297.01</v>
+        <v>2288.19</v>
       </c>
       <c r="F157" t="n">
-        <v>72.29565377999999</v>
+        <v>122.98290107</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45544.20833333334</v>
+        <v>45544.25</v>
       </c>
       <c r="B158" t="n">
-        <v>2297</v>
+        <v>2288.18</v>
       </c>
       <c r="C158" t="n">
-        <v>2297.79</v>
+        <v>2304.65</v>
       </c>
       <c r="D158" t="n">
-        <v>2284.4</v>
+        <v>2287.18</v>
       </c>
       <c r="E158" t="n">
-        <v>2288.19</v>
+        <v>2304.65</v>
       </c>
       <c r="F158" t="n">
-        <v>122.98290107</v>
+        <v>373.38661438</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45544.25</v>
+        <v>45544.29166666666</v>
       </c>
       <c r="B159" t="n">
-        <v>2288.18</v>
+        <v>2304.95</v>
       </c>
       <c r="C159" t="n">
-        <v>2304.65</v>
+        <v>2315.21</v>
       </c>
       <c r="D159" t="n">
-        <v>2287.18</v>
+        <v>2299.4</v>
       </c>
       <c r="E159" t="n">
-        <v>2304.65</v>
+        <v>2313.75</v>
       </c>
       <c r="F159" t="n">
-        <v>373.38661438</v>
+        <v>156.95846811</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45544.29166666666</v>
+        <v>45544.33333333334</v>
       </c>
       <c r="B160" t="n">
-        <v>2304.95</v>
+        <v>2313.63</v>
       </c>
       <c r="C160" t="n">
-        <v>2315.21</v>
+        <v>2328.37</v>
       </c>
       <c r="D160" t="n">
-        <v>2299.4</v>
+        <v>2313.63</v>
       </c>
       <c r="E160" t="n">
-        <v>2313.75</v>
+        <v>2324.98</v>
       </c>
       <c r="F160" t="n">
-        <v>156.95846811</v>
+        <v>462.08099243</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45544.33333333334</v>
+        <v>45544.375</v>
       </c>
       <c r="B161" t="n">
-        <v>2313.63</v>
+        <v>2324.99</v>
       </c>
       <c r="C161" t="n">
-        <v>2328.37</v>
+        <v>2337.09</v>
       </c>
       <c r="D161" t="n">
-        <v>2313.63</v>
+        <v>2315.78</v>
       </c>
       <c r="E161" t="n">
-        <v>2324.98</v>
+        <v>2317.22</v>
       </c>
       <c r="F161" t="n">
-        <v>462.08099243</v>
+        <v>146.39186484</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45544.375</v>
+        <v>45544.41666666666</v>
       </c>
       <c r="B162" t="n">
-        <v>2324.99</v>
+        <v>2317.22</v>
       </c>
       <c r="C162" t="n">
-        <v>2337.09</v>
+        <v>2324.69</v>
       </c>
       <c r="D162" t="n">
-        <v>2315.78</v>
+        <v>2312.99</v>
       </c>
       <c r="E162" t="n">
-        <v>2317.22</v>
+        <v>2319.44</v>
       </c>
       <c r="F162" t="n">
-        <v>146.39186484</v>
+        <v>310.33041222</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45544.41666666666</v>
+        <v>45544.45833333334</v>
       </c>
       <c r="B163" t="n">
-        <v>2317.22</v>
+        <v>2320.09</v>
       </c>
       <c r="C163" t="n">
-        <v>2324.69</v>
+        <v>2320.53</v>
       </c>
       <c r="D163" t="n">
-        <v>2312.99</v>
+        <v>2312.61</v>
       </c>
       <c r="E163" t="n">
-        <v>2319.44</v>
+        <v>2314.12</v>
       </c>
       <c r="F163" t="n">
-        <v>310.33041222</v>
+        <v>135.36671154</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45544.45833333334</v>
+        <v>45544.5</v>
       </c>
       <c r="B164" t="n">
-        <v>2320.09</v>
+        <v>2314.12</v>
       </c>
       <c r="C164" t="n">
-        <v>2320.53</v>
+        <v>2314.99</v>
       </c>
       <c r="D164" t="n">
-        <v>2312.61</v>
+        <v>2300.81</v>
       </c>
       <c r="E164" t="n">
-        <v>2314.12</v>
+        <v>2312.78</v>
       </c>
       <c r="F164" t="n">
-        <v>135.36671154</v>
+        <v>596.8403416800001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45544.5</v>
+        <v>45544.54166666666</v>
       </c>
       <c r="B165" t="n">
-        <v>2314.12</v>
+        <v>2313.04</v>
       </c>
       <c r="C165" t="n">
-        <v>2314.99</v>
+        <v>2324.67</v>
       </c>
       <c r="D165" t="n">
-        <v>2300.81</v>
+        <v>2307.1</v>
       </c>
       <c r="E165" t="n">
-        <v>2312.78</v>
+        <v>2322.62</v>
       </c>
       <c r="F165" t="n">
-        <v>596.8403416800001</v>
+        <v>303.24295226</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45544.54166666666</v>
+        <v>45544.58333333334</v>
       </c>
       <c r="B166" t="n">
-        <v>2313.04</v>
+        <v>2320.82</v>
       </c>
       <c r="C166" t="n">
-        <v>2324.67</v>
+        <v>2321.64</v>
       </c>
       <c r="D166" t="n">
-        <v>2307.1</v>
+        <v>2278.11</v>
       </c>
       <c r="E166" t="n">
-        <v>2322.62</v>
+        <v>2280.08</v>
       </c>
       <c r="F166" t="n">
-        <v>303.24295226</v>
+        <v>570.6574124700001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45544.58333333334</v>
+        <v>45544.625</v>
       </c>
       <c r="B167" t="n">
-        <v>2320.82</v>
+        <v>2280.09</v>
       </c>
       <c r="C167" t="n">
-        <v>2321.64</v>
+        <v>2294.59</v>
       </c>
       <c r="D167" t="n">
-        <v>2309.46</v>
+        <v>2274.57</v>
       </c>
       <c r="E167" t="n">
-        <v>2311.19</v>
+        <v>2286.45</v>
       </c>
       <c r="F167" t="n">
-        <v>44.72736388</v>
+        <v>262.61635758</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos.xlsx
+++ b/cryptos.xlsx
@@ -474,3322 +474,3322 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45537.75</v>
+        <v>45540.70833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>58515</v>
+        <v>56339.8</v>
       </c>
       <c r="C2" t="n">
-        <v>58627</v>
+        <v>56582.6</v>
       </c>
       <c r="D2" t="n">
-        <v>58318</v>
+        <v>56224.4</v>
       </c>
       <c r="E2" t="n">
-        <v>58449.9</v>
+        <v>56582.5</v>
       </c>
       <c r="F2" t="n">
-        <v>63.55732801</v>
+        <v>94.33477436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45537.79166666666</v>
+        <v>45540.75</v>
       </c>
       <c r="B3" t="n">
-        <v>58450</v>
+        <v>56582.6</v>
       </c>
       <c r="C3" t="n">
-        <v>58561.5</v>
+        <v>56698.7</v>
       </c>
       <c r="D3" t="n">
-        <v>58406.9</v>
+        <v>56530.6</v>
       </c>
       <c r="E3" t="n">
-        <v>58437.7</v>
+        <v>56574.2</v>
       </c>
       <c r="F3" t="n">
-        <v>17.08158141</v>
+        <v>31.16285561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45537.83333333334</v>
+        <v>45540.79166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>58437.8</v>
+        <v>56574.1</v>
       </c>
       <c r="C4" t="n">
-        <v>59188</v>
+        <v>56574.1</v>
       </c>
       <c r="D4" t="n">
-        <v>58429.8</v>
+        <v>55800</v>
       </c>
       <c r="E4" t="n">
-        <v>59016.5</v>
+        <v>56015.5</v>
       </c>
       <c r="F4" t="n">
-        <v>102.62445</v>
+        <v>219.36127309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45537.875</v>
+        <v>45540.83333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>59005.7</v>
+        <v>56009.5</v>
       </c>
       <c r="C5" t="n">
-        <v>59278.2</v>
+        <v>56210.4</v>
       </c>
       <c r="D5" t="n">
-        <v>58915.2</v>
+        <v>55993.8</v>
       </c>
       <c r="E5" t="n">
-        <v>59041</v>
+        <v>56062.1</v>
       </c>
       <c r="F5" t="n">
-        <v>98.35279558000001</v>
+        <v>86.57632781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537.91666666666</v>
+        <v>45540.875</v>
       </c>
       <c r="B6" t="n">
-        <v>59041</v>
+        <v>56061.1</v>
       </c>
       <c r="C6" t="n">
-        <v>59293.4</v>
+        <v>56237.4</v>
       </c>
       <c r="D6" t="n">
-        <v>58993.2</v>
+        <v>55601.5</v>
       </c>
       <c r="E6" t="n">
-        <v>59293.3</v>
+        <v>56163.3</v>
       </c>
       <c r="F6" t="n">
-        <v>24.24227232</v>
+        <v>101.72968464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45537.95833333334</v>
+        <v>45540.91666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>59293.3</v>
+        <v>56163.2</v>
       </c>
       <c r="C7" t="n">
-        <v>59388</v>
+        <v>56198.9</v>
       </c>
       <c r="D7" t="n">
-        <v>59083.4</v>
+        <v>55782.6</v>
       </c>
       <c r="E7" t="n">
-        <v>59128.6</v>
+        <v>56104.7</v>
       </c>
       <c r="F7" t="n">
-        <v>7.95907315</v>
+        <v>98.19975534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45538</v>
+        <v>45540.95833333334</v>
       </c>
       <c r="B8" t="n">
-        <v>59128.7</v>
+        <v>56104.7</v>
       </c>
       <c r="C8" t="n">
-        <v>59220.5</v>
+        <v>56174</v>
       </c>
       <c r="D8" t="n">
-        <v>59029.3</v>
+        <v>55980.8</v>
       </c>
       <c r="E8" t="n">
-        <v>59220.5</v>
+        <v>56163.9</v>
       </c>
       <c r="F8" t="n">
-        <v>46.86105443</v>
+        <v>27.9188315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45538.04166666666</v>
+        <v>45541</v>
       </c>
       <c r="B9" t="n">
-        <v>59220.5</v>
+        <v>56163.9</v>
       </c>
       <c r="C9" t="n">
-        <v>59388</v>
+        <v>56302.8</v>
       </c>
       <c r="D9" t="n">
-        <v>59189.1</v>
+        <v>56000</v>
       </c>
       <c r="E9" t="n">
-        <v>59376.9</v>
+        <v>56163.2</v>
       </c>
       <c r="F9" t="n">
-        <v>23.69985216</v>
+        <v>20.95995116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45538.08333333334</v>
+        <v>45541.04166666666</v>
       </c>
       <c r="B10" t="n">
-        <v>59376.9</v>
+        <v>56163.2</v>
       </c>
       <c r="C10" t="n">
-        <v>59773</v>
+        <v>56574</v>
       </c>
       <c r="D10" t="n">
-        <v>59314.9</v>
+        <v>55970.7</v>
       </c>
       <c r="E10" t="n">
-        <v>59315</v>
+        <v>56554.7</v>
       </c>
       <c r="F10" t="n">
-        <v>51.81755867</v>
+        <v>97.75916675000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45538.125</v>
+        <v>45541.08333333334</v>
       </c>
       <c r="B11" t="n">
-        <v>59315</v>
+        <v>56554.8</v>
       </c>
       <c r="C11" t="n">
-        <v>59337.5</v>
+        <v>56800.2</v>
       </c>
       <c r="D11" t="n">
-        <v>59094.9</v>
+        <v>56504.2</v>
       </c>
       <c r="E11" t="n">
-        <v>59095.5</v>
+        <v>56720.1</v>
       </c>
       <c r="F11" t="n">
-        <v>21.38344787</v>
+        <v>27.60750086</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45538.16666666666</v>
+        <v>45541.125</v>
       </c>
       <c r="B12" t="n">
-        <v>59095.6</v>
+        <v>56720.1</v>
       </c>
       <c r="C12" t="n">
-        <v>59200</v>
+        <v>56827.5</v>
       </c>
       <c r="D12" t="n">
-        <v>59016.6</v>
+        <v>56535</v>
       </c>
       <c r="E12" t="n">
-        <v>59089.5</v>
+        <v>56575.3</v>
       </c>
       <c r="F12" t="n">
-        <v>17.48434155</v>
+        <v>65.3940451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45538.20833333334</v>
+        <v>45541.16666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>59089.6</v>
+        <v>56575.3</v>
       </c>
       <c r="C13" t="n">
-        <v>59250.1</v>
+        <v>56708.5</v>
       </c>
       <c r="D13" t="n">
-        <v>59040</v>
+        <v>56575.3</v>
       </c>
       <c r="E13" t="n">
-        <v>59182.2</v>
+        <v>56612.3</v>
       </c>
       <c r="F13" t="n">
-        <v>31.54283144</v>
+        <v>6.39874313</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45538.25</v>
+        <v>45541.20833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>59182.1</v>
+        <v>56600.1</v>
       </c>
       <c r="C14" t="n">
-        <v>59182.2</v>
+        <v>56633</v>
       </c>
       <c r="D14" t="n">
-        <v>58882.2</v>
+        <v>56321.3</v>
       </c>
       <c r="E14" t="n">
-        <v>58886.7</v>
+        <v>56487.6</v>
       </c>
       <c r="F14" t="n">
-        <v>42.60916045</v>
+        <v>92.64010408999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45538.29166666666</v>
+        <v>45541.25</v>
       </c>
       <c r="B15" t="n">
-        <v>58886.7</v>
+        <v>56480.8</v>
       </c>
       <c r="C15" t="n">
-        <v>59090</v>
+        <v>56480.9</v>
       </c>
       <c r="D15" t="n">
-        <v>58886.6</v>
+        <v>56311.6</v>
       </c>
       <c r="E15" t="n">
-        <v>59090</v>
+        <v>56433.5</v>
       </c>
       <c r="F15" t="n">
-        <v>22.49755357</v>
+        <v>43.87787639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45538.33333333334</v>
+        <v>45541.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>59090</v>
+        <v>56433.5</v>
       </c>
       <c r="C16" t="n">
-        <v>59107.7</v>
+        <v>56433.5</v>
       </c>
       <c r="D16" t="n">
-        <v>58702.8</v>
+        <v>55302.5</v>
       </c>
       <c r="E16" t="n">
-        <v>58807.8</v>
+        <v>55804.8</v>
       </c>
       <c r="F16" t="n">
-        <v>42.6152072</v>
+        <v>126.26370353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45538.375</v>
+        <v>45541.33333333334</v>
       </c>
       <c r="B17" t="n">
-        <v>58807.9</v>
+        <v>55804.9</v>
       </c>
       <c r="C17" t="n">
-        <v>58943.8</v>
+        <v>55885.6</v>
       </c>
       <c r="D17" t="n">
-        <v>58791.7</v>
+        <v>55640.1</v>
       </c>
       <c r="E17" t="n">
-        <v>58860.8</v>
+        <v>55768.5</v>
       </c>
       <c r="F17" t="n">
-        <v>14.62084471</v>
+        <v>56.27854604</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45538.41666666666</v>
+        <v>45541.375</v>
       </c>
       <c r="B18" t="n">
-        <v>58860.9</v>
+        <v>55768.5</v>
       </c>
       <c r="C18" t="n">
-        <v>59182.2</v>
+        <v>55913</v>
       </c>
       <c r="D18" t="n">
-        <v>58835.6</v>
+        <v>55688</v>
       </c>
       <c r="E18" t="n">
-        <v>59068.3</v>
+        <v>55879.6</v>
       </c>
       <c r="F18" t="n">
-        <v>22.63135998</v>
+        <v>30.19853396</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45538.45833333334</v>
+        <v>45541.41666666666</v>
       </c>
       <c r="B19" t="n">
-        <v>59068.3</v>
+        <v>55879.7</v>
       </c>
       <c r="C19" t="n">
-        <v>59085.3</v>
+        <v>56239</v>
       </c>
       <c r="D19" t="n">
-        <v>58940.3</v>
+        <v>55879.7</v>
       </c>
       <c r="E19" t="n">
-        <v>59049.2</v>
+        <v>56159</v>
       </c>
       <c r="F19" t="n">
-        <v>15.63797626</v>
+        <v>58.0257006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45538.5</v>
+        <v>45541.45833333334</v>
       </c>
       <c r="B20" t="n">
-        <v>59049.2</v>
+        <v>56159</v>
       </c>
       <c r="C20" t="n">
-        <v>59314.8</v>
+        <v>56197</v>
       </c>
       <c r="D20" t="n">
-        <v>59049.1</v>
+        <v>55847.3</v>
       </c>
       <c r="E20" t="n">
-        <v>59160.2</v>
+        <v>55980.4</v>
       </c>
       <c r="F20" t="n">
-        <v>16.81711094</v>
+        <v>41.43559861</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45538.54166666666</v>
+        <v>45541.5</v>
       </c>
       <c r="B21" t="n">
-        <v>59160.2</v>
+        <v>55980.5</v>
       </c>
       <c r="C21" t="n">
-        <v>59293.7</v>
+        <v>56939.8</v>
       </c>
       <c r="D21" t="n">
-        <v>58225.4</v>
+        <v>55711</v>
       </c>
       <c r="E21" t="n">
-        <v>58388.2</v>
+        <v>56875</v>
       </c>
       <c r="F21" t="n">
-        <v>109.33062449</v>
+        <v>432.05183414</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45538.58333333334</v>
+        <v>45541.54166666666</v>
       </c>
       <c r="B22" t="n">
-        <v>58388.3</v>
+        <v>56875</v>
       </c>
       <c r="C22" t="n">
-        <v>58388.3</v>
+        <v>56964.1</v>
       </c>
       <c r="D22" t="n">
-        <v>57541.5</v>
+        <v>55828.8</v>
       </c>
       <c r="E22" t="n">
-        <v>57649.4</v>
+        <v>55900</v>
       </c>
       <c r="F22" t="n">
-        <v>187.63249372</v>
+        <v>220.42304516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45538.625</v>
+        <v>45541.58333333334</v>
       </c>
       <c r="B23" t="n">
-        <v>57649.4</v>
+        <v>55900.1</v>
       </c>
       <c r="C23" t="n">
-        <v>57977.8</v>
+        <v>55918.8</v>
       </c>
       <c r="D23" t="n">
-        <v>57609.3</v>
+        <v>54411</v>
       </c>
       <c r="E23" t="n">
-        <v>57737.2</v>
+        <v>54680.3</v>
       </c>
       <c r="F23" t="n">
-        <v>83.64088246</v>
+        <v>684.70058016</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45538.66666666666</v>
+        <v>45541.625</v>
       </c>
       <c r="B24" t="n">
-        <v>57707.3</v>
+        <v>54680.4</v>
       </c>
       <c r="C24" t="n">
-        <v>57900</v>
+        <v>54958.7</v>
       </c>
       <c r="D24" t="n">
-        <v>57629.9</v>
+        <v>53456</v>
       </c>
       <c r="E24" t="n">
-        <v>57690</v>
+        <v>54020</v>
       </c>
       <c r="F24" t="n">
-        <v>34.03965887</v>
+        <v>577.72026799</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45538.70833333334</v>
+        <v>45541.66666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>57689.9</v>
+        <v>54020</v>
       </c>
       <c r="C25" t="n">
-        <v>58024.9</v>
+        <v>54207.3</v>
       </c>
       <c r="D25" t="n">
-        <v>57675</v>
+        <v>53601</v>
       </c>
       <c r="E25" t="n">
-        <v>57680.9</v>
+        <v>54041</v>
       </c>
       <c r="F25" t="n">
-        <v>126.42552435</v>
+        <v>174.1660159</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45538.75</v>
+        <v>45541.70833333334</v>
       </c>
       <c r="B26" t="n">
-        <v>57680.8</v>
+        <v>54041.1</v>
       </c>
       <c r="C26" t="n">
-        <v>58000</v>
+        <v>54400</v>
       </c>
       <c r="D26" t="n">
-        <v>57600</v>
+        <v>53711.3</v>
       </c>
       <c r="E26" t="n">
-        <v>57901</v>
+        <v>53928.7</v>
       </c>
       <c r="F26" t="n">
-        <v>97.51147340999999</v>
+        <v>149.1093409</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45538.79166666666</v>
+        <v>45541.75</v>
       </c>
       <c r="B27" t="n">
-        <v>57900.9</v>
+        <v>53928.7</v>
       </c>
       <c r="C27" t="n">
-        <v>58226.5</v>
+        <v>53947.7</v>
       </c>
       <c r="D27" t="n">
-        <v>57822.4</v>
+        <v>53335</v>
       </c>
       <c r="E27" t="n">
-        <v>57994.6</v>
+        <v>53335.1</v>
       </c>
       <c r="F27" t="n">
-        <v>118.12551202</v>
+        <v>178.89638259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45538.83333333334</v>
+        <v>45541.79166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>57994.6</v>
+        <v>53335</v>
       </c>
       <c r="C28" t="n">
-        <v>58172.9</v>
+        <v>53905</v>
       </c>
       <c r="D28" t="n">
-        <v>57994.6</v>
+        <v>53225.8</v>
       </c>
       <c r="E28" t="n">
-        <v>58172.9</v>
+        <v>53473.5</v>
       </c>
       <c r="F28" t="n">
-        <v>140.38737342</v>
+        <v>262.07081873</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45538.875</v>
+        <v>45541.83333333334</v>
       </c>
       <c r="B29" t="n">
-        <v>58172.9</v>
+        <v>53476.2</v>
       </c>
       <c r="C29" t="n">
-        <v>58172.9</v>
+        <v>53755.6</v>
       </c>
       <c r="D29" t="n">
-        <v>57972.1</v>
+        <v>52642.8</v>
       </c>
       <c r="E29" t="n">
-        <v>58089</v>
+        <v>52850</v>
       </c>
       <c r="F29" t="n">
-        <v>26.5104132</v>
+        <v>215.97762159</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45538.91666666666</v>
+        <v>45541.875</v>
       </c>
       <c r="B30" t="n">
-        <v>58089</v>
+        <v>52850.1</v>
       </c>
       <c r="C30" t="n">
-        <v>58155</v>
+        <v>53747.4</v>
       </c>
       <c r="D30" t="n">
-        <v>57858.2</v>
+        <v>52569</v>
       </c>
       <c r="E30" t="n">
-        <v>57870.1</v>
+        <v>53743.5</v>
       </c>
       <c r="F30" t="n">
-        <v>84.88440487</v>
+        <v>141.20797508</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45538.95833333334</v>
+        <v>45541.91666666666</v>
       </c>
       <c r="B31" t="n">
-        <v>57870.2</v>
+        <v>53746.3</v>
       </c>
       <c r="C31" t="n">
-        <v>57880</v>
+        <v>53832.1</v>
       </c>
       <c r="D31" t="n">
-        <v>57406.4</v>
+        <v>53601.5</v>
       </c>
       <c r="E31" t="n">
-        <v>57497.6</v>
+        <v>53606.2</v>
       </c>
       <c r="F31" t="n">
-        <v>65.99529876</v>
+        <v>63.29168774</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45539</v>
+        <v>45541.95833333334</v>
       </c>
       <c r="B32" t="n">
-        <v>57482.4</v>
+        <v>53606.2</v>
       </c>
       <c r="C32" t="n">
-        <v>57918</v>
+        <v>53948.3</v>
       </c>
       <c r="D32" t="n">
-        <v>57155</v>
+        <v>53600</v>
       </c>
       <c r="E32" t="n">
-        <v>57155</v>
+        <v>53948.3</v>
       </c>
       <c r="F32" t="n">
-        <v>115.05509602</v>
+        <v>40.23080437</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45539.04166666666</v>
+        <v>45542</v>
       </c>
       <c r="B33" t="n">
-        <v>57155.1</v>
+        <v>53948.3</v>
       </c>
       <c r="C33" t="n">
-        <v>57155.1</v>
+        <v>54040.7</v>
       </c>
       <c r="D33" t="n">
-        <v>55617.7</v>
+        <v>53879.7</v>
       </c>
       <c r="E33" t="n">
-        <v>56789.9</v>
+        <v>53918.7</v>
       </c>
       <c r="F33" t="n">
-        <v>318.9211953</v>
+        <v>134.12421736</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45539.08333333334</v>
+        <v>45542.04166666666</v>
       </c>
       <c r="B34" t="n">
-        <v>56789.9</v>
+        <v>53918.7</v>
       </c>
       <c r="C34" t="n">
-        <v>56816.8</v>
+        <v>53980.7</v>
       </c>
       <c r="D34" t="n">
-        <v>56508.6</v>
+        <v>53739</v>
       </c>
       <c r="E34" t="n">
-        <v>56634.9</v>
+        <v>53797.4</v>
       </c>
       <c r="F34" t="n">
-        <v>168.12117661</v>
+        <v>142.42926441</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45539.125</v>
+        <v>45542.08333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>56634.9</v>
+        <v>53798.3</v>
       </c>
       <c r="C35" t="n">
-        <v>56825</v>
+        <v>53924.1</v>
       </c>
       <c r="D35" t="n">
-        <v>56619.8</v>
+        <v>53742.1</v>
       </c>
       <c r="E35" t="n">
-        <v>56642.9</v>
+        <v>53781.3</v>
       </c>
       <c r="F35" t="n">
-        <v>49.00594773</v>
+        <v>85.8849421</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45539.16666666666</v>
+        <v>45542.125</v>
       </c>
       <c r="B36" t="n">
-        <v>56643</v>
+        <v>53781.3</v>
       </c>
       <c r="C36" t="n">
-        <v>56714.3</v>
+        <v>53857.5</v>
       </c>
       <c r="D36" t="n">
-        <v>56553.1</v>
+        <v>53781.3</v>
       </c>
       <c r="E36" t="n">
-        <v>56680.1</v>
+        <v>53808.5</v>
       </c>
       <c r="F36" t="n">
-        <v>31.6001979</v>
+        <v>11.47144208</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45539.20833333334</v>
+        <v>45542.16666666666</v>
       </c>
       <c r="B37" t="n">
-        <v>56682.8</v>
+        <v>53808.5</v>
       </c>
       <c r="C37" t="n">
-        <v>56685.5</v>
+        <v>54041</v>
       </c>
       <c r="D37" t="n">
-        <v>56171.8</v>
+        <v>53797.9</v>
       </c>
       <c r="E37" t="n">
-        <v>56275.1</v>
+        <v>54041</v>
       </c>
       <c r="F37" t="n">
-        <v>47.06743529</v>
+        <v>3.08343434</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45539.25</v>
+        <v>45542.20833333334</v>
       </c>
       <c r="B38" t="n">
-        <v>56275.2</v>
+        <v>54041</v>
       </c>
       <c r="C38" t="n">
-        <v>56504.4</v>
+        <v>54347.1</v>
       </c>
       <c r="D38" t="n">
-        <v>56235.7</v>
+        <v>54007.6</v>
       </c>
       <c r="E38" t="n">
-        <v>56260.4</v>
+        <v>54170.3</v>
       </c>
       <c r="F38" t="n">
-        <v>34.77093212</v>
+        <v>17.85054136</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45539.29166666666</v>
+        <v>45542.25</v>
       </c>
       <c r="B39" t="n">
-        <v>56261.8</v>
+        <v>54174.5</v>
       </c>
       <c r="C39" t="n">
-        <v>56825</v>
+        <v>54349.4</v>
       </c>
       <c r="D39" t="n">
-        <v>56261.7</v>
+        <v>54039.1</v>
       </c>
       <c r="E39" t="n">
-        <v>56730</v>
+        <v>54300.9</v>
       </c>
       <c r="F39" t="n">
-        <v>70.90947052</v>
+        <v>34.60793326</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45539.33333333334</v>
+        <v>45542.29166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>56730</v>
+        <v>54301</v>
       </c>
       <c r="C40" t="n">
-        <v>56888.3</v>
+        <v>54379.3</v>
       </c>
       <c r="D40" t="n">
-        <v>56670.7</v>
+        <v>54193.9</v>
       </c>
       <c r="E40" t="n">
-        <v>56773.4</v>
+        <v>54284.9</v>
       </c>
       <c r="F40" t="n">
-        <v>72.82400325</v>
+        <v>15.92905594</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45539.375</v>
+        <v>45542.33333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>56773.4</v>
+        <v>54284.9</v>
       </c>
       <c r="C41" t="n">
-        <v>56816.6</v>
+        <v>54363.6</v>
       </c>
       <c r="D41" t="n">
-        <v>56591.8</v>
+        <v>54226.3</v>
       </c>
       <c r="E41" t="n">
-        <v>56595.9</v>
+        <v>54361.9</v>
       </c>
       <c r="F41" t="n">
-        <v>17.11204682</v>
+        <v>20.79352874</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45539.41666666666</v>
+        <v>45542.375</v>
       </c>
       <c r="B42" t="n">
-        <v>56595.9</v>
+        <v>54362</v>
       </c>
       <c r="C42" t="n">
-        <v>56701</v>
+        <v>54379.3</v>
       </c>
       <c r="D42" t="n">
-        <v>56451.7</v>
+        <v>54205</v>
       </c>
       <c r="E42" t="n">
-        <v>56451.8</v>
+        <v>54271.5</v>
       </c>
       <c r="F42" t="n">
-        <v>23.15149327</v>
+        <v>15.90989674</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45539.45833333334</v>
+        <v>45542.41666666666</v>
       </c>
       <c r="B43" t="n">
-        <v>56451.8</v>
+        <v>54271.5</v>
       </c>
       <c r="C43" t="n">
-        <v>56670</v>
+        <v>54432.5</v>
       </c>
       <c r="D43" t="n">
-        <v>56446.7</v>
+        <v>54245</v>
       </c>
       <c r="E43" t="n">
-        <v>56577.5</v>
+        <v>54346.6</v>
       </c>
       <c r="F43" t="n">
-        <v>138.88461398</v>
+        <v>16.76886221</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45539.5</v>
+        <v>45542.45833333334</v>
       </c>
       <c r="B44" t="n">
-        <v>56577.5</v>
+        <v>54346.6</v>
       </c>
       <c r="C44" t="n">
-        <v>56761</v>
+        <v>54451.1</v>
       </c>
       <c r="D44" t="n">
-        <v>56500</v>
+        <v>54296.6</v>
       </c>
       <c r="E44" t="n">
-        <v>56579.4</v>
+        <v>54320.4</v>
       </c>
       <c r="F44" t="n">
-        <v>23.06180471</v>
+        <v>26.4985609</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45539.54166666666</v>
+        <v>45542.5</v>
       </c>
       <c r="B45" t="n">
-        <v>56595.3</v>
+        <v>54320.4</v>
       </c>
       <c r="C45" t="n">
-        <v>56673.4</v>
+        <v>54648</v>
       </c>
       <c r="D45" t="n">
-        <v>56336.6</v>
+        <v>54320.4</v>
       </c>
       <c r="E45" t="n">
-        <v>56443.7</v>
+        <v>54579.4</v>
       </c>
       <c r="F45" t="n">
-        <v>68.58735599000001</v>
+        <v>48.75897892</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45539.58333333334</v>
+        <v>45542.54166666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56451.5</v>
+        <v>54579.5</v>
       </c>
       <c r="C46" t="n">
-        <v>57558.2</v>
+        <v>54659</v>
       </c>
       <c r="D46" t="n">
-        <v>56200</v>
+        <v>54419.1</v>
       </c>
       <c r="E46" t="n">
-        <v>57555.1</v>
+        <v>54540</v>
       </c>
       <c r="F46" t="n">
-        <v>273.71156796</v>
+        <v>35.0349579</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45539.625</v>
+        <v>45542.58333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>57555.1</v>
+        <v>54541.9</v>
       </c>
       <c r="C47" t="n">
-        <v>58132.3</v>
+        <v>54648.9</v>
       </c>
       <c r="D47" t="n">
-        <v>57375.7</v>
+        <v>54499.9</v>
       </c>
       <c r="E47" t="n">
-        <v>58132.2</v>
+        <v>54625.3</v>
       </c>
       <c r="F47" t="n">
-        <v>158.46052368</v>
+        <v>55.58481536</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45539.66666666666</v>
+        <v>45542.625</v>
       </c>
       <c r="B48" t="n">
-        <v>58132.3</v>
+        <v>54625.3</v>
       </c>
       <c r="C48" t="n">
-        <v>58508</v>
+        <v>54802.5</v>
       </c>
       <c r="D48" t="n">
-        <v>58128.6</v>
+        <v>54625.3</v>
       </c>
       <c r="E48" t="n">
-        <v>58409.8</v>
+        <v>54779.2</v>
       </c>
       <c r="F48" t="n">
-        <v>227.87421478</v>
+        <v>39.1727236</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45539.70833333334</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="B49" t="n">
-        <v>58409.8</v>
+        <v>54779.2</v>
       </c>
       <c r="C49" t="n">
-        <v>58477.3</v>
+        <v>54810.2</v>
       </c>
       <c r="D49" t="n">
-        <v>57824.9</v>
+        <v>54439.6</v>
       </c>
       <c r="E49" t="n">
-        <v>57918.3</v>
+        <v>54469</v>
       </c>
       <c r="F49" t="n">
-        <v>101.38094371</v>
+        <v>31.49860469</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45539.75</v>
+        <v>45542.70833333334</v>
       </c>
       <c r="B50" t="n">
-        <v>57918.3</v>
+        <v>54469</v>
       </c>
       <c r="C50" t="n">
-        <v>57989.8</v>
+        <v>54511.8</v>
       </c>
       <c r="D50" t="n">
-        <v>57637.9</v>
+        <v>54010.1</v>
       </c>
       <c r="E50" t="n">
-        <v>57686</v>
+        <v>54142.1</v>
       </c>
       <c r="F50" t="n">
-        <v>92.14569684</v>
+        <v>73.84292237</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45539.79166666666</v>
+        <v>45542.75</v>
       </c>
       <c r="B51" t="n">
-        <v>57686</v>
+        <v>54128.6</v>
       </c>
       <c r="C51" t="n">
-        <v>58124</v>
+        <v>54385.8</v>
       </c>
       <c r="D51" t="n">
-        <v>57673</v>
+        <v>54031.3</v>
       </c>
       <c r="E51" t="n">
-        <v>58035.5</v>
+        <v>54275.3</v>
       </c>
       <c r="F51" t="n">
-        <v>74.31674502</v>
+        <v>41.23666072</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45539.83333333334</v>
+        <v>45542.79166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>58035.6</v>
+        <v>54275.3</v>
       </c>
       <c r="C52" t="n">
-        <v>58119.1</v>
+        <v>54451</v>
       </c>
       <c r="D52" t="n">
-        <v>57912.7</v>
+        <v>54240.1</v>
       </c>
       <c r="E52" t="n">
-        <v>58058.1</v>
+        <v>54411.9</v>
       </c>
       <c r="F52" t="n">
-        <v>77.21076929</v>
+        <v>18.27811193</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45539.875</v>
+        <v>45542.83333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>58053.1</v>
+        <v>54411.9</v>
       </c>
       <c r="C53" t="n">
-        <v>58104.5</v>
+        <v>54411.9</v>
       </c>
       <c r="D53" t="n">
-        <v>57980.9</v>
+        <v>54167.4</v>
       </c>
       <c r="E53" t="n">
-        <v>58092.3</v>
+        <v>54170.1</v>
       </c>
       <c r="F53" t="n">
-        <v>20.80874521</v>
+        <v>22.42988736</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45539.91666666666</v>
+        <v>45542.875</v>
       </c>
       <c r="B54" t="n">
-        <v>58092.3</v>
+        <v>54170</v>
       </c>
       <c r="C54" t="n">
-        <v>58368.7</v>
+        <v>54179</v>
       </c>
       <c r="D54" t="n">
-        <v>58035.2</v>
+        <v>53900</v>
       </c>
       <c r="E54" t="n">
-        <v>58133</v>
+        <v>53922.2</v>
       </c>
       <c r="F54" t="n">
-        <v>27.92613374</v>
+        <v>43.9521687</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45539.95833333334</v>
+        <v>45542.91666666666</v>
       </c>
       <c r="B55" t="n">
-        <v>58132.5</v>
+        <v>53922.2</v>
       </c>
       <c r="C55" t="n">
-        <v>58228.4</v>
+        <v>54066.5</v>
       </c>
       <c r="D55" t="n">
-        <v>57941</v>
+        <v>53867</v>
       </c>
       <c r="E55" t="n">
-        <v>57970</v>
+        <v>53948.1</v>
       </c>
       <c r="F55" t="n">
-        <v>20.73313947</v>
+        <v>42.3860787</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45540</v>
+        <v>45542.95833333334</v>
       </c>
       <c r="B56" t="n">
-        <v>57970.1</v>
+        <v>53948.1</v>
       </c>
       <c r="C56" t="n">
-        <v>58285.9</v>
+        <v>54164.4</v>
       </c>
       <c r="D56" t="n">
-        <v>57970</v>
+        <v>53835</v>
       </c>
       <c r="E56" t="n">
-        <v>58015.1</v>
+        <v>54146.4</v>
       </c>
       <c r="F56" t="n">
-        <v>33.84136886</v>
+        <v>37.8398693</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45540.04166666666</v>
+        <v>45543</v>
       </c>
       <c r="B57" t="n">
-        <v>58015.1</v>
+        <v>54146.5</v>
       </c>
       <c r="C57" t="n">
-        <v>58242.4</v>
+        <v>54169.9</v>
       </c>
       <c r="D57" t="n">
-        <v>57981.6</v>
+        <v>53977</v>
       </c>
       <c r="E57" t="n">
-        <v>58026.1</v>
+        <v>54133.2</v>
       </c>
       <c r="F57" t="n">
-        <v>27.76975163</v>
+        <v>20.90379915</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45540.08333333334</v>
+        <v>45543.04166666666</v>
       </c>
       <c r="B58" t="n">
-        <v>58026.1</v>
+        <v>54133.3</v>
       </c>
       <c r="C58" t="n">
-        <v>58053.5</v>
+        <v>54329.3</v>
       </c>
       <c r="D58" t="n">
-        <v>57696</v>
+        <v>54133.3</v>
       </c>
       <c r="E58" t="n">
-        <v>57696.1</v>
+        <v>54226.4</v>
       </c>
       <c r="F58" t="n">
-        <v>93.46589954</v>
+        <v>26.84160842</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45540.125</v>
+        <v>45543.08333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>57693.3</v>
+        <v>54226.4</v>
       </c>
       <c r="C59" t="n">
-        <v>57693.3</v>
+        <v>54500</v>
       </c>
       <c r="D59" t="n">
-        <v>56914.7</v>
+        <v>54226.3</v>
       </c>
       <c r="E59" t="n">
-        <v>57124.6</v>
+        <v>54351.9</v>
       </c>
       <c r="F59" t="n">
-        <v>174.45293079</v>
+        <v>51.86378605</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45540.16666666666</v>
+        <v>45543.125</v>
       </c>
       <c r="B60" t="n">
-        <v>57124.6</v>
+        <v>54351.9</v>
       </c>
       <c r="C60" t="n">
-        <v>57272.6</v>
+        <v>54369.9</v>
       </c>
       <c r="D60" t="n">
-        <v>57070.6</v>
+        <v>54300</v>
       </c>
       <c r="E60" t="n">
-        <v>57208.9</v>
+        <v>54367</v>
       </c>
       <c r="F60" t="n">
-        <v>59.26508358</v>
+        <v>5.87043343</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45540.20833333334</v>
+        <v>45543.16666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>57208.9</v>
+        <v>54367.1</v>
       </c>
       <c r="C61" t="n">
-        <v>57215.7</v>
+        <v>54555.5</v>
       </c>
       <c r="D61" t="n">
-        <v>57057.4</v>
+        <v>54367</v>
       </c>
       <c r="E61" t="n">
-        <v>57189.9</v>
+        <v>54485.8</v>
       </c>
       <c r="F61" t="n">
-        <v>26.65803126</v>
+        <v>10.82022916</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45540.25</v>
+        <v>45543.20833333334</v>
       </c>
       <c r="B62" t="n">
-        <v>57190</v>
+        <v>54485.9</v>
       </c>
       <c r="C62" t="n">
-        <v>57198.3</v>
+        <v>54517</v>
       </c>
       <c r="D62" t="n">
-        <v>56567</v>
+        <v>54339.1</v>
       </c>
       <c r="E62" t="n">
-        <v>56909.3</v>
+        <v>54339.1</v>
       </c>
       <c r="F62" t="n">
-        <v>54.43641993</v>
+        <v>11.13993271</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45540.29166666666</v>
+        <v>45543.25</v>
       </c>
       <c r="B63" t="n">
-        <v>56909.4</v>
+        <v>54339.2</v>
       </c>
       <c r="C63" t="n">
-        <v>57215.7</v>
+        <v>54413.2</v>
       </c>
       <c r="D63" t="n">
-        <v>56863.7</v>
+        <v>54290</v>
       </c>
       <c r="E63" t="n">
-        <v>57148.1</v>
+        <v>54290.1</v>
       </c>
       <c r="F63" t="n">
-        <v>36.04270558</v>
+        <v>11.75655365</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45540.33333333334</v>
+        <v>45543.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>57148.1</v>
+        <v>54290.1</v>
       </c>
       <c r="C64" t="n">
-        <v>57217.5</v>
+        <v>54505.5</v>
       </c>
       <c r="D64" t="n">
-        <v>56990.6</v>
+        <v>54290</v>
       </c>
       <c r="E64" t="n">
-        <v>56999.5</v>
+        <v>54454.1</v>
       </c>
       <c r="F64" t="n">
-        <v>27.42116508</v>
+        <v>12.81992423</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45540.375</v>
+        <v>45543.33333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>56999.6</v>
+        <v>54454.2</v>
       </c>
       <c r="C65" t="n">
-        <v>57005</v>
+        <v>54454.2</v>
       </c>
       <c r="D65" t="n">
-        <v>56636</v>
+        <v>54345.6</v>
       </c>
       <c r="E65" t="n">
-        <v>56782</v>
+        <v>54444.9</v>
       </c>
       <c r="F65" t="n">
-        <v>35.76055256</v>
+        <v>9.92177676</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45540.41666666666</v>
+        <v>45543.375</v>
       </c>
       <c r="B66" t="n">
-        <v>56782</v>
+        <v>54445</v>
       </c>
       <c r="C66" t="n">
-        <v>56818.8</v>
+        <v>54693.3</v>
       </c>
       <c r="D66" t="n">
-        <v>56666.9</v>
+        <v>54445</v>
       </c>
       <c r="E66" t="n">
-        <v>56777</v>
+        <v>54470.2</v>
       </c>
       <c r="F66" t="n">
-        <v>24.2773893</v>
+        <v>32.08276011</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45540.45833333334</v>
+        <v>45543.41666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>56777.1</v>
+        <v>54470.2</v>
       </c>
       <c r="C67" t="n">
-        <v>56836.4</v>
+        <v>54624.5</v>
       </c>
       <c r="D67" t="n">
-        <v>56684.5</v>
+        <v>54470.1</v>
       </c>
       <c r="E67" t="n">
-        <v>56700.1</v>
+        <v>54603.2</v>
       </c>
       <c r="F67" t="n">
-        <v>25.96908646</v>
+        <v>9.292037880000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45540.5</v>
+        <v>45543.45833333334</v>
       </c>
       <c r="B68" t="n">
-        <v>56700.1</v>
+        <v>54603.2</v>
       </c>
       <c r="C68" t="n">
-        <v>56790.9</v>
+        <v>54660.5</v>
       </c>
       <c r="D68" t="n">
-        <v>56395.6</v>
+        <v>54504.1</v>
       </c>
       <c r="E68" t="n">
-        <v>56653.1</v>
+        <v>54551.5</v>
       </c>
       <c r="F68" t="n">
-        <v>128.55436698</v>
+        <v>32.34354621</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45540.54166666666</v>
+        <v>45543.5</v>
       </c>
       <c r="B69" t="n">
-        <v>56655.1</v>
+        <v>54553.3</v>
       </c>
       <c r="C69" t="n">
-        <v>57122.2</v>
+        <v>54555</v>
       </c>
       <c r="D69" t="n">
-        <v>56600</v>
+        <v>54131.9</v>
       </c>
       <c r="E69" t="n">
-        <v>56977.7</v>
+        <v>54198.2</v>
       </c>
       <c r="F69" t="n">
-        <v>189.32089158</v>
+        <v>34.3787407</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45540.58333333334</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="B70" t="n">
-        <v>56977.7</v>
+        <v>54198.3</v>
       </c>
       <c r="C70" t="n">
-        <v>57265.3</v>
+        <v>54399.9</v>
       </c>
       <c r="D70" t="n">
-        <v>56499.5</v>
+        <v>54076.7</v>
       </c>
       <c r="E70" t="n">
-        <v>56553.9</v>
+        <v>54399.8</v>
       </c>
       <c r="F70" t="n">
-        <v>222.56837976</v>
+        <v>16.87738234</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45540.625</v>
+        <v>45543.58333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>56567.9</v>
+        <v>54399.9</v>
       </c>
       <c r="C71" t="n">
-        <v>56630.1</v>
+        <v>54399.9</v>
       </c>
       <c r="D71" t="n">
-        <v>55849</v>
+        <v>54100</v>
       </c>
       <c r="E71" t="n">
-        <v>55974.4</v>
+        <v>54150</v>
       </c>
       <c r="F71" t="n">
-        <v>244.73606046</v>
+        <v>20.05291836</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45540.66666666666</v>
+        <v>45543.625</v>
       </c>
       <c r="B72" t="n">
-        <v>55974.4</v>
+        <v>54150.1</v>
       </c>
       <c r="C72" t="n">
-        <v>56365.3</v>
+        <v>54151</v>
       </c>
       <c r="D72" t="n">
-        <v>55963</v>
+        <v>53643.7</v>
       </c>
       <c r="E72" t="n">
-        <v>56339.8</v>
+        <v>53686.6</v>
       </c>
       <c r="F72" t="n">
-        <v>51.54050563</v>
+        <v>106.36885184</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45540.70833333334</v>
+        <v>45543.66666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>56339.8</v>
+        <v>53689.6</v>
       </c>
       <c r="C73" t="n">
-        <v>56582.6</v>
+        <v>54008.6</v>
       </c>
       <c r="D73" t="n">
-        <v>56224.4</v>
+        <v>53636.6</v>
       </c>
       <c r="E73" t="n">
-        <v>56582.5</v>
+        <v>53918.3</v>
       </c>
       <c r="F73" t="n">
-        <v>94.33477436</v>
+        <v>53.34825894</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45540.75</v>
+        <v>45543.70833333334</v>
       </c>
       <c r="B74" t="n">
-        <v>56582.6</v>
+        <v>53918.3</v>
       </c>
       <c r="C74" t="n">
-        <v>56698.7</v>
+        <v>54510.8</v>
       </c>
       <c r="D74" t="n">
-        <v>56530.6</v>
+        <v>53918.3</v>
       </c>
       <c r="E74" t="n">
-        <v>56574.2</v>
+        <v>54509</v>
       </c>
       <c r="F74" t="n">
-        <v>31.16285561</v>
+        <v>50.06330475</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45540.79166666666</v>
+        <v>45543.75</v>
       </c>
       <c r="B75" t="n">
-        <v>56574.1</v>
+        <v>54509</v>
       </c>
       <c r="C75" t="n">
-        <v>56574.1</v>
+        <v>54510.9</v>
       </c>
       <c r="D75" t="n">
-        <v>55800</v>
+        <v>54279.4</v>
       </c>
       <c r="E75" t="n">
-        <v>56015.5</v>
+        <v>54428</v>
       </c>
       <c r="F75" t="n">
-        <v>219.36127309</v>
+        <v>122.93167411</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45540.83333333334</v>
+        <v>45543.79166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>56009.5</v>
+        <v>54428</v>
       </c>
       <c r="C76" t="n">
-        <v>56210.4</v>
+        <v>54466.1</v>
       </c>
       <c r="D76" t="n">
-        <v>55993.8</v>
+        <v>54325.9</v>
       </c>
       <c r="E76" t="n">
-        <v>56062.1</v>
+        <v>54341.5</v>
       </c>
       <c r="F76" t="n">
-        <v>86.57632781</v>
+        <v>10.97314122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45540.875</v>
+        <v>45543.83333333334</v>
       </c>
       <c r="B77" t="n">
-        <v>56061.1</v>
+        <v>54341.5</v>
       </c>
       <c r="C77" t="n">
-        <v>56237.4</v>
+        <v>54380.2</v>
       </c>
       <c r="D77" t="n">
-        <v>55601.5</v>
+        <v>54186.1</v>
       </c>
       <c r="E77" t="n">
-        <v>56163.3</v>
+        <v>54380</v>
       </c>
       <c r="F77" t="n">
-        <v>101.72968464</v>
+        <v>13.63001727</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45540.91666666666</v>
+        <v>45543.875</v>
       </c>
       <c r="B78" t="n">
-        <v>56163.2</v>
+        <v>54380.1</v>
       </c>
       <c r="C78" t="n">
-        <v>56198.9</v>
+        <v>54570.2</v>
       </c>
       <c r="D78" t="n">
-        <v>55782.6</v>
+        <v>54345.1</v>
       </c>
       <c r="E78" t="n">
-        <v>56104.7</v>
+        <v>54465.2</v>
       </c>
       <c r="F78" t="n">
-        <v>98.19975534</v>
+        <v>30.41859799</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45540.95833333334</v>
+        <v>45543.91666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>56104.7</v>
+        <v>54465.2</v>
       </c>
       <c r="C79" t="n">
-        <v>56174</v>
+        <v>55317.6</v>
       </c>
       <c r="D79" t="n">
-        <v>55980.8</v>
+        <v>54365.8</v>
       </c>
       <c r="E79" t="n">
-        <v>56163.9</v>
+        <v>54526.4</v>
       </c>
       <c r="F79" t="n">
-        <v>27.9188315</v>
+        <v>253.41859302</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45541</v>
+        <v>45543.95833333334</v>
       </c>
       <c r="B80" t="n">
-        <v>56163.9</v>
+        <v>54533.2</v>
       </c>
       <c r="C80" t="n">
-        <v>56302.8</v>
+        <v>54943.4</v>
       </c>
       <c r="D80" t="n">
-        <v>56000</v>
+        <v>54464.2</v>
       </c>
       <c r="E80" t="n">
-        <v>56163.2</v>
+        <v>54856.8</v>
       </c>
       <c r="F80" t="n">
-        <v>20.95995116</v>
+        <v>32.52291682</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45541.04166666666</v>
+        <v>45544</v>
       </c>
       <c r="B81" t="n">
-        <v>56163.2</v>
+        <v>54856.9</v>
       </c>
       <c r="C81" t="n">
-        <v>56574</v>
+        <v>55198.8</v>
       </c>
       <c r="D81" t="n">
-        <v>55970.7</v>
+        <v>54739.4</v>
       </c>
       <c r="E81" t="n">
-        <v>56554.7</v>
+        <v>55065.2</v>
       </c>
       <c r="F81" t="n">
-        <v>97.75916675000001</v>
+        <v>109.43843154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45541.08333333334</v>
+        <v>45544.04166666666</v>
       </c>
       <c r="B82" t="n">
-        <v>56554.8</v>
+        <v>55065.2</v>
       </c>
       <c r="C82" t="n">
-        <v>56800.2</v>
+        <v>55371</v>
       </c>
       <c r="D82" t="n">
-        <v>56504.2</v>
+        <v>54914.5</v>
       </c>
       <c r="E82" t="n">
-        <v>56720.1</v>
+        <v>55098.6</v>
       </c>
       <c r="F82" t="n">
-        <v>27.60750086</v>
+        <v>50.89663273</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45541.125</v>
+        <v>45544.08333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>56720.1</v>
+        <v>55098.7</v>
       </c>
       <c r="C83" t="n">
-        <v>56827.5</v>
+        <v>55122.4</v>
       </c>
       <c r="D83" t="n">
-        <v>56535</v>
+        <v>54846.9</v>
       </c>
       <c r="E83" t="n">
-        <v>56575.3</v>
+        <v>55113.3</v>
       </c>
       <c r="F83" t="n">
-        <v>65.3940451</v>
+        <v>11.00599009</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45541.16666666666</v>
+        <v>45544.125</v>
       </c>
       <c r="B84" t="n">
-        <v>56575.3</v>
+        <v>55113.4</v>
       </c>
       <c r="C84" t="n">
-        <v>56708.5</v>
+        <v>55183.6</v>
       </c>
       <c r="D84" t="n">
-        <v>56575.3</v>
+        <v>54818.3</v>
       </c>
       <c r="E84" t="n">
-        <v>56612.3</v>
+        <v>55117</v>
       </c>
       <c r="F84" t="n">
-        <v>6.39874313</v>
+        <v>31.10210406</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45541.20833333334</v>
+        <v>45544.16666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>56600.1</v>
+        <v>55118.2</v>
       </c>
       <c r="C85" t="n">
-        <v>56633</v>
+        <v>55147.1</v>
       </c>
       <c r="D85" t="n">
-        <v>56321.3</v>
+        <v>54890</v>
       </c>
       <c r="E85" t="n">
-        <v>56487.6</v>
+        <v>54890</v>
       </c>
       <c r="F85" t="n">
-        <v>92.64010408999999</v>
+        <v>18.80635264</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45541.25</v>
+        <v>45544.20833333334</v>
       </c>
       <c r="B86" t="n">
-        <v>56480.8</v>
+        <v>54890.1</v>
       </c>
       <c r="C86" t="n">
-        <v>56480.9</v>
+        <v>54900</v>
       </c>
       <c r="D86" t="n">
-        <v>56311.6</v>
+        <v>54580.3</v>
       </c>
       <c r="E86" t="n">
-        <v>56433.5</v>
+        <v>54657.9</v>
       </c>
       <c r="F86" t="n">
-        <v>43.87787639</v>
+        <v>28.77866165</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45541.29166666666</v>
+        <v>45544.25</v>
       </c>
       <c r="B87" t="n">
-        <v>56433.5</v>
+        <v>54668.3</v>
       </c>
       <c r="C87" t="n">
-        <v>56433.5</v>
+        <v>54930.2</v>
       </c>
       <c r="D87" t="n">
-        <v>55302.5</v>
+        <v>54640.6</v>
       </c>
       <c r="E87" t="n">
-        <v>55804.8</v>
+        <v>54890.5</v>
       </c>
       <c r="F87" t="n">
-        <v>126.26370353</v>
+        <v>10.78709476</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45541.33333333334</v>
+        <v>45544.29166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>55804.9</v>
+        <v>54890.5</v>
       </c>
       <c r="C88" t="n">
-        <v>55885.6</v>
+        <v>54994.7</v>
       </c>
       <c r="D88" t="n">
-        <v>55640.1</v>
+        <v>54760</v>
       </c>
       <c r="E88" t="n">
-        <v>55768.5</v>
+        <v>54974.4</v>
       </c>
       <c r="F88" t="n">
-        <v>56.27854604</v>
+        <v>15.15384588</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45541.375</v>
+        <v>45544.33333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>55768.5</v>
+        <v>54968.6</v>
       </c>
       <c r="C89" t="n">
-        <v>55913</v>
+        <v>55300</v>
       </c>
       <c r="D89" t="n">
-        <v>55688</v>
+        <v>54968.6</v>
       </c>
       <c r="E89" t="n">
-        <v>55879.6</v>
+        <v>55228.2</v>
       </c>
       <c r="F89" t="n">
-        <v>30.19853396</v>
+        <v>21.7036124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45541.41666666666</v>
+        <v>45544.375</v>
       </c>
       <c r="B90" t="n">
-        <v>55879.7</v>
+        <v>55228.3</v>
       </c>
       <c r="C90" t="n">
-        <v>56239</v>
+        <v>55500</v>
       </c>
       <c r="D90" t="n">
-        <v>55879.7</v>
+        <v>55132.3</v>
       </c>
       <c r="E90" t="n">
-        <v>56159</v>
+        <v>55155</v>
       </c>
       <c r="F90" t="n">
-        <v>58.0257006</v>
+        <v>34.5143033</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45541.45833333334</v>
+        <v>45544.41666666666</v>
       </c>
       <c r="B91" t="n">
-        <v>56159</v>
+        <v>55155.1</v>
       </c>
       <c r="C91" t="n">
-        <v>56197</v>
+        <v>55433.4</v>
       </c>
       <c r="D91" t="n">
-        <v>55847.3</v>
+        <v>55098.5</v>
       </c>
       <c r="E91" t="n">
-        <v>55980.4</v>
+        <v>55380</v>
       </c>
       <c r="F91" t="n">
-        <v>41.43559861</v>
+        <v>40.86992649</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45541.5</v>
+        <v>45544.45833333334</v>
       </c>
       <c r="B92" t="n">
-        <v>55980.5</v>
+        <v>55380.1</v>
       </c>
       <c r="C92" t="n">
-        <v>56939.8</v>
+        <v>55380.1</v>
       </c>
       <c r="D92" t="n">
-        <v>55711</v>
+        <v>55183.7</v>
       </c>
       <c r="E92" t="n">
-        <v>56875</v>
+        <v>55245</v>
       </c>
       <c r="F92" t="n">
-        <v>432.05183414</v>
+        <v>41.46124632</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45541.54166666666</v>
+        <v>45544.5</v>
       </c>
       <c r="B93" t="n">
-        <v>56875</v>
+        <v>55245</v>
       </c>
       <c r="C93" t="n">
-        <v>56964.1</v>
+        <v>55333.7</v>
       </c>
       <c r="D93" t="n">
-        <v>55828.8</v>
+        <v>54975.9</v>
       </c>
       <c r="E93" t="n">
-        <v>55900</v>
+        <v>55333.7</v>
       </c>
       <c r="F93" t="n">
-        <v>220.42304516</v>
+        <v>36.69056772</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45541.58333333334</v>
+        <v>45544.54166666666</v>
       </c>
       <c r="B94" t="n">
-        <v>55900.1</v>
+        <v>55333.7</v>
       </c>
       <c r="C94" t="n">
-        <v>55918.8</v>
+        <v>55756.4</v>
       </c>
       <c r="D94" t="n">
-        <v>54411</v>
+        <v>55278.4</v>
       </c>
       <c r="E94" t="n">
-        <v>54680.3</v>
+        <v>55694.1</v>
       </c>
       <c r="F94" t="n">
-        <v>684.70058016</v>
+        <v>119.28896421</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45541.625</v>
+        <v>45544.58333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>54680.4</v>
+        <v>55691.7</v>
       </c>
       <c r="C95" t="n">
-        <v>54958.7</v>
+        <v>55738.6</v>
       </c>
       <c r="D95" t="n">
-        <v>53456</v>
+        <v>54843.2</v>
       </c>
       <c r="E95" t="n">
-        <v>54020</v>
+        <v>54869.8</v>
       </c>
       <c r="F95" t="n">
-        <v>577.72026799</v>
+        <v>93.8935326</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45541.66666666666</v>
+        <v>45544.625</v>
       </c>
       <c r="B96" t="n">
-        <v>54020</v>
+        <v>54869.8</v>
       </c>
       <c r="C96" t="n">
-        <v>54207.3</v>
+        <v>55445</v>
       </c>
       <c r="D96" t="n">
-        <v>53601</v>
+        <v>54863.6</v>
       </c>
       <c r="E96" t="n">
-        <v>54041</v>
+        <v>55375.2</v>
       </c>
       <c r="F96" t="n">
-        <v>174.1660159</v>
+        <v>85.01707363</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45541.70833333334</v>
+        <v>45544.66666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>54041.1</v>
+        <v>55379.6</v>
       </c>
       <c r="C97" t="n">
-        <v>54400</v>
+        <v>56500</v>
       </c>
       <c r="D97" t="n">
-        <v>53711.3</v>
+        <v>55367.2</v>
       </c>
       <c r="E97" t="n">
-        <v>53928.7</v>
+        <v>56482.4</v>
       </c>
       <c r="F97" t="n">
-        <v>149.1093409</v>
+        <v>132.96547263</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45541.75</v>
+        <v>45544.70833333334</v>
       </c>
       <c r="B98" t="n">
-        <v>53928.7</v>
+        <v>56473.1</v>
       </c>
       <c r="C98" t="n">
-        <v>53947.7</v>
+        <v>56736.5</v>
       </c>
       <c r="D98" t="n">
-        <v>53335</v>
+        <v>56383.8</v>
       </c>
       <c r="E98" t="n">
-        <v>53335.1</v>
+        <v>56550.5</v>
       </c>
       <c r="F98" t="n">
-        <v>178.89638259</v>
+        <v>149.28577657</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45541.79166666666</v>
+        <v>45544.75</v>
       </c>
       <c r="B99" t="n">
-        <v>53335</v>
+        <v>56538</v>
       </c>
       <c r="C99" t="n">
-        <v>53905</v>
+        <v>56636.9</v>
       </c>
       <c r="D99" t="n">
-        <v>53225.8</v>
+        <v>56292.2</v>
       </c>
       <c r="E99" t="n">
-        <v>53473.5</v>
+        <v>56533</v>
       </c>
       <c r="F99" t="n">
-        <v>262.07081873</v>
+        <v>118.72189886</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45541.83333333334</v>
+        <v>45544.79166666666</v>
       </c>
       <c r="B100" t="n">
-        <v>53476.2</v>
+        <v>56533</v>
       </c>
       <c r="C100" t="n">
-        <v>53755.6</v>
+        <v>57183.2</v>
       </c>
       <c r="D100" t="n">
-        <v>52642.8</v>
+        <v>56484.5</v>
       </c>
       <c r="E100" t="n">
-        <v>52850</v>
+        <v>57142.4</v>
       </c>
       <c r="F100" t="n">
-        <v>215.97762159</v>
+        <v>269.07095117</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45541.875</v>
+        <v>45544.83333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>52850.1</v>
+        <v>57142.4</v>
       </c>
       <c r="C101" t="n">
-        <v>53747.4</v>
+        <v>57144.3</v>
       </c>
       <c r="D101" t="n">
-        <v>52569</v>
+        <v>56818.2</v>
       </c>
       <c r="E101" t="n">
-        <v>53743.5</v>
+        <v>57025.1</v>
       </c>
       <c r="F101" t="n">
-        <v>141.20797508</v>
+        <v>62.15684921</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45541.91666666666</v>
+        <v>45544.875</v>
       </c>
       <c r="B102" t="n">
-        <v>53746.3</v>
+        <v>57027.8</v>
       </c>
       <c r="C102" t="n">
-        <v>53832.1</v>
+        <v>58050.8</v>
       </c>
       <c r="D102" t="n">
-        <v>53601.5</v>
+        <v>57014.8</v>
       </c>
       <c r="E102" t="n">
-        <v>53606.2</v>
+        <v>57459.9</v>
       </c>
       <c r="F102" t="n">
-        <v>63.29168774</v>
+        <v>219.44661812</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45541.95833333334</v>
+        <v>45544.91666666666</v>
       </c>
       <c r="B103" t="n">
-        <v>53606.2</v>
+        <v>57459.9</v>
       </c>
       <c r="C103" t="n">
-        <v>53948.3</v>
+        <v>57605</v>
       </c>
       <c r="D103" t="n">
-        <v>53600</v>
+        <v>57217</v>
       </c>
       <c r="E103" t="n">
-        <v>53948.3</v>
+        <v>57224.7</v>
       </c>
       <c r="F103" t="n">
-        <v>40.23080437</v>
+        <v>53.22623212</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45542</v>
+        <v>45544.95833333334</v>
       </c>
       <c r="B104" t="n">
-        <v>53948.3</v>
+        <v>57228.1</v>
       </c>
       <c r="C104" t="n">
-        <v>54040.7</v>
+        <v>57269.7</v>
       </c>
       <c r="D104" t="n">
-        <v>53879.7</v>
+        <v>57016</v>
       </c>
       <c r="E104" t="n">
-        <v>53918.7</v>
+        <v>57062.7</v>
       </c>
       <c r="F104" t="n">
-        <v>134.12421736</v>
+        <v>52.36841481</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45542.04166666666</v>
+        <v>45545</v>
       </c>
       <c r="B105" t="n">
-        <v>53918.7</v>
+        <v>57062.7</v>
       </c>
       <c r="C105" t="n">
-        <v>53980.7</v>
+        <v>57073.7</v>
       </c>
       <c r="D105" t="n">
-        <v>53739</v>
+        <v>56640.3</v>
       </c>
       <c r="E105" t="n">
-        <v>53797.4</v>
+        <v>57000</v>
       </c>
       <c r="F105" t="n">
-        <v>142.42926441</v>
+        <v>124.30249195</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45542.08333333334</v>
+        <v>45545.04166666666</v>
       </c>
       <c r="B106" t="n">
-        <v>53798.3</v>
+        <v>57000</v>
       </c>
       <c r="C106" t="n">
-        <v>53924.1</v>
+        <v>57029.2</v>
       </c>
       <c r="D106" t="n">
-        <v>53742.1</v>
+        <v>56750</v>
       </c>
       <c r="E106" t="n">
-        <v>53781.3</v>
+        <v>56933.3</v>
       </c>
       <c r="F106" t="n">
-        <v>85.8849421</v>
+        <v>10.58526313</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45542.125</v>
+        <v>45545.08333333334</v>
       </c>
       <c r="B107" t="n">
-        <v>53781.3</v>
+        <v>56933.4</v>
       </c>
       <c r="C107" t="n">
-        <v>53857.5</v>
+        <v>56933.4</v>
       </c>
       <c r="D107" t="n">
-        <v>53781.3</v>
+        <v>56666</v>
       </c>
       <c r="E107" t="n">
-        <v>53808.5</v>
+        <v>56783.8</v>
       </c>
       <c r="F107" t="n">
-        <v>11.47144208</v>
+        <v>11.77174122</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45542.16666666666</v>
+        <v>45545.125</v>
       </c>
       <c r="B108" t="n">
-        <v>53808.5</v>
+        <v>56783.9</v>
       </c>
       <c r="C108" t="n">
-        <v>54041</v>
+        <v>56802.1</v>
       </c>
       <c r="D108" t="n">
-        <v>53797.9</v>
+        <v>56562.5</v>
       </c>
       <c r="E108" t="n">
-        <v>54041</v>
+        <v>56562.5</v>
       </c>
       <c r="F108" t="n">
-        <v>3.08343434</v>
+        <v>36.4527845</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45542.20833333334</v>
+        <v>45545.16666666666</v>
       </c>
       <c r="B109" t="n">
-        <v>54041</v>
+        <v>56562.5</v>
       </c>
       <c r="C109" t="n">
-        <v>54347.1</v>
+        <v>56725.9</v>
       </c>
       <c r="D109" t="n">
-        <v>54007.6</v>
+        <v>56440.2</v>
       </c>
       <c r="E109" t="n">
-        <v>54170.3</v>
+        <v>56622</v>
       </c>
       <c r="F109" t="n">
-        <v>17.85054136</v>
+        <v>25.9120507</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45542.25</v>
+        <v>45545.20833333334</v>
       </c>
       <c r="B110" t="n">
-        <v>54174.5</v>
+        <v>56622</v>
       </c>
       <c r="C110" t="n">
-        <v>54349.4</v>
+        <v>56936.7</v>
       </c>
       <c r="D110" t="n">
-        <v>54039.1</v>
+        <v>56602.3</v>
       </c>
       <c r="E110" t="n">
-        <v>54300.9</v>
+        <v>56936.6</v>
       </c>
       <c r="F110" t="n">
-        <v>34.60793326</v>
+        <v>24.8043867</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45542.29166666666</v>
+        <v>45545.25</v>
       </c>
       <c r="B111" t="n">
-        <v>54301</v>
+        <v>56936.7</v>
       </c>
       <c r="C111" t="n">
-        <v>54379.3</v>
+        <v>56936.7</v>
       </c>
       <c r="D111" t="n">
-        <v>54193.9</v>
+        <v>56802.8</v>
       </c>
       <c r="E111" t="n">
-        <v>54284.9</v>
+        <v>56851.9</v>
       </c>
       <c r="F111" t="n">
-        <v>15.92905594</v>
+        <v>8.40606962</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45542.33333333334</v>
+        <v>45545.29166666666</v>
       </c>
       <c r="B112" t="n">
-        <v>54284.9</v>
+        <v>56852</v>
       </c>
       <c r="C112" t="n">
-        <v>54363.6</v>
+        <v>57286.2</v>
       </c>
       <c r="D112" t="n">
-        <v>54226.3</v>
+        <v>56810.1</v>
       </c>
       <c r="E112" t="n">
-        <v>54361.9</v>
+        <v>57212.9</v>
       </c>
       <c r="F112" t="n">
-        <v>20.79352874</v>
+        <v>50.78825815</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45542.375</v>
+        <v>45545.33333333334</v>
       </c>
       <c r="B113" t="n">
-        <v>54362</v>
+        <v>57217.3</v>
       </c>
       <c r="C113" t="n">
-        <v>54379.3</v>
+        <v>57379.9</v>
       </c>
       <c r="D113" t="n">
-        <v>54205</v>
+        <v>57032.5</v>
       </c>
       <c r="E113" t="n">
-        <v>54271.5</v>
+        <v>57036.1</v>
       </c>
       <c r="F113" t="n">
-        <v>15.90989674</v>
+        <v>39.9462827</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45542.41666666666</v>
+        <v>45545.375</v>
       </c>
       <c r="B114" t="n">
-        <v>54271.5</v>
+        <v>57036.1</v>
       </c>
       <c r="C114" t="n">
-        <v>54432.5</v>
+        <v>57227.5</v>
       </c>
       <c r="D114" t="n">
-        <v>54245</v>
+        <v>56908.2</v>
       </c>
       <c r="E114" t="n">
-        <v>54346.6</v>
+        <v>57093.3</v>
       </c>
       <c r="F114" t="n">
-        <v>16.76886221</v>
+        <v>29.47849103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45542.45833333334</v>
+        <v>45545.41666666666</v>
       </c>
       <c r="B115" t="n">
-        <v>54346.6</v>
+        <v>57101</v>
       </c>
       <c r="C115" t="n">
-        <v>54451.1</v>
+        <v>57161</v>
       </c>
       <c r="D115" t="n">
-        <v>54296.6</v>
+        <v>56963.8</v>
       </c>
       <c r="E115" t="n">
-        <v>54320.4</v>
+        <v>57160.9</v>
       </c>
       <c r="F115" t="n">
-        <v>26.4985609</v>
+        <v>35.24688399</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45542.5</v>
+        <v>45545.45833333334</v>
       </c>
       <c r="B116" t="n">
-        <v>54320.4</v>
+        <v>57161</v>
       </c>
       <c r="C116" t="n">
-        <v>54648</v>
+        <v>57250</v>
       </c>
       <c r="D116" t="n">
-        <v>54320.4</v>
+        <v>57055.4</v>
       </c>
       <c r="E116" t="n">
-        <v>54579.4</v>
+        <v>57237.7</v>
       </c>
       <c r="F116" t="n">
-        <v>48.75897892</v>
+        <v>32.63165726</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45542.54166666666</v>
+        <v>45545.5</v>
       </c>
       <c r="B117" t="n">
-        <v>54579.5</v>
+        <v>57237.6</v>
       </c>
       <c r="C117" t="n">
-        <v>54659</v>
+        <v>57441</v>
       </c>
       <c r="D117" t="n">
-        <v>54419.1</v>
+        <v>57200</v>
       </c>
       <c r="E117" t="n">
-        <v>54540</v>
+        <v>57223.8</v>
       </c>
       <c r="F117" t="n">
-        <v>35.0349579</v>
+        <v>28.49228771</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45542.58333333334</v>
+        <v>45545.54166666666</v>
       </c>
       <c r="B118" t="n">
-        <v>54541.9</v>
+        <v>57223.8</v>
       </c>
       <c r="C118" t="n">
-        <v>54648.9</v>
+        <v>57223.9</v>
       </c>
       <c r="D118" t="n">
-        <v>54499.9</v>
+        <v>56667</v>
       </c>
       <c r="E118" t="n">
-        <v>54625.3</v>
+        <v>56749.6</v>
       </c>
       <c r="F118" t="n">
-        <v>55.58481536</v>
+        <v>130.37007829</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45542.625</v>
+        <v>45545.58333333334</v>
       </c>
       <c r="B119" t="n">
-        <v>54625.3</v>
+        <v>56736.2</v>
       </c>
       <c r="C119" t="n">
-        <v>54802.5</v>
+        <v>57136.8</v>
       </c>
       <c r="D119" t="n">
-        <v>54625.3</v>
+        <v>56515.7</v>
       </c>
       <c r="E119" t="n">
-        <v>54779.2</v>
+        <v>56932.6</v>
       </c>
       <c r="F119" t="n">
-        <v>39.1727236</v>
+        <v>79.85903577000001</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45542.66666666666</v>
+        <v>45545.625</v>
       </c>
       <c r="B120" t="n">
-        <v>54779.2</v>
+        <v>56937.3</v>
       </c>
       <c r="C120" t="n">
-        <v>54810.2</v>
+        <v>57200</v>
       </c>
       <c r="D120" t="n">
-        <v>54439.6</v>
+        <v>56643.7</v>
       </c>
       <c r="E120" t="n">
-        <v>54469</v>
+        <v>56643.7</v>
       </c>
       <c r="F120" t="n">
-        <v>31.49860469</v>
+        <v>115.88339517</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45542.70833333334</v>
+        <v>45545.66666666666</v>
       </c>
       <c r="B121" t="n">
-        <v>54469</v>
+        <v>56637</v>
       </c>
       <c r="C121" t="n">
-        <v>54511.8</v>
+        <v>56940.9</v>
       </c>
       <c r="D121" t="n">
-        <v>54010.1</v>
+        <v>56609.7</v>
       </c>
       <c r="E121" t="n">
-        <v>54142.1</v>
+        <v>56850.1</v>
       </c>
       <c r="F121" t="n">
-        <v>73.84292237</v>
+        <v>40.69709196</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45542.75</v>
+        <v>45545.70833333334</v>
       </c>
       <c r="B122" t="n">
-        <v>54128.6</v>
+        <v>56850</v>
       </c>
       <c r="C122" t="n">
-        <v>54385.8</v>
+        <v>57355</v>
       </c>
       <c r="D122" t="n">
-        <v>54031.3</v>
+        <v>56825</v>
       </c>
       <c r="E122" t="n">
-        <v>54275.3</v>
+        <v>57173.4</v>
       </c>
       <c r="F122" t="n">
-        <v>41.23666072</v>
+        <v>89.60907872</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45542.79166666666</v>
+        <v>45545.75</v>
       </c>
       <c r="B123" t="n">
-        <v>54275.3</v>
+        <v>57172.6</v>
       </c>
       <c r="C123" t="n">
-        <v>54451</v>
+        <v>57930</v>
       </c>
       <c r="D123" t="n">
-        <v>54240.1</v>
+        <v>57172.6</v>
       </c>
       <c r="E123" t="n">
-        <v>54411.9</v>
+        <v>57588.2</v>
       </c>
       <c r="F123" t="n">
-        <v>18.27811193</v>
+        <v>121.12331172</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45542.83333333334</v>
+        <v>45545.79166666666</v>
       </c>
       <c r="B124" t="n">
-        <v>54411.9</v>
+        <v>57588.1</v>
       </c>
       <c r="C124" t="n">
-        <v>54411.9</v>
+        <v>58000</v>
       </c>
       <c r="D124" t="n">
-        <v>54167.4</v>
+        <v>57342.5</v>
       </c>
       <c r="E124" t="n">
-        <v>54170.1</v>
+        <v>57999.9</v>
       </c>
       <c r="F124" t="n">
-        <v>22.42988736</v>
+        <v>76.09617127</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45542.875</v>
+        <v>45545.83333333334</v>
       </c>
       <c r="B125" t="n">
-        <v>54170</v>
+        <v>58000</v>
       </c>
       <c r="C125" t="n">
-        <v>54179</v>
+        <v>58000</v>
       </c>
       <c r="D125" t="n">
-        <v>53900</v>
+        <v>57570</v>
       </c>
       <c r="E125" t="n">
-        <v>53922.2</v>
+        <v>57570</v>
       </c>
       <c r="F125" t="n">
-        <v>43.9521687</v>
+        <v>46.77217561</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45542.91666666666</v>
+        <v>45545.875</v>
       </c>
       <c r="B126" t="n">
-        <v>53922.2</v>
+        <v>57582</v>
       </c>
       <c r="C126" t="n">
-        <v>54066.5</v>
+        <v>57754.2</v>
       </c>
       <c r="D126" t="n">
-        <v>53867</v>
+        <v>57500</v>
       </c>
       <c r="E126" t="n">
-        <v>53948.1</v>
+        <v>57500</v>
       </c>
       <c r="F126" t="n">
-        <v>42.3860787</v>
+        <v>25.73381028</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45542.95833333334</v>
+        <v>45545.91666666666</v>
       </c>
       <c r="B127" t="n">
-        <v>53948.1</v>
+        <v>57537.1</v>
       </c>
       <c r="C127" t="n">
-        <v>54164.4</v>
+        <v>57675.2</v>
       </c>
       <c r="D127" t="n">
-        <v>53835</v>
+        <v>57446.8</v>
       </c>
       <c r="E127" t="n">
-        <v>54146.4</v>
+        <v>57611.3</v>
       </c>
       <c r="F127" t="n">
-        <v>37.8398693</v>
+        <v>21.22680921</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45543</v>
+        <v>45545.95833333334</v>
       </c>
       <c r="B128" t="n">
-        <v>54146.5</v>
+        <v>57612</v>
       </c>
       <c r="C128" t="n">
-        <v>54169.9</v>
+        <v>57827.7</v>
       </c>
       <c r="D128" t="n">
-        <v>53977</v>
+        <v>57582.7</v>
       </c>
       <c r="E128" t="n">
-        <v>54133.2</v>
+        <v>57630</v>
       </c>
       <c r="F128" t="n">
-        <v>20.90379915</v>
+        <v>28.35226972</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45543.04166666666</v>
+        <v>45546</v>
       </c>
       <c r="B129" t="n">
-        <v>54133.3</v>
+        <v>57630</v>
       </c>
       <c r="C129" t="n">
-        <v>54329.3</v>
+        <v>57641.6</v>
       </c>
       <c r="D129" t="n">
-        <v>54133.3</v>
+        <v>57479</v>
       </c>
       <c r="E129" t="n">
-        <v>54226.4</v>
+        <v>57641.6</v>
       </c>
       <c r="F129" t="n">
-        <v>26.84160842</v>
+        <v>27.42197144</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45543.08333333334</v>
+        <v>45546.04166666666</v>
       </c>
       <c r="B130" t="n">
-        <v>54226.4</v>
+        <v>57641.6</v>
       </c>
       <c r="C130" t="n">
-        <v>54500</v>
+        <v>57737.1</v>
       </c>
       <c r="D130" t="n">
-        <v>54226.3</v>
+        <v>56684.5</v>
       </c>
       <c r="E130" t="n">
-        <v>54351.9</v>
+        <v>56732.1</v>
       </c>
       <c r="F130" t="n">
-        <v>51.86378605</v>
+        <v>160.15736838</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45543.125</v>
+        <v>45546.08333333334</v>
       </c>
       <c r="B131" t="n">
-        <v>54351.9</v>
+        <v>56735.2</v>
       </c>
       <c r="C131" t="n">
-        <v>54369.9</v>
+        <v>57161.1</v>
       </c>
       <c r="D131" t="n">
-        <v>54300</v>
+        <v>56735.1</v>
       </c>
       <c r="E131" t="n">
-        <v>54367</v>
+        <v>56922.9</v>
       </c>
       <c r="F131" t="n">
-        <v>5.87043343</v>
+        <v>64.58618459</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45543.16666666666</v>
+        <v>45546.125</v>
       </c>
       <c r="B132" t="n">
-        <v>54367.1</v>
+        <v>56920.1</v>
       </c>
       <c r="C132" t="n">
-        <v>54555.5</v>
+        <v>56963.8</v>
       </c>
       <c r="D132" t="n">
-        <v>54367</v>
+        <v>56700</v>
       </c>
       <c r="E132" t="n">
-        <v>54485.8</v>
+        <v>56802.5</v>
       </c>
       <c r="F132" t="n">
-        <v>10.82022916</v>
+        <v>55.13855759</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45543.20833333334</v>
+        <v>45546.16666666666</v>
       </c>
       <c r="B133" t="n">
-        <v>54485.9</v>
+        <v>56814.3</v>
       </c>
       <c r="C133" t="n">
-        <v>54517</v>
+        <v>56814.3</v>
       </c>
       <c r="D133" t="n">
-        <v>54339.1</v>
+        <v>56271.1</v>
       </c>
       <c r="E133" t="n">
-        <v>54339.1</v>
+        <v>56549.9</v>
       </c>
       <c r="F133" t="n">
-        <v>11.13993271</v>
+        <v>61.02966884</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45543.25</v>
+        <v>45546.20833333334</v>
       </c>
       <c r="B134" t="n">
-        <v>54339.2</v>
+        <v>56550</v>
       </c>
       <c r="C134" t="n">
-        <v>54413.2</v>
+        <v>56550</v>
       </c>
       <c r="D134" t="n">
-        <v>54290</v>
+        <v>56125</v>
       </c>
       <c r="E134" t="n">
-        <v>54290.1</v>
+        <v>56235.1</v>
       </c>
       <c r="F134" t="n">
-        <v>11.75655365</v>
+        <v>61.11225312</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45543.29166666666</v>
+        <v>45546.25</v>
       </c>
       <c r="B135" t="n">
-        <v>54290.1</v>
+        <v>56235.1</v>
       </c>
       <c r="C135" t="n">
-        <v>54505.5</v>
+        <v>56539</v>
       </c>
       <c r="D135" t="n">
-        <v>54290</v>
+        <v>56165.8</v>
       </c>
       <c r="E135" t="n">
-        <v>54454.1</v>
+        <v>56480.1</v>
       </c>
       <c r="F135" t="n">
-        <v>12.81992423</v>
+        <v>28.82677892</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45543.33333333334</v>
+        <v>45546.29166666666</v>
       </c>
       <c r="B136" t="n">
-        <v>54454.2</v>
+        <v>56480.1</v>
       </c>
       <c r="C136" t="n">
-        <v>54454.2</v>
+        <v>56759.4</v>
       </c>
       <c r="D136" t="n">
-        <v>54345.6</v>
+        <v>56480</v>
       </c>
       <c r="E136" t="n">
-        <v>54444.9</v>
+        <v>56725.7</v>
       </c>
       <c r="F136" t="n">
-        <v>9.92177676</v>
+        <v>20.6743079</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45543.375</v>
+        <v>45546.33333333334</v>
       </c>
       <c r="B137" t="n">
-        <v>54445</v>
+        <v>56706.6</v>
       </c>
       <c r="C137" t="n">
-        <v>54693.3</v>
+        <v>56717.6</v>
       </c>
       <c r="D137" t="n">
-        <v>54445</v>
+        <v>56400</v>
       </c>
       <c r="E137" t="n">
-        <v>54470.2</v>
+        <v>56420.6</v>
       </c>
       <c r="F137" t="n">
-        <v>32.08276011</v>
+        <v>18.49624043</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45543.41666666666</v>
+        <v>45546.375</v>
       </c>
       <c r="B138" t="n">
-        <v>54470.2</v>
+        <v>56400.2</v>
       </c>
       <c r="C138" t="n">
-        <v>54624.5</v>
+        <v>56692.7</v>
       </c>
       <c r="D138" t="n">
-        <v>54470.1</v>
+        <v>56400</v>
       </c>
       <c r="E138" t="n">
-        <v>54603.2</v>
+        <v>56692.7</v>
       </c>
       <c r="F138" t="n">
-        <v>9.292037880000001</v>
+        <v>11.60082188</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45543.45833333334</v>
+        <v>45546.41666666666</v>
       </c>
       <c r="B139" t="n">
-        <v>54603.2</v>
+        <v>56692.7</v>
       </c>
       <c r="C139" t="n">
-        <v>54660.5</v>
+        <v>56692.9</v>
       </c>
       <c r="D139" t="n">
-        <v>54504.1</v>
+        <v>56393.9</v>
       </c>
       <c r="E139" t="n">
-        <v>54551.5</v>
+        <v>56509.8</v>
       </c>
       <c r="F139" t="n">
-        <v>32.34354621</v>
+        <v>27.59524229</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45543.5</v>
+        <v>45546.45833333334</v>
       </c>
       <c r="B140" t="n">
-        <v>54553.3</v>
+        <v>56509.8</v>
       </c>
       <c r="C140" t="n">
-        <v>54555</v>
+        <v>56892.2</v>
       </c>
       <c r="D140" t="n">
-        <v>54131.9</v>
+        <v>56509.8</v>
       </c>
       <c r="E140" t="n">
-        <v>54198.2</v>
+        <v>56772</v>
       </c>
       <c r="F140" t="n">
-        <v>34.3787407</v>
+        <v>28.06149163</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45543.54166666666</v>
+        <v>45546.5</v>
       </c>
       <c r="B141" t="n">
-        <v>54198.3</v>
+        <v>56772</v>
       </c>
       <c r="C141" t="n">
-        <v>54399.9</v>
+        <v>56888.9</v>
       </c>
       <c r="D141" t="n">
-        <v>54076.7</v>
+        <v>56323.1</v>
       </c>
       <c r="E141" t="n">
-        <v>54399.8</v>
+        <v>56744.7</v>
       </c>
       <c r="F141" t="n">
-        <v>16.87738234</v>
+        <v>63.52783567</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45543.58333333334</v>
+        <v>45546.54166666666</v>
       </c>
       <c r="B142" t="n">
-        <v>54399.9</v>
+        <v>56744.8</v>
       </c>
       <c r="C142" t="n">
-        <v>54399.9</v>
+        <v>57127.6</v>
       </c>
       <c r="D142" t="n">
-        <v>54100</v>
+        <v>55723.8</v>
       </c>
       <c r="E142" t="n">
-        <v>54150</v>
+        <v>55729.2</v>
       </c>
       <c r="F142" t="n">
-        <v>20.05291836</v>
+        <v>173.60082053</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45543.625</v>
+        <v>45546.58333333334</v>
       </c>
       <c r="B143" t="n">
-        <v>54150.1</v>
+        <v>55725.3</v>
       </c>
       <c r="C143" t="n">
-        <v>54151</v>
+        <v>55995</v>
       </c>
       <c r="D143" t="n">
-        <v>53643.7</v>
+        <v>55548.1</v>
       </c>
       <c r="E143" t="n">
-        <v>53686.6</v>
+        <v>55918.4</v>
       </c>
       <c r="F143" t="n">
-        <v>106.36885184</v>
+        <v>117.40236574</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45543.66666666666</v>
+        <v>45546.625</v>
       </c>
       <c r="B144" t="n">
-        <v>53689.6</v>
+        <v>55918.4</v>
       </c>
       <c r="C144" t="n">
-        <v>54008.6</v>
+        <v>57000</v>
       </c>
       <c r="D144" t="n">
-        <v>53636.6</v>
+        <v>55844.9</v>
       </c>
       <c r="E144" t="n">
-        <v>53918.3</v>
+        <v>56716.5</v>
       </c>
       <c r="F144" t="n">
-        <v>53.34825894</v>
+        <v>209.51873003</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45543.70833333334</v>
+        <v>45546.66666666666</v>
       </c>
       <c r="B145" t="n">
-        <v>53918.3</v>
+        <v>56716.6</v>
       </c>
       <c r="C145" t="n">
-        <v>54510.8</v>
+        <v>57532.2</v>
       </c>
       <c r="D145" t="n">
-        <v>53918.3</v>
+        <v>56653.1</v>
       </c>
       <c r="E145" t="n">
-        <v>54509</v>
+        <v>57312.9</v>
       </c>
       <c r="F145" t="n">
-        <v>50.06330475</v>
+        <v>464.5029494</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45543.75</v>
+        <v>45546.70833333334</v>
       </c>
       <c r="B146" t="n">
-        <v>54509</v>
+        <v>57312.9</v>
       </c>
       <c r="C146" t="n">
-        <v>54510.9</v>
+        <v>57835</v>
       </c>
       <c r="D146" t="n">
-        <v>54279.4</v>
+        <v>57256.4</v>
       </c>
       <c r="E146" t="n">
-        <v>54428</v>
+        <v>57683.6</v>
       </c>
       <c r="F146" t="n">
-        <v>122.93167411</v>
+        <v>111.70456305</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45543.79166666666</v>
+        <v>45546.75</v>
       </c>
       <c r="B147" t="n">
-        <v>54428</v>
+        <v>57713.6</v>
       </c>
       <c r="C147" t="n">
-        <v>54466.1</v>
+        <v>57990</v>
       </c>
       <c r="D147" t="n">
-        <v>54325.9</v>
+        <v>57410.2</v>
       </c>
       <c r="E147" t="n">
-        <v>54341.5</v>
+        <v>57510.8</v>
       </c>
       <c r="F147" t="n">
-        <v>10.97314122</v>
+        <v>143.33644103</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45543.83333333334</v>
+        <v>45546.79166666666</v>
       </c>
       <c r="B148" t="n">
-        <v>54341.5</v>
+        <v>57510.8</v>
       </c>
       <c r="C148" t="n">
-        <v>54380.2</v>
+        <v>57755.5</v>
       </c>
       <c r="D148" t="n">
-        <v>54186.1</v>
+        <v>57325</v>
       </c>
       <c r="E148" t="n">
-        <v>54380</v>
+        <v>57634</v>
       </c>
       <c r="F148" t="n">
-        <v>13.63001727</v>
+        <v>109.7221926</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45543.875</v>
+        <v>45546.83333333334</v>
       </c>
       <c r="B149" t="n">
-        <v>54380.1</v>
+        <v>57634</v>
       </c>
       <c r="C149" t="n">
-        <v>54570.2</v>
+        <v>57670.1</v>
       </c>
       <c r="D149" t="n">
-        <v>54345.1</v>
+        <v>57454</v>
       </c>
       <c r="E149" t="n">
-        <v>54465.2</v>
+        <v>57486</v>
       </c>
       <c r="F149" t="n">
-        <v>30.41859799</v>
+        <v>45.50015056</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45543.91666666666</v>
+        <v>45546.875</v>
       </c>
       <c r="B150" t="n">
-        <v>54465.2</v>
+        <v>57488.3</v>
       </c>
       <c r="C150" t="n">
-        <v>55317.6</v>
+        <v>57562.7</v>
       </c>
       <c r="D150" t="n">
-        <v>54365.8</v>
+        <v>57296</v>
       </c>
       <c r="E150" t="n">
-        <v>54526.4</v>
+        <v>57338.6</v>
       </c>
       <c r="F150" t="n">
-        <v>253.41859302</v>
+        <v>64.05662205</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45543.95833333334</v>
+        <v>45546.91666666666</v>
       </c>
       <c r="B151" t="n">
-        <v>54533.2</v>
+        <v>57338.7</v>
       </c>
       <c r="C151" t="n">
-        <v>54943.4</v>
+        <v>57468.1</v>
       </c>
       <c r="D151" t="n">
-        <v>54464.2</v>
+        <v>57258.7</v>
       </c>
       <c r="E151" t="n">
-        <v>54856.8</v>
+        <v>57468.1</v>
       </c>
       <c r="F151" t="n">
-        <v>32.52291682</v>
+        <v>19.84431286</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45544</v>
+        <v>45546.95833333334</v>
       </c>
       <c r="B152" t="n">
-        <v>54856.9</v>
+        <v>57468.1</v>
       </c>
       <c r="C152" t="n">
-        <v>55198.8</v>
+        <v>57509.8</v>
       </c>
       <c r="D152" t="n">
-        <v>54739.4</v>
+        <v>57350.6</v>
       </c>
       <c r="E152" t="n">
-        <v>55065.2</v>
+        <v>57350.6</v>
       </c>
       <c r="F152" t="n">
-        <v>109.43843154</v>
+        <v>20.7118797</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45544.04166666666</v>
+        <v>45547</v>
       </c>
       <c r="B153" t="n">
-        <v>55065.2</v>
+        <v>57350.7</v>
       </c>
       <c r="C153" t="n">
-        <v>55371</v>
+        <v>57887</v>
       </c>
       <c r="D153" t="n">
-        <v>54914.5</v>
+        <v>57339</v>
       </c>
       <c r="E153" t="n">
-        <v>55098.6</v>
+        <v>57625.5</v>
       </c>
       <c r="F153" t="n">
-        <v>50.89663273</v>
+        <v>77.93086646</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45544.08333333334</v>
+        <v>45547.04166666666</v>
       </c>
       <c r="B154" t="n">
-        <v>55098.7</v>
+        <v>57625.6</v>
       </c>
       <c r="C154" t="n">
-        <v>55122.4</v>
+        <v>58329.7</v>
       </c>
       <c r="D154" t="n">
-        <v>54846.9</v>
+        <v>57625.6</v>
       </c>
       <c r="E154" t="n">
-        <v>55113.3</v>
+        <v>58124.6</v>
       </c>
       <c r="F154" t="n">
-        <v>11.00599009</v>
+        <v>114.88046024</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45544.125</v>
+        <v>45547.08333333334</v>
       </c>
       <c r="B155" t="n">
-        <v>55113.4</v>
+        <v>58132.4</v>
       </c>
       <c r="C155" t="n">
-        <v>55183.6</v>
+        <v>58450.2</v>
       </c>
       <c r="D155" t="n">
-        <v>54818.3</v>
+        <v>57877.6</v>
       </c>
       <c r="E155" t="n">
-        <v>55117</v>
+        <v>57948.7</v>
       </c>
       <c r="F155" t="n">
-        <v>31.10210406</v>
+        <v>135.85915096</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45544.16666666666</v>
+        <v>45547.125</v>
       </c>
       <c r="B156" t="n">
-        <v>55118.2</v>
+        <v>57956.8</v>
       </c>
       <c r="C156" t="n">
-        <v>55147.1</v>
+        <v>58340.6</v>
       </c>
       <c r="D156" t="n">
-        <v>54890</v>
+        <v>57948.4</v>
       </c>
       <c r="E156" t="n">
-        <v>54890</v>
+        <v>58252</v>
       </c>
       <c r="F156" t="n">
-        <v>18.80635264</v>
+        <v>58.13171961</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45544.20833333334</v>
+        <v>45547.16666666666</v>
       </c>
       <c r="B157" t="n">
-        <v>54890.1</v>
+        <v>58252.1</v>
       </c>
       <c r="C157" t="n">
-        <v>54900</v>
+        <v>58430.9</v>
       </c>
       <c r="D157" t="n">
-        <v>54580.3</v>
+        <v>58171.6</v>
       </c>
       <c r="E157" t="n">
-        <v>54657.9</v>
+        <v>58181.3</v>
       </c>
       <c r="F157" t="n">
-        <v>28.77866165</v>
+        <v>18.04176184</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45544.25</v>
+        <v>45547.20833333334</v>
       </c>
       <c r="B158" t="n">
-        <v>54668.3</v>
+        <v>58181.4</v>
       </c>
       <c r="C158" t="n">
-        <v>54930.2</v>
+        <v>58181.4</v>
       </c>
       <c r="D158" t="n">
-        <v>54640.6</v>
+        <v>57982.3</v>
       </c>
       <c r="E158" t="n">
-        <v>54890.5</v>
+        <v>57982.4</v>
       </c>
       <c r="F158" t="n">
-        <v>10.78709476</v>
+        <v>76.89388025</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45544.29166666666</v>
+        <v>45547.25</v>
       </c>
       <c r="B159" t="n">
-        <v>54890.5</v>
+        <v>57982.4</v>
       </c>
       <c r="C159" t="n">
-        <v>54994.7</v>
+        <v>58082.5</v>
       </c>
       <c r="D159" t="n">
-        <v>54760</v>
+        <v>57866.6</v>
       </c>
       <c r="E159" t="n">
-        <v>54974.4</v>
+        <v>57971.1</v>
       </c>
       <c r="F159" t="n">
-        <v>15.15384588</v>
+        <v>15.45957369</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45544.33333333334</v>
+        <v>45547.29166666666</v>
       </c>
       <c r="B160" t="n">
-        <v>54968.6</v>
+        <v>57971.1</v>
       </c>
       <c r="C160" t="n">
-        <v>55300</v>
+        <v>58129.5</v>
       </c>
       <c r="D160" t="n">
-        <v>54968.6</v>
+        <v>57908.1</v>
       </c>
       <c r="E160" t="n">
-        <v>55228.2</v>
+        <v>58129.5</v>
       </c>
       <c r="F160" t="n">
-        <v>21.7036124</v>
+        <v>20.635048</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45544.375</v>
+        <v>45547.33333333334</v>
       </c>
       <c r="B161" t="n">
-        <v>55228.3</v>
+        <v>58129.5</v>
       </c>
       <c r="C161" t="n">
-        <v>55500</v>
+        <v>58308.8</v>
       </c>
       <c r="D161" t="n">
-        <v>55132.3</v>
+        <v>58129.4</v>
       </c>
       <c r="E161" t="n">
-        <v>55155</v>
+        <v>58155.1</v>
       </c>
       <c r="F161" t="n">
-        <v>34.5143033</v>
+        <v>37.22937326</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45544.41666666666</v>
+        <v>45547.375</v>
       </c>
       <c r="B162" t="n">
-        <v>55155.1</v>
+        <v>58155.1</v>
       </c>
       <c r="C162" t="n">
-        <v>55433.4</v>
+        <v>58235.5</v>
       </c>
       <c r="D162" t="n">
-        <v>55098.5</v>
+        <v>58038.8</v>
       </c>
       <c r="E162" t="n">
-        <v>55380</v>
+        <v>58049.9</v>
       </c>
       <c r="F162" t="n">
-        <v>40.86992649</v>
+        <v>11.66897899</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45544.45833333334</v>
+        <v>45547.41666666666</v>
       </c>
       <c r="B163" t="n">
-        <v>55380.1</v>
+        <v>58050</v>
       </c>
       <c r="C163" t="n">
-        <v>55380.1</v>
+        <v>58098.5</v>
       </c>
       <c r="D163" t="n">
-        <v>55183.7</v>
+        <v>57921</v>
       </c>
       <c r="E163" t="n">
-        <v>55245</v>
+        <v>57932.8</v>
       </c>
       <c r="F163" t="n">
-        <v>41.46124632</v>
+        <v>40.67507492</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45544.5</v>
+        <v>45547.45833333334</v>
       </c>
       <c r="B164" t="n">
-        <v>55245</v>
+        <v>57929</v>
       </c>
       <c r="C164" t="n">
-        <v>55333.7</v>
+        <v>58100</v>
       </c>
       <c r="D164" t="n">
-        <v>54975.9</v>
+        <v>57894.3</v>
       </c>
       <c r="E164" t="n">
-        <v>55333.7</v>
+        <v>58053.2</v>
       </c>
       <c r="F164" t="n">
-        <v>36.69056772</v>
+        <v>8.742557489999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45544.54166666666</v>
+        <v>45547.5</v>
       </c>
       <c r="B165" t="n">
-        <v>55333.7</v>
+        <v>58053.2</v>
       </c>
       <c r="C165" t="n">
-        <v>55756.4</v>
+        <v>58129.5</v>
       </c>
       <c r="D165" t="n">
-        <v>55278.4</v>
+        <v>57649.4</v>
       </c>
       <c r="E165" t="n">
-        <v>55694.1</v>
+        <v>57679.9</v>
       </c>
       <c r="F165" t="n">
-        <v>119.28896421</v>
+        <v>88.33643752</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45544.58333333334</v>
+        <v>45547.54166666666</v>
       </c>
       <c r="B166" t="n">
-        <v>55691.7</v>
+        <v>57680</v>
       </c>
       <c r="C166" t="n">
-        <v>55738.6</v>
+        <v>57862.9</v>
       </c>
       <c r="D166" t="n">
-        <v>54843.2</v>
+        <v>57345</v>
       </c>
       <c r="E166" t="n">
-        <v>54869.8</v>
+        <v>57589.1</v>
       </c>
       <c r="F166" t="n">
-        <v>93.8935326</v>
+        <v>75.96589822</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45544.625</v>
+        <v>45547.58333333334</v>
       </c>
       <c r="B167" t="n">
-        <v>54869.8</v>
+        <v>57600</v>
       </c>
       <c r="C167" t="n">
-        <v>55299.3</v>
+        <v>58546.4</v>
       </c>
       <c r="D167" t="n">
-        <v>54863.6</v>
+        <v>57600</v>
       </c>
       <c r="E167" t="n">
-        <v>55246.5</v>
+        <v>58520.6</v>
       </c>
       <c r="F167" t="n">
-        <v>51.71488736</v>
+        <v>61.82364526</v>
       </c>
     </row>
   </sheetData>
@@ -3845,3322 +3845,3322 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45537.75</v>
+        <v>45540.70833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>2522.66</v>
+        <v>2374.78</v>
       </c>
       <c r="C2" t="n">
-        <v>2529.68</v>
+        <v>2391.9</v>
       </c>
       <c r="D2" t="n">
-        <v>2516.54</v>
+        <v>2371.68</v>
       </c>
       <c r="E2" t="n">
-        <v>2524.08</v>
+        <v>2391.9</v>
       </c>
       <c r="F2" t="n">
-        <v>208.45622028</v>
+        <v>332.67448795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45537.79166666666</v>
+        <v>45540.75</v>
       </c>
       <c r="B3" t="n">
-        <v>2523.69</v>
+        <v>2392.08</v>
       </c>
       <c r="C3" t="n">
-        <v>2524.74</v>
+        <v>2394.72</v>
       </c>
       <c r="D3" t="n">
-        <v>2519.86</v>
+        <v>2388.01</v>
       </c>
       <c r="E3" t="n">
-        <v>2523.93</v>
+        <v>2389.13</v>
       </c>
       <c r="F3" t="n">
-        <v>95.95316228</v>
+        <v>103.5725822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45537.83333333334</v>
+        <v>45540.79166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>2524.4</v>
+        <v>2389.03</v>
       </c>
       <c r="C4" t="n">
-        <v>2564.36</v>
+        <v>2389.42</v>
       </c>
       <c r="D4" t="n">
-        <v>2522.51</v>
+        <v>2347.6</v>
       </c>
       <c r="E4" t="n">
-        <v>2556.22</v>
+        <v>2361.99</v>
       </c>
       <c r="F4" t="n">
-        <v>976.80492187</v>
+        <v>742.49587375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45537.875</v>
+        <v>45540.83333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>2556.21</v>
+        <v>2362</v>
       </c>
       <c r="C5" t="n">
-        <v>2561.45</v>
+        <v>2376.96</v>
       </c>
       <c r="D5" t="n">
-        <v>2537.52</v>
+        <v>2361.99</v>
       </c>
       <c r="E5" t="n">
-        <v>2546.89</v>
+        <v>2368.05</v>
       </c>
       <c r="F5" t="n">
-        <v>218.29629431</v>
+        <v>516.89576491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537.91666666666</v>
+        <v>45540.875</v>
       </c>
       <c r="B6" t="n">
-        <v>2544.95</v>
+        <v>2367.49</v>
       </c>
       <c r="C6" t="n">
-        <v>2547.43</v>
+        <v>2376.06</v>
       </c>
       <c r="D6" t="n">
-        <v>2541.44</v>
+        <v>2350.98</v>
       </c>
       <c r="E6" t="n">
-        <v>2544.01</v>
+        <v>2372.08</v>
       </c>
       <c r="F6" t="n">
-        <v>100.2577235</v>
+        <v>816.82794625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45537.95833333334</v>
+        <v>45540.91666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>2544.02</v>
+        <v>2372.08</v>
       </c>
       <c r="C7" t="n">
-        <v>2545.96</v>
+        <v>2373.6</v>
       </c>
       <c r="D7" t="n">
-        <v>2534.57</v>
+        <v>2355.76</v>
       </c>
       <c r="E7" t="n">
-        <v>2538.48</v>
+        <v>2370.49</v>
       </c>
       <c r="F7" t="n">
-        <v>130.44683531</v>
+        <v>220.41855846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45538</v>
+        <v>45540.95833333334</v>
       </c>
       <c r="B8" t="n">
-        <v>2538.49</v>
+        <v>2370.49</v>
       </c>
       <c r="C8" t="n">
-        <v>2538.49</v>
+        <v>2372.22</v>
       </c>
       <c r="D8" t="n">
-        <v>2528.72</v>
+        <v>2364.93</v>
       </c>
       <c r="E8" t="n">
-        <v>2534.74</v>
+        <v>2368.47</v>
       </c>
       <c r="F8" t="n">
-        <v>61.16489908</v>
+        <v>98.13638895</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45538.04166666666</v>
+        <v>45541</v>
       </c>
       <c r="B9" t="n">
-        <v>2534.75</v>
+        <v>2368.17</v>
       </c>
       <c r="C9" t="n">
-        <v>2541.91</v>
+        <v>2375.59</v>
       </c>
       <c r="D9" t="n">
-        <v>2527.87</v>
+        <v>2357.12</v>
       </c>
       <c r="E9" t="n">
-        <v>2534.29</v>
+        <v>2371.58</v>
       </c>
       <c r="F9" t="n">
-        <v>92.02302862000001</v>
+        <v>177.77564688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45538.08333333334</v>
+        <v>45541.04166666666</v>
       </c>
       <c r="B10" t="n">
-        <v>2534.28</v>
+        <v>2371.59</v>
       </c>
       <c r="C10" t="n">
-        <v>2551.53</v>
+        <v>2397.95</v>
       </c>
       <c r="D10" t="n">
-        <v>2530</v>
+        <v>2364.26</v>
       </c>
       <c r="E10" t="n">
-        <v>2530</v>
+        <v>2390.76</v>
       </c>
       <c r="F10" t="n">
-        <v>80.71875896</v>
+        <v>277.57343808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45538.125</v>
+        <v>45541.08333333334</v>
       </c>
       <c r="B11" t="n">
-        <v>2530</v>
+        <v>2390.77</v>
       </c>
       <c r="C11" t="n">
-        <v>2530.01</v>
+        <v>2406.03</v>
       </c>
       <c r="D11" t="n">
-        <v>2515.76</v>
+        <v>2389.99</v>
       </c>
       <c r="E11" t="n">
-        <v>2515.77</v>
+        <v>2401.36</v>
       </c>
       <c r="F11" t="n">
-        <v>205.11846297</v>
+        <v>130.2975789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45538.16666666666</v>
+        <v>45541.125</v>
       </c>
       <c r="B12" t="n">
-        <v>2515.78</v>
+        <v>2401.36</v>
       </c>
       <c r="C12" t="n">
-        <v>2521.8</v>
+        <v>2402.09</v>
       </c>
       <c r="D12" t="n">
-        <v>2513.61</v>
+        <v>2391.79</v>
       </c>
       <c r="E12" t="n">
-        <v>2516.09</v>
+        <v>2393.47</v>
       </c>
       <c r="F12" t="n">
-        <v>80.39960349</v>
+        <v>125.81183604</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45538.20833333334</v>
+        <v>45541.16666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>2517.34</v>
+        <v>2392.33</v>
       </c>
       <c r="C13" t="n">
-        <v>2525.39</v>
+        <v>2395.62</v>
       </c>
       <c r="D13" t="n">
-        <v>2516.43</v>
+        <v>2385.75</v>
       </c>
       <c r="E13" t="n">
-        <v>2521.2</v>
+        <v>2386.92</v>
       </c>
       <c r="F13" t="n">
-        <v>722.2749608</v>
+        <v>62.15647969</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45538.25</v>
+        <v>45541.20833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>2520.94</v>
+        <v>2386.92</v>
       </c>
       <c r="C14" t="n">
-        <v>2520.94</v>
+        <v>2388.76</v>
       </c>
       <c r="D14" t="n">
-        <v>2513.47</v>
+        <v>2376.38</v>
       </c>
       <c r="E14" t="n">
-        <v>2513.93</v>
+        <v>2383.93</v>
       </c>
       <c r="F14" t="n">
-        <v>48.04355734</v>
+        <v>101.75248538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45538.29166666666</v>
+        <v>45541.25</v>
       </c>
       <c r="B15" t="n">
-        <v>2513.47</v>
+        <v>2383.93</v>
       </c>
       <c r="C15" t="n">
-        <v>2523.19</v>
+        <v>2383.95</v>
       </c>
       <c r="D15" t="n">
-        <v>2513.47</v>
+        <v>2373</v>
       </c>
       <c r="E15" t="n">
-        <v>2520.38</v>
+        <v>2378.98</v>
       </c>
       <c r="F15" t="n">
-        <v>38.64648451</v>
+        <v>63.40639599</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45538.33333333334</v>
+        <v>45541.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>2520.23</v>
+        <v>2378.98</v>
       </c>
       <c r="C16" t="n">
-        <v>2520.23</v>
+        <v>2378.98</v>
       </c>
       <c r="D16" t="n">
-        <v>2495.58</v>
+        <v>2323</v>
       </c>
       <c r="E16" t="n">
-        <v>2500.3</v>
+        <v>2345.16</v>
       </c>
       <c r="F16" t="n">
-        <v>781.2630842</v>
+        <v>983.87107455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45538.375</v>
+        <v>45541.33333333334</v>
       </c>
       <c r="B17" t="n">
-        <v>2499.74</v>
+        <v>2345.14</v>
       </c>
       <c r="C17" t="n">
-        <v>2507.43</v>
+        <v>2356.49</v>
       </c>
       <c r="D17" t="n">
-        <v>2497.85</v>
+        <v>2338.3</v>
       </c>
       <c r="E17" t="n">
-        <v>2503.11</v>
+        <v>2349.72</v>
       </c>
       <c r="F17" t="n">
-        <v>215.44200023</v>
+        <v>199.0108345</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45538.41666666666</v>
+        <v>45541.375</v>
       </c>
       <c r="B18" t="n">
-        <v>2502.93</v>
+        <v>2348.95</v>
       </c>
       <c r="C18" t="n">
-        <v>2512.05</v>
+        <v>2357.1</v>
       </c>
       <c r="D18" t="n">
-        <v>2500</v>
+        <v>2345.86</v>
       </c>
       <c r="E18" t="n">
-        <v>2504.58</v>
+        <v>2357.09</v>
       </c>
       <c r="F18" t="n">
-        <v>59.3709534</v>
+        <v>114.06879485</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45538.45833333334</v>
+        <v>45541.41666666666</v>
       </c>
       <c r="B19" t="n">
-        <v>2504.58</v>
+        <v>2357.41</v>
       </c>
       <c r="C19" t="n">
-        <v>2510.14</v>
+        <v>2375.59</v>
       </c>
       <c r="D19" t="n">
-        <v>2502.59</v>
+        <v>2355.91</v>
       </c>
       <c r="E19" t="n">
-        <v>2508.27</v>
+        <v>2367.37</v>
       </c>
       <c r="F19" t="n">
-        <v>47.67759126</v>
+        <v>151.11515649</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45538.5</v>
+        <v>45541.45833333334</v>
       </c>
       <c r="B20" t="n">
-        <v>2508.87</v>
+        <v>2367.97</v>
       </c>
       <c r="C20" t="n">
-        <v>2516.85</v>
+        <v>2378.76</v>
       </c>
       <c r="D20" t="n">
-        <v>2506.29</v>
+        <v>2365.45</v>
       </c>
       <c r="E20" t="n">
-        <v>2511.91</v>
+        <v>2372.53</v>
       </c>
       <c r="F20" t="n">
-        <v>146.19845227</v>
+        <v>88.81018027</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45538.54166666666</v>
+        <v>45541.5</v>
       </c>
       <c r="B21" t="n">
-        <v>2511.92</v>
+        <v>2372.53</v>
       </c>
       <c r="C21" t="n">
-        <v>2516.81</v>
+        <v>2406.23</v>
       </c>
       <c r="D21" t="n">
-        <v>2460</v>
+        <v>2358.6</v>
       </c>
       <c r="E21" t="n">
-        <v>2464.64</v>
+        <v>2399.92</v>
       </c>
       <c r="F21" t="n">
-        <v>696.5574978</v>
+        <v>1307.90948022</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45538.58333333334</v>
+        <v>45541.54166666666</v>
       </c>
       <c r="B22" t="n">
-        <v>2464.13</v>
+        <v>2399.91</v>
       </c>
       <c r="C22" t="n">
-        <v>2467.13</v>
+        <v>2399.92</v>
       </c>
       <c r="D22" t="n">
-        <v>2443.14</v>
+        <v>2358.21</v>
       </c>
       <c r="E22" t="n">
-        <v>2445.36</v>
+        <v>2363.47</v>
       </c>
       <c r="F22" t="n">
-        <v>995.35920506</v>
+        <v>801.95164553</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45538.625</v>
+        <v>45541.58333333334</v>
       </c>
       <c r="B23" t="n">
-        <v>2445.9</v>
+        <v>2363.27</v>
       </c>
       <c r="C23" t="n">
-        <v>2453.97</v>
+        <v>2365.76</v>
       </c>
       <c r="D23" t="n">
-        <v>2436.44</v>
+        <v>2312.09</v>
       </c>
       <c r="E23" t="n">
-        <v>2441.9</v>
+        <v>2326.96</v>
       </c>
       <c r="F23" t="n">
-        <v>642.64490184</v>
+        <v>1394.53676316</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45538.66666666666</v>
+        <v>45541.625</v>
       </c>
       <c r="B24" t="n">
-        <v>2443.9</v>
+        <v>2326.3</v>
       </c>
       <c r="C24" t="n">
-        <v>2446.94</v>
+        <v>2337.1</v>
       </c>
       <c r="D24" t="n">
-        <v>2437.22</v>
+        <v>2263.74</v>
       </c>
       <c r="E24" t="n">
-        <v>2439.86</v>
+        <v>2288.19</v>
       </c>
       <c r="F24" t="n">
-        <v>871.52140862</v>
+        <v>6219.49262227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45538.70833333334</v>
+        <v>45541.66666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>2439.88</v>
+        <v>2288.19</v>
       </c>
       <c r="C25" t="n">
-        <v>2461.47</v>
+        <v>2290.31</v>
       </c>
       <c r="D25" t="n">
-        <v>2438.96</v>
+        <v>2250.8</v>
       </c>
       <c r="E25" t="n">
-        <v>2442.19</v>
+        <v>2265.2</v>
       </c>
       <c r="F25" t="n">
-        <v>752.97807665</v>
+        <v>1522.16232375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45538.75</v>
+        <v>45541.70833333334</v>
       </c>
       <c r="B26" t="n">
-        <v>2442</v>
+        <v>2264.96</v>
       </c>
       <c r="C26" t="n">
-        <v>2455.61</v>
+        <v>2274.53</v>
       </c>
       <c r="D26" t="n">
-        <v>2436</v>
+        <v>2225.4</v>
       </c>
       <c r="E26" t="n">
-        <v>2451.05</v>
+        <v>2244.8</v>
       </c>
       <c r="F26" t="n">
-        <v>611.14568619</v>
+        <v>2318.2030541</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45538.79166666666</v>
+        <v>45541.75</v>
       </c>
       <c r="B27" t="n">
-        <v>2451.05</v>
+        <v>2244.81</v>
       </c>
       <c r="C27" t="n">
-        <v>2467.34</v>
+        <v>2245.96</v>
       </c>
       <c r="D27" t="n">
-        <v>2445.42</v>
+        <v>2210.5</v>
       </c>
       <c r="E27" t="n">
-        <v>2445.42</v>
+        <v>2210.5</v>
       </c>
       <c r="F27" t="n">
-        <v>748.8080943799999</v>
+        <v>1052.1124154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45538.83333333334</v>
+        <v>45541.79166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>2446.16</v>
+        <v>2210.01</v>
       </c>
       <c r="C28" t="n">
-        <v>2463.53</v>
+        <v>2241.52</v>
       </c>
       <c r="D28" t="n">
-        <v>2446.16</v>
+        <v>2207.01</v>
       </c>
       <c r="E28" t="n">
-        <v>2461.73</v>
+        <v>2220.74</v>
       </c>
       <c r="F28" t="n">
-        <v>425.99524386</v>
+        <v>2247.64066529</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45538.875</v>
+        <v>45541.83333333334</v>
       </c>
       <c r="B29" t="n">
-        <v>2461.73</v>
+        <v>2220.02</v>
       </c>
       <c r="C29" t="n">
-        <v>2469.39</v>
+        <v>2226.88</v>
       </c>
       <c r="D29" t="n">
-        <v>2449.31</v>
+        <v>2167.3</v>
       </c>
       <c r="E29" t="n">
-        <v>2463.62</v>
+        <v>2169.17</v>
       </c>
       <c r="F29" t="n">
-        <v>656.37964487</v>
+        <v>3361.74044142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45538.91666666666</v>
+        <v>45541.875</v>
       </c>
       <c r="B30" t="n">
-        <v>2463.62</v>
+        <v>2168.49</v>
       </c>
       <c r="C30" t="n">
-        <v>2464.09</v>
+        <v>2218.3</v>
       </c>
       <c r="D30" t="n">
-        <v>2453.18</v>
+        <v>2150</v>
       </c>
       <c r="E30" t="n">
-        <v>2453.18</v>
+        <v>2217.69</v>
       </c>
       <c r="F30" t="n">
-        <v>239.70520025</v>
+        <v>1346.31685158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45538.95833333334</v>
+        <v>45541.91666666666</v>
       </c>
       <c r="B31" t="n">
-        <v>2452.89</v>
+        <v>2217.68</v>
       </c>
       <c r="C31" t="n">
-        <v>2453.9</v>
+        <v>2221.27</v>
       </c>
       <c r="D31" t="n">
-        <v>2414.3</v>
+        <v>2206.62</v>
       </c>
       <c r="E31" t="n">
-        <v>2422.26</v>
+        <v>2208.83</v>
       </c>
       <c r="F31" t="n">
-        <v>881.85736443</v>
+        <v>601.93297089</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45539</v>
+        <v>45541.95833333334</v>
       </c>
       <c r="B32" t="n">
-        <v>2424.81</v>
+        <v>2208.8</v>
       </c>
       <c r="C32" t="n">
-        <v>2448.16</v>
+        <v>2224.6</v>
       </c>
       <c r="D32" t="n">
-        <v>2391.37</v>
+        <v>2208.8</v>
       </c>
       <c r="E32" t="n">
-        <v>2395.73</v>
+        <v>2224.45</v>
       </c>
       <c r="F32" t="n">
-        <v>725.73469711</v>
+        <v>144.09728079</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45539.04166666666</v>
+        <v>45542</v>
       </c>
       <c r="B33" t="n">
-        <v>2395.78</v>
+        <v>2224.45</v>
       </c>
       <c r="C33" t="n">
-        <v>2395.95</v>
+        <v>2241.3</v>
       </c>
       <c r="D33" t="n">
-        <v>2308</v>
+        <v>2224.44</v>
       </c>
       <c r="E33" t="n">
-        <v>2365.51</v>
+        <v>2233.5</v>
       </c>
       <c r="F33" t="n">
-        <v>2954.01979959</v>
+        <v>3415.27140841</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45539.08333333334</v>
+        <v>45542.04166666666</v>
       </c>
       <c r="B34" t="n">
-        <v>2365.49</v>
+        <v>2233.51</v>
       </c>
       <c r="C34" t="n">
-        <v>2370.21</v>
+        <v>2236.17</v>
       </c>
       <c r="D34" t="n">
-        <v>2356.03</v>
+        <v>2222</v>
       </c>
       <c r="E34" t="n">
-        <v>2364.36</v>
+        <v>2224.98</v>
       </c>
       <c r="F34" t="n">
-        <v>2041.65799756</v>
+        <v>2034.05306651</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45539.125</v>
+        <v>45542.08333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>2364.35</v>
+        <v>2224.97</v>
       </c>
       <c r="C35" t="n">
-        <v>2381.6</v>
+        <v>2239.15</v>
       </c>
       <c r="D35" t="n">
-        <v>2364.35</v>
+        <v>2223.23</v>
       </c>
       <c r="E35" t="n">
-        <v>2372.67</v>
+        <v>2232.76</v>
       </c>
       <c r="F35" t="n">
-        <v>532.73716538</v>
+        <v>899.48971262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45539.16666666666</v>
+        <v>45542.125</v>
       </c>
       <c r="B36" t="n">
-        <v>2372.68</v>
+        <v>2232.87</v>
       </c>
       <c r="C36" t="n">
-        <v>2377.88</v>
+        <v>2240.42</v>
       </c>
       <c r="D36" t="n">
-        <v>2365.57</v>
+        <v>2232.67</v>
       </c>
       <c r="E36" t="n">
-        <v>2377.88</v>
+        <v>2238.02</v>
       </c>
       <c r="F36" t="n">
-        <v>607.51668193</v>
+        <v>175.73439984</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45539.20833333334</v>
+        <v>45542.16666666666</v>
       </c>
       <c r="B37" t="n">
-        <v>2377.6</v>
+        <v>2238.02</v>
       </c>
       <c r="C37" t="n">
-        <v>2380.95</v>
+        <v>2249.97</v>
       </c>
       <c r="D37" t="n">
-        <v>2363.72</v>
+        <v>2238.01</v>
       </c>
       <c r="E37" t="n">
-        <v>2364.87</v>
+        <v>2249.95</v>
       </c>
       <c r="F37" t="n">
-        <v>490.10212531</v>
+        <v>104.09019889</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45539.25</v>
+        <v>45542.20833333334</v>
       </c>
       <c r="B38" t="n">
-        <v>2364.86</v>
+        <v>2249.98</v>
       </c>
       <c r="C38" t="n">
-        <v>2382.67</v>
+        <v>2274.19</v>
       </c>
       <c r="D38" t="n">
-        <v>2364.86</v>
+        <v>2246.48</v>
       </c>
       <c r="E38" t="n">
-        <v>2372.14</v>
+        <v>2262.74</v>
       </c>
       <c r="F38" t="n">
-        <v>306.95003249</v>
+        <v>424.6422858</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45539.29166666666</v>
+        <v>45542.25</v>
       </c>
       <c r="B39" t="n">
-        <v>2372.03</v>
+        <v>2263.55</v>
       </c>
       <c r="C39" t="n">
-        <v>2412.75</v>
+        <v>2280.87</v>
       </c>
       <c r="D39" t="n">
-        <v>2370.37</v>
+        <v>2258.99</v>
       </c>
       <c r="E39" t="n">
-        <v>2400.18</v>
+        <v>2276.69</v>
       </c>
       <c r="F39" t="n">
-        <v>470.1515653</v>
+        <v>176.58492903</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45539.33333333334</v>
+        <v>45542.29166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>2400.43</v>
+        <v>2276.81</v>
       </c>
       <c r="C40" t="n">
-        <v>2408.78</v>
+        <v>2293.44</v>
       </c>
       <c r="D40" t="n">
-        <v>2395.13</v>
+        <v>2275.31</v>
       </c>
       <c r="E40" t="n">
-        <v>2402.12</v>
+        <v>2288.73</v>
       </c>
       <c r="F40" t="n">
-        <v>448.75111899</v>
+        <v>430.04334943</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45539.375</v>
+        <v>45542.33333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>2402.11</v>
+        <v>2288.72</v>
       </c>
       <c r="C41" t="n">
-        <v>2403.9</v>
+        <v>2297.68</v>
       </c>
       <c r="D41" t="n">
-        <v>2392.69</v>
+        <v>2275.92</v>
       </c>
       <c r="E41" t="n">
-        <v>2392.95</v>
+        <v>2295.28</v>
       </c>
       <c r="F41" t="n">
-        <v>371.45359911</v>
+        <v>234.6300542</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45539.41666666666</v>
+        <v>45542.375</v>
       </c>
       <c r="B42" t="n">
-        <v>2392.99</v>
+        <v>2295.59</v>
       </c>
       <c r="C42" t="n">
-        <v>2401.99</v>
+        <v>2295.95</v>
       </c>
       <c r="D42" t="n">
-        <v>2387.99</v>
+        <v>2278.42</v>
       </c>
       <c r="E42" t="n">
-        <v>2389.59</v>
+        <v>2282.27</v>
       </c>
       <c r="F42" t="n">
-        <v>281.68146375</v>
+        <v>59.25080438</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45539.45833333334</v>
+        <v>45542.41666666666</v>
       </c>
       <c r="B43" t="n">
-        <v>2389.7</v>
+        <v>2281.73</v>
       </c>
       <c r="C43" t="n">
-        <v>2401.8</v>
+        <v>2289.21</v>
       </c>
       <c r="D43" t="n">
-        <v>2388.88</v>
+        <v>2281.73</v>
       </c>
       <c r="E43" t="n">
-        <v>2400.2</v>
+        <v>2282.78</v>
       </c>
       <c r="F43" t="n">
-        <v>303.52616642</v>
+        <v>37.73972559</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45539.5</v>
+        <v>45542.45833333334</v>
       </c>
       <c r="B44" t="n">
-        <v>2400.21</v>
+        <v>2282.79</v>
       </c>
       <c r="C44" t="n">
-        <v>2412</v>
+        <v>2288.43</v>
       </c>
       <c r="D44" t="n">
-        <v>2396.66</v>
+        <v>2280.5</v>
       </c>
       <c r="E44" t="n">
-        <v>2405</v>
+        <v>2284.12</v>
       </c>
       <c r="F44" t="n">
-        <v>400.26090158</v>
+        <v>181.8776094</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45539.54166666666</v>
+        <v>45542.5</v>
       </c>
       <c r="B45" t="n">
-        <v>2403.27</v>
+        <v>2284.12</v>
       </c>
       <c r="C45" t="n">
-        <v>2408</v>
+        <v>2295.86</v>
       </c>
       <c r="D45" t="n">
-        <v>2394.8</v>
+        <v>2284.12</v>
       </c>
       <c r="E45" t="n">
-        <v>2403.44</v>
+        <v>2290.55</v>
       </c>
       <c r="F45" t="n">
-        <v>124.42729971</v>
+        <v>255.86659328</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45539.58333333334</v>
+        <v>45542.54166666666</v>
       </c>
       <c r="B46" t="n">
-        <v>2403.43</v>
+        <v>2290.55</v>
       </c>
       <c r="C46" t="n">
-        <v>2448.58</v>
+        <v>2297.61</v>
       </c>
       <c r="D46" t="n">
-        <v>2393.79</v>
+        <v>2282.92</v>
       </c>
       <c r="E46" t="n">
-        <v>2437.82</v>
+        <v>2291.42</v>
       </c>
       <c r="F46" t="n">
-        <v>707.0315574700001</v>
+        <v>77.38138637</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45539.625</v>
+        <v>45542.58333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>2438.28</v>
+        <v>2291.43</v>
       </c>
       <c r="C47" t="n">
-        <v>2457.17</v>
+        <v>2296.05</v>
       </c>
       <c r="D47" t="n">
-        <v>2426.54</v>
+        <v>2289.23</v>
       </c>
       <c r="E47" t="n">
-        <v>2456.06</v>
+        <v>2293.14</v>
       </c>
       <c r="F47" t="n">
-        <v>834.76307407</v>
+        <v>53.61004501</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45539.66666666666</v>
+        <v>45542.625</v>
       </c>
       <c r="B48" t="n">
-        <v>2455.7</v>
+        <v>2293.15</v>
       </c>
       <c r="C48" t="n">
-        <v>2488.55</v>
+        <v>2309.57</v>
       </c>
       <c r="D48" t="n">
-        <v>2450.83</v>
+        <v>2292</v>
       </c>
       <c r="E48" t="n">
-        <v>2477.07</v>
+        <v>2300.51</v>
       </c>
       <c r="F48" t="n">
-        <v>286.72200984</v>
+        <v>295.14253923</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45539.70833333334</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="B49" t="n">
-        <v>2477.52</v>
+        <v>2300.46</v>
       </c>
       <c r="C49" t="n">
-        <v>2477.81</v>
+        <v>2302.64</v>
       </c>
       <c r="D49" t="n">
-        <v>2448.86</v>
+        <v>2284.06</v>
       </c>
       <c r="E49" t="n">
-        <v>2450.37</v>
+        <v>2290.13</v>
       </c>
       <c r="F49" t="n">
-        <v>2827.12934868</v>
+        <v>116.08842429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45539.75</v>
+        <v>45542.70833333334</v>
       </c>
       <c r="B50" t="n">
-        <v>2449.19</v>
+        <v>2289.14</v>
       </c>
       <c r="C50" t="n">
-        <v>2455.67</v>
+        <v>2291.08</v>
       </c>
       <c r="D50" t="n">
-        <v>2440.59</v>
+        <v>2265.01</v>
       </c>
       <c r="E50" t="n">
-        <v>2442.23</v>
+        <v>2271.67</v>
       </c>
       <c r="F50" t="n">
-        <v>253.66930354</v>
+        <v>494.41138065</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45539.79166666666</v>
+        <v>45542.75</v>
       </c>
       <c r="B51" t="n">
-        <v>2442.23</v>
+        <v>2272.61</v>
       </c>
       <c r="C51" t="n">
-        <v>2454.3</v>
+        <v>2287.44</v>
       </c>
       <c r="D51" t="n">
-        <v>2440.92</v>
+        <v>2268.69</v>
       </c>
       <c r="E51" t="n">
-        <v>2451.93</v>
+        <v>2281.35</v>
       </c>
       <c r="F51" t="n">
-        <v>441.68879797</v>
+        <v>83.83117728000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45539.83333333334</v>
+        <v>45542.79166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>2451.93</v>
+        <v>2281.35</v>
       </c>
       <c r="C52" t="n">
-        <v>2457.4</v>
+        <v>2292.35</v>
       </c>
       <c r="D52" t="n">
-        <v>2446.27</v>
+        <v>2280.03</v>
       </c>
       <c r="E52" t="n">
-        <v>2455.69</v>
+        <v>2290.29</v>
       </c>
       <c r="F52" t="n">
-        <v>90.71147023</v>
+        <v>121.89588937</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45539.875</v>
+        <v>45542.83333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>2455.28</v>
+        <v>2290.29</v>
       </c>
       <c r="C53" t="n">
-        <v>2463.93</v>
+        <v>2290.29</v>
       </c>
       <c r="D53" t="n">
-        <v>2451.08</v>
+        <v>2272.33</v>
       </c>
       <c r="E53" t="n">
-        <v>2462.93</v>
+        <v>2272.65</v>
       </c>
       <c r="F53" t="n">
-        <v>243.88526675</v>
+        <v>140.77803771</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45539.91666666666</v>
+        <v>45542.875</v>
       </c>
       <c r="B54" t="n">
-        <v>2463.04</v>
+        <v>2271.54</v>
       </c>
       <c r="C54" t="n">
-        <v>2467.97</v>
+        <v>2272.44</v>
       </c>
       <c r="D54" t="n">
-        <v>2458.8</v>
+        <v>2259.48</v>
       </c>
       <c r="E54" t="n">
-        <v>2462.22</v>
+        <v>2264.27</v>
       </c>
       <c r="F54" t="n">
-        <v>80.17119932</v>
+        <v>144.66844278</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45539.95833333334</v>
+        <v>45542.91666666666</v>
       </c>
       <c r="B55" t="n">
-        <v>2462.22</v>
+        <v>2264.51</v>
       </c>
       <c r="C55" t="n">
-        <v>2464.18</v>
+        <v>2269.97</v>
       </c>
       <c r="D55" t="n">
-        <v>2445.37</v>
+        <v>2262.17</v>
       </c>
       <c r="E55" t="n">
-        <v>2450.08</v>
+        <v>2265.35</v>
       </c>
       <c r="F55" t="n">
-        <v>71.53226401000001</v>
+        <v>90.93648042</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45540</v>
+        <v>45542.95833333334</v>
       </c>
       <c r="B56" t="n">
-        <v>2450.4</v>
+        <v>2264.25</v>
       </c>
       <c r="C56" t="n">
-        <v>2461.85</v>
+        <v>2275.78</v>
       </c>
       <c r="D56" t="n">
-        <v>2448</v>
+        <v>2258.71</v>
       </c>
       <c r="E56" t="n">
-        <v>2455.01</v>
+        <v>2273.1</v>
       </c>
       <c r="F56" t="n">
-        <v>123.83480276</v>
+        <v>110.30583293</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45540.04166666666</v>
+        <v>45543</v>
       </c>
       <c r="B57" t="n">
-        <v>2455.01</v>
+        <v>2273.11</v>
       </c>
       <c r="C57" t="n">
-        <v>2465.48</v>
+        <v>2274.25</v>
       </c>
       <c r="D57" t="n">
-        <v>2452.43</v>
+        <v>2263.48</v>
       </c>
       <c r="E57" t="n">
-        <v>2459.85</v>
+        <v>2268.98</v>
       </c>
       <c r="F57" t="n">
-        <v>117.14823563</v>
+        <v>565.06845985</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45540.08333333334</v>
+        <v>45543.04166666666</v>
       </c>
       <c r="B58" t="n">
-        <v>2459.86</v>
+        <v>2268.91</v>
       </c>
       <c r="C58" t="n">
-        <v>2459.86</v>
+        <v>2279.76</v>
       </c>
       <c r="D58" t="n">
-        <v>2445.22</v>
+        <v>2268.87</v>
       </c>
       <c r="E58" t="n">
-        <v>2446.21</v>
+        <v>2279.75</v>
       </c>
       <c r="F58" t="n">
-        <v>407.652466</v>
+        <v>61.46513248</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45540.125</v>
+        <v>45543.08333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>2446.21</v>
+        <v>2279.76</v>
       </c>
       <c r="C59" t="n">
-        <v>2446.21</v>
+        <v>2287.78</v>
       </c>
       <c r="D59" t="n">
-        <v>2404.47</v>
+        <v>2279.43</v>
       </c>
       <c r="E59" t="n">
-        <v>2404.47</v>
+        <v>2283.49</v>
       </c>
       <c r="F59" t="n">
-        <v>492.15682274</v>
+        <v>262.30890358</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45540.16666666666</v>
+        <v>45543.125</v>
       </c>
       <c r="B60" t="n">
-        <v>2404.7</v>
+        <v>2283.93</v>
       </c>
       <c r="C60" t="n">
-        <v>2417.45</v>
+        <v>2286.58</v>
       </c>
       <c r="D60" t="n">
-        <v>2402.75</v>
+        <v>2280.25</v>
       </c>
       <c r="E60" t="n">
-        <v>2414.09</v>
+        <v>2285.11</v>
       </c>
       <c r="F60" t="n">
-        <v>97.77510399000001</v>
+        <v>82.83881843</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45540.20833333334</v>
+        <v>45543.16666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>2414.08</v>
+        <v>2285.11</v>
       </c>
       <c r="C61" t="n">
-        <v>2414.61</v>
+        <v>2302.76</v>
       </c>
       <c r="D61" t="n">
-        <v>2403.4</v>
+        <v>2285.1</v>
       </c>
       <c r="E61" t="n">
-        <v>2409.45</v>
+        <v>2299</v>
       </c>
       <c r="F61" t="n">
-        <v>154.69139597</v>
+        <v>84.99304845</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45540.25</v>
+        <v>45543.20833333334</v>
       </c>
       <c r="B62" t="n">
-        <v>2409.45</v>
+        <v>2299.01</v>
       </c>
       <c r="C62" t="n">
-        <v>2409.45</v>
+        <v>2299.01</v>
       </c>
       <c r="D62" t="n">
-        <v>2377.36</v>
+        <v>2283.98</v>
       </c>
       <c r="E62" t="n">
-        <v>2399.12</v>
+        <v>2284.88</v>
       </c>
       <c r="F62" t="n">
-        <v>253.14020419</v>
+        <v>218.53674292</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45540.29166666666</v>
+        <v>45543.25</v>
       </c>
       <c r="B63" t="n">
-        <v>2398.9</v>
+        <v>2284.88</v>
       </c>
       <c r="C63" t="n">
-        <v>2415.47</v>
+        <v>2287.75</v>
       </c>
       <c r="D63" t="n">
-        <v>2397.64</v>
+        <v>2284.73</v>
       </c>
       <c r="E63" t="n">
-        <v>2412.47</v>
+        <v>2286.5</v>
       </c>
       <c r="F63" t="n">
-        <v>377.65128033</v>
+        <v>104.31176556</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45540.33333333334</v>
+        <v>45543.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>2412.48</v>
+        <v>2286.5</v>
       </c>
       <c r="C64" t="n">
-        <v>2415.25</v>
+        <v>2298.94</v>
       </c>
       <c r="D64" t="n">
-        <v>2400.04</v>
+        <v>2286.49</v>
       </c>
       <c r="E64" t="n">
-        <v>2405.71</v>
+        <v>2295.26</v>
       </c>
       <c r="F64" t="n">
-        <v>154.56941378</v>
+        <v>35.55093087</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45540.375</v>
+        <v>45543.33333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>2405.72</v>
+        <v>2295.27</v>
       </c>
       <c r="C65" t="n">
-        <v>2405.72</v>
+        <v>2296.21</v>
       </c>
       <c r="D65" t="n">
-        <v>2386.59</v>
+        <v>2287.59</v>
       </c>
       <c r="E65" t="n">
-        <v>2391.31</v>
+        <v>2295.53</v>
       </c>
       <c r="F65" t="n">
-        <v>70.03372362</v>
+        <v>118.40255676</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45540.41666666666</v>
+        <v>45543.375</v>
       </c>
       <c r="B66" t="n">
-        <v>2391.32</v>
+        <v>2295.67</v>
       </c>
       <c r="C66" t="n">
-        <v>2393.89</v>
+        <v>2307.47</v>
       </c>
       <c r="D66" t="n">
-        <v>2383.46</v>
+        <v>2295.67</v>
       </c>
       <c r="E66" t="n">
-        <v>2392.01</v>
+        <v>2297.02</v>
       </c>
       <c r="F66" t="n">
-        <v>303.88408809</v>
+        <v>147.82008116</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45540.45833333334</v>
+        <v>45543.41666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>2392</v>
+        <v>2295.33</v>
       </c>
       <c r="C67" t="n">
-        <v>2395.12</v>
+        <v>2307.3</v>
       </c>
       <c r="D67" t="n">
-        <v>2387.11</v>
+        <v>2295.33</v>
       </c>
       <c r="E67" t="n">
-        <v>2388.85</v>
+        <v>2303</v>
       </c>
       <c r="F67" t="n">
-        <v>193.71810297</v>
+        <v>102.94293845</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45540.5</v>
+        <v>45543.45833333334</v>
       </c>
       <c r="B68" t="n">
-        <v>2388.86</v>
+        <v>2303</v>
       </c>
       <c r="C68" t="n">
-        <v>2397.13</v>
+        <v>2305.7</v>
       </c>
       <c r="D68" t="n">
-        <v>2378.12</v>
+        <v>2294.44</v>
       </c>
       <c r="E68" t="n">
-        <v>2390.87</v>
+        <v>2295.66</v>
       </c>
       <c r="F68" t="n">
-        <v>512.49793993</v>
+        <v>110.38867231</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45540.54166666666</v>
+        <v>45543.5</v>
       </c>
       <c r="B69" t="n">
-        <v>2390.87</v>
+        <v>2295.66</v>
       </c>
       <c r="C69" t="n">
-        <v>2412.15</v>
+        <v>2297</v>
       </c>
       <c r="D69" t="n">
-        <v>2387.24</v>
+        <v>2272.58</v>
       </c>
       <c r="E69" t="n">
-        <v>2400.16</v>
+        <v>2276.22</v>
       </c>
       <c r="F69" t="n">
-        <v>260.51828774</v>
+        <v>291.79458085</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45540.58333333334</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="B70" t="n">
-        <v>2400.35</v>
+        <v>2276.69</v>
       </c>
       <c r="C70" t="n">
-        <v>2413.05</v>
+        <v>2284.58</v>
       </c>
       <c r="D70" t="n">
-        <v>2364.88</v>
+        <v>2267.98</v>
       </c>
       <c r="E70" t="n">
-        <v>2375.52</v>
+        <v>2283.01</v>
       </c>
       <c r="F70" t="n">
-        <v>809.13428939</v>
+        <v>137.28058439</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45540.625</v>
+        <v>45543.58333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>2376.43</v>
+        <v>2283.01</v>
       </c>
       <c r="C71" t="n">
-        <v>2383.32</v>
+        <v>2283.5</v>
       </c>
       <c r="D71" t="n">
-        <v>2356.05</v>
+        <v>2267.98</v>
       </c>
       <c r="E71" t="n">
-        <v>2371.7</v>
+        <v>2268.32</v>
       </c>
       <c r="F71" t="n">
-        <v>855.84493732</v>
+        <v>392.93279861</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45540.66666666666</v>
+        <v>45543.625</v>
       </c>
       <c r="B72" t="n">
-        <v>2371.61</v>
+        <v>2269.37</v>
       </c>
       <c r="C72" t="n">
-        <v>2377.68</v>
+        <v>2270.49</v>
       </c>
       <c r="D72" t="n">
-        <v>2367.06</v>
+        <v>2242.87</v>
       </c>
       <c r="E72" t="n">
-        <v>2374.78</v>
+        <v>2244.14</v>
       </c>
       <c r="F72" t="n">
-        <v>321.48775839</v>
+        <v>326.11933942</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45540.70833333334</v>
+        <v>45543.66666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>2374.78</v>
+        <v>2244.14</v>
       </c>
       <c r="C73" t="n">
-        <v>2391.9</v>
+        <v>2259.63</v>
       </c>
       <c r="D73" t="n">
-        <v>2371.68</v>
+        <v>2243.48</v>
       </c>
       <c r="E73" t="n">
-        <v>2391.9</v>
+        <v>2250.81</v>
       </c>
       <c r="F73" t="n">
-        <v>332.67448795</v>
+        <v>504.6521973</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45540.75</v>
+        <v>45543.70833333334</v>
       </c>
       <c r="B74" t="n">
-        <v>2392.08</v>
+        <v>2250.81</v>
       </c>
       <c r="C74" t="n">
-        <v>2394.72</v>
+        <v>2282.1</v>
       </c>
       <c r="D74" t="n">
-        <v>2388.01</v>
+        <v>2250.8</v>
       </c>
       <c r="E74" t="n">
-        <v>2389.13</v>
+        <v>2282.1</v>
       </c>
       <c r="F74" t="n">
-        <v>103.5725822</v>
+        <v>642.50310633</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45540.79166666666</v>
+        <v>45543.75</v>
       </c>
       <c r="B75" t="n">
-        <v>2389.03</v>
+        <v>2282.3</v>
       </c>
       <c r="C75" t="n">
-        <v>2389.42</v>
+        <v>2282.3</v>
       </c>
       <c r="D75" t="n">
-        <v>2347.6</v>
+        <v>2272.74</v>
       </c>
       <c r="E75" t="n">
-        <v>2361.99</v>
+        <v>2275.84</v>
       </c>
       <c r="F75" t="n">
-        <v>742.49587375</v>
+        <v>116.07695598</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45540.83333333334</v>
+        <v>45543.79166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>2362</v>
+        <v>2275.84</v>
       </c>
       <c r="C76" t="n">
-        <v>2376.96</v>
+        <v>2277.09</v>
       </c>
       <c r="D76" t="n">
-        <v>2361.99</v>
+        <v>2270.09</v>
       </c>
       <c r="E76" t="n">
-        <v>2368.05</v>
+        <v>2271.7</v>
       </c>
       <c r="F76" t="n">
-        <v>516.89576491</v>
+        <v>70.05122054</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45540.875</v>
+        <v>45543.83333333334</v>
       </c>
       <c r="B77" t="n">
-        <v>2367.49</v>
+        <v>2271.7</v>
       </c>
       <c r="C77" t="n">
-        <v>2376.06</v>
+        <v>2276.03</v>
       </c>
       <c r="D77" t="n">
-        <v>2350.98</v>
+        <v>2267.25</v>
       </c>
       <c r="E77" t="n">
-        <v>2372.08</v>
+        <v>2275.13</v>
       </c>
       <c r="F77" t="n">
-        <v>816.82794625</v>
+        <v>91.57025381</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45540.91666666666</v>
+        <v>45543.875</v>
       </c>
       <c r="B78" t="n">
-        <v>2372.08</v>
+        <v>2275.12</v>
       </c>
       <c r="C78" t="n">
-        <v>2373.6</v>
+        <v>2288</v>
       </c>
       <c r="D78" t="n">
-        <v>2355.76</v>
+        <v>2275.12</v>
       </c>
       <c r="E78" t="n">
-        <v>2370.49</v>
+        <v>2280.4</v>
       </c>
       <c r="F78" t="n">
-        <v>220.41855846</v>
+        <v>271.27101995</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45540.95833333334</v>
+        <v>45543.91666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>2370.49</v>
+        <v>2280.4</v>
       </c>
       <c r="C79" t="n">
-        <v>2372.22</v>
+        <v>2333.02</v>
       </c>
       <c r="D79" t="n">
-        <v>2364.93</v>
+        <v>2280</v>
       </c>
       <c r="E79" t="n">
-        <v>2368.47</v>
+        <v>2293.64</v>
       </c>
       <c r="F79" t="n">
-        <v>98.13638895</v>
+        <v>877.77520724</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45541</v>
+        <v>45543.95833333334</v>
       </c>
       <c r="B80" t="n">
-        <v>2368.17</v>
+        <v>2294.03</v>
       </c>
       <c r="C80" t="n">
-        <v>2375.59</v>
+        <v>2304.76</v>
       </c>
       <c r="D80" t="n">
-        <v>2357.12</v>
+        <v>2289.83</v>
       </c>
       <c r="E80" t="n">
-        <v>2371.58</v>
+        <v>2296.92</v>
       </c>
       <c r="F80" t="n">
-        <v>177.77564688</v>
+        <v>145.39303666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45541.04166666666</v>
+        <v>45544</v>
       </c>
       <c r="B81" t="n">
-        <v>2371.59</v>
+        <v>2297.31</v>
       </c>
       <c r="C81" t="n">
-        <v>2397.95</v>
+        <v>2310.99</v>
       </c>
       <c r="D81" t="n">
-        <v>2364.26</v>
+        <v>2288.22</v>
       </c>
       <c r="E81" t="n">
-        <v>2390.76</v>
+        <v>2307.29</v>
       </c>
       <c r="F81" t="n">
-        <v>277.57343808</v>
+        <v>157.05954753</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45541.08333333334</v>
+        <v>45544.04166666666</v>
       </c>
       <c r="B82" t="n">
-        <v>2390.77</v>
+        <v>2307.29</v>
       </c>
       <c r="C82" t="n">
-        <v>2406.03</v>
+        <v>2318.46</v>
       </c>
       <c r="D82" t="n">
-        <v>2389.99</v>
+        <v>2297.93</v>
       </c>
       <c r="E82" t="n">
-        <v>2401.36</v>
+        <v>2310.69</v>
       </c>
       <c r="F82" t="n">
-        <v>130.2975789</v>
+        <v>148.25944536</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45541.125</v>
+        <v>45544.08333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>2401.36</v>
+        <v>2310.63</v>
       </c>
       <c r="C83" t="n">
-        <v>2402.09</v>
+        <v>2310.99</v>
       </c>
       <c r="D83" t="n">
-        <v>2391.79</v>
+        <v>2297.92</v>
       </c>
       <c r="E83" t="n">
-        <v>2393.47</v>
+        <v>2305.8</v>
       </c>
       <c r="F83" t="n">
-        <v>125.81183604</v>
+        <v>165.97836023</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45541.16666666666</v>
+        <v>45544.125</v>
       </c>
       <c r="B84" t="n">
-        <v>2392.33</v>
+        <v>2305.88</v>
       </c>
       <c r="C84" t="n">
-        <v>2395.62</v>
+        <v>2306.48</v>
       </c>
       <c r="D84" t="n">
-        <v>2385.75</v>
+        <v>2290.68</v>
       </c>
       <c r="E84" t="n">
-        <v>2386.92</v>
+        <v>2303.86</v>
       </c>
       <c r="F84" t="n">
-        <v>62.15647969</v>
+        <v>239.37065156</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45541.20833333334</v>
+        <v>45544.16666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>2386.92</v>
+        <v>2303.86</v>
       </c>
       <c r="C85" t="n">
-        <v>2388.76</v>
+        <v>2305.98</v>
       </c>
       <c r="D85" t="n">
-        <v>2376.38</v>
+        <v>2295.49</v>
       </c>
       <c r="E85" t="n">
-        <v>2383.93</v>
+        <v>2297.01</v>
       </c>
       <c r="F85" t="n">
-        <v>101.75248538</v>
+        <v>72.29565377999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45541.25</v>
+        <v>45544.20833333334</v>
       </c>
       <c r="B86" t="n">
-        <v>2383.93</v>
+        <v>2297</v>
       </c>
       <c r="C86" t="n">
-        <v>2383.95</v>
+        <v>2297.79</v>
       </c>
       <c r="D86" t="n">
-        <v>2373</v>
+        <v>2284.4</v>
       </c>
       <c r="E86" t="n">
-        <v>2378.98</v>
+        <v>2288.19</v>
       </c>
       <c r="F86" t="n">
-        <v>63.40639599</v>
+        <v>122.98290107</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45541.29166666666</v>
+        <v>45544.25</v>
       </c>
       <c r="B87" t="n">
-        <v>2378.98</v>
+        <v>2288.18</v>
       </c>
       <c r="C87" t="n">
-        <v>2378.98</v>
+        <v>2304.65</v>
       </c>
       <c r="D87" t="n">
-        <v>2323</v>
+        <v>2287.18</v>
       </c>
       <c r="E87" t="n">
-        <v>2345.16</v>
+        <v>2304.65</v>
       </c>
       <c r="F87" t="n">
-        <v>983.87107455</v>
+        <v>373.38661438</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45541.33333333334</v>
+        <v>45544.29166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>2345.14</v>
+        <v>2304.95</v>
       </c>
       <c r="C88" t="n">
-        <v>2356.49</v>
+        <v>2315.21</v>
       </c>
       <c r="D88" t="n">
-        <v>2338.3</v>
+        <v>2299.4</v>
       </c>
       <c r="E88" t="n">
-        <v>2349.72</v>
+        <v>2313.75</v>
       </c>
       <c r="F88" t="n">
-        <v>199.0108345</v>
+        <v>156.95846811</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45541.375</v>
+        <v>45544.33333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>2348.95</v>
+        <v>2313.63</v>
       </c>
       <c r="C89" t="n">
-        <v>2357.1</v>
+        <v>2328.37</v>
       </c>
       <c r="D89" t="n">
-        <v>2345.86</v>
+        <v>2313.63</v>
       </c>
       <c r="E89" t="n">
-        <v>2357.09</v>
+        <v>2324.98</v>
       </c>
       <c r="F89" t="n">
-        <v>114.06879485</v>
+        <v>462.08099243</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45541.41666666666</v>
+        <v>45544.375</v>
       </c>
       <c r="B90" t="n">
-        <v>2357.41</v>
+        <v>2324.99</v>
       </c>
       <c r="C90" t="n">
-        <v>2375.59</v>
+        <v>2337.09</v>
       </c>
       <c r="D90" t="n">
-        <v>2355.91</v>
+        <v>2315.78</v>
       </c>
       <c r="E90" t="n">
-        <v>2367.37</v>
+        <v>2317.22</v>
       </c>
       <c r="F90" t="n">
-        <v>151.11515649</v>
+        <v>146.39186484</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45541.45833333334</v>
+        <v>45544.41666666666</v>
       </c>
       <c r="B91" t="n">
-        <v>2367.97</v>
+        <v>2317.22</v>
       </c>
       <c r="C91" t="n">
-        <v>2378.76</v>
+        <v>2324.69</v>
       </c>
       <c r="D91" t="n">
-        <v>2365.45</v>
+        <v>2312.99</v>
       </c>
       <c r="E91" t="n">
-        <v>2372.53</v>
+        <v>2319.44</v>
       </c>
       <c r="F91" t="n">
-        <v>88.81018027</v>
+        <v>310.33041222</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45541.5</v>
+        <v>45544.45833333334</v>
       </c>
       <c r="B92" t="n">
-        <v>2372.53</v>
+        <v>2320.09</v>
       </c>
       <c r="C92" t="n">
-        <v>2406.23</v>
+        <v>2320.53</v>
       </c>
       <c r="D92" t="n">
-        <v>2358.6</v>
+        <v>2312.61</v>
       </c>
       <c r="E92" t="n">
-        <v>2399.92</v>
+        <v>2314.12</v>
       </c>
       <c r="F92" t="n">
-        <v>1307.90948022</v>
+        <v>135.36671154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45541.54166666666</v>
+        <v>45544.5</v>
       </c>
       <c r="B93" t="n">
-        <v>2399.91</v>
+        <v>2314.12</v>
       </c>
       <c r="C93" t="n">
-        <v>2399.92</v>
+        <v>2314.99</v>
       </c>
       <c r="D93" t="n">
-        <v>2358.21</v>
+        <v>2300.81</v>
       </c>
       <c r="E93" t="n">
-        <v>2363.47</v>
+        <v>2312.78</v>
       </c>
       <c r="F93" t="n">
-        <v>801.95164553</v>
+        <v>596.8403416800001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45541.58333333334</v>
+        <v>45544.54166666666</v>
       </c>
       <c r="B94" t="n">
-        <v>2363.27</v>
+        <v>2313.04</v>
       </c>
       <c r="C94" t="n">
-        <v>2365.76</v>
+        <v>2324.67</v>
       </c>
       <c r="D94" t="n">
-        <v>2312.09</v>
+        <v>2307.1</v>
       </c>
       <c r="E94" t="n">
-        <v>2326.96</v>
+        <v>2322.62</v>
       </c>
       <c r="F94" t="n">
-        <v>1394.53676316</v>
+        <v>303.24295226</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45541.625</v>
+        <v>45544.58333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>2326.3</v>
+        <v>2320.82</v>
       </c>
       <c r="C95" t="n">
-        <v>2337.1</v>
+        <v>2321.64</v>
       </c>
       <c r="D95" t="n">
-        <v>2263.74</v>
+        <v>2278.11</v>
       </c>
       <c r="E95" t="n">
-        <v>2288.19</v>
+        <v>2280.08</v>
       </c>
       <c r="F95" t="n">
-        <v>6219.49262227</v>
+        <v>570.6574124700001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45541.66666666666</v>
+        <v>45544.625</v>
       </c>
       <c r="B96" t="n">
-        <v>2288.19</v>
+        <v>2280.09</v>
       </c>
       <c r="C96" t="n">
-        <v>2290.31</v>
+        <v>2295.88</v>
       </c>
       <c r="D96" t="n">
-        <v>2250.8</v>
+        <v>2274.57</v>
       </c>
       <c r="E96" t="n">
-        <v>2265.2</v>
+        <v>2292.27</v>
       </c>
       <c r="F96" t="n">
-        <v>1522.16232375</v>
+        <v>386.0272901</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45541.70833333334</v>
+        <v>45544.66666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>2264.96</v>
+        <v>2292.27</v>
       </c>
       <c r="C97" t="n">
-        <v>2274.53</v>
+        <v>2347</v>
       </c>
       <c r="D97" t="n">
-        <v>2225.4</v>
+        <v>2291.75</v>
       </c>
       <c r="E97" t="n">
-        <v>2244.8</v>
+        <v>2342.19</v>
       </c>
       <c r="F97" t="n">
-        <v>2318.2030541</v>
+        <v>961.8852289599999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45541.75</v>
+        <v>45544.70833333334</v>
       </c>
       <c r="B98" t="n">
-        <v>2244.81</v>
+        <v>2342.06</v>
       </c>
       <c r="C98" t="n">
-        <v>2245.96</v>
+        <v>2353.38</v>
       </c>
       <c r="D98" t="n">
-        <v>2210.5</v>
+        <v>2335.75</v>
       </c>
       <c r="E98" t="n">
-        <v>2210.5</v>
+        <v>2343.53</v>
       </c>
       <c r="F98" t="n">
-        <v>1052.1124154</v>
+        <v>529.67984893</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45541.79166666666</v>
+        <v>45544.75</v>
       </c>
       <c r="B99" t="n">
-        <v>2210.01</v>
+        <v>2342.07</v>
       </c>
       <c r="C99" t="n">
-        <v>2241.52</v>
+        <v>2343.98</v>
       </c>
       <c r="D99" t="n">
-        <v>2207.01</v>
+        <v>2325.85</v>
       </c>
       <c r="E99" t="n">
-        <v>2220.74</v>
+        <v>2332.27</v>
       </c>
       <c r="F99" t="n">
-        <v>2247.64066529</v>
+        <v>1658.44261462</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45541.83333333334</v>
+        <v>45544.79166666666</v>
       </c>
       <c r="B100" t="n">
-        <v>2220.02</v>
+        <v>2332.27</v>
       </c>
       <c r="C100" t="n">
-        <v>2226.88</v>
+        <v>2352.78</v>
       </c>
       <c r="D100" t="n">
-        <v>2167.3</v>
+        <v>2328.75</v>
       </c>
       <c r="E100" t="n">
-        <v>2169.17</v>
+        <v>2350.87</v>
       </c>
       <c r="F100" t="n">
-        <v>3361.74044142</v>
+        <v>403.72624579</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45541.875</v>
+        <v>45544.83333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>2168.49</v>
+        <v>2350.96</v>
       </c>
       <c r="C101" t="n">
-        <v>2218.3</v>
+        <v>2350.99</v>
       </c>
       <c r="D101" t="n">
-        <v>2150</v>
+        <v>2337.62</v>
       </c>
       <c r="E101" t="n">
-        <v>2217.69</v>
+        <v>2340.69</v>
       </c>
       <c r="F101" t="n">
-        <v>1346.31685158</v>
+        <v>277.19312936</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45541.91666666666</v>
+        <v>45544.875</v>
       </c>
       <c r="B102" t="n">
-        <v>2217.68</v>
+        <v>2340.7</v>
       </c>
       <c r="C102" t="n">
-        <v>2221.27</v>
+        <v>2380</v>
       </c>
       <c r="D102" t="n">
-        <v>2206.62</v>
+        <v>2340.69</v>
       </c>
       <c r="E102" t="n">
-        <v>2208.83</v>
+        <v>2368.99</v>
       </c>
       <c r="F102" t="n">
-        <v>601.93297089</v>
+        <v>1428.21587176</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45541.95833333334</v>
+        <v>45544.91666666666</v>
       </c>
       <c r="B103" t="n">
-        <v>2208.8</v>
+        <v>2369.1</v>
       </c>
       <c r="C103" t="n">
-        <v>2224.6</v>
+        <v>2375</v>
       </c>
       <c r="D103" t="n">
-        <v>2208.8</v>
+        <v>2356.27</v>
       </c>
       <c r="E103" t="n">
-        <v>2224.45</v>
+        <v>2357.5</v>
       </c>
       <c r="F103" t="n">
-        <v>144.09728079</v>
+        <v>224.6645733</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45542</v>
+        <v>45544.95833333334</v>
       </c>
       <c r="B104" t="n">
-        <v>2224.45</v>
+        <v>2357.51</v>
       </c>
       <c r="C104" t="n">
-        <v>2241.3</v>
+        <v>2366.33</v>
       </c>
       <c r="D104" t="n">
-        <v>2224.44</v>
+        <v>2356.17</v>
       </c>
       <c r="E104" t="n">
-        <v>2233.5</v>
+        <v>2359.08</v>
       </c>
       <c r="F104" t="n">
-        <v>3415.27140841</v>
+        <v>335.20738338</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45542.04166666666</v>
+        <v>45545</v>
       </c>
       <c r="B105" t="n">
-        <v>2233.51</v>
+        <v>2359.08</v>
       </c>
       <c r="C105" t="n">
-        <v>2236.17</v>
+        <v>2359.34</v>
       </c>
       <c r="D105" t="n">
-        <v>2222</v>
+        <v>2341.36</v>
       </c>
       <c r="E105" t="n">
-        <v>2224.98</v>
+        <v>2350.42</v>
       </c>
       <c r="F105" t="n">
-        <v>2034.05306651</v>
+        <v>150.34751304</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45542.08333333334</v>
+        <v>45545.04166666666</v>
       </c>
       <c r="B106" t="n">
-        <v>2224.97</v>
+        <v>2350.43</v>
       </c>
       <c r="C106" t="n">
-        <v>2239.15</v>
+        <v>2350.43</v>
       </c>
       <c r="D106" t="n">
-        <v>2223.23</v>
+        <v>2335.94</v>
       </c>
       <c r="E106" t="n">
-        <v>2232.76</v>
+        <v>2341.67</v>
       </c>
       <c r="F106" t="n">
-        <v>899.48971262</v>
+        <v>396.55419952</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45542.125</v>
+        <v>45545.08333333334</v>
       </c>
       <c r="B107" t="n">
-        <v>2232.87</v>
+        <v>2341.67</v>
       </c>
       <c r="C107" t="n">
-        <v>2240.42</v>
+        <v>2347.5</v>
       </c>
       <c r="D107" t="n">
-        <v>2232.67</v>
+        <v>2338.41</v>
       </c>
       <c r="E107" t="n">
-        <v>2238.02</v>
+        <v>2346.08</v>
       </c>
       <c r="F107" t="n">
-        <v>175.73439984</v>
+        <v>84.36695963</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45542.16666666666</v>
+        <v>45545.125</v>
       </c>
       <c r="B108" t="n">
-        <v>2238.02</v>
+        <v>2346.07</v>
       </c>
       <c r="C108" t="n">
-        <v>2249.97</v>
+        <v>2346.18</v>
       </c>
       <c r="D108" t="n">
-        <v>2238.01</v>
+        <v>2340.9</v>
       </c>
       <c r="E108" t="n">
-        <v>2249.95</v>
+        <v>2340.91</v>
       </c>
       <c r="F108" t="n">
-        <v>104.09019889</v>
+        <v>97.76604278000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45542.20833333334</v>
+        <v>45545.16666666666</v>
       </c>
       <c r="B109" t="n">
-        <v>2249.98</v>
+        <v>2340.91</v>
       </c>
       <c r="C109" t="n">
-        <v>2274.19</v>
+        <v>2345.08</v>
       </c>
       <c r="D109" t="n">
-        <v>2246.48</v>
+        <v>2330.31</v>
       </c>
       <c r="E109" t="n">
-        <v>2262.74</v>
+        <v>2336.82</v>
       </c>
       <c r="F109" t="n">
-        <v>424.6422858</v>
+        <v>463.83700906</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45542.25</v>
+        <v>45545.20833333334</v>
       </c>
       <c r="B110" t="n">
-        <v>2263.55</v>
+        <v>2336.82</v>
       </c>
       <c r="C110" t="n">
-        <v>2280.87</v>
+        <v>2350.15</v>
       </c>
       <c r="D110" t="n">
-        <v>2258.99</v>
+        <v>2336.81</v>
       </c>
       <c r="E110" t="n">
-        <v>2276.69</v>
+        <v>2350.15</v>
       </c>
       <c r="F110" t="n">
-        <v>176.58492903</v>
+        <v>135.27950668</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45542.29166666666</v>
+        <v>45545.25</v>
       </c>
       <c r="B111" t="n">
-        <v>2276.81</v>
+        <v>2348.43</v>
       </c>
       <c r="C111" t="n">
-        <v>2293.44</v>
+        <v>2348.44</v>
       </c>
       <c r="D111" t="n">
-        <v>2275.31</v>
+        <v>2341.38</v>
       </c>
       <c r="E111" t="n">
-        <v>2288.73</v>
+        <v>2343.32</v>
       </c>
       <c r="F111" t="n">
-        <v>430.04334943</v>
+        <v>73.28418104000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45542.33333333334</v>
+        <v>45545.29166666666</v>
       </c>
       <c r="B112" t="n">
-        <v>2288.72</v>
+        <v>2343.32</v>
       </c>
       <c r="C112" t="n">
-        <v>2297.68</v>
+        <v>2366.27</v>
       </c>
       <c r="D112" t="n">
-        <v>2275.92</v>
+        <v>2342.05</v>
       </c>
       <c r="E112" t="n">
-        <v>2295.28</v>
+        <v>2361.63</v>
       </c>
       <c r="F112" t="n">
-        <v>234.6300542</v>
+        <v>150.5314959</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45542.375</v>
+        <v>45545.33333333334</v>
       </c>
       <c r="B113" t="n">
-        <v>2295.59</v>
+        <v>2361.63</v>
       </c>
       <c r="C113" t="n">
-        <v>2295.95</v>
+        <v>2370.44</v>
       </c>
       <c r="D113" t="n">
-        <v>2278.42</v>
+        <v>2352.79</v>
       </c>
       <c r="E113" t="n">
-        <v>2282.27</v>
+        <v>2353.86</v>
       </c>
       <c r="F113" t="n">
-        <v>59.25080438</v>
+        <v>171.41241691</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45542.41666666666</v>
+        <v>45545.375</v>
       </c>
       <c r="B114" t="n">
-        <v>2281.73</v>
+        <v>2353.86</v>
       </c>
       <c r="C114" t="n">
-        <v>2289.21</v>
+        <v>2354.9</v>
       </c>
       <c r="D114" t="n">
-        <v>2281.73</v>
+        <v>2343.91</v>
       </c>
       <c r="E114" t="n">
-        <v>2282.78</v>
+        <v>2349.71</v>
       </c>
       <c r="F114" t="n">
-        <v>37.73972559</v>
+        <v>305.49831524</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45542.45833333334</v>
+        <v>45545.41666666666</v>
       </c>
       <c r="B115" t="n">
-        <v>2282.79</v>
+        <v>2349.75</v>
       </c>
       <c r="C115" t="n">
-        <v>2288.43</v>
+        <v>2350.89</v>
       </c>
       <c r="D115" t="n">
-        <v>2280.5</v>
+        <v>2339.9</v>
       </c>
       <c r="E115" t="n">
-        <v>2284.12</v>
+        <v>2350.55</v>
       </c>
       <c r="F115" t="n">
-        <v>181.8776094</v>
+        <v>98.21539136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45542.5</v>
+        <v>45545.45833333334</v>
       </c>
       <c r="B116" t="n">
-        <v>2284.12</v>
+        <v>2350.71</v>
       </c>
       <c r="C116" t="n">
-        <v>2295.86</v>
+        <v>2352.42</v>
       </c>
       <c r="D116" t="n">
-        <v>2284.12</v>
+        <v>2344.83</v>
       </c>
       <c r="E116" t="n">
-        <v>2290.55</v>
+        <v>2352.34</v>
       </c>
       <c r="F116" t="n">
-        <v>255.86659328</v>
+        <v>67.47991395</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45542.54166666666</v>
+        <v>45545.5</v>
       </c>
       <c r="B117" t="n">
-        <v>2290.55</v>
+        <v>2352.34</v>
       </c>
       <c r="C117" t="n">
-        <v>2297.61</v>
+        <v>2361.9</v>
       </c>
       <c r="D117" t="n">
-        <v>2282.92</v>
+        <v>2350</v>
       </c>
       <c r="E117" t="n">
-        <v>2291.42</v>
+        <v>2350.54</v>
       </c>
       <c r="F117" t="n">
-        <v>77.38138637</v>
+        <v>139.56501539</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45542.58333333334</v>
+        <v>45545.54166666666</v>
       </c>
       <c r="B118" t="n">
-        <v>2291.43</v>
+        <v>2350.02</v>
       </c>
       <c r="C118" t="n">
-        <v>2296.05</v>
+        <v>2350.02</v>
       </c>
       <c r="D118" t="n">
-        <v>2289.23</v>
+        <v>2330.18</v>
       </c>
       <c r="E118" t="n">
-        <v>2293.14</v>
+        <v>2330.18</v>
       </c>
       <c r="F118" t="n">
-        <v>53.61004501</v>
+        <v>249.49713202</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45542.625</v>
+        <v>45545.58333333334</v>
       </c>
       <c r="B119" t="n">
-        <v>2293.15</v>
+        <v>2330.17</v>
       </c>
       <c r="C119" t="n">
-        <v>2309.57</v>
+        <v>2345.05</v>
       </c>
       <c r="D119" t="n">
-        <v>2292</v>
+        <v>2321.78</v>
       </c>
       <c r="E119" t="n">
-        <v>2300.51</v>
+        <v>2335.81</v>
       </c>
       <c r="F119" t="n">
-        <v>295.14253923</v>
+        <v>208.03877785</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45542.66666666666</v>
+        <v>45545.625</v>
       </c>
       <c r="B120" t="n">
-        <v>2300.46</v>
+        <v>2335.82</v>
       </c>
       <c r="C120" t="n">
-        <v>2302.64</v>
+        <v>2351.56</v>
       </c>
       <c r="D120" t="n">
-        <v>2284.06</v>
+        <v>2324.87</v>
       </c>
       <c r="E120" t="n">
-        <v>2290.13</v>
+        <v>2324.87</v>
       </c>
       <c r="F120" t="n">
-        <v>116.08842429</v>
+        <v>201.43028651</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45542.70833333334</v>
+        <v>45545.66666666666</v>
       </c>
       <c r="B121" t="n">
-        <v>2289.14</v>
+        <v>2325.34</v>
       </c>
       <c r="C121" t="n">
-        <v>2291.08</v>
+        <v>2342.57</v>
       </c>
       <c r="D121" t="n">
-        <v>2265.01</v>
+        <v>2325.33</v>
       </c>
       <c r="E121" t="n">
-        <v>2271.67</v>
+        <v>2337.76</v>
       </c>
       <c r="F121" t="n">
-        <v>494.41138065</v>
+        <v>228.90838905</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45542.75</v>
+        <v>45545.70833333334</v>
       </c>
       <c r="B122" t="n">
-        <v>2272.61</v>
+        <v>2337.76</v>
       </c>
       <c r="C122" t="n">
-        <v>2287.44</v>
+        <v>2362.03</v>
       </c>
       <c r="D122" t="n">
-        <v>2268.69</v>
+        <v>2337.76</v>
       </c>
       <c r="E122" t="n">
-        <v>2281.35</v>
+        <v>2350</v>
       </c>
       <c r="F122" t="n">
-        <v>83.83117728000001</v>
+        <v>1149.89215059</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45542.79166666666</v>
+        <v>45545.75</v>
       </c>
       <c r="B123" t="n">
-        <v>2281.35</v>
+        <v>2350.01</v>
       </c>
       <c r="C123" t="n">
-        <v>2292.35</v>
+        <v>2389.72</v>
       </c>
       <c r="D123" t="n">
-        <v>2280.03</v>
+        <v>2349.39</v>
       </c>
       <c r="E123" t="n">
-        <v>2290.29</v>
+        <v>2368.1</v>
       </c>
       <c r="F123" t="n">
-        <v>121.89588937</v>
+        <v>480.98663313</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45542.83333333334</v>
+        <v>45545.79166666666</v>
       </c>
       <c r="B124" t="n">
-        <v>2290.29</v>
+        <v>2369.03</v>
       </c>
       <c r="C124" t="n">
-        <v>2290.29</v>
+        <v>2384.45</v>
       </c>
       <c r="D124" t="n">
-        <v>2272.33</v>
+        <v>2359.1</v>
       </c>
       <c r="E124" t="n">
-        <v>2272.65</v>
+        <v>2382.98</v>
       </c>
       <c r="F124" t="n">
-        <v>140.77803771</v>
+        <v>232.47410508</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45542.875</v>
+        <v>45545.83333333334</v>
       </c>
       <c r="B125" t="n">
-        <v>2271.54</v>
+        <v>2381.41</v>
       </c>
       <c r="C125" t="n">
-        <v>2272.44</v>
+        <v>2393.1</v>
       </c>
       <c r="D125" t="n">
-        <v>2259.48</v>
+        <v>2376.39</v>
       </c>
       <c r="E125" t="n">
-        <v>2264.27</v>
+        <v>2378.06</v>
       </c>
       <c r="F125" t="n">
-        <v>144.66844278</v>
+        <v>376.92655791</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45542.91666666666</v>
+        <v>45545.875</v>
       </c>
       <c r="B126" t="n">
-        <v>2264.51</v>
+        <v>2378.32</v>
       </c>
       <c r="C126" t="n">
-        <v>2269.97</v>
+        <v>2382.57</v>
       </c>
       <c r="D126" t="n">
-        <v>2262.17</v>
+        <v>2372.48</v>
       </c>
       <c r="E126" t="n">
-        <v>2265.35</v>
+        <v>2372.99</v>
       </c>
       <c r="F126" t="n">
-        <v>90.93648042</v>
+        <v>499.5137583</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45542.95833333334</v>
+        <v>45545.91666666666</v>
       </c>
       <c r="B127" t="n">
-        <v>2264.25</v>
+        <v>2372.99</v>
       </c>
       <c r="C127" t="n">
-        <v>2275.78</v>
+        <v>2389</v>
       </c>
       <c r="D127" t="n">
-        <v>2258.71</v>
+        <v>2372.28</v>
       </c>
       <c r="E127" t="n">
-        <v>2273.1</v>
+        <v>2389</v>
       </c>
       <c r="F127" t="n">
-        <v>110.30583293</v>
+        <v>177.85805645</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45543</v>
+        <v>45545.95833333334</v>
       </c>
       <c r="B128" t="n">
-        <v>2273.11</v>
+        <v>2388.99</v>
       </c>
       <c r="C128" t="n">
-        <v>2274.25</v>
+        <v>2398</v>
       </c>
       <c r="D128" t="n">
-        <v>2263.48</v>
+        <v>2385.14</v>
       </c>
       <c r="E128" t="n">
-        <v>2268.98</v>
+        <v>2387.78</v>
       </c>
       <c r="F128" t="n">
-        <v>565.06845985</v>
+        <v>539.51512108</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45543.04166666666</v>
+        <v>45546</v>
       </c>
       <c r="B129" t="n">
-        <v>2268.91</v>
+        <v>2387.78</v>
       </c>
       <c r="C129" t="n">
-        <v>2279.76</v>
+        <v>2389.3</v>
       </c>
       <c r="D129" t="n">
-        <v>2268.87</v>
+        <v>2375.41</v>
       </c>
       <c r="E129" t="n">
-        <v>2279.75</v>
+        <v>2378.05</v>
       </c>
       <c r="F129" t="n">
-        <v>61.46513248</v>
+        <v>258.23739072</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45543.08333333334</v>
+        <v>45546.04166666666</v>
       </c>
       <c r="B130" t="n">
-        <v>2279.76</v>
+        <v>2378.05</v>
       </c>
       <c r="C130" t="n">
-        <v>2287.78</v>
+        <v>2379.69</v>
       </c>
       <c r="D130" t="n">
-        <v>2279.43</v>
+        <v>2340.07</v>
       </c>
       <c r="E130" t="n">
-        <v>2283.49</v>
+        <v>2349.58</v>
       </c>
       <c r="F130" t="n">
-        <v>262.30890358</v>
+        <v>1036.27915796</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45543.125</v>
+        <v>45546.08333333334</v>
       </c>
       <c r="B131" t="n">
-        <v>2283.93</v>
+        <v>2349.99</v>
       </c>
       <c r="C131" t="n">
-        <v>2286.58</v>
+        <v>2369.24</v>
       </c>
       <c r="D131" t="n">
-        <v>2280.25</v>
+        <v>2349.98</v>
       </c>
       <c r="E131" t="n">
-        <v>2285.11</v>
+        <v>2353.99</v>
       </c>
       <c r="F131" t="n">
-        <v>82.83881843</v>
+        <v>324.0102691</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45543.16666666666</v>
+        <v>45546.125</v>
       </c>
       <c r="B132" t="n">
-        <v>2285.11</v>
+        <v>2353.89</v>
       </c>
       <c r="C132" t="n">
-        <v>2302.76</v>
+        <v>2353.89</v>
       </c>
       <c r="D132" t="n">
-        <v>2285.1</v>
+        <v>2344.88</v>
       </c>
       <c r="E132" t="n">
-        <v>2299</v>
+        <v>2347.86</v>
       </c>
       <c r="F132" t="n">
-        <v>84.99304845</v>
+        <v>274.60360687</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45543.20833333334</v>
+        <v>45546.16666666666</v>
       </c>
       <c r="B133" t="n">
-        <v>2299.01</v>
+        <v>2347.99</v>
       </c>
       <c r="C133" t="n">
-        <v>2299.01</v>
+        <v>2347.99</v>
       </c>
       <c r="D133" t="n">
-        <v>2283.98</v>
+        <v>2320</v>
       </c>
       <c r="E133" t="n">
-        <v>2284.88</v>
+        <v>2333.15</v>
       </c>
       <c r="F133" t="n">
-        <v>218.53674292</v>
+        <v>180.40344391</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45543.25</v>
+        <v>45546.20833333334</v>
       </c>
       <c r="B134" t="n">
-        <v>2284.88</v>
+        <v>2333.14</v>
       </c>
       <c r="C134" t="n">
-        <v>2287.75</v>
+        <v>2333.14</v>
       </c>
       <c r="D134" t="n">
-        <v>2284.73</v>
+        <v>2320</v>
       </c>
       <c r="E134" t="n">
-        <v>2286.5</v>
+        <v>2325.55</v>
       </c>
       <c r="F134" t="n">
-        <v>104.31176556</v>
+        <v>146.57346792</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45543.29166666666</v>
+        <v>45546.25</v>
       </c>
       <c r="B135" t="n">
-        <v>2286.5</v>
+        <v>2325.98</v>
       </c>
       <c r="C135" t="n">
-        <v>2298.94</v>
+        <v>2337.53</v>
       </c>
       <c r="D135" t="n">
-        <v>2286.49</v>
+        <v>2323.37</v>
       </c>
       <c r="E135" t="n">
-        <v>2295.26</v>
+        <v>2331.76</v>
       </c>
       <c r="F135" t="n">
-        <v>35.55093087</v>
+        <v>131.1979502</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45543.33333333334</v>
+        <v>45546.29166666666</v>
       </c>
       <c r="B136" t="n">
-        <v>2295.27</v>
+        <v>2330.98</v>
       </c>
       <c r="C136" t="n">
-        <v>2296.21</v>
+        <v>2341.82</v>
       </c>
       <c r="D136" t="n">
-        <v>2287.59</v>
+        <v>2330.97</v>
       </c>
       <c r="E136" t="n">
-        <v>2295.53</v>
+        <v>2341.82</v>
       </c>
       <c r="F136" t="n">
-        <v>118.40255676</v>
+        <v>331.63141395</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45543.375</v>
+        <v>45546.33333333334</v>
       </c>
       <c r="B137" t="n">
-        <v>2295.67</v>
+        <v>2341.68</v>
       </c>
       <c r="C137" t="n">
-        <v>2307.47</v>
+        <v>2341.68</v>
       </c>
       <c r="D137" t="n">
-        <v>2295.67</v>
+        <v>2322.56</v>
       </c>
       <c r="E137" t="n">
-        <v>2297.02</v>
+        <v>2323.18</v>
       </c>
       <c r="F137" t="n">
-        <v>147.82008116</v>
+        <v>240.70135282</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45543.41666666666</v>
+        <v>45546.375</v>
       </c>
       <c r="B138" t="n">
-        <v>2295.33</v>
+        <v>2323.16</v>
       </c>
       <c r="C138" t="n">
-        <v>2307.3</v>
+        <v>2334.5</v>
       </c>
       <c r="D138" t="n">
-        <v>2295.33</v>
+        <v>2321.99</v>
       </c>
       <c r="E138" t="n">
-        <v>2303</v>
+        <v>2329.02</v>
       </c>
       <c r="F138" t="n">
-        <v>102.94293845</v>
+        <v>170.20936213</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45543.45833333334</v>
+        <v>45546.41666666666</v>
       </c>
       <c r="B139" t="n">
-        <v>2303</v>
+        <v>2329.02</v>
       </c>
       <c r="C139" t="n">
-        <v>2305.7</v>
+        <v>2329.99</v>
       </c>
       <c r="D139" t="n">
-        <v>2294.44</v>
+        <v>2309</v>
       </c>
       <c r="E139" t="n">
-        <v>2295.66</v>
+        <v>2314.48</v>
       </c>
       <c r="F139" t="n">
-        <v>110.38867231</v>
+        <v>341.51958365</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45543.5</v>
+        <v>45546.45833333334</v>
       </c>
       <c r="B140" t="n">
-        <v>2295.66</v>
+        <v>2314.48</v>
       </c>
       <c r="C140" t="n">
-        <v>2297</v>
+        <v>2329.76</v>
       </c>
       <c r="D140" t="n">
-        <v>2272.58</v>
+        <v>2314.48</v>
       </c>
       <c r="E140" t="n">
-        <v>2276.22</v>
+        <v>2325.35</v>
       </c>
       <c r="F140" t="n">
-        <v>291.79458085</v>
+        <v>291.68583988</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45543.54166666666</v>
+        <v>45546.5</v>
       </c>
       <c r="B141" t="n">
-        <v>2276.69</v>
+        <v>2325.35</v>
       </c>
       <c r="C141" t="n">
-        <v>2284.58</v>
+        <v>2337.23</v>
       </c>
       <c r="D141" t="n">
-        <v>2267.98</v>
+        <v>2312.73</v>
       </c>
       <c r="E141" t="n">
-        <v>2283.01</v>
+        <v>2334.81</v>
       </c>
       <c r="F141" t="n">
-        <v>137.28058439</v>
+        <v>929.98126913</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45543.58333333334</v>
+        <v>45546.54166666666</v>
       </c>
       <c r="B142" t="n">
-        <v>2283.01</v>
+        <v>2334.58</v>
       </c>
       <c r="C142" t="n">
-        <v>2283.5</v>
+        <v>2353.4</v>
       </c>
       <c r="D142" t="n">
-        <v>2267.98</v>
+        <v>2284.13</v>
       </c>
       <c r="E142" t="n">
-        <v>2268.32</v>
+        <v>2288.06</v>
       </c>
       <c r="F142" t="n">
-        <v>392.93279861</v>
+        <v>878.5479081</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45543.625</v>
+        <v>45546.58333333334</v>
       </c>
       <c r="B143" t="n">
-        <v>2269.37</v>
+        <v>2286.87</v>
       </c>
       <c r="C143" t="n">
-        <v>2270.49</v>
+        <v>2310.38</v>
       </c>
       <c r="D143" t="n">
-        <v>2242.87</v>
+        <v>2278.81</v>
       </c>
       <c r="E143" t="n">
-        <v>2244.14</v>
+        <v>2307.27</v>
       </c>
       <c r="F143" t="n">
-        <v>326.11933942</v>
+        <v>917.32519073</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45543.66666666666</v>
+        <v>45546.625</v>
       </c>
       <c r="B144" t="n">
-        <v>2244.14</v>
+        <v>2308.71</v>
       </c>
       <c r="C144" t="n">
-        <v>2259.63</v>
+        <v>2334.93</v>
       </c>
       <c r="D144" t="n">
-        <v>2243.48</v>
+        <v>2302.22</v>
       </c>
       <c r="E144" t="n">
-        <v>2250.81</v>
+        <v>2324.61</v>
       </c>
       <c r="F144" t="n">
-        <v>504.6521973</v>
+        <v>575.00880623</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45543.70833333334</v>
+        <v>45546.66666666666</v>
       </c>
       <c r="B145" t="n">
-        <v>2250.81</v>
+        <v>2325.4</v>
       </c>
       <c r="C145" t="n">
-        <v>2282.1</v>
+        <v>2352</v>
       </c>
       <c r="D145" t="n">
-        <v>2250.8</v>
+        <v>2325.4</v>
       </c>
       <c r="E145" t="n">
-        <v>2282.1</v>
+        <v>2345.56</v>
       </c>
       <c r="F145" t="n">
-        <v>642.50310633</v>
+        <v>339.34470385</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45543.75</v>
+        <v>45546.70833333334</v>
       </c>
       <c r="B146" t="n">
-        <v>2282.3</v>
+        <v>2345.57</v>
       </c>
       <c r="C146" t="n">
-        <v>2282.3</v>
+        <v>2367.26</v>
       </c>
       <c r="D146" t="n">
-        <v>2272.74</v>
+        <v>2345.56</v>
       </c>
       <c r="E146" t="n">
-        <v>2275.84</v>
+        <v>2356.32</v>
       </c>
       <c r="F146" t="n">
-        <v>116.07695598</v>
+        <v>405.62143149</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45543.79166666666</v>
+        <v>45546.75</v>
       </c>
       <c r="B147" t="n">
-        <v>2275.84</v>
+        <v>2356.21</v>
       </c>
       <c r="C147" t="n">
-        <v>2277.09</v>
+        <v>2359.68</v>
       </c>
       <c r="D147" t="n">
-        <v>2270.09</v>
+        <v>2331.28</v>
       </c>
       <c r="E147" t="n">
-        <v>2271.7</v>
+        <v>2337.26</v>
       </c>
       <c r="F147" t="n">
-        <v>70.05122054</v>
+        <v>506.16338284</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45543.83333333334</v>
+        <v>45546.79166666666</v>
       </c>
       <c r="B148" t="n">
-        <v>2271.7</v>
+        <v>2337.26</v>
       </c>
       <c r="C148" t="n">
-        <v>2276.03</v>
+        <v>2343.14</v>
       </c>
       <c r="D148" t="n">
-        <v>2267.25</v>
+        <v>2331.55</v>
       </c>
       <c r="E148" t="n">
-        <v>2275.13</v>
+        <v>2342.51</v>
       </c>
       <c r="F148" t="n">
-        <v>91.57025381</v>
+        <v>252.42215464</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45543.875</v>
+        <v>45546.83333333334</v>
       </c>
       <c r="B149" t="n">
-        <v>2275.12</v>
+        <v>2340.89</v>
       </c>
       <c r="C149" t="n">
-        <v>2288</v>
+        <v>2349.23</v>
       </c>
       <c r="D149" t="n">
-        <v>2275.12</v>
+        <v>2339.7</v>
       </c>
       <c r="E149" t="n">
-        <v>2280.4</v>
+        <v>2348.45</v>
       </c>
       <c r="F149" t="n">
-        <v>271.27101995</v>
+        <v>152.94477472</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45543.91666666666</v>
+        <v>45546.875</v>
       </c>
       <c r="B150" t="n">
-        <v>2280.4</v>
+        <v>2348.46</v>
       </c>
       <c r="C150" t="n">
-        <v>2333.02</v>
+        <v>2350</v>
       </c>
       <c r="D150" t="n">
-        <v>2280</v>
+        <v>2340.69</v>
       </c>
       <c r="E150" t="n">
-        <v>2293.64</v>
+        <v>2342.67</v>
       </c>
       <c r="F150" t="n">
-        <v>877.77520724</v>
+        <v>372.49768715</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45543.95833333334</v>
+        <v>45546.91666666666</v>
       </c>
       <c r="B151" t="n">
-        <v>2294.03</v>
+        <v>2341.59</v>
       </c>
       <c r="C151" t="n">
-        <v>2304.76</v>
+        <v>2344.99</v>
       </c>
       <c r="D151" t="n">
-        <v>2289.83</v>
+        <v>2334.53</v>
       </c>
       <c r="E151" t="n">
-        <v>2296.92</v>
+        <v>2339.61</v>
       </c>
       <c r="F151" t="n">
-        <v>145.39303666</v>
+        <v>51.60014352</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45544</v>
+        <v>45546.95833333334</v>
       </c>
       <c r="B152" t="n">
-        <v>2297.31</v>
+        <v>2339.72</v>
       </c>
       <c r="C152" t="n">
-        <v>2310.99</v>
+        <v>2344.79</v>
       </c>
       <c r="D152" t="n">
-        <v>2288.22</v>
+        <v>2337.93</v>
       </c>
       <c r="E152" t="n">
-        <v>2307.29</v>
+        <v>2339.99</v>
       </c>
       <c r="F152" t="n">
-        <v>157.05954753</v>
+        <v>39.62378261</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45544.04166666666</v>
+        <v>45547</v>
       </c>
       <c r="B153" t="n">
-        <v>2307.29</v>
+        <v>2340</v>
       </c>
       <c r="C153" t="n">
-        <v>2318.46</v>
+        <v>2364.99</v>
       </c>
       <c r="D153" t="n">
-        <v>2297.93</v>
+        <v>2339.82</v>
       </c>
       <c r="E153" t="n">
-        <v>2310.69</v>
+        <v>2352.72</v>
       </c>
       <c r="F153" t="n">
-        <v>148.25944536</v>
+        <v>752.88204079</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45544.08333333334</v>
+        <v>45547.04166666666</v>
       </c>
       <c r="B154" t="n">
-        <v>2310.63</v>
+        <v>2352.43</v>
       </c>
       <c r="C154" t="n">
-        <v>2310.99</v>
+        <v>2374.35</v>
       </c>
       <c r="D154" t="n">
-        <v>2297.92</v>
+        <v>2352.43</v>
       </c>
       <c r="E154" t="n">
-        <v>2305.8</v>
+        <v>2372.39</v>
       </c>
       <c r="F154" t="n">
-        <v>165.97836023</v>
+        <v>257.91886475</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45544.125</v>
+        <v>45547.08333333334</v>
       </c>
       <c r="B155" t="n">
-        <v>2305.88</v>
+        <v>2372.75</v>
       </c>
       <c r="C155" t="n">
-        <v>2306.48</v>
+        <v>2390</v>
       </c>
       <c r="D155" t="n">
-        <v>2290.68</v>
+        <v>2361.99</v>
       </c>
       <c r="E155" t="n">
-        <v>2303.86</v>
+        <v>2362.57</v>
       </c>
       <c r="F155" t="n">
-        <v>239.37065156</v>
+        <v>421.7055139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45544.16666666666</v>
+        <v>45547.125</v>
       </c>
       <c r="B156" t="n">
-        <v>2303.86</v>
+        <v>2362.56</v>
       </c>
       <c r="C156" t="n">
-        <v>2305.98</v>
+        <v>2371.81</v>
       </c>
       <c r="D156" t="n">
-        <v>2295.49</v>
+        <v>2362.56</v>
       </c>
       <c r="E156" t="n">
-        <v>2297.01</v>
+        <v>2369.83</v>
       </c>
       <c r="F156" t="n">
-        <v>72.29565377999999</v>
+        <v>79.25869230000001</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45544.20833333334</v>
+        <v>45547.16666666666</v>
       </c>
       <c r="B157" t="n">
-        <v>2297</v>
+        <v>2369.83</v>
       </c>
       <c r="C157" t="n">
-        <v>2297.79</v>
+        <v>2377.98</v>
       </c>
       <c r="D157" t="n">
-        <v>2284.4</v>
+        <v>2363.12</v>
       </c>
       <c r="E157" t="n">
-        <v>2288.19</v>
+        <v>2364</v>
       </c>
       <c r="F157" t="n">
-        <v>122.98290107</v>
+        <v>151.53692526</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45544.25</v>
+        <v>45547.20833333334</v>
       </c>
       <c r="B158" t="n">
-        <v>2288.18</v>
+        <v>2364.01</v>
       </c>
       <c r="C158" t="n">
-        <v>2304.65</v>
+        <v>2369.98</v>
       </c>
       <c r="D158" t="n">
-        <v>2287.18</v>
+        <v>2356.42</v>
       </c>
       <c r="E158" t="n">
-        <v>2304.65</v>
+        <v>2356.99</v>
       </c>
       <c r="F158" t="n">
-        <v>373.38661438</v>
+        <v>166.78598942</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45544.29166666666</v>
+        <v>45547.25</v>
       </c>
       <c r="B159" t="n">
-        <v>2304.95</v>
+        <v>2357</v>
       </c>
       <c r="C159" t="n">
-        <v>2315.21</v>
+        <v>2364.58</v>
       </c>
       <c r="D159" t="n">
-        <v>2299.4</v>
+        <v>2353.95</v>
       </c>
       <c r="E159" t="n">
-        <v>2313.75</v>
+        <v>2358.67</v>
       </c>
       <c r="F159" t="n">
-        <v>156.95846811</v>
+        <v>37.55167892</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45544.33333333334</v>
+        <v>45547.29166666666</v>
       </c>
       <c r="B160" t="n">
-        <v>2313.63</v>
+        <v>2358.67</v>
       </c>
       <c r="C160" t="n">
-        <v>2328.37</v>
+        <v>2363.89</v>
       </c>
       <c r="D160" t="n">
-        <v>2313.63</v>
+        <v>2355.23</v>
       </c>
       <c r="E160" t="n">
-        <v>2324.98</v>
+        <v>2358.03</v>
       </c>
       <c r="F160" t="n">
-        <v>462.08099243</v>
+        <v>44.72786326</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45544.375</v>
+        <v>45547.33333333334</v>
       </c>
       <c r="B161" t="n">
-        <v>2324.99</v>
+        <v>2358.03</v>
       </c>
       <c r="C161" t="n">
-        <v>2337.09</v>
+        <v>2366.03</v>
       </c>
       <c r="D161" t="n">
-        <v>2315.78</v>
+        <v>2358.02</v>
       </c>
       <c r="E161" t="n">
-        <v>2317.22</v>
+        <v>2359.75</v>
       </c>
       <c r="F161" t="n">
-        <v>146.39186484</v>
+        <v>242.42119042</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45544.41666666666</v>
+        <v>45547.375</v>
       </c>
       <c r="B162" t="n">
-        <v>2317.22</v>
+        <v>2359.75</v>
       </c>
       <c r="C162" t="n">
-        <v>2324.69</v>
+        <v>2361.18</v>
       </c>
       <c r="D162" t="n">
-        <v>2312.99</v>
+        <v>2351.94</v>
       </c>
       <c r="E162" t="n">
-        <v>2319.44</v>
+        <v>2352.98</v>
       </c>
       <c r="F162" t="n">
-        <v>310.33041222</v>
+        <v>85.74014013</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45544.45833333334</v>
+        <v>45547.41666666666</v>
       </c>
       <c r="B163" t="n">
-        <v>2320.09</v>
+        <v>2351.97</v>
       </c>
       <c r="C163" t="n">
-        <v>2320.53</v>
+        <v>2353.2</v>
       </c>
       <c r="D163" t="n">
-        <v>2312.61</v>
+        <v>2346.68</v>
       </c>
       <c r="E163" t="n">
-        <v>2314.12</v>
+        <v>2346.68</v>
       </c>
       <c r="F163" t="n">
-        <v>135.36671154</v>
+        <v>80.43229241</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45544.5</v>
+        <v>45547.45833333334</v>
       </c>
       <c r="B164" t="n">
-        <v>2314.12</v>
+        <v>2346.68</v>
       </c>
       <c r="C164" t="n">
-        <v>2314.99</v>
+        <v>2350.79</v>
       </c>
       <c r="D164" t="n">
-        <v>2300.81</v>
+        <v>2344.42</v>
       </c>
       <c r="E164" t="n">
-        <v>2312.78</v>
+        <v>2348.51</v>
       </c>
       <c r="F164" t="n">
-        <v>596.8403416800001</v>
+        <v>82.60472190999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45544.54166666666</v>
+        <v>45547.5</v>
       </c>
       <c r="B165" t="n">
-        <v>2313.04</v>
+        <v>2348.51</v>
       </c>
       <c r="C165" t="n">
-        <v>2324.67</v>
+        <v>2351.45</v>
       </c>
       <c r="D165" t="n">
-        <v>2307.1</v>
+        <v>2337.62</v>
       </c>
       <c r="E165" t="n">
-        <v>2322.62</v>
+        <v>2343.84</v>
       </c>
       <c r="F165" t="n">
-        <v>303.24295226</v>
+        <v>131.19321083</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45544.58333333334</v>
+        <v>45547.54166666666</v>
       </c>
       <c r="B166" t="n">
-        <v>2320.82</v>
+        <v>2343.85</v>
       </c>
       <c r="C166" t="n">
-        <v>2321.64</v>
+        <v>2356.71</v>
       </c>
       <c r="D166" t="n">
-        <v>2278.11</v>
+        <v>2335.34</v>
       </c>
       <c r="E166" t="n">
-        <v>2280.08</v>
+        <v>2340.29</v>
       </c>
       <c r="F166" t="n">
-        <v>570.6574124700001</v>
+        <v>112.9625893</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45544.625</v>
+        <v>45547.58333333334</v>
       </c>
       <c r="B167" t="n">
-        <v>2280.09</v>
+        <v>2340.47</v>
       </c>
       <c r="C167" t="n">
-        <v>2294.59</v>
+        <v>2366.34</v>
       </c>
       <c r="D167" t="n">
-        <v>2274.57</v>
+        <v>2337.55</v>
       </c>
       <c r="E167" t="n">
-        <v>2286.45</v>
+        <v>2365.18</v>
       </c>
       <c r="F167" t="n">
-        <v>262.61635758</v>
+        <v>86.46463199</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos.xlsx
+++ b/cryptos.xlsx
@@ -474,3322 +474,3322 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45540.70833333334</v>
+        <v>45540.75</v>
       </c>
       <c r="B2" t="n">
-        <v>56339.8</v>
+        <v>56582.6</v>
       </c>
       <c r="C2" t="n">
-        <v>56582.6</v>
+        <v>56698.7</v>
       </c>
       <c r="D2" t="n">
-        <v>56224.4</v>
+        <v>56530.6</v>
       </c>
       <c r="E2" t="n">
-        <v>56582.5</v>
+        <v>56574.2</v>
       </c>
       <c r="F2" t="n">
-        <v>94.33477436</v>
+        <v>31.16285561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45540.75</v>
+        <v>45540.79166666666</v>
       </c>
       <c r="B3" t="n">
-        <v>56582.6</v>
+        <v>56574.1</v>
       </c>
       <c r="C3" t="n">
-        <v>56698.7</v>
+        <v>56574.1</v>
       </c>
       <c r="D3" t="n">
-        <v>56530.6</v>
+        <v>55800</v>
       </c>
       <c r="E3" t="n">
-        <v>56574.2</v>
+        <v>56015.5</v>
       </c>
       <c r="F3" t="n">
-        <v>31.16285561</v>
+        <v>219.36127309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45540.79166666666</v>
+        <v>45540.83333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>56574.1</v>
+        <v>56009.5</v>
       </c>
       <c r="C4" t="n">
-        <v>56574.1</v>
+        <v>56210.4</v>
       </c>
       <c r="D4" t="n">
-        <v>55800</v>
+        <v>55993.8</v>
       </c>
       <c r="E4" t="n">
-        <v>56015.5</v>
+        <v>56062.1</v>
       </c>
       <c r="F4" t="n">
-        <v>219.36127309</v>
+        <v>86.57632781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45540.83333333334</v>
+        <v>45540.875</v>
       </c>
       <c r="B5" t="n">
-        <v>56009.5</v>
+        <v>56061.1</v>
       </c>
       <c r="C5" t="n">
-        <v>56210.4</v>
+        <v>56237.4</v>
       </c>
       <c r="D5" t="n">
-        <v>55993.8</v>
+        <v>55601.5</v>
       </c>
       <c r="E5" t="n">
-        <v>56062.1</v>
+        <v>56163.3</v>
       </c>
       <c r="F5" t="n">
-        <v>86.57632781</v>
+        <v>101.72968464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45540.875</v>
+        <v>45540.91666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>56061.1</v>
+        <v>56163.2</v>
       </c>
       <c r="C6" t="n">
-        <v>56237.4</v>
+        <v>56198.9</v>
       </c>
       <c r="D6" t="n">
-        <v>55601.5</v>
+        <v>55782.6</v>
       </c>
       <c r="E6" t="n">
-        <v>56163.3</v>
+        <v>56104.7</v>
       </c>
       <c r="F6" t="n">
-        <v>101.72968464</v>
+        <v>98.19975534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45540.91666666666</v>
+        <v>45540.95833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>56163.2</v>
+        <v>56104.7</v>
       </c>
       <c r="C7" t="n">
-        <v>56198.9</v>
+        <v>56174</v>
       </c>
       <c r="D7" t="n">
-        <v>55782.6</v>
+        <v>55980.8</v>
       </c>
       <c r="E7" t="n">
-        <v>56104.7</v>
+        <v>56163.9</v>
       </c>
       <c r="F7" t="n">
-        <v>98.19975534</v>
+        <v>27.9188315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45540.95833333334</v>
+        <v>45541</v>
       </c>
       <c r="B8" t="n">
-        <v>56104.7</v>
+        <v>56163.9</v>
       </c>
       <c r="C8" t="n">
-        <v>56174</v>
+        <v>56302.8</v>
       </c>
       <c r="D8" t="n">
-        <v>55980.8</v>
+        <v>56000</v>
       </c>
       <c r="E8" t="n">
-        <v>56163.9</v>
+        <v>56163.2</v>
       </c>
       <c r="F8" t="n">
-        <v>27.9188315</v>
+        <v>20.95995116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45541</v>
+        <v>45541.04166666666</v>
       </c>
       <c r="B9" t="n">
-        <v>56163.9</v>
+        <v>56163.2</v>
       </c>
       <c r="C9" t="n">
-        <v>56302.8</v>
+        <v>56574</v>
       </c>
       <c r="D9" t="n">
-        <v>56000</v>
+        <v>55970.7</v>
       </c>
       <c r="E9" t="n">
-        <v>56163.2</v>
+        <v>56554.7</v>
       </c>
       <c r="F9" t="n">
-        <v>20.95995116</v>
+        <v>97.75916675000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45541.04166666666</v>
+        <v>45541.08333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>56163.2</v>
+        <v>56554.8</v>
       </c>
       <c r="C10" t="n">
-        <v>56574</v>
+        <v>56800.2</v>
       </c>
       <c r="D10" t="n">
-        <v>55970.7</v>
+        <v>56504.2</v>
       </c>
       <c r="E10" t="n">
-        <v>56554.7</v>
+        <v>56720.1</v>
       </c>
       <c r="F10" t="n">
-        <v>97.75916675000001</v>
+        <v>27.60750086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45541.08333333334</v>
+        <v>45541.125</v>
       </c>
       <c r="B11" t="n">
-        <v>56554.8</v>
+        <v>56720.1</v>
       </c>
       <c r="C11" t="n">
-        <v>56800.2</v>
+        <v>56827.5</v>
       </c>
       <c r="D11" t="n">
-        <v>56504.2</v>
+        <v>56535</v>
       </c>
       <c r="E11" t="n">
-        <v>56720.1</v>
+        <v>56575.3</v>
       </c>
       <c r="F11" t="n">
-        <v>27.60750086</v>
+        <v>65.3940451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45541.125</v>
+        <v>45541.16666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>56720.1</v>
+        <v>56575.3</v>
       </c>
       <c r="C12" t="n">
-        <v>56827.5</v>
+        <v>56708.5</v>
       </c>
       <c r="D12" t="n">
-        <v>56535</v>
+        <v>56575.3</v>
       </c>
       <c r="E12" t="n">
-        <v>56575.3</v>
+        <v>56612.3</v>
       </c>
       <c r="F12" t="n">
-        <v>65.3940451</v>
+        <v>6.39874313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45541.16666666666</v>
+        <v>45541.20833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>56575.3</v>
+        <v>56600.1</v>
       </c>
       <c r="C13" t="n">
-        <v>56708.5</v>
+        <v>56633</v>
       </c>
       <c r="D13" t="n">
-        <v>56575.3</v>
+        <v>56321.3</v>
       </c>
       <c r="E13" t="n">
-        <v>56612.3</v>
+        <v>56487.6</v>
       </c>
       <c r="F13" t="n">
-        <v>6.39874313</v>
+        <v>92.64010408999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45541.20833333334</v>
+        <v>45541.25</v>
       </c>
       <c r="B14" t="n">
-        <v>56600.1</v>
+        <v>56480.8</v>
       </c>
       <c r="C14" t="n">
-        <v>56633</v>
+        <v>56480.9</v>
       </c>
       <c r="D14" t="n">
-        <v>56321.3</v>
+        <v>56311.6</v>
       </c>
       <c r="E14" t="n">
-        <v>56487.6</v>
+        <v>56433.5</v>
       </c>
       <c r="F14" t="n">
-        <v>92.64010408999999</v>
+        <v>43.87787639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45541.25</v>
+        <v>45541.29166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>56480.8</v>
+        <v>56433.5</v>
       </c>
       <c r="C15" t="n">
-        <v>56480.9</v>
+        <v>56433.5</v>
       </c>
       <c r="D15" t="n">
-        <v>56311.6</v>
+        <v>55302.5</v>
       </c>
       <c r="E15" t="n">
-        <v>56433.5</v>
+        <v>55804.8</v>
       </c>
       <c r="F15" t="n">
-        <v>43.87787639</v>
+        <v>126.26370353</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45541.29166666666</v>
+        <v>45541.33333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>56433.5</v>
+        <v>55804.9</v>
       </c>
       <c r="C16" t="n">
-        <v>56433.5</v>
+        <v>55885.6</v>
       </c>
       <c r="D16" t="n">
-        <v>55302.5</v>
+        <v>55640.1</v>
       </c>
       <c r="E16" t="n">
-        <v>55804.8</v>
+        <v>55768.5</v>
       </c>
       <c r="F16" t="n">
-        <v>126.26370353</v>
+        <v>56.27854604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45541.33333333334</v>
+        <v>45541.375</v>
       </c>
       <c r="B17" t="n">
-        <v>55804.9</v>
+        <v>55768.5</v>
       </c>
       <c r="C17" t="n">
-        <v>55885.6</v>
+        <v>55913</v>
       </c>
       <c r="D17" t="n">
-        <v>55640.1</v>
+        <v>55688</v>
       </c>
       <c r="E17" t="n">
-        <v>55768.5</v>
+        <v>55879.6</v>
       </c>
       <c r="F17" t="n">
-        <v>56.27854604</v>
+        <v>30.19853396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45541.375</v>
+        <v>45541.41666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>55768.5</v>
+        <v>55879.7</v>
       </c>
       <c r="C18" t="n">
-        <v>55913</v>
+        <v>56239</v>
       </c>
       <c r="D18" t="n">
-        <v>55688</v>
+        <v>55879.7</v>
       </c>
       <c r="E18" t="n">
-        <v>55879.6</v>
+        <v>56159</v>
       </c>
       <c r="F18" t="n">
-        <v>30.19853396</v>
+        <v>58.0257006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45541.41666666666</v>
+        <v>45541.45833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>55879.7</v>
+        <v>56159</v>
       </c>
       <c r="C19" t="n">
-        <v>56239</v>
+        <v>56197</v>
       </c>
       <c r="D19" t="n">
-        <v>55879.7</v>
+        <v>55847.3</v>
       </c>
       <c r="E19" t="n">
-        <v>56159</v>
+        <v>55980.4</v>
       </c>
       <c r="F19" t="n">
-        <v>58.0257006</v>
+        <v>41.43559861</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45541.45833333334</v>
+        <v>45541.5</v>
       </c>
       <c r="B20" t="n">
-        <v>56159</v>
+        <v>55980.5</v>
       </c>
       <c r="C20" t="n">
-        <v>56197</v>
+        <v>56939.8</v>
       </c>
       <c r="D20" t="n">
-        <v>55847.3</v>
+        <v>55711</v>
       </c>
       <c r="E20" t="n">
-        <v>55980.4</v>
+        <v>56875</v>
       </c>
       <c r="F20" t="n">
-        <v>41.43559861</v>
+        <v>432.05183414</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45541.5</v>
+        <v>45541.54166666666</v>
       </c>
       <c r="B21" t="n">
-        <v>55980.5</v>
+        <v>56875</v>
       </c>
       <c r="C21" t="n">
-        <v>56939.8</v>
+        <v>56964.1</v>
       </c>
       <c r="D21" t="n">
-        <v>55711</v>
+        <v>55828.8</v>
       </c>
       <c r="E21" t="n">
-        <v>56875</v>
+        <v>55900</v>
       </c>
       <c r="F21" t="n">
-        <v>432.05183414</v>
+        <v>220.42304516</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45541.54166666666</v>
+        <v>45541.58333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>56875</v>
+        <v>55900.1</v>
       </c>
       <c r="C22" t="n">
-        <v>56964.1</v>
+        <v>55918.8</v>
       </c>
       <c r="D22" t="n">
-        <v>55828.8</v>
+        <v>54411</v>
       </c>
       <c r="E22" t="n">
-        <v>55900</v>
+        <v>54680.3</v>
       </c>
       <c r="F22" t="n">
-        <v>220.42304516</v>
+        <v>684.70058016</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45541.58333333334</v>
+        <v>45541.625</v>
       </c>
       <c r="B23" t="n">
-        <v>55900.1</v>
+        <v>54680.4</v>
       </c>
       <c r="C23" t="n">
-        <v>55918.8</v>
+        <v>54958.7</v>
       </c>
       <c r="D23" t="n">
-        <v>54411</v>
+        <v>53456</v>
       </c>
       <c r="E23" t="n">
-        <v>54680.3</v>
+        <v>54020</v>
       </c>
       <c r="F23" t="n">
-        <v>684.70058016</v>
+        <v>577.72026799</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45541.625</v>
+        <v>45541.66666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>54680.4</v>
+        <v>54020</v>
       </c>
       <c r="C24" t="n">
-        <v>54958.7</v>
+        <v>54207.3</v>
       </c>
       <c r="D24" t="n">
-        <v>53456</v>
+        <v>53601</v>
       </c>
       <c r="E24" t="n">
-        <v>54020</v>
+        <v>54041</v>
       </c>
       <c r="F24" t="n">
-        <v>577.72026799</v>
+        <v>174.1660159</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45541.66666666666</v>
+        <v>45541.70833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>54020</v>
+        <v>54041.1</v>
       </c>
       <c r="C25" t="n">
-        <v>54207.3</v>
+        <v>54400</v>
       </c>
       <c r="D25" t="n">
-        <v>53601</v>
+        <v>53711.3</v>
       </c>
       <c r="E25" t="n">
-        <v>54041</v>
+        <v>53928.7</v>
       </c>
       <c r="F25" t="n">
-        <v>174.1660159</v>
+        <v>149.1093409</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45541.70833333334</v>
+        <v>45541.75</v>
       </c>
       <c r="B26" t="n">
-        <v>54041.1</v>
+        <v>53928.7</v>
       </c>
       <c r="C26" t="n">
-        <v>54400</v>
+        <v>53947.7</v>
       </c>
       <c r="D26" t="n">
-        <v>53711.3</v>
+        <v>53335</v>
       </c>
       <c r="E26" t="n">
-        <v>53928.7</v>
+        <v>53335.1</v>
       </c>
       <c r="F26" t="n">
-        <v>149.1093409</v>
+        <v>178.89638259</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45541.75</v>
+        <v>45541.79166666666</v>
       </c>
       <c r="B27" t="n">
-        <v>53928.7</v>
+        <v>53335</v>
       </c>
       <c r="C27" t="n">
-        <v>53947.7</v>
+        <v>53905</v>
       </c>
       <c r="D27" t="n">
-        <v>53335</v>
+        <v>53225.8</v>
       </c>
       <c r="E27" t="n">
-        <v>53335.1</v>
+        <v>53473.5</v>
       </c>
       <c r="F27" t="n">
-        <v>178.89638259</v>
+        <v>262.07081873</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45541.79166666666</v>
+        <v>45541.83333333334</v>
       </c>
       <c r="B28" t="n">
-        <v>53335</v>
+        <v>53476.2</v>
       </c>
       <c r="C28" t="n">
-        <v>53905</v>
+        <v>53755.6</v>
       </c>
       <c r="D28" t="n">
-        <v>53225.8</v>
+        <v>52642.8</v>
       </c>
       <c r="E28" t="n">
-        <v>53473.5</v>
+        <v>52850</v>
       </c>
       <c r="F28" t="n">
-        <v>262.07081873</v>
+        <v>215.97762159</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45541.83333333334</v>
+        <v>45541.875</v>
       </c>
       <c r="B29" t="n">
-        <v>53476.2</v>
+        <v>52850.1</v>
       </c>
       <c r="C29" t="n">
-        <v>53755.6</v>
+        <v>53747.4</v>
       </c>
       <c r="D29" t="n">
-        <v>52642.8</v>
+        <v>52569</v>
       </c>
       <c r="E29" t="n">
-        <v>52850</v>
+        <v>53743.5</v>
       </c>
       <c r="F29" t="n">
-        <v>215.97762159</v>
+        <v>141.20797508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45541.875</v>
+        <v>45541.91666666666</v>
       </c>
       <c r="B30" t="n">
-        <v>52850.1</v>
+        <v>53746.3</v>
       </c>
       <c r="C30" t="n">
-        <v>53747.4</v>
+        <v>53832.1</v>
       </c>
       <c r="D30" t="n">
-        <v>52569</v>
+        <v>53601.5</v>
       </c>
       <c r="E30" t="n">
-        <v>53743.5</v>
+        <v>53606.2</v>
       </c>
       <c r="F30" t="n">
-        <v>141.20797508</v>
+        <v>63.29168774</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45541.91666666666</v>
+        <v>45541.95833333334</v>
       </c>
       <c r="B31" t="n">
-        <v>53746.3</v>
+        <v>53606.2</v>
       </c>
       <c r="C31" t="n">
-        <v>53832.1</v>
+        <v>53948.3</v>
       </c>
       <c r="D31" t="n">
-        <v>53601.5</v>
+        <v>53600</v>
       </c>
       <c r="E31" t="n">
-        <v>53606.2</v>
+        <v>53948.3</v>
       </c>
       <c r="F31" t="n">
-        <v>63.29168774</v>
+        <v>40.23080437</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45541.95833333334</v>
+        <v>45542</v>
       </c>
       <c r="B32" t="n">
-        <v>53606.2</v>
+        <v>53948.3</v>
       </c>
       <c r="C32" t="n">
-        <v>53948.3</v>
+        <v>54040.7</v>
       </c>
       <c r="D32" t="n">
-        <v>53600</v>
+        <v>53879.7</v>
       </c>
       <c r="E32" t="n">
-        <v>53948.3</v>
+        <v>53918.7</v>
       </c>
       <c r="F32" t="n">
-        <v>40.23080437</v>
+        <v>134.12421736</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45542</v>
+        <v>45542.04166666666</v>
       </c>
       <c r="B33" t="n">
-        <v>53948.3</v>
+        <v>53918.7</v>
       </c>
       <c r="C33" t="n">
-        <v>54040.7</v>
+        <v>53980.7</v>
       </c>
       <c r="D33" t="n">
-        <v>53879.7</v>
+        <v>53739</v>
       </c>
       <c r="E33" t="n">
-        <v>53918.7</v>
+        <v>53797.4</v>
       </c>
       <c r="F33" t="n">
-        <v>134.12421736</v>
+        <v>142.42926441</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45542.04166666666</v>
+        <v>45542.08333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>53918.7</v>
+        <v>53798.3</v>
       </c>
       <c r="C34" t="n">
-        <v>53980.7</v>
+        <v>53924.1</v>
       </c>
       <c r="D34" t="n">
-        <v>53739</v>
+        <v>53742.1</v>
       </c>
       <c r="E34" t="n">
-        <v>53797.4</v>
+        <v>53781.3</v>
       </c>
       <c r="F34" t="n">
-        <v>142.42926441</v>
+        <v>85.8849421</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45542.08333333334</v>
+        <v>45542.125</v>
       </c>
       <c r="B35" t="n">
-        <v>53798.3</v>
+        <v>53781.3</v>
       </c>
       <c r="C35" t="n">
-        <v>53924.1</v>
+        <v>53857.5</v>
       </c>
       <c r="D35" t="n">
-        <v>53742.1</v>
+        <v>53781.3</v>
       </c>
       <c r="E35" t="n">
-        <v>53781.3</v>
+        <v>53808.5</v>
       </c>
       <c r="F35" t="n">
-        <v>85.8849421</v>
+        <v>11.47144208</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45542.125</v>
+        <v>45542.16666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>53781.3</v>
+        <v>53808.5</v>
       </c>
       <c r="C36" t="n">
-        <v>53857.5</v>
+        <v>54041</v>
       </c>
       <c r="D36" t="n">
-        <v>53781.3</v>
+        <v>53797.9</v>
       </c>
       <c r="E36" t="n">
-        <v>53808.5</v>
+        <v>54041</v>
       </c>
       <c r="F36" t="n">
-        <v>11.47144208</v>
+        <v>3.08343434</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45542.16666666666</v>
+        <v>45542.20833333334</v>
       </c>
       <c r="B37" t="n">
-        <v>53808.5</v>
+        <v>54041</v>
       </c>
       <c r="C37" t="n">
-        <v>54041</v>
+        <v>54347.1</v>
       </c>
       <c r="D37" t="n">
-        <v>53797.9</v>
+        <v>54007.6</v>
       </c>
       <c r="E37" t="n">
-        <v>54041</v>
+        <v>54170.3</v>
       </c>
       <c r="F37" t="n">
-        <v>3.08343434</v>
+        <v>17.85054136</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45542.20833333334</v>
+        <v>45542.25</v>
       </c>
       <c r="B38" t="n">
-        <v>54041</v>
+        <v>54174.5</v>
       </c>
       <c r="C38" t="n">
-        <v>54347.1</v>
+        <v>54349.4</v>
       </c>
       <c r="D38" t="n">
-        <v>54007.6</v>
+        <v>54039.1</v>
       </c>
       <c r="E38" t="n">
-        <v>54170.3</v>
+        <v>54300.9</v>
       </c>
       <c r="F38" t="n">
-        <v>17.85054136</v>
+        <v>34.60793326</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45542.25</v>
+        <v>45542.29166666666</v>
       </c>
       <c r="B39" t="n">
-        <v>54174.5</v>
+        <v>54301</v>
       </c>
       <c r="C39" t="n">
-        <v>54349.4</v>
+        <v>54379.3</v>
       </c>
       <c r="D39" t="n">
-        <v>54039.1</v>
+        <v>54193.9</v>
       </c>
       <c r="E39" t="n">
-        <v>54300.9</v>
+        <v>54284.9</v>
       </c>
       <c r="F39" t="n">
-        <v>34.60793326</v>
+        <v>15.92905594</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45542.29166666666</v>
+        <v>45542.33333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>54301</v>
+        <v>54284.9</v>
       </c>
       <c r="C40" t="n">
-        <v>54379.3</v>
+        <v>54363.6</v>
       </c>
       <c r="D40" t="n">
-        <v>54193.9</v>
+        <v>54226.3</v>
       </c>
       <c r="E40" t="n">
-        <v>54284.9</v>
+        <v>54361.9</v>
       </c>
       <c r="F40" t="n">
-        <v>15.92905594</v>
+        <v>20.79352874</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45542.33333333334</v>
+        <v>45542.375</v>
       </c>
       <c r="B41" t="n">
-        <v>54284.9</v>
+        <v>54362</v>
       </c>
       <c r="C41" t="n">
-        <v>54363.6</v>
+        <v>54379.3</v>
       </c>
       <c r="D41" t="n">
-        <v>54226.3</v>
+        <v>54205</v>
       </c>
       <c r="E41" t="n">
-        <v>54361.9</v>
+        <v>54271.5</v>
       </c>
       <c r="F41" t="n">
-        <v>20.79352874</v>
+        <v>15.90989674</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45542.375</v>
+        <v>45542.41666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>54362</v>
+        <v>54271.5</v>
       </c>
       <c r="C42" t="n">
-        <v>54379.3</v>
+        <v>54432.5</v>
       </c>
       <c r="D42" t="n">
-        <v>54205</v>
+        <v>54245</v>
       </c>
       <c r="E42" t="n">
-        <v>54271.5</v>
+        <v>54346.6</v>
       </c>
       <c r="F42" t="n">
-        <v>15.90989674</v>
+        <v>16.76886221</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45542.41666666666</v>
+        <v>45542.45833333334</v>
       </c>
       <c r="B43" t="n">
-        <v>54271.5</v>
+        <v>54346.6</v>
       </c>
       <c r="C43" t="n">
-        <v>54432.5</v>
+        <v>54451.1</v>
       </c>
       <c r="D43" t="n">
-        <v>54245</v>
+        <v>54296.6</v>
       </c>
       <c r="E43" t="n">
-        <v>54346.6</v>
+        <v>54320.4</v>
       </c>
       <c r="F43" t="n">
-        <v>16.76886221</v>
+        <v>26.4985609</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45542.45833333334</v>
+        <v>45542.5</v>
       </c>
       <c r="B44" t="n">
-        <v>54346.6</v>
+        <v>54320.4</v>
       </c>
       <c r="C44" t="n">
-        <v>54451.1</v>
+        <v>54648</v>
       </c>
       <c r="D44" t="n">
-        <v>54296.6</v>
+        <v>54320.4</v>
       </c>
       <c r="E44" t="n">
-        <v>54320.4</v>
+        <v>54579.4</v>
       </c>
       <c r="F44" t="n">
-        <v>26.4985609</v>
+        <v>48.75897892</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45542.5</v>
+        <v>45542.54166666666</v>
       </c>
       <c r="B45" t="n">
-        <v>54320.4</v>
+        <v>54579.5</v>
       </c>
       <c r="C45" t="n">
-        <v>54648</v>
+        <v>54659</v>
       </c>
       <c r="D45" t="n">
-        <v>54320.4</v>
+        <v>54419.1</v>
       </c>
       <c r="E45" t="n">
-        <v>54579.4</v>
+        <v>54540</v>
       </c>
       <c r="F45" t="n">
-        <v>48.75897892</v>
+        <v>35.0349579</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45542.54166666666</v>
+        <v>45542.58333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>54579.5</v>
+        <v>54541.9</v>
       </c>
       <c r="C46" t="n">
-        <v>54659</v>
+        <v>54648.9</v>
       </c>
       <c r="D46" t="n">
-        <v>54419.1</v>
+        <v>54499.9</v>
       </c>
       <c r="E46" t="n">
-        <v>54540</v>
+        <v>54625.3</v>
       </c>
       <c r="F46" t="n">
-        <v>35.0349579</v>
+        <v>55.58481536</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45542.58333333334</v>
+        <v>45542.625</v>
       </c>
       <c r="B47" t="n">
-        <v>54541.9</v>
+        <v>54625.3</v>
       </c>
       <c r="C47" t="n">
-        <v>54648.9</v>
+        <v>54802.5</v>
       </c>
       <c r="D47" t="n">
-        <v>54499.9</v>
+        <v>54625.3</v>
       </c>
       <c r="E47" t="n">
-        <v>54625.3</v>
+        <v>54779.2</v>
       </c>
       <c r="F47" t="n">
-        <v>55.58481536</v>
+        <v>39.1727236</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45542.625</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>54625.3</v>
+        <v>54779.2</v>
       </c>
       <c r="C48" t="n">
-        <v>54802.5</v>
+        <v>54810.2</v>
       </c>
       <c r="D48" t="n">
-        <v>54625.3</v>
+        <v>54439.6</v>
       </c>
       <c r="E48" t="n">
-        <v>54779.2</v>
+        <v>54469</v>
       </c>
       <c r="F48" t="n">
-        <v>39.1727236</v>
+        <v>31.49860469</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45542.66666666666</v>
+        <v>45542.70833333334</v>
       </c>
       <c r="B49" t="n">
-        <v>54779.2</v>
+        <v>54469</v>
       </c>
       <c r="C49" t="n">
-        <v>54810.2</v>
+        <v>54511.8</v>
       </c>
       <c r="D49" t="n">
-        <v>54439.6</v>
+        <v>54010.1</v>
       </c>
       <c r="E49" t="n">
-        <v>54469</v>
+        <v>54142.1</v>
       </c>
       <c r="F49" t="n">
-        <v>31.49860469</v>
+        <v>73.84292237</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45542.70833333334</v>
+        <v>45542.75</v>
       </c>
       <c r="B50" t="n">
-        <v>54469</v>
+        <v>54128.6</v>
       </c>
       <c r="C50" t="n">
-        <v>54511.8</v>
+        <v>54385.8</v>
       </c>
       <c r="D50" t="n">
-        <v>54010.1</v>
+        <v>54031.3</v>
       </c>
       <c r="E50" t="n">
-        <v>54142.1</v>
+        <v>54275.3</v>
       </c>
       <c r="F50" t="n">
-        <v>73.84292237</v>
+        <v>41.23666072</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45542.75</v>
+        <v>45542.79166666666</v>
       </c>
       <c r="B51" t="n">
-        <v>54128.6</v>
+        <v>54275.3</v>
       </c>
       <c r="C51" t="n">
-        <v>54385.8</v>
+        <v>54451</v>
       </c>
       <c r="D51" t="n">
-        <v>54031.3</v>
+        <v>54240.1</v>
       </c>
       <c r="E51" t="n">
-        <v>54275.3</v>
+        <v>54411.9</v>
       </c>
       <c r="F51" t="n">
-        <v>41.23666072</v>
+        <v>18.27811193</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45542.79166666666</v>
+        <v>45542.83333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>54275.3</v>
+        <v>54411.9</v>
       </c>
       <c r="C52" t="n">
-        <v>54451</v>
+        <v>54411.9</v>
       </c>
       <c r="D52" t="n">
-        <v>54240.1</v>
+        <v>54167.4</v>
       </c>
       <c r="E52" t="n">
-        <v>54411.9</v>
+        <v>54170.1</v>
       </c>
       <c r="F52" t="n">
-        <v>18.27811193</v>
+        <v>22.42988736</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45542.83333333334</v>
+        <v>45542.875</v>
       </c>
       <c r="B53" t="n">
-        <v>54411.9</v>
+        <v>54170</v>
       </c>
       <c r="C53" t="n">
-        <v>54411.9</v>
+        <v>54179</v>
       </c>
       <c r="D53" t="n">
-        <v>54167.4</v>
+        <v>53900</v>
       </c>
       <c r="E53" t="n">
-        <v>54170.1</v>
+        <v>53922.2</v>
       </c>
       <c r="F53" t="n">
-        <v>22.42988736</v>
+        <v>43.9521687</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45542.875</v>
+        <v>45542.91666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>54170</v>
+        <v>53922.2</v>
       </c>
       <c r="C54" t="n">
-        <v>54179</v>
+        <v>54066.5</v>
       </c>
       <c r="D54" t="n">
-        <v>53900</v>
+        <v>53867</v>
       </c>
       <c r="E54" t="n">
-        <v>53922.2</v>
+        <v>53948.1</v>
       </c>
       <c r="F54" t="n">
-        <v>43.9521687</v>
+        <v>42.3860787</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45542.91666666666</v>
+        <v>45542.95833333334</v>
       </c>
       <c r="B55" t="n">
-        <v>53922.2</v>
+        <v>53948.1</v>
       </c>
       <c r="C55" t="n">
-        <v>54066.5</v>
+        <v>54164.4</v>
       </c>
       <c r="D55" t="n">
-        <v>53867</v>
+        <v>53835</v>
       </c>
       <c r="E55" t="n">
-        <v>53948.1</v>
+        <v>54146.4</v>
       </c>
       <c r="F55" t="n">
-        <v>42.3860787</v>
+        <v>37.8398693</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45542.95833333334</v>
+        <v>45543</v>
       </c>
       <c r="B56" t="n">
-        <v>53948.1</v>
+        <v>54146.5</v>
       </c>
       <c r="C56" t="n">
-        <v>54164.4</v>
+        <v>54169.9</v>
       </c>
       <c r="D56" t="n">
-        <v>53835</v>
+        <v>53977</v>
       </c>
       <c r="E56" t="n">
-        <v>54146.4</v>
+        <v>54133.2</v>
       </c>
       <c r="F56" t="n">
-        <v>37.8398693</v>
+        <v>20.90379915</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45543</v>
+        <v>45543.04166666666</v>
       </c>
       <c r="B57" t="n">
-        <v>54146.5</v>
+        <v>54133.3</v>
       </c>
       <c r="C57" t="n">
-        <v>54169.9</v>
+        <v>54329.3</v>
       </c>
       <c r="D57" t="n">
-        <v>53977</v>
+        <v>54133.3</v>
       </c>
       <c r="E57" t="n">
-        <v>54133.2</v>
+        <v>54226.4</v>
       </c>
       <c r="F57" t="n">
-        <v>20.90379915</v>
+        <v>26.84160842</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45543.04166666666</v>
+        <v>45543.08333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>54133.3</v>
+        <v>54226.4</v>
       </c>
       <c r="C58" t="n">
-        <v>54329.3</v>
+        <v>54500</v>
       </c>
       <c r="D58" t="n">
-        <v>54133.3</v>
+        <v>54226.3</v>
       </c>
       <c r="E58" t="n">
-        <v>54226.4</v>
+        <v>54351.9</v>
       </c>
       <c r="F58" t="n">
-        <v>26.84160842</v>
+        <v>51.86378605</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45543.08333333334</v>
+        <v>45543.125</v>
       </c>
       <c r="B59" t="n">
-        <v>54226.4</v>
+        <v>54351.9</v>
       </c>
       <c r="C59" t="n">
-        <v>54500</v>
+        <v>54369.9</v>
       </c>
       <c r="D59" t="n">
-        <v>54226.3</v>
+        <v>54300</v>
       </c>
       <c r="E59" t="n">
-        <v>54351.9</v>
+        <v>54367</v>
       </c>
       <c r="F59" t="n">
-        <v>51.86378605</v>
+        <v>5.87043343</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45543.125</v>
+        <v>45543.16666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>54351.9</v>
+        <v>54367.1</v>
       </c>
       <c r="C60" t="n">
-        <v>54369.9</v>
+        <v>54555.5</v>
       </c>
       <c r="D60" t="n">
-        <v>54300</v>
+        <v>54367</v>
       </c>
       <c r="E60" t="n">
-        <v>54367</v>
+        <v>54485.8</v>
       </c>
       <c r="F60" t="n">
-        <v>5.87043343</v>
+        <v>10.82022916</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45543.16666666666</v>
+        <v>45543.20833333334</v>
       </c>
       <c r="B61" t="n">
-        <v>54367.1</v>
+        <v>54485.9</v>
       </c>
       <c r="C61" t="n">
-        <v>54555.5</v>
+        <v>54517</v>
       </c>
       <c r="D61" t="n">
-        <v>54367</v>
+        <v>54339.1</v>
       </c>
       <c r="E61" t="n">
-        <v>54485.8</v>
+        <v>54339.1</v>
       </c>
       <c r="F61" t="n">
-        <v>10.82022916</v>
+        <v>11.13993271</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45543.20833333334</v>
+        <v>45543.25</v>
       </c>
       <c r="B62" t="n">
-        <v>54485.9</v>
+        <v>54339.2</v>
       </c>
       <c r="C62" t="n">
-        <v>54517</v>
+        <v>54413.2</v>
       </c>
       <c r="D62" t="n">
-        <v>54339.1</v>
+        <v>54290</v>
       </c>
       <c r="E62" t="n">
-        <v>54339.1</v>
+        <v>54290.1</v>
       </c>
       <c r="F62" t="n">
-        <v>11.13993271</v>
+        <v>11.75655365</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45543.25</v>
+        <v>45543.29166666666</v>
       </c>
       <c r="B63" t="n">
-        <v>54339.2</v>
+        <v>54290.1</v>
       </c>
       <c r="C63" t="n">
-        <v>54413.2</v>
+        <v>54505.5</v>
       </c>
       <c r="D63" t="n">
         <v>54290</v>
       </c>
       <c r="E63" t="n">
-        <v>54290.1</v>
+        <v>54454.1</v>
       </c>
       <c r="F63" t="n">
-        <v>11.75655365</v>
+        <v>12.81992423</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45543.29166666666</v>
+        <v>45543.33333333334</v>
       </c>
       <c r="B64" t="n">
-        <v>54290.1</v>
+        <v>54454.2</v>
       </c>
       <c r="C64" t="n">
-        <v>54505.5</v>
+        <v>54454.2</v>
       </c>
       <c r="D64" t="n">
-        <v>54290</v>
+        <v>54345.6</v>
       </c>
       <c r="E64" t="n">
-        <v>54454.1</v>
+        <v>54444.9</v>
       </c>
       <c r="F64" t="n">
-        <v>12.81992423</v>
+        <v>9.92177676</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45543.33333333334</v>
+        <v>45543.375</v>
       </c>
       <c r="B65" t="n">
-        <v>54454.2</v>
+        <v>54445</v>
       </c>
       <c r="C65" t="n">
-        <v>54454.2</v>
+        <v>54693.3</v>
       </c>
       <c r="D65" t="n">
-        <v>54345.6</v>
+        <v>54445</v>
       </c>
       <c r="E65" t="n">
-        <v>54444.9</v>
+        <v>54470.2</v>
       </c>
       <c r="F65" t="n">
-        <v>9.92177676</v>
+        <v>32.08276011</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45543.375</v>
+        <v>45543.41666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>54445</v>
+        <v>54470.2</v>
       </c>
       <c r="C66" t="n">
-        <v>54693.3</v>
+        <v>54624.5</v>
       </c>
       <c r="D66" t="n">
-        <v>54445</v>
+        <v>54470.1</v>
       </c>
       <c r="E66" t="n">
-        <v>54470.2</v>
+        <v>54603.2</v>
       </c>
       <c r="F66" t="n">
-        <v>32.08276011</v>
+        <v>9.292037880000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45543.41666666666</v>
+        <v>45543.45833333334</v>
       </c>
       <c r="B67" t="n">
-        <v>54470.2</v>
+        <v>54603.2</v>
       </c>
       <c r="C67" t="n">
-        <v>54624.5</v>
+        <v>54660.5</v>
       </c>
       <c r="D67" t="n">
-        <v>54470.1</v>
+        <v>54504.1</v>
       </c>
       <c r="E67" t="n">
-        <v>54603.2</v>
+        <v>54551.5</v>
       </c>
       <c r="F67" t="n">
-        <v>9.292037880000001</v>
+        <v>32.34354621</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45543.45833333334</v>
+        <v>45543.5</v>
       </c>
       <c r="B68" t="n">
-        <v>54603.2</v>
+        <v>54553.3</v>
       </c>
       <c r="C68" t="n">
-        <v>54660.5</v>
+        <v>54555</v>
       </c>
       <c r="D68" t="n">
-        <v>54504.1</v>
+        <v>54131.9</v>
       </c>
       <c r="E68" t="n">
-        <v>54551.5</v>
+        <v>54198.2</v>
       </c>
       <c r="F68" t="n">
-        <v>32.34354621</v>
+        <v>34.3787407</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45543.5</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="B69" t="n">
-        <v>54553.3</v>
+        <v>54198.3</v>
       </c>
       <c r="C69" t="n">
-        <v>54555</v>
+        <v>54399.9</v>
       </c>
       <c r="D69" t="n">
-        <v>54131.9</v>
+        <v>54076.7</v>
       </c>
       <c r="E69" t="n">
-        <v>54198.2</v>
+        <v>54399.8</v>
       </c>
       <c r="F69" t="n">
-        <v>34.3787407</v>
+        <v>16.87738234</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45543.54166666666</v>
+        <v>45543.58333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>54198.3</v>
+        <v>54399.9</v>
       </c>
       <c r="C70" t="n">
         <v>54399.9</v>
       </c>
       <c r="D70" t="n">
-        <v>54076.7</v>
+        <v>54100</v>
       </c>
       <c r="E70" t="n">
-        <v>54399.8</v>
+        <v>54150</v>
       </c>
       <c r="F70" t="n">
-        <v>16.87738234</v>
+        <v>20.05291836</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45543.58333333334</v>
+        <v>45543.625</v>
       </c>
       <c r="B71" t="n">
-        <v>54399.9</v>
+        <v>54150.1</v>
       </c>
       <c r="C71" t="n">
-        <v>54399.9</v>
+        <v>54151</v>
       </c>
       <c r="D71" t="n">
-        <v>54100</v>
+        <v>53643.7</v>
       </c>
       <c r="E71" t="n">
-        <v>54150</v>
+        <v>53686.6</v>
       </c>
       <c r="F71" t="n">
-        <v>20.05291836</v>
+        <v>106.36885184</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45543.625</v>
+        <v>45543.66666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>54150.1</v>
+        <v>53689.6</v>
       </c>
       <c r="C72" t="n">
-        <v>54151</v>
+        <v>54008.6</v>
       </c>
       <c r="D72" t="n">
-        <v>53643.7</v>
+        <v>53636.6</v>
       </c>
       <c r="E72" t="n">
-        <v>53686.6</v>
+        <v>53918.3</v>
       </c>
       <c r="F72" t="n">
-        <v>106.36885184</v>
+        <v>53.34825894</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45543.66666666666</v>
+        <v>45543.70833333334</v>
       </c>
       <c r="B73" t="n">
-        <v>53689.6</v>
+        <v>53918.3</v>
       </c>
       <c r="C73" t="n">
-        <v>54008.6</v>
+        <v>54510.8</v>
       </c>
       <c r="D73" t="n">
-        <v>53636.6</v>
+        <v>53918.3</v>
       </c>
       <c r="E73" t="n">
-        <v>53918.3</v>
+        <v>54509</v>
       </c>
       <c r="F73" t="n">
-        <v>53.34825894</v>
+        <v>50.06330475</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45543.70833333334</v>
+        <v>45543.75</v>
       </c>
       <c r="B74" t="n">
-        <v>53918.3</v>
+        <v>54509</v>
       </c>
       <c r="C74" t="n">
-        <v>54510.8</v>
+        <v>54510.9</v>
       </c>
       <c r="D74" t="n">
-        <v>53918.3</v>
+        <v>54279.4</v>
       </c>
       <c r="E74" t="n">
-        <v>54509</v>
+        <v>54428</v>
       </c>
       <c r="F74" t="n">
-        <v>50.06330475</v>
+        <v>122.93167411</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45543.75</v>
+        <v>45543.79166666666</v>
       </c>
       <c r="B75" t="n">
-        <v>54509</v>
+        <v>54428</v>
       </c>
       <c r="C75" t="n">
-        <v>54510.9</v>
+        <v>54466.1</v>
       </c>
       <c r="D75" t="n">
-        <v>54279.4</v>
+        <v>54325.9</v>
       </c>
       <c r="E75" t="n">
-        <v>54428</v>
+        <v>54341.5</v>
       </c>
       <c r="F75" t="n">
-        <v>122.93167411</v>
+        <v>10.97314122</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45543.79166666666</v>
+        <v>45543.83333333334</v>
       </c>
       <c r="B76" t="n">
-        <v>54428</v>
+        <v>54341.5</v>
       </c>
       <c r="C76" t="n">
-        <v>54466.1</v>
+        <v>54380.2</v>
       </c>
       <c r="D76" t="n">
-        <v>54325.9</v>
+        <v>54186.1</v>
       </c>
       <c r="E76" t="n">
-        <v>54341.5</v>
+        <v>54380</v>
       </c>
       <c r="F76" t="n">
-        <v>10.97314122</v>
+        <v>13.63001727</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45543.83333333334</v>
+        <v>45543.875</v>
       </c>
       <c r="B77" t="n">
-        <v>54341.5</v>
+        <v>54380.1</v>
       </c>
       <c r="C77" t="n">
-        <v>54380.2</v>
+        <v>54570.2</v>
       </c>
       <c r="D77" t="n">
-        <v>54186.1</v>
+        <v>54345.1</v>
       </c>
       <c r="E77" t="n">
-        <v>54380</v>
+        <v>54465.2</v>
       </c>
       <c r="F77" t="n">
-        <v>13.63001727</v>
+        <v>30.41859799</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45543.875</v>
+        <v>45543.91666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>54380.1</v>
+        <v>54465.2</v>
       </c>
       <c r="C78" t="n">
-        <v>54570.2</v>
+        <v>55317.6</v>
       </c>
       <c r="D78" t="n">
-        <v>54345.1</v>
+        <v>54365.8</v>
       </c>
       <c r="E78" t="n">
-        <v>54465.2</v>
+        <v>54526.4</v>
       </c>
       <c r="F78" t="n">
-        <v>30.41859799</v>
+        <v>253.41859302</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45543.91666666666</v>
+        <v>45543.95833333334</v>
       </c>
       <c r="B79" t="n">
-        <v>54465.2</v>
+        <v>54533.2</v>
       </c>
       <c r="C79" t="n">
-        <v>55317.6</v>
+        <v>54943.4</v>
       </c>
       <c r="D79" t="n">
-        <v>54365.8</v>
+        <v>54464.2</v>
       </c>
       <c r="E79" t="n">
-        <v>54526.4</v>
+        <v>54856.8</v>
       </c>
       <c r="F79" t="n">
-        <v>253.41859302</v>
+        <v>32.52291682</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45543.95833333334</v>
+        <v>45544</v>
       </c>
       <c r="B80" t="n">
-        <v>54533.2</v>
+        <v>54856.9</v>
       </c>
       <c r="C80" t="n">
-        <v>54943.4</v>
+        <v>55198.8</v>
       </c>
       <c r="D80" t="n">
-        <v>54464.2</v>
+        <v>54739.4</v>
       </c>
       <c r="E80" t="n">
-        <v>54856.8</v>
+        <v>55065.2</v>
       </c>
       <c r="F80" t="n">
-        <v>32.52291682</v>
+        <v>109.43843154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45544</v>
+        <v>45544.04166666666</v>
       </c>
       <c r="B81" t="n">
-        <v>54856.9</v>
+        <v>55065.2</v>
       </c>
       <c r="C81" t="n">
-        <v>55198.8</v>
+        <v>55371</v>
       </c>
       <c r="D81" t="n">
-        <v>54739.4</v>
+        <v>54914.5</v>
       </c>
       <c r="E81" t="n">
-        <v>55065.2</v>
+        <v>55098.6</v>
       </c>
       <c r="F81" t="n">
-        <v>109.43843154</v>
+        <v>50.89663273</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45544.04166666666</v>
+        <v>45544.08333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>55065.2</v>
+        <v>55098.7</v>
       </c>
       <c r="C82" t="n">
-        <v>55371</v>
+        <v>55122.4</v>
       </c>
       <c r="D82" t="n">
-        <v>54914.5</v>
+        <v>54846.9</v>
       </c>
       <c r="E82" t="n">
-        <v>55098.6</v>
+        <v>55113.3</v>
       </c>
       <c r="F82" t="n">
-        <v>50.89663273</v>
+        <v>11.00599009</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45544.08333333334</v>
+        <v>45544.125</v>
       </c>
       <c r="B83" t="n">
-        <v>55098.7</v>
+        <v>55113.4</v>
       </c>
       <c r="C83" t="n">
-        <v>55122.4</v>
+        <v>55183.6</v>
       </c>
       <c r="D83" t="n">
-        <v>54846.9</v>
+        <v>54818.3</v>
       </c>
       <c r="E83" t="n">
-        <v>55113.3</v>
+        <v>55117</v>
       </c>
       <c r="F83" t="n">
-        <v>11.00599009</v>
+        <v>31.10210406</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45544.125</v>
+        <v>45544.16666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>55113.4</v>
+        <v>55118.2</v>
       </c>
       <c r="C84" t="n">
-        <v>55183.6</v>
+        <v>55147.1</v>
       </c>
       <c r="D84" t="n">
-        <v>54818.3</v>
+        <v>54890</v>
       </c>
       <c r="E84" t="n">
-        <v>55117</v>
+        <v>54890</v>
       </c>
       <c r="F84" t="n">
-        <v>31.10210406</v>
+        <v>18.80635264</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45544.16666666666</v>
+        <v>45544.20833333334</v>
       </c>
       <c r="B85" t="n">
-        <v>55118.2</v>
+        <v>54890.1</v>
       </c>
       <c r="C85" t="n">
-        <v>55147.1</v>
+        <v>54900</v>
       </c>
       <c r="D85" t="n">
-        <v>54890</v>
+        <v>54580.3</v>
       </c>
       <c r="E85" t="n">
-        <v>54890</v>
+        <v>54657.9</v>
       </c>
       <c r="F85" t="n">
-        <v>18.80635264</v>
+        <v>28.77866165</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45544.20833333334</v>
+        <v>45544.25</v>
       </c>
       <c r="B86" t="n">
-        <v>54890.1</v>
+        <v>54668.3</v>
       </c>
       <c r="C86" t="n">
-        <v>54900</v>
+        <v>54930.2</v>
       </c>
       <c r="D86" t="n">
-        <v>54580.3</v>
+        <v>54640.6</v>
       </c>
       <c r="E86" t="n">
-        <v>54657.9</v>
+        <v>54890.5</v>
       </c>
       <c r="F86" t="n">
-        <v>28.77866165</v>
+        <v>10.78709476</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45544.25</v>
+        <v>45544.29166666666</v>
       </c>
       <c r="B87" t="n">
-        <v>54668.3</v>
+        <v>54890.5</v>
       </c>
       <c r="C87" t="n">
-        <v>54930.2</v>
+        <v>54994.7</v>
       </c>
       <c r="D87" t="n">
-        <v>54640.6</v>
+        <v>54760</v>
       </c>
       <c r="E87" t="n">
-        <v>54890.5</v>
+        <v>54974.4</v>
       </c>
       <c r="F87" t="n">
-        <v>10.78709476</v>
+        <v>15.15384588</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45544.29166666666</v>
+        <v>45544.33333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>54890.5</v>
+        <v>54968.6</v>
       </c>
       <c r="C88" t="n">
-        <v>54994.7</v>
+        <v>55300</v>
       </c>
       <c r="D88" t="n">
-        <v>54760</v>
+        <v>54968.6</v>
       </c>
       <c r="E88" t="n">
-        <v>54974.4</v>
+        <v>55228.2</v>
       </c>
       <c r="F88" t="n">
-        <v>15.15384588</v>
+        <v>21.7036124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45544.33333333334</v>
+        <v>45544.375</v>
       </c>
       <c r="B89" t="n">
-        <v>54968.6</v>
+        <v>55228.3</v>
       </c>
       <c r="C89" t="n">
-        <v>55300</v>
+        <v>55500</v>
       </c>
       <c r="D89" t="n">
-        <v>54968.6</v>
+        <v>55132.3</v>
       </c>
       <c r="E89" t="n">
-        <v>55228.2</v>
+        <v>55155</v>
       </c>
       <c r="F89" t="n">
-        <v>21.7036124</v>
+        <v>34.5143033</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45544.375</v>
+        <v>45544.41666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>55228.3</v>
+        <v>55155.1</v>
       </c>
       <c r="C90" t="n">
-        <v>55500</v>
+        <v>55433.4</v>
       </c>
       <c r="D90" t="n">
-        <v>55132.3</v>
+        <v>55098.5</v>
       </c>
       <c r="E90" t="n">
-        <v>55155</v>
+        <v>55380</v>
       </c>
       <c r="F90" t="n">
-        <v>34.5143033</v>
+        <v>40.86992649</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45544.41666666666</v>
+        <v>45544.45833333334</v>
       </c>
       <c r="B91" t="n">
-        <v>55155.1</v>
+        <v>55380.1</v>
       </c>
       <c r="C91" t="n">
-        <v>55433.4</v>
+        <v>55380.1</v>
       </c>
       <c r="D91" t="n">
-        <v>55098.5</v>
+        <v>55183.7</v>
       </c>
       <c r="E91" t="n">
-        <v>55380</v>
+        <v>55245</v>
       </c>
       <c r="F91" t="n">
-        <v>40.86992649</v>
+        <v>41.46124632</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45544.45833333334</v>
+        <v>45544.5</v>
       </c>
       <c r="B92" t="n">
-        <v>55380.1</v>
+        <v>55245</v>
       </c>
       <c r="C92" t="n">
-        <v>55380.1</v>
+        <v>55333.7</v>
       </c>
       <c r="D92" t="n">
-        <v>55183.7</v>
+        <v>54975.9</v>
       </c>
       <c r="E92" t="n">
-        <v>55245</v>
+        <v>55333.7</v>
       </c>
       <c r="F92" t="n">
-        <v>41.46124632</v>
+        <v>36.69056772</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45544.5</v>
+        <v>45544.54166666666</v>
       </c>
       <c r="B93" t="n">
-        <v>55245</v>
+        <v>55333.7</v>
       </c>
       <c r="C93" t="n">
-        <v>55333.7</v>
+        <v>55756.4</v>
       </c>
       <c r="D93" t="n">
-        <v>54975.9</v>
+        <v>55278.4</v>
       </c>
       <c r="E93" t="n">
-        <v>55333.7</v>
+        <v>55694.1</v>
       </c>
       <c r="F93" t="n">
-        <v>36.69056772</v>
+        <v>119.28896421</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45544.54166666666</v>
+        <v>45544.58333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>55333.7</v>
+        <v>55691.7</v>
       </c>
       <c r="C94" t="n">
-        <v>55756.4</v>
+        <v>55738.6</v>
       </c>
       <c r="D94" t="n">
-        <v>55278.4</v>
+        <v>54843.2</v>
       </c>
       <c r="E94" t="n">
-        <v>55694.1</v>
+        <v>54869.8</v>
       </c>
       <c r="F94" t="n">
-        <v>119.28896421</v>
+        <v>93.8935326</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45544.58333333334</v>
+        <v>45544.625</v>
       </c>
       <c r="B95" t="n">
-        <v>55691.7</v>
+        <v>54869.8</v>
       </c>
       <c r="C95" t="n">
-        <v>55738.6</v>
+        <v>55445</v>
       </c>
       <c r="D95" t="n">
-        <v>54843.2</v>
+        <v>54863.6</v>
       </c>
       <c r="E95" t="n">
-        <v>54869.8</v>
+        <v>55375.2</v>
       </c>
       <c r="F95" t="n">
-        <v>93.8935326</v>
+        <v>85.01707363</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45544.625</v>
+        <v>45544.66666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>54869.8</v>
+        <v>55379.6</v>
       </c>
       <c r="C96" t="n">
-        <v>55445</v>
+        <v>56500</v>
       </c>
       <c r="D96" t="n">
-        <v>54863.6</v>
+        <v>55367.2</v>
       </c>
       <c r="E96" t="n">
-        <v>55375.2</v>
+        <v>56482.4</v>
       </c>
       <c r="F96" t="n">
-        <v>85.01707363</v>
+        <v>132.96547263</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45544.66666666666</v>
+        <v>45544.70833333334</v>
       </c>
       <c r="B97" t="n">
-        <v>55379.6</v>
+        <v>56473.1</v>
       </c>
       <c r="C97" t="n">
-        <v>56500</v>
+        <v>56736.5</v>
       </c>
       <c r="D97" t="n">
-        <v>55367.2</v>
+        <v>56383.8</v>
       </c>
       <c r="E97" t="n">
-        <v>56482.4</v>
+        <v>56550.5</v>
       </c>
       <c r="F97" t="n">
-        <v>132.96547263</v>
+        <v>149.28577657</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45544.70833333334</v>
+        <v>45544.75</v>
       </c>
       <c r="B98" t="n">
-        <v>56473.1</v>
+        <v>56538</v>
       </c>
       <c r="C98" t="n">
-        <v>56736.5</v>
+        <v>56636.9</v>
       </c>
       <c r="D98" t="n">
-        <v>56383.8</v>
+        <v>56292.2</v>
       </c>
       <c r="E98" t="n">
-        <v>56550.5</v>
+        <v>56533</v>
       </c>
       <c r="F98" t="n">
-        <v>149.28577657</v>
+        <v>118.72189886</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45544.75</v>
+        <v>45544.79166666666</v>
       </c>
       <c r="B99" t="n">
-        <v>56538</v>
+        <v>56533</v>
       </c>
       <c r="C99" t="n">
-        <v>56636.9</v>
+        <v>57183.2</v>
       </c>
       <c r="D99" t="n">
-        <v>56292.2</v>
+        <v>56484.5</v>
       </c>
       <c r="E99" t="n">
-        <v>56533</v>
+        <v>57142.4</v>
       </c>
       <c r="F99" t="n">
-        <v>118.72189886</v>
+        <v>269.07095117</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45544.79166666666</v>
+        <v>45544.83333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>56533</v>
+        <v>57142.4</v>
       </c>
       <c r="C100" t="n">
-        <v>57183.2</v>
+        <v>57144.3</v>
       </c>
       <c r="D100" t="n">
-        <v>56484.5</v>
+        <v>56818.2</v>
       </c>
       <c r="E100" t="n">
-        <v>57142.4</v>
+        <v>57025.1</v>
       </c>
       <c r="F100" t="n">
-        <v>269.07095117</v>
+        <v>62.15684921</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45544.83333333334</v>
+        <v>45544.875</v>
       </c>
       <c r="B101" t="n">
-        <v>57142.4</v>
+        <v>57027.8</v>
       </c>
       <c r="C101" t="n">
-        <v>57144.3</v>
+        <v>58050.8</v>
       </c>
       <c r="D101" t="n">
-        <v>56818.2</v>
+        <v>57014.8</v>
       </c>
       <c r="E101" t="n">
-        <v>57025.1</v>
+        <v>57459.9</v>
       </c>
       <c r="F101" t="n">
-        <v>62.15684921</v>
+        <v>219.44661812</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45544.875</v>
+        <v>45544.91666666666</v>
       </c>
       <c r="B102" t="n">
-        <v>57027.8</v>
+        <v>57459.9</v>
       </c>
       <c r="C102" t="n">
-        <v>58050.8</v>
+        <v>57605</v>
       </c>
       <c r="D102" t="n">
-        <v>57014.8</v>
+        <v>57217</v>
       </c>
       <c r="E102" t="n">
-        <v>57459.9</v>
+        <v>57224.7</v>
       </c>
       <c r="F102" t="n">
-        <v>219.44661812</v>
+        <v>53.22623212</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45544.91666666666</v>
+        <v>45544.95833333334</v>
       </c>
       <c r="B103" t="n">
-        <v>57459.9</v>
+        <v>57228.1</v>
       </c>
       <c r="C103" t="n">
-        <v>57605</v>
+        <v>57269.7</v>
       </c>
       <c r="D103" t="n">
-        <v>57217</v>
+        <v>57016</v>
       </c>
       <c r="E103" t="n">
-        <v>57224.7</v>
+        <v>57062.7</v>
       </c>
       <c r="F103" t="n">
-        <v>53.22623212</v>
+        <v>52.36841481</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45544.95833333334</v>
+        <v>45545</v>
       </c>
       <c r="B104" t="n">
-        <v>57228.1</v>
+        <v>57062.7</v>
       </c>
       <c r="C104" t="n">
-        <v>57269.7</v>
+        <v>57073.7</v>
       </c>
       <c r="D104" t="n">
-        <v>57016</v>
+        <v>56640.3</v>
       </c>
       <c r="E104" t="n">
-        <v>57062.7</v>
+        <v>57000</v>
       </c>
       <c r="F104" t="n">
-        <v>52.36841481</v>
+        <v>124.30249195</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45545</v>
+        <v>45545.04166666666</v>
       </c>
       <c r="B105" t="n">
-        <v>57062.7</v>
+        <v>57000</v>
       </c>
       <c r="C105" t="n">
-        <v>57073.7</v>
+        <v>57029.2</v>
       </c>
       <c r="D105" t="n">
-        <v>56640.3</v>
+        <v>56750</v>
       </c>
       <c r="E105" t="n">
-        <v>57000</v>
+        <v>56933.3</v>
       </c>
       <c r="F105" t="n">
-        <v>124.30249195</v>
+        <v>10.58526313</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45545.04166666666</v>
+        <v>45545.08333333334</v>
       </c>
       <c r="B106" t="n">
-        <v>57000</v>
+        <v>56933.4</v>
       </c>
       <c r="C106" t="n">
-        <v>57029.2</v>
+        <v>56933.4</v>
       </c>
       <c r="D106" t="n">
-        <v>56750</v>
+        <v>56666</v>
       </c>
       <c r="E106" t="n">
-        <v>56933.3</v>
+        <v>56783.8</v>
       </c>
       <c r="F106" t="n">
-        <v>10.58526313</v>
+        <v>11.77174122</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45545.08333333334</v>
+        <v>45545.125</v>
       </c>
       <c r="B107" t="n">
-        <v>56933.4</v>
+        <v>56783.9</v>
       </c>
       <c r="C107" t="n">
-        <v>56933.4</v>
+        <v>56802.1</v>
       </c>
       <c r="D107" t="n">
-        <v>56666</v>
+        <v>56562.5</v>
       </c>
       <c r="E107" t="n">
-        <v>56783.8</v>
+        <v>56562.5</v>
       </c>
       <c r="F107" t="n">
-        <v>11.77174122</v>
+        <v>36.4527845</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45545.125</v>
+        <v>45545.16666666666</v>
       </c>
       <c r="B108" t="n">
-        <v>56783.9</v>
+        <v>56562.5</v>
       </c>
       <c r="C108" t="n">
-        <v>56802.1</v>
+        <v>56725.9</v>
       </c>
       <c r="D108" t="n">
-        <v>56562.5</v>
+        <v>56440.2</v>
       </c>
       <c r="E108" t="n">
-        <v>56562.5</v>
+        <v>56622</v>
       </c>
       <c r="F108" t="n">
-        <v>36.4527845</v>
+        <v>25.9120507</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45545.16666666666</v>
+        <v>45545.20833333334</v>
       </c>
       <c r="B109" t="n">
-        <v>56562.5</v>
+        <v>56622</v>
       </c>
       <c r="C109" t="n">
-        <v>56725.9</v>
+        <v>56936.7</v>
       </c>
       <c r="D109" t="n">
-        <v>56440.2</v>
+        <v>56602.3</v>
       </c>
       <c r="E109" t="n">
-        <v>56622</v>
+        <v>56936.6</v>
       </c>
       <c r="F109" t="n">
-        <v>25.9120507</v>
+        <v>24.8043867</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45545.20833333334</v>
+        <v>45545.25</v>
       </c>
       <c r="B110" t="n">
-        <v>56622</v>
+        <v>56936.7</v>
       </c>
       <c r="C110" t="n">
         <v>56936.7</v>
       </c>
       <c r="D110" t="n">
-        <v>56602.3</v>
+        <v>56802.8</v>
       </c>
       <c r="E110" t="n">
-        <v>56936.6</v>
+        <v>56851.9</v>
       </c>
       <c r="F110" t="n">
-        <v>24.8043867</v>
+        <v>8.40606962</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45545.25</v>
+        <v>45545.29166666666</v>
       </c>
       <c r="B111" t="n">
-        <v>56936.7</v>
+        <v>56852</v>
       </c>
       <c r="C111" t="n">
-        <v>56936.7</v>
+        <v>57286.2</v>
       </c>
       <c r="D111" t="n">
-        <v>56802.8</v>
+        <v>56810.1</v>
       </c>
       <c r="E111" t="n">
-        <v>56851.9</v>
+        <v>57212.9</v>
       </c>
       <c r="F111" t="n">
-        <v>8.40606962</v>
+        <v>50.78825815</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45545.29166666666</v>
+        <v>45545.33333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>56852</v>
+        <v>57217.3</v>
       </c>
       <c r="C112" t="n">
-        <v>57286.2</v>
+        <v>57379.9</v>
       </c>
       <c r="D112" t="n">
-        <v>56810.1</v>
+        <v>57032.5</v>
       </c>
       <c r="E112" t="n">
-        <v>57212.9</v>
+        <v>57036.1</v>
       </c>
       <c r="F112" t="n">
-        <v>50.78825815</v>
+        <v>39.9462827</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45545.33333333334</v>
+        <v>45545.375</v>
       </c>
       <c r="B113" t="n">
-        <v>57217.3</v>
+        <v>57036.1</v>
       </c>
       <c r="C113" t="n">
-        <v>57379.9</v>
+        <v>57227.5</v>
       </c>
       <c r="D113" t="n">
-        <v>57032.5</v>
+        <v>56908.2</v>
       </c>
       <c r="E113" t="n">
-        <v>57036.1</v>
+        <v>57093.3</v>
       </c>
       <c r="F113" t="n">
-        <v>39.9462827</v>
+        <v>29.47849103</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45545.375</v>
+        <v>45545.41666666666</v>
       </c>
       <c r="B114" t="n">
-        <v>57036.1</v>
+        <v>57101</v>
       </c>
       <c r="C114" t="n">
-        <v>57227.5</v>
+        <v>57161</v>
       </c>
       <c r="D114" t="n">
-        <v>56908.2</v>
+        <v>56963.8</v>
       </c>
       <c r="E114" t="n">
-        <v>57093.3</v>
+        <v>57160.9</v>
       </c>
       <c r="F114" t="n">
-        <v>29.47849103</v>
+        <v>35.24688399</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45545.41666666666</v>
+        <v>45545.45833333334</v>
       </c>
       <c r="B115" t="n">
-        <v>57101</v>
+        <v>57161</v>
       </c>
       <c r="C115" t="n">
-        <v>57161</v>
+        <v>57250</v>
       </c>
       <c r="D115" t="n">
-        <v>56963.8</v>
+        <v>57055.4</v>
       </c>
       <c r="E115" t="n">
-        <v>57160.9</v>
+        <v>57237.7</v>
       </c>
       <c r="F115" t="n">
-        <v>35.24688399</v>
+        <v>32.63165726</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45545.45833333334</v>
+        <v>45545.5</v>
       </c>
       <c r="B116" t="n">
-        <v>57161</v>
+        <v>57237.6</v>
       </c>
       <c r="C116" t="n">
-        <v>57250</v>
+        <v>57441</v>
       </c>
       <c r="D116" t="n">
-        <v>57055.4</v>
+        <v>57200</v>
       </c>
       <c r="E116" t="n">
-        <v>57237.7</v>
+        <v>57223.8</v>
       </c>
       <c r="F116" t="n">
-        <v>32.63165726</v>
+        <v>28.49228771</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45545.5</v>
+        <v>45545.54166666666</v>
       </c>
       <c r="B117" t="n">
-        <v>57237.6</v>
+        <v>57223.8</v>
       </c>
       <c r="C117" t="n">
-        <v>57441</v>
+        <v>57223.9</v>
       </c>
       <c r="D117" t="n">
-        <v>57200</v>
+        <v>56667</v>
       </c>
       <c r="E117" t="n">
-        <v>57223.8</v>
+        <v>56749.6</v>
       </c>
       <c r="F117" t="n">
-        <v>28.49228771</v>
+        <v>130.37007829</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45545.54166666666</v>
+        <v>45545.58333333334</v>
       </c>
       <c r="B118" t="n">
-        <v>57223.8</v>
+        <v>56736.2</v>
       </c>
       <c r="C118" t="n">
-        <v>57223.9</v>
+        <v>57136.8</v>
       </c>
       <c r="D118" t="n">
-        <v>56667</v>
+        <v>56515.7</v>
       </c>
       <c r="E118" t="n">
-        <v>56749.6</v>
+        <v>56932.6</v>
       </c>
       <c r="F118" t="n">
-        <v>130.37007829</v>
+        <v>79.85903577000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45545.58333333334</v>
+        <v>45545.625</v>
       </c>
       <c r="B119" t="n">
-        <v>56736.2</v>
+        <v>56937.3</v>
       </c>
       <c r="C119" t="n">
-        <v>57136.8</v>
+        <v>57200</v>
       </c>
       <c r="D119" t="n">
-        <v>56515.7</v>
+        <v>56643.7</v>
       </c>
       <c r="E119" t="n">
-        <v>56932.6</v>
+        <v>56643.7</v>
       </c>
       <c r="F119" t="n">
-        <v>79.85903577000001</v>
+        <v>115.88339517</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45545.625</v>
+        <v>45545.66666666666</v>
       </c>
       <c r="B120" t="n">
-        <v>56937.3</v>
+        <v>56637</v>
       </c>
       <c r="C120" t="n">
-        <v>57200</v>
+        <v>56940.9</v>
       </c>
       <c r="D120" t="n">
-        <v>56643.7</v>
+        <v>56609.7</v>
       </c>
       <c r="E120" t="n">
-        <v>56643.7</v>
+        <v>56850.1</v>
       </c>
       <c r="F120" t="n">
-        <v>115.88339517</v>
+        <v>40.69709196</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45545.66666666666</v>
+        <v>45545.70833333334</v>
       </c>
       <c r="B121" t="n">
-        <v>56637</v>
+        <v>56850</v>
       </c>
       <c r="C121" t="n">
-        <v>56940.9</v>
+        <v>57355</v>
       </c>
       <c r="D121" t="n">
-        <v>56609.7</v>
+        <v>56825</v>
       </c>
       <c r="E121" t="n">
-        <v>56850.1</v>
+        <v>57173.4</v>
       </c>
       <c r="F121" t="n">
-        <v>40.69709196</v>
+        <v>89.60907872</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45545.70833333334</v>
+        <v>45545.75</v>
       </c>
       <c r="B122" t="n">
-        <v>56850</v>
+        <v>57172.6</v>
       </c>
       <c r="C122" t="n">
-        <v>57355</v>
+        <v>57930</v>
       </c>
       <c r="D122" t="n">
-        <v>56825</v>
+        <v>57172.6</v>
       </c>
       <c r="E122" t="n">
-        <v>57173.4</v>
+        <v>57588.2</v>
       </c>
       <c r="F122" t="n">
-        <v>89.60907872</v>
+        <v>121.12331172</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45545.75</v>
+        <v>45545.79166666666</v>
       </c>
       <c r="B123" t="n">
-        <v>57172.6</v>
+        <v>57588.1</v>
       </c>
       <c r="C123" t="n">
-        <v>57930</v>
+        <v>58000</v>
       </c>
       <c r="D123" t="n">
-        <v>57172.6</v>
+        <v>57342.5</v>
       </c>
       <c r="E123" t="n">
-        <v>57588.2</v>
+        <v>57999.9</v>
       </c>
       <c r="F123" t="n">
-        <v>121.12331172</v>
+        <v>76.09617127</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45545.79166666666</v>
+        <v>45545.83333333334</v>
       </c>
       <c r="B124" t="n">
-        <v>57588.1</v>
+        <v>58000</v>
       </c>
       <c r="C124" t="n">
         <v>58000</v>
       </c>
       <c r="D124" t="n">
-        <v>57342.5</v>
+        <v>57570</v>
       </c>
       <c r="E124" t="n">
-        <v>57999.9</v>
+        <v>57570</v>
       </c>
       <c r="F124" t="n">
-        <v>76.09617127</v>
+        <v>46.77217561</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45545.83333333334</v>
+        <v>45545.875</v>
       </c>
       <c r="B125" t="n">
-        <v>58000</v>
+        <v>57582</v>
       </c>
       <c r="C125" t="n">
-        <v>58000</v>
+        <v>57754.2</v>
       </c>
       <c r="D125" t="n">
-        <v>57570</v>
+        <v>57500</v>
       </c>
       <c r="E125" t="n">
-        <v>57570</v>
+        <v>57500</v>
       </c>
       <c r="F125" t="n">
-        <v>46.77217561</v>
+        <v>25.73381028</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45545.875</v>
+        <v>45545.91666666666</v>
       </c>
       <c r="B126" t="n">
-        <v>57582</v>
+        <v>57537.1</v>
       </c>
       <c r="C126" t="n">
-        <v>57754.2</v>
+        <v>57675.2</v>
       </c>
       <c r="D126" t="n">
-        <v>57500</v>
+        <v>57446.8</v>
       </c>
       <c r="E126" t="n">
-        <v>57500</v>
+        <v>57611.3</v>
       </c>
       <c r="F126" t="n">
-        <v>25.73381028</v>
+        <v>21.22680921</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45545.91666666666</v>
+        <v>45545.95833333334</v>
       </c>
       <c r="B127" t="n">
-        <v>57537.1</v>
+        <v>57612</v>
       </c>
       <c r="C127" t="n">
-        <v>57675.2</v>
+        <v>57827.7</v>
       </c>
       <c r="D127" t="n">
-        <v>57446.8</v>
+        <v>57582.7</v>
       </c>
       <c r="E127" t="n">
-        <v>57611.3</v>
+        <v>57630</v>
       </c>
       <c r="F127" t="n">
-        <v>21.22680921</v>
+        <v>28.35226972</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45545.95833333334</v>
+        <v>45546</v>
       </c>
       <c r="B128" t="n">
-        <v>57612</v>
+        <v>57630</v>
       </c>
       <c r="C128" t="n">
-        <v>57827.7</v>
+        <v>57641.6</v>
       </c>
       <c r="D128" t="n">
-        <v>57582.7</v>
+        <v>57479</v>
       </c>
       <c r="E128" t="n">
-        <v>57630</v>
+        <v>57641.6</v>
       </c>
       <c r="F128" t="n">
-        <v>28.35226972</v>
+        <v>27.42197144</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45546</v>
+        <v>45546.04166666666</v>
       </c>
       <c r="B129" t="n">
-        <v>57630</v>
+        <v>57641.6</v>
       </c>
       <c r="C129" t="n">
-        <v>57641.6</v>
+        <v>57737.1</v>
       </c>
       <c r="D129" t="n">
-        <v>57479</v>
+        <v>56684.5</v>
       </c>
       <c r="E129" t="n">
-        <v>57641.6</v>
+        <v>56732.1</v>
       </c>
       <c r="F129" t="n">
-        <v>27.42197144</v>
+        <v>160.15736838</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45546.04166666666</v>
+        <v>45546.08333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>57641.6</v>
+        <v>56735.2</v>
       </c>
       <c r="C130" t="n">
-        <v>57737.1</v>
+        <v>57161.1</v>
       </c>
       <c r="D130" t="n">
-        <v>56684.5</v>
+        <v>56735.1</v>
       </c>
       <c r="E130" t="n">
-        <v>56732.1</v>
+        <v>56922.9</v>
       </c>
       <c r="F130" t="n">
-        <v>160.15736838</v>
+        <v>64.58618459</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45546.08333333334</v>
+        <v>45546.125</v>
       </c>
       <c r="B131" t="n">
-        <v>56735.2</v>
+        <v>56920.1</v>
       </c>
       <c r="C131" t="n">
-        <v>57161.1</v>
+        <v>56963.8</v>
       </c>
       <c r="D131" t="n">
-        <v>56735.1</v>
+        <v>56700</v>
       </c>
       <c r="E131" t="n">
-        <v>56922.9</v>
+        <v>56802.5</v>
       </c>
       <c r="F131" t="n">
-        <v>64.58618459</v>
+        <v>55.13855759</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45546.125</v>
+        <v>45546.16666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>56920.1</v>
+        <v>56814.3</v>
       </c>
       <c r="C132" t="n">
-        <v>56963.8</v>
+        <v>56814.3</v>
       </c>
       <c r="D132" t="n">
-        <v>56700</v>
+        <v>56271.1</v>
       </c>
       <c r="E132" t="n">
-        <v>56802.5</v>
+        <v>56549.9</v>
       </c>
       <c r="F132" t="n">
-        <v>55.13855759</v>
+        <v>61.02966884</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45546.16666666666</v>
+        <v>45546.20833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>56814.3</v>
+        <v>56550</v>
       </c>
       <c r="C133" t="n">
-        <v>56814.3</v>
+        <v>56550</v>
       </c>
       <c r="D133" t="n">
-        <v>56271.1</v>
+        <v>56125</v>
       </c>
       <c r="E133" t="n">
-        <v>56549.9</v>
+        <v>56235.1</v>
       </c>
       <c r="F133" t="n">
-        <v>61.02966884</v>
+        <v>61.11225312</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45546.20833333334</v>
+        <v>45546.25</v>
       </c>
       <c r="B134" t="n">
-        <v>56550</v>
+        <v>56235.1</v>
       </c>
       <c r="C134" t="n">
-        <v>56550</v>
+        <v>56539</v>
       </c>
       <c r="D134" t="n">
-        <v>56125</v>
+        <v>56165.8</v>
       </c>
       <c r="E134" t="n">
-        <v>56235.1</v>
+        <v>56480.1</v>
       </c>
       <c r="F134" t="n">
-        <v>61.11225312</v>
+        <v>28.82677892</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45546.25</v>
+        <v>45546.29166666666</v>
       </c>
       <c r="B135" t="n">
-        <v>56235.1</v>
+        <v>56480.1</v>
       </c>
       <c r="C135" t="n">
-        <v>56539</v>
+        <v>56759.4</v>
       </c>
       <c r="D135" t="n">
-        <v>56165.8</v>
+        <v>56480</v>
       </c>
       <c r="E135" t="n">
-        <v>56480.1</v>
+        <v>56725.7</v>
       </c>
       <c r="F135" t="n">
-        <v>28.82677892</v>
+        <v>20.6743079</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45546.29166666666</v>
+        <v>45546.33333333334</v>
       </c>
       <c r="B136" t="n">
-        <v>56480.1</v>
+        <v>56706.6</v>
       </c>
       <c r="C136" t="n">
-        <v>56759.4</v>
+        <v>56717.6</v>
       </c>
       <c r="D136" t="n">
-        <v>56480</v>
+        <v>56400</v>
       </c>
       <c r="E136" t="n">
-        <v>56725.7</v>
+        <v>56420.6</v>
       </c>
       <c r="F136" t="n">
-        <v>20.6743079</v>
+        <v>18.49624043</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45546.33333333334</v>
+        <v>45546.375</v>
       </c>
       <c r="B137" t="n">
-        <v>56706.6</v>
+        <v>56400.2</v>
       </c>
       <c r="C137" t="n">
-        <v>56717.6</v>
+        <v>56692.7</v>
       </c>
       <c r="D137" t="n">
         <v>56400</v>
       </c>
       <c r="E137" t="n">
-        <v>56420.6</v>
+        <v>56692.7</v>
       </c>
       <c r="F137" t="n">
-        <v>18.49624043</v>
+        <v>11.60082188</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45546.375</v>
+        <v>45546.41666666666</v>
       </c>
       <c r="B138" t="n">
-        <v>56400.2</v>
+        <v>56692.7</v>
       </c>
       <c r="C138" t="n">
-        <v>56692.7</v>
+        <v>56692.9</v>
       </c>
       <c r="D138" t="n">
-        <v>56400</v>
+        <v>56393.9</v>
       </c>
       <c r="E138" t="n">
-        <v>56692.7</v>
+        <v>56509.8</v>
       </c>
       <c r="F138" t="n">
-        <v>11.60082188</v>
+        <v>27.59524229</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45546.41666666666</v>
+        <v>45546.45833333334</v>
       </c>
       <c r="B139" t="n">
-        <v>56692.7</v>
+        <v>56509.8</v>
       </c>
       <c r="C139" t="n">
-        <v>56692.9</v>
+        <v>56892.2</v>
       </c>
       <c r="D139" t="n">
-        <v>56393.9</v>
+        <v>56509.8</v>
       </c>
       <c r="E139" t="n">
-        <v>56509.8</v>
+        <v>56772</v>
       </c>
       <c r="F139" t="n">
-        <v>27.59524229</v>
+        <v>28.06149163</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45546.45833333334</v>
+        <v>45546.5</v>
       </c>
       <c r="B140" t="n">
-        <v>56509.8</v>
+        <v>56772</v>
       </c>
       <c r="C140" t="n">
-        <v>56892.2</v>
+        <v>56888.9</v>
       </c>
       <c r="D140" t="n">
-        <v>56509.8</v>
+        <v>56323.1</v>
       </c>
       <c r="E140" t="n">
-        <v>56772</v>
+        <v>56744.7</v>
       </c>
       <c r="F140" t="n">
-        <v>28.06149163</v>
+        <v>63.52783567</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45546.5</v>
+        <v>45546.54166666666</v>
       </c>
       <c r="B141" t="n">
-        <v>56772</v>
+        <v>56744.8</v>
       </c>
       <c r="C141" t="n">
-        <v>56888.9</v>
+        <v>57127.6</v>
       </c>
       <c r="D141" t="n">
-        <v>56323.1</v>
+        <v>55723.8</v>
       </c>
       <c r="E141" t="n">
-        <v>56744.7</v>
+        <v>55729.2</v>
       </c>
       <c r="F141" t="n">
-        <v>63.52783567</v>
+        <v>173.60082053</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45546.54166666666</v>
+        <v>45546.58333333334</v>
       </c>
       <c r="B142" t="n">
-        <v>56744.8</v>
+        <v>55725.3</v>
       </c>
       <c r="C142" t="n">
-        <v>57127.6</v>
+        <v>55995</v>
       </c>
       <c r="D142" t="n">
-        <v>55723.8</v>
+        <v>55548.1</v>
       </c>
       <c r="E142" t="n">
-        <v>55729.2</v>
+        <v>55918.4</v>
       </c>
       <c r="F142" t="n">
-        <v>173.60082053</v>
+        <v>117.40236574</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45546.58333333334</v>
+        <v>45546.625</v>
       </c>
       <c r="B143" t="n">
-        <v>55725.3</v>
+        <v>55918.4</v>
       </c>
       <c r="C143" t="n">
-        <v>55995</v>
+        <v>57000</v>
       </c>
       <c r="D143" t="n">
-        <v>55548.1</v>
+        <v>55844.9</v>
       </c>
       <c r="E143" t="n">
-        <v>55918.4</v>
+        <v>56716.5</v>
       </c>
       <c r="F143" t="n">
-        <v>117.40236574</v>
+        <v>209.51873003</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45546.625</v>
+        <v>45546.66666666666</v>
       </c>
       <c r="B144" t="n">
-        <v>55918.4</v>
+        <v>56716.6</v>
       </c>
       <c r="C144" t="n">
-        <v>57000</v>
+        <v>57532.2</v>
       </c>
       <c r="D144" t="n">
-        <v>55844.9</v>
+        <v>56653.1</v>
       </c>
       <c r="E144" t="n">
-        <v>56716.5</v>
+        <v>57312.9</v>
       </c>
       <c r="F144" t="n">
-        <v>209.51873003</v>
+        <v>464.5029494</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45546.66666666666</v>
+        <v>45546.70833333334</v>
       </c>
       <c r="B145" t="n">
-        <v>56716.6</v>
+        <v>57312.9</v>
       </c>
       <c r="C145" t="n">
-        <v>57532.2</v>
+        <v>57835</v>
       </c>
       <c r="D145" t="n">
-        <v>56653.1</v>
+        <v>57256.4</v>
       </c>
       <c r="E145" t="n">
-        <v>57312.9</v>
+        <v>57683.6</v>
       </c>
       <c r="F145" t="n">
-        <v>464.5029494</v>
+        <v>111.70456305</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45546.70833333334</v>
+        <v>45546.75</v>
       </c>
       <c r="B146" t="n">
-        <v>57312.9</v>
+        <v>57713.6</v>
       </c>
       <c r="C146" t="n">
-        <v>57835</v>
+        <v>57990</v>
       </c>
       <c r="D146" t="n">
-        <v>57256.4</v>
+        <v>57410.2</v>
       </c>
       <c r="E146" t="n">
-        <v>57683.6</v>
+        <v>57510.8</v>
       </c>
       <c r="F146" t="n">
-        <v>111.70456305</v>
+        <v>143.33644103</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45546.75</v>
+        <v>45546.79166666666</v>
       </c>
       <c r="B147" t="n">
-        <v>57713.6</v>
+        <v>57510.8</v>
       </c>
       <c r="C147" t="n">
-        <v>57990</v>
+        <v>57755.5</v>
       </c>
       <c r="D147" t="n">
-        <v>57410.2</v>
+        <v>57325</v>
       </c>
       <c r="E147" t="n">
-        <v>57510.8</v>
+        <v>57634</v>
       </c>
       <c r="F147" t="n">
-        <v>143.33644103</v>
+        <v>109.7221926</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45546.79166666666</v>
+        <v>45546.83333333334</v>
       </c>
       <c r="B148" t="n">
-        <v>57510.8</v>
+        <v>57634</v>
       </c>
       <c r="C148" t="n">
-        <v>57755.5</v>
+        <v>57670.1</v>
       </c>
       <c r="D148" t="n">
-        <v>57325</v>
+        <v>57454</v>
       </c>
       <c r="E148" t="n">
-        <v>57634</v>
+        <v>57486</v>
       </c>
       <c r="F148" t="n">
-        <v>109.7221926</v>
+        <v>45.50015056</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45546.83333333334</v>
+        <v>45546.875</v>
       </c>
       <c r="B149" t="n">
-        <v>57634</v>
+        <v>57488.3</v>
       </c>
       <c r="C149" t="n">
-        <v>57670.1</v>
+        <v>57562.7</v>
       </c>
       <c r="D149" t="n">
-        <v>57454</v>
+        <v>57296</v>
       </c>
       <c r="E149" t="n">
-        <v>57486</v>
+        <v>57338.6</v>
       </c>
       <c r="F149" t="n">
-        <v>45.50015056</v>
+        <v>64.05662205</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45546.875</v>
+        <v>45546.91666666666</v>
       </c>
       <c r="B150" t="n">
-        <v>57488.3</v>
+        <v>57338.7</v>
       </c>
       <c r="C150" t="n">
-        <v>57562.7</v>
+        <v>57468.1</v>
       </c>
       <c r="D150" t="n">
-        <v>57296</v>
+        <v>57258.7</v>
       </c>
       <c r="E150" t="n">
-        <v>57338.6</v>
+        <v>57468.1</v>
       </c>
       <c r="F150" t="n">
-        <v>64.05662205</v>
+        <v>19.84431286</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45546.91666666666</v>
+        <v>45546.95833333334</v>
       </c>
       <c r="B151" t="n">
-        <v>57338.7</v>
+        <v>57468.1</v>
       </c>
       <c r="C151" t="n">
-        <v>57468.1</v>
+        <v>57509.8</v>
       </c>
       <c r="D151" t="n">
-        <v>57258.7</v>
+        <v>57350.6</v>
       </c>
       <c r="E151" t="n">
-        <v>57468.1</v>
+        <v>57350.6</v>
       </c>
       <c r="F151" t="n">
-        <v>19.84431286</v>
+        <v>20.7118797</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45546.95833333334</v>
+        <v>45547</v>
       </c>
       <c r="B152" t="n">
-        <v>57468.1</v>
+        <v>57350.7</v>
       </c>
       <c r="C152" t="n">
-        <v>57509.8</v>
+        <v>57887</v>
       </c>
       <c r="D152" t="n">
-        <v>57350.6</v>
+        <v>57339</v>
       </c>
       <c r="E152" t="n">
-        <v>57350.6</v>
+        <v>57625.5</v>
       </c>
       <c r="F152" t="n">
-        <v>20.7118797</v>
+        <v>77.93086646</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45547</v>
+        <v>45547.04166666666</v>
       </c>
       <c r="B153" t="n">
-        <v>57350.7</v>
+        <v>57625.6</v>
       </c>
       <c r="C153" t="n">
-        <v>57887</v>
+        <v>58329.7</v>
       </c>
       <c r="D153" t="n">
-        <v>57339</v>
+        <v>57625.6</v>
       </c>
       <c r="E153" t="n">
-        <v>57625.5</v>
+        <v>58124.6</v>
       </c>
       <c r="F153" t="n">
-        <v>77.93086646</v>
+        <v>114.88046024</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45547.04166666666</v>
+        <v>45547.08333333334</v>
       </c>
       <c r="B154" t="n">
-        <v>57625.6</v>
+        <v>58132.4</v>
       </c>
       <c r="C154" t="n">
-        <v>58329.7</v>
+        <v>58450.2</v>
       </c>
       <c r="D154" t="n">
-        <v>57625.6</v>
+        <v>57877.6</v>
       </c>
       <c r="E154" t="n">
-        <v>58124.6</v>
+        <v>57948.7</v>
       </c>
       <c r="F154" t="n">
-        <v>114.88046024</v>
+        <v>135.85915096</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45547.08333333334</v>
+        <v>45547.125</v>
       </c>
       <c r="B155" t="n">
-        <v>58132.4</v>
+        <v>57956.8</v>
       </c>
       <c r="C155" t="n">
-        <v>58450.2</v>
+        <v>58340.6</v>
       </c>
       <c r="D155" t="n">
-        <v>57877.6</v>
+        <v>57948.4</v>
       </c>
       <c r="E155" t="n">
-        <v>57948.7</v>
+        <v>58252</v>
       </c>
       <c r="F155" t="n">
-        <v>135.85915096</v>
+        <v>58.13171961</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45547.125</v>
+        <v>45547.16666666666</v>
       </c>
       <c r="B156" t="n">
-        <v>57956.8</v>
+        <v>58252.1</v>
       </c>
       <c r="C156" t="n">
-        <v>58340.6</v>
+        <v>58430.9</v>
       </c>
       <c r="D156" t="n">
-        <v>57948.4</v>
+        <v>58171.6</v>
       </c>
       <c r="E156" t="n">
-        <v>58252</v>
+        <v>58181.3</v>
       </c>
       <c r="F156" t="n">
-        <v>58.13171961</v>
+        <v>18.04176184</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45547.16666666666</v>
+        <v>45547.20833333334</v>
       </c>
       <c r="B157" t="n">
-        <v>58252.1</v>
+        <v>58181.4</v>
       </c>
       <c r="C157" t="n">
-        <v>58430.9</v>
+        <v>58181.4</v>
       </c>
       <c r="D157" t="n">
-        <v>58171.6</v>
+        <v>57982.3</v>
       </c>
       <c r="E157" t="n">
-        <v>58181.3</v>
+        <v>57982.4</v>
       </c>
       <c r="F157" t="n">
-        <v>18.04176184</v>
+        <v>76.89388025</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45547.20833333334</v>
+        <v>45547.25</v>
       </c>
       <c r="B158" t="n">
-        <v>58181.4</v>
+        <v>57982.4</v>
       </c>
       <c r="C158" t="n">
-        <v>58181.4</v>
+        <v>58082.5</v>
       </c>
       <c r="D158" t="n">
-        <v>57982.3</v>
+        <v>57866.6</v>
       </c>
       <c r="E158" t="n">
-        <v>57982.4</v>
+        <v>57971.1</v>
       </c>
       <c r="F158" t="n">
-        <v>76.89388025</v>
+        <v>15.45957369</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45547.25</v>
+        <v>45547.29166666666</v>
       </c>
       <c r="B159" t="n">
-        <v>57982.4</v>
+        <v>57971.1</v>
       </c>
       <c r="C159" t="n">
-        <v>58082.5</v>
+        <v>58129.5</v>
       </c>
       <c r="D159" t="n">
-        <v>57866.6</v>
+        <v>57908.1</v>
       </c>
       <c r="E159" t="n">
-        <v>57971.1</v>
+        <v>58129.5</v>
       </c>
       <c r="F159" t="n">
-        <v>15.45957369</v>
+        <v>20.635048</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45547.29166666666</v>
+        <v>45547.33333333334</v>
       </c>
       <c r="B160" t="n">
-        <v>57971.1</v>
+        <v>58129.5</v>
       </c>
       <c r="C160" t="n">
-        <v>58129.5</v>
+        <v>58308.8</v>
       </c>
       <c r="D160" t="n">
-        <v>57908.1</v>
+        <v>58129.4</v>
       </c>
       <c r="E160" t="n">
-        <v>58129.5</v>
+        <v>58155.1</v>
       </c>
       <c r="F160" t="n">
-        <v>20.635048</v>
+        <v>37.22937326</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45547.33333333334</v>
+        <v>45547.375</v>
       </c>
       <c r="B161" t="n">
-        <v>58129.5</v>
+        <v>58155.1</v>
       </c>
       <c r="C161" t="n">
-        <v>58308.8</v>
+        <v>58235.5</v>
       </c>
       <c r="D161" t="n">
-        <v>58129.4</v>
+        <v>58038.8</v>
       </c>
       <c r="E161" t="n">
-        <v>58155.1</v>
+        <v>58049.9</v>
       </c>
       <c r="F161" t="n">
-        <v>37.22937326</v>
+        <v>11.66897899</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45547.375</v>
+        <v>45547.41666666666</v>
       </c>
       <c r="B162" t="n">
-        <v>58155.1</v>
+        <v>58050</v>
       </c>
       <c r="C162" t="n">
-        <v>58235.5</v>
+        <v>58098.5</v>
       </c>
       <c r="D162" t="n">
-        <v>58038.8</v>
+        <v>57921</v>
       </c>
       <c r="E162" t="n">
-        <v>58049.9</v>
+        <v>57932.8</v>
       </c>
       <c r="F162" t="n">
-        <v>11.66897899</v>
+        <v>40.67507492</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45547.41666666666</v>
+        <v>45547.45833333334</v>
       </c>
       <c r="B163" t="n">
-        <v>58050</v>
+        <v>57929</v>
       </c>
       <c r="C163" t="n">
-        <v>58098.5</v>
+        <v>58100</v>
       </c>
       <c r="D163" t="n">
-        <v>57921</v>
+        <v>57894.3</v>
       </c>
       <c r="E163" t="n">
-        <v>57932.8</v>
+        <v>58053.2</v>
       </c>
       <c r="F163" t="n">
-        <v>40.67507492</v>
+        <v>8.742557489999999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45547.45833333334</v>
+        <v>45547.5</v>
       </c>
       <c r="B164" t="n">
-        <v>57929</v>
+        <v>58053.2</v>
       </c>
       <c r="C164" t="n">
-        <v>58100</v>
+        <v>58129.5</v>
       </c>
       <c r="D164" t="n">
-        <v>57894.3</v>
+        <v>57649.4</v>
       </c>
       <c r="E164" t="n">
-        <v>58053.2</v>
+        <v>57679.9</v>
       </c>
       <c r="F164" t="n">
-        <v>8.742557489999999</v>
+        <v>88.33643752</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45547.5</v>
+        <v>45547.54166666666</v>
       </c>
       <c r="B165" t="n">
-        <v>58053.2</v>
+        <v>57680</v>
       </c>
       <c r="C165" t="n">
-        <v>58129.5</v>
+        <v>57862.9</v>
       </c>
       <c r="D165" t="n">
-        <v>57649.4</v>
+        <v>57345</v>
       </c>
       <c r="E165" t="n">
-        <v>57679.9</v>
+        <v>57589.1</v>
       </c>
       <c r="F165" t="n">
-        <v>88.33643752</v>
+        <v>75.96589822</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45547.54166666666</v>
+        <v>45547.58333333334</v>
       </c>
       <c r="B166" t="n">
-        <v>57680</v>
+        <v>57600</v>
       </c>
       <c r="C166" t="n">
-        <v>57862.9</v>
+        <v>58546.4</v>
       </c>
       <c r="D166" t="n">
-        <v>57345</v>
+        <v>57596.4</v>
       </c>
       <c r="E166" t="n">
-        <v>57589.1</v>
+        <v>57596.4</v>
       </c>
       <c r="F166" t="n">
-        <v>75.96589822</v>
+        <v>132.92347717</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45547.58333333334</v>
+        <v>45547.625</v>
       </c>
       <c r="B167" t="n">
-        <v>57600</v>
+        <v>57589.6</v>
       </c>
       <c r="C167" t="n">
-        <v>58546.4</v>
+        <v>57856.6</v>
       </c>
       <c r="D167" t="n">
-        <v>57600</v>
+        <v>57427.8</v>
       </c>
       <c r="E167" t="n">
-        <v>58520.6</v>
+        <v>57496.2</v>
       </c>
       <c r="F167" t="n">
-        <v>61.82364526</v>
+        <v>59.98147755</v>
       </c>
     </row>
   </sheetData>
@@ -3845,3322 +3845,3322 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45540.70833333334</v>
+        <v>45540.75</v>
       </c>
       <c r="B2" t="n">
-        <v>2374.78</v>
+        <v>2392.08</v>
       </c>
       <c r="C2" t="n">
-        <v>2391.9</v>
+        <v>2394.72</v>
       </c>
       <c r="D2" t="n">
-        <v>2371.68</v>
+        <v>2388.01</v>
       </c>
       <c r="E2" t="n">
-        <v>2391.9</v>
+        <v>2389.13</v>
       </c>
       <c r="F2" t="n">
-        <v>332.67448795</v>
+        <v>103.5725822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45540.75</v>
+        <v>45540.79166666666</v>
       </c>
       <c r="B3" t="n">
-        <v>2392.08</v>
+        <v>2389.03</v>
       </c>
       <c r="C3" t="n">
-        <v>2394.72</v>
+        <v>2389.42</v>
       </c>
       <c r="D3" t="n">
-        <v>2388.01</v>
+        <v>2347.6</v>
       </c>
       <c r="E3" t="n">
-        <v>2389.13</v>
+        <v>2361.99</v>
       </c>
       <c r="F3" t="n">
-        <v>103.5725822</v>
+        <v>742.49587375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45540.79166666666</v>
+        <v>45540.83333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>2389.03</v>
+        <v>2362</v>
       </c>
       <c r="C4" t="n">
-        <v>2389.42</v>
+        <v>2376.96</v>
       </c>
       <c r="D4" t="n">
-        <v>2347.6</v>
+        <v>2361.99</v>
       </c>
       <c r="E4" t="n">
-        <v>2361.99</v>
+        <v>2368.05</v>
       </c>
       <c r="F4" t="n">
-        <v>742.49587375</v>
+        <v>516.89576491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45540.83333333334</v>
+        <v>45540.875</v>
       </c>
       <c r="B5" t="n">
-        <v>2362</v>
+        <v>2367.49</v>
       </c>
       <c r="C5" t="n">
-        <v>2376.96</v>
+        <v>2376.06</v>
       </c>
       <c r="D5" t="n">
-        <v>2361.99</v>
+        <v>2350.98</v>
       </c>
       <c r="E5" t="n">
-        <v>2368.05</v>
+        <v>2372.08</v>
       </c>
       <c r="F5" t="n">
-        <v>516.89576491</v>
+        <v>816.82794625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45540.875</v>
+        <v>45540.91666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>2367.49</v>
+        <v>2372.08</v>
       </c>
       <c r="C6" t="n">
-        <v>2376.06</v>
+        <v>2373.6</v>
       </c>
       <c r="D6" t="n">
-        <v>2350.98</v>
+        <v>2355.76</v>
       </c>
       <c r="E6" t="n">
-        <v>2372.08</v>
+        <v>2370.49</v>
       </c>
       <c r="F6" t="n">
-        <v>816.82794625</v>
+        <v>220.41855846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45540.91666666666</v>
+        <v>45540.95833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>2372.08</v>
+        <v>2370.49</v>
       </c>
       <c r="C7" t="n">
-        <v>2373.6</v>
+        <v>2372.22</v>
       </c>
       <c r="D7" t="n">
-        <v>2355.76</v>
+        <v>2364.93</v>
       </c>
       <c r="E7" t="n">
-        <v>2370.49</v>
+        <v>2368.47</v>
       </c>
       <c r="F7" t="n">
-        <v>220.41855846</v>
+        <v>98.13638895</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45540.95833333334</v>
+        <v>45541</v>
       </c>
       <c r="B8" t="n">
-        <v>2370.49</v>
+        <v>2368.17</v>
       </c>
       <c r="C8" t="n">
-        <v>2372.22</v>
+        <v>2375.59</v>
       </c>
       <c r="D8" t="n">
-        <v>2364.93</v>
+        <v>2357.12</v>
       </c>
       <c r="E8" t="n">
-        <v>2368.47</v>
+        <v>2371.58</v>
       </c>
       <c r="F8" t="n">
-        <v>98.13638895</v>
+        <v>177.77564688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45541</v>
+        <v>45541.04166666666</v>
       </c>
       <c r="B9" t="n">
-        <v>2368.17</v>
+        <v>2371.59</v>
       </c>
       <c r="C9" t="n">
-        <v>2375.59</v>
+        <v>2397.95</v>
       </c>
       <c r="D9" t="n">
-        <v>2357.12</v>
+        <v>2364.26</v>
       </c>
       <c r="E9" t="n">
-        <v>2371.58</v>
+        <v>2390.76</v>
       </c>
       <c r="F9" t="n">
-        <v>177.77564688</v>
+        <v>277.57343808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45541.04166666666</v>
+        <v>45541.08333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>2371.59</v>
+        <v>2390.77</v>
       </c>
       <c r="C10" t="n">
-        <v>2397.95</v>
+        <v>2406.03</v>
       </c>
       <c r="D10" t="n">
-        <v>2364.26</v>
+        <v>2389.99</v>
       </c>
       <c r="E10" t="n">
-        <v>2390.76</v>
+        <v>2401.36</v>
       </c>
       <c r="F10" t="n">
-        <v>277.57343808</v>
+        <v>130.2975789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45541.08333333334</v>
+        <v>45541.125</v>
       </c>
       <c r="B11" t="n">
-        <v>2390.77</v>
+        <v>2401.36</v>
       </c>
       <c r="C11" t="n">
-        <v>2406.03</v>
+        <v>2402.09</v>
       </c>
       <c r="D11" t="n">
-        <v>2389.99</v>
+        <v>2391.79</v>
       </c>
       <c r="E11" t="n">
-        <v>2401.36</v>
+        <v>2393.47</v>
       </c>
       <c r="F11" t="n">
-        <v>130.2975789</v>
+        <v>125.81183604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45541.125</v>
+        <v>45541.16666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>2401.36</v>
+        <v>2392.33</v>
       </c>
       <c r="C12" t="n">
-        <v>2402.09</v>
+        <v>2395.62</v>
       </c>
       <c r="D12" t="n">
-        <v>2391.79</v>
+        <v>2385.75</v>
       </c>
       <c r="E12" t="n">
-        <v>2393.47</v>
+        <v>2386.92</v>
       </c>
       <c r="F12" t="n">
-        <v>125.81183604</v>
+        <v>62.15647969</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45541.16666666666</v>
+        <v>45541.20833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>2392.33</v>
+        <v>2386.92</v>
       </c>
       <c r="C13" t="n">
-        <v>2395.62</v>
+        <v>2388.76</v>
       </c>
       <c r="D13" t="n">
-        <v>2385.75</v>
+        <v>2376.38</v>
       </c>
       <c r="E13" t="n">
-        <v>2386.92</v>
+        <v>2383.93</v>
       </c>
       <c r="F13" t="n">
-        <v>62.15647969</v>
+        <v>101.75248538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45541.20833333334</v>
+        <v>45541.25</v>
       </c>
       <c r="B14" t="n">
-        <v>2386.92</v>
+        <v>2383.93</v>
       </c>
       <c r="C14" t="n">
-        <v>2388.76</v>
+        <v>2383.95</v>
       </c>
       <c r="D14" t="n">
-        <v>2376.38</v>
+        <v>2373</v>
       </c>
       <c r="E14" t="n">
-        <v>2383.93</v>
+        <v>2378.98</v>
       </c>
       <c r="F14" t="n">
-        <v>101.75248538</v>
+        <v>63.40639599</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45541.25</v>
+        <v>45541.29166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>2383.93</v>
+        <v>2378.98</v>
       </c>
       <c r="C15" t="n">
-        <v>2383.95</v>
+        <v>2378.98</v>
       </c>
       <c r="D15" t="n">
-        <v>2373</v>
+        <v>2323</v>
       </c>
       <c r="E15" t="n">
-        <v>2378.98</v>
+        <v>2345.16</v>
       </c>
       <c r="F15" t="n">
-        <v>63.40639599</v>
+        <v>983.87107455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45541.29166666666</v>
+        <v>45541.33333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>2378.98</v>
+        <v>2345.14</v>
       </c>
       <c r="C16" t="n">
-        <v>2378.98</v>
+        <v>2356.49</v>
       </c>
       <c r="D16" t="n">
-        <v>2323</v>
+        <v>2338.3</v>
       </c>
       <c r="E16" t="n">
-        <v>2345.16</v>
+        <v>2349.72</v>
       </c>
       <c r="F16" t="n">
-        <v>983.87107455</v>
+        <v>199.0108345</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45541.33333333334</v>
+        <v>45541.375</v>
       </c>
       <c r="B17" t="n">
-        <v>2345.14</v>
+        <v>2348.95</v>
       </c>
       <c r="C17" t="n">
-        <v>2356.49</v>
+        <v>2357.1</v>
       </c>
       <c r="D17" t="n">
-        <v>2338.3</v>
+        <v>2345.86</v>
       </c>
       <c r="E17" t="n">
-        <v>2349.72</v>
+        <v>2357.09</v>
       </c>
       <c r="F17" t="n">
-        <v>199.0108345</v>
+        <v>114.06879485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45541.375</v>
+        <v>45541.41666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>2348.95</v>
+        <v>2357.41</v>
       </c>
       <c r="C18" t="n">
-        <v>2357.1</v>
+        <v>2375.59</v>
       </c>
       <c r="D18" t="n">
-        <v>2345.86</v>
+        <v>2355.91</v>
       </c>
       <c r="E18" t="n">
-        <v>2357.09</v>
+        <v>2367.37</v>
       </c>
       <c r="F18" t="n">
-        <v>114.06879485</v>
+        <v>151.11515649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45541.41666666666</v>
+        <v>45541.45833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>2357.41</v>
+        <v>2367.97</v>
       </c>
       <c r="C19" t="n">
-        <v>2375.59</v>
+        <v>2378.76</v>
       </c>
       <c r="D19" t="n">
-        <v>2355.91</v>
+        <v>2365.45</v>
       </c>
       <c r="E19" t="n">
-        <v>2367.37</v>
+        <v>2372.53</v>
       </c>
       <c r="F19" t="n">
-        <v>151.11515649</v>
+        <v>88.81018027</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45541.45833333334</v>
+        <v>45541.5</v>
       </c>
       <c r="B20" t="n">
-        <v>2367.97</v>
+        <v>2372.53</v>
       </c>
       <c r="C20" t="n">
-        <v>2378.76</v>
+        <v>2406.23</v>
       </c>
       <c r="D20" t="n">
-        <v>2365.45</v>
+        <v>2358.6</v>
       </c>
       <c r="E20" t="n">
-        <v>2372.53</v>
+        <v>2399.92</v>
       </c>
       <c r="F20" t="n">
-        <v>88.81018027</v>
+        <v>1307.90948022</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45541.5</v>
+        <v>45541.54166666666</v>
       </c>
       <c r="B21" t="n">
-        <v>2372.53</v>
+        <v>2399.91</v>
       </c>
       <c r="C21" t="n">
-        <v>2406.23</v>
+        <v>2399.92</v>
       </c>
       <c r="D21" t="n">
-        <v>2358.6</v>
+        <v>2358.21</v>
       </c>
       <c r="E21" t="n">
-        <v>2399.92</v>
+        <v>2363.47</v>
       </c>
       <c r="F21" t="n">
-        <v>1307.90948022</v>
+        <v>801.95164553</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45541.54166666666</v>
+        <v>45541.58333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>2399.91</v>
+        <v>2363.27</v>
       </c>
       <c r="C22" t="n">
-        <v>2399.92</v>
+        <v>2365.76</v>
       </c>
       <c r="D22" t="n">
-        <v>2358.21</v>
+        <v>2312.09</v>
       </c>
       <c r="E22" t="n">
-        <v>2363.47</v>
+        <v>2326.96</v>
       </c>
       <c r="F22" t="n">
-        <v>801.95164553</v>
+        <v>1394.53676316</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45541.58333333334</v>
+        <v>45541.625</v>
       </c>
       <c r="B23" t="n">
-        <v>2363.27</v>
+        <v>2326.3</v>
       </c>
       <c r="C23" t="n">
-        <v>2365.76</v>
+        <v>2337.1</v>
       </c>
       <c r="D23" t="n">
-        <v>2312.09</v>
+        <v>2263.74</v>
       </c>
       <c r="E23" t="n">
-        <v>2326.96</v>
+        <v>2288.19</v>
       </c>
       <c r="F23" t="n">
-        <v>1394.53676316</v>
+        <v>6219.49262227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45541.625</v>
+        <v>45541.66666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>2326.3</v>
+        <v>2288.19</v>
       </c>
       <c r="C24" t="n">
-        <v>2337.1</v>
+        <v>2290.31</v>
       </c>
       <c r="D24" t="n">
-        <v>2263.74</v>
+        <v>2250.8</v>
       </c>
       <c r="E24" t="n">
-        <v>2288.19</v>
+        <v>2265.2</v>
       </c>
       <c r="F24" t="n">
-        <v>6219.49262227</v>
+        <v>1522.16232375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45541.66666666666</v>
+        <v>45541.70833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>2288.19</v>
+        <v>2264.96</v>
       </c>
       <c r="C25" t="n">
-        <v>2290.31</v>
+        <v>2274.53</v>
       </c>
       <c r="D25" t="n">
-        <v>2250.8</v>
+        <v>2225.4</v>
       </c>
       <c r="E25" t="n">
-        <v>2265.2</v>
+        <v>2244.8</v>
       </c>
       <c r="F25" t="n">
-        <v>1522.16232375</v>
+        <v>2318.2030541</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45541.70833333334</v>
+        <v>45541.75</v>
       </c>
       <c r="B26" t="n">
-        <v>2264.96</v>
+        <v>2244.81</v>
       </c>
       <c r="C26" t="n">
-        <v>2274.53</v>
+        <v>2245.96</v>
       </c>
       <c r="D26" t="n">
-        <v>2225.4</v>
+        <v>2210.5</v>
       </c>
       <c r="E26" t="n">
-        <v>2244.8</v>
+        <v>2210.5</v>
       </c>
       <c r="F26" t="n">
-        <v>2318.2030541</v>
+        <v>1052.1124154</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45541.75</v>
+        <v>45541.79166666666</v>
       </c>
       <c r="B27" t="n">
-        <v>2244.81</v>
+        <v>2210.01</v>
       </c>
       <c r="C27" t="n">
-        <v>2245.96</v>
+        <v>2241.52</v>
       </c>
       <c r="D27" t="n">
-        <v>2210.5</v>
+        <v>2207.01</v>
       </c>
       <c r="E27" t="n">
-        <v>2210.5</v>
+        <v>2220.74</v>
       </c>
       <c r="F27" t="n">
-        <v>1052.1124154</v>
+        <v>2247.64066529</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45541.79166666666</v>
+        <v>45541.83333333334</v>
       </c>
       <c r="B28" t="n">
-        <v>2210.01</v>
+        <v>2220.02</v>
       </c>
       <c r="C28" t="n">
-        <v>2241.52</v>
+        <v>2226.88</v>
       </c>
       <c r="D28" t="n">
-        <v>2207.01</v>
+        <v>2167.3</v>
       </c>
       <c r="E28" t="n">
-        <v>2220.74</v>
+        <v>2169.17</v>
       </c>
       <c r="F28" t="n">
-        <v>2247.64066529</v>
+        <v>3361.74044142</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45541.83333333334</v>
+        <v>45541.875</v>
       </c>
       <c r="B29" t="n">
-        <v>2220.02</v>
+        <v>2168.49</v>
       </c>
       <c r="C29" t="n">
-        <v>2226.88</v>
+        <v>2218.3</v>
       </c>
       <c r="D29" t="n">
-        <v>2167.3</v>
+        <v>2150</v>
       </c>
       <c r="E29" t="n">
-        <v>2169.17</v>
+        <v>2217.69</v>
       </c>
       <c r="F29" t="n">
-        <v>3361.74044142</v>
+        <v>1346.31685158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45541.875</v>
+        <v>45541.91666666666</v>
       </c>
       <c r="B30" t="n">
-        <v>2168.49</v>
+        <v>2217.68</v>
       </c>
       <c r="C30" t="n">
-        <v>2218.3</v>
+        <v>2221.27</v>
       </c>
       <c r="D30" t="n">
-        <v>2150</v>
+        <v>2206.62</v>
       </c>
       <c r="E30" t="n">
-        <v>2217.69</v>
+        <v>2208.83</v>
       </c>
       <c r="F30" t="n">
-        <v>1346.31685158</v>
+        <v>601.93297089</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45541.91666666666</v>
+        <v>45541.95833333334</v>
       </c>
       <c r="B31" t="n">
-        <v>2217.68</v>
+        <v>2208.8</v>
       </c>
       <c r="C31" t="n">
-        <v>2221.27</v>
+        <v>2224.6</v>
       </c>
       <c r="D31" t="n">
-        <v>2206.62</v>
+        <v>2208.8</v>
       </c>
       <c r="E31" t="n">
-        <v>2208.83</v>
+        <v>2224.45</v>
       </c>
       <c r="F31" t="n">
-        <v>601.93297089</v>
+        <v>144.09728079</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45541.95833333334</v>
+        <v>45542</v>
       </c>
       <c r="B32" t="n">
-        <v>2208.8</v>
+        <v>2224.45</v>
       </c>
       <c r="C32" t="n">
-        <v>2224.6</v>
+        <v>2241.3</v>
       </c>
       <c r="D32" t="n">
-        <v>2208.8</v>
+        <v>2224.44</v>
       </c>
       <c r="E32" t="n">
-        <v>2224.45</v>
+        <v>2233.5</v>
       </c>
       <c r="F32" t="n">
-        <v>144.09728079</v>
+        <v>3415.27140841</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45542</v>
+        <v>45542.04166666666</v>
       </c>
       <c r="B33" t="n">
-        <v>2224.45</v>
+        <v>2233.51</v>
       </c>
       <c r="C33" t="n">
-        <v>2241.3</v>
+        <v>2236.17</v>
       </c>
       <c r="D33" t="n">
-        <v>2224.44</v>
+        <v>2222</v>
       </c>
       <c r="E33" t="n">
-        <v>2233.5</v>
+        <v>2224.98</v>
       </c>
       <c r="F33" t="n">
-        <v>3415.27140841</v>
+        <v>2034.05306651</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45542.04166666666</v>
+        <v>45542.08333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>2233.51</v>
+        <v>2224.97</v>
       </c>
       <c r="C34" t="n">
-        <v>2236.17</v>
+        <v>2239.15</v>
       </c>
       <c r="D34" t="n">
-        <v>2222</v>
+        <v>2223.23</v>
       </c>
       <c r="E34" t="n">
-        <v>2224.98</v>
+        <v>2232.76</v>
       </c>
       <c r="F34" t="n">
-        <v>2034.05306651</v>
+        <v>899.48971262</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45542.08333333334</v>
+        <v>45542.125</v>
       </c>
       <c r="B35" t="n">
-        <v>2224.97</v>
+        <v>2232.87</v>
       </c>
       <c r="C35" t="n">
-        <v>2239.15</v>
+        <v>2240.42</v>
       </c>
       <c r="D35" t="n">
-        <v>2223.23</v>
+        <v>2232.67</v>
       </c>
       <c r="E35" t="n">
-        <v>2232.76</v>
+        <v>2238.02</v>
       </c>
       <c r="F35" t="n">
-        <v>899.48971262</v>
+        <v>175.73439984</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45542.125</v>
+        <v>45542.16666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>2232.87</v>
+        <v>2238.02</v>
       </c>
       <c r="C36" t="n">
-        <v>2240.42</v>
+        <v>2249.97</v>
       </c>
       <c r="D36" t="n">
-        <v>2232.67</v>
+        <v>2238.01</v>
       </c>
       <c r="E36" t="n">
-        <v>2238.02</v>
+        <v>2249.95</v>
       </c>
       <c r="F36" t="n">
-        <v>175.73439984</v>
+        <v>104.09019889</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45542.16666666666</v>
+        <v>45542.20833333334</v>
       </c>
       <c r="B37" t="n">
-        <v>2238.02</v>
+        <v>2249.98</v>
       </c>
       <c r="C37" t="n">
-        <v>2249.97</v>
+        <v>2274.19</v>
       </c>
       <c r="D37" t="n">
-        <v>2238.01</v>
+        <v>2246.48</v>
       </c>
       <c r="E37" t="n">
-        <v>2249.95</v>
+        <v>2262.74</v>
       </c>
       <c r="F37" t="n">
-        <v>104.09019889</v>
+        <v>424.6422858</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45542.20833333334</v>
+        <v>45542.25</v>
       </c>
       <c r="B38" t="n">
-        <v>2249.98</v>
+        <v>2263.55</v>
       </c>
       <c r="C38" t="n">
-        <v>2274.19</v>
+        <v>2280.87</v>
       </c>
       <c r="D38" t="n">
-        <v>2246.48</v>
+        <v>2258.99</v>
       </c>
       <c r="E38" t="n">
-        <v>2262.74</v>
+        <v>2276.69</v>
       </c>
       <c r="F38" t="n">
-        <v>424.6422858</v>
+        <v>176.58492903</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45542.25</v>
+        <v>45542.29166666666</v>
       </c>
       <c r="B39" t="n">
-        <v>2263.55</v>
+        <v>2276.81</v>
       </c>
       <c r="C39" t="n">
-        <v>2280.87</v>
+        <v>2293.44</v>
       </c>
       <c r="D39" t="n">
-        <v>2258.99</v>
+        <v>2275.31</v>
       </c>
       <c r="E39" t="n">
-        <v>2276.69</v>
+        <v>2288.73</v>
       </c>
       <c r="F39" t="n">
-        <v>176.58492903</v>
+        <v>430.04334943</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45542.29166666666</v>
+        <v>45542.33333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>2276.81</v>
+        <v>2288.72</v>
       </c>
       <c r="C40" t="n">
-        <v>2293.44</v>
+        <v>2297.68</v>
       </c>
       <c r="D40" t="n">
-        <v>2275.31</v>
+        <v>2275.92</v>
       </c>
       <c r="E40" t="n">
-        <v>2288.73</v>
+        <v>2295.28</v>
       </c>
       <c r="F40" t="n">
-        <v>430.04334943</v>
+        <v>234.6300542</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45542.33333333334</v>
+        <v>45542.375</v>
       </c>
       <c r="B41" t="n">
-        <v>2288.72</v>
+        <v>2295.59</v>
       </c>
       <c r="C41" t="n">
-        <v>2297.68</v>
+        <v>2295.95</v>
       </c>
       <c r="D41" t="n">
-        <v>2275.92</v>
+        <v>2278.42</v>
       </c>
       <c r="E41" t="n">
-        <v>2295.28</v>
+        <v>2282.27</v>
       </c>
       <c r="F41" t="n">
-        <v>234.6300542</v>
+        <v>59.25080438</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45542.375</v>
+        <v>45542.41666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>2295.59</v>
+        <v>2281.73</v>
       </c>
       <c r="C42" t="n">
-        <v>2295.95</v>
+        <v>2289.21</v>
       </c>
       <c r="D42" t="n">
-        <v>2278.42</v>
+        <v>2281.73</v>
       </c>
       <c r="E42" t="n">
-        <v>2282.27</v>
+        <v>2282.78</v>
       </c>
       <c r="F42" t="n">
-        <v>59.25080438</v>
+        <v>37.73972559</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45542.41666666666</v>
+        <v>45542.45833333334</v>
       </c>
       <c r="B43" t="n">
-        <v>2281.73</v>
+        <v>2282.79</v>
       </c>
       <c r="C43" t="n">
-        <v>2289.21</v>
+        <v>2288.43</v>
       </c>
       <c r="D43" t="n">
-        <v>2281.73</v>
+        <v>2280.5</v>
       </c>
       <c r="E43" t="n">
-        <v>2282.78</v>
+        <v>2284.12</v>
       </c>
       <c r="F43" t="n">
-        <v>37.73972559</v>
+        <v>181.8776094</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45542.45833333334</v>
+        <v>45542.5</v>
       </c>
       <c r="B44" t="n">
-        <v>2282.79</v>
+        <v>2284.12</v>
       </c>
       <c r="C44" t="n">
-        <v>2288.43</v>
+        <v>2295.86</v>
       </c>
       <c r="D44" t="n">
-        <v>2280.5</v>
+        <v>2284.12</v>
       </c>
       <c r="E44" t="n">
-        <v>2284.12</v>
+        <v>2290.55</v>
       </c>
       <c r="F44" t="n">
-        <v>181.8776094</v>
+        <v>255.86659328</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45542.5</v>
+        <v>45542.54166666666</v>
       </c>
       <c r="B45" t="n">
-        <v>2284.12</v>
+        <v>2290.55</v>
       </c>
       <c r="C45" t="n">
-        <v>2295.86</v>
+        <v>2297.61</v>
       </c>
       <c r="D45" t="n">
-        <v>2284.12</v>
+        <v>2282.92</v>
       </c>
       <c r="E45" t="n">
-        <v>2290.55</v>
+        <v>2291.42</v>
       </c>
       <c r="F45" t="n">
-        <v>255.86659328</v>
+        <v>77.38138637</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45542.54166666666</v>
+        <v>45542.58333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>2290.55</v>
+        <v>2291.43</v>
       </c>
       <c r="C46" t="n">
-        <v>2297.61</v>
+        <v>2296.05</v>
       </c>
       <c r="D46" t="n">
-        <v>2282.92</v>
+        <v>2289.23</v>
       </c>
       <c r="E46" t="n">
-        <v>2291.42</v>
+        <v>2293.14</v>
       </c>
       <c r="F46" t="n">
-        <v>77.38138637</v>
+        <v>53.61004501</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45542.58333333334</v>
+        <v>45542.625</v>
       </c>
       <c r="B47" t="n">
-        <v>2291.43</v>
+        <v>2293.15</v>
       </c>
       <c r="C47" t="n">
-        <v>2296.05</v>
+        <v>2309.57</v>
       </c>
       <c r="D47" t="n">
-        <v>2289.23</v>
+        <v>2292</v>
       </c>
       <c r="E47" t="n">
-        <v>2293.14</v>
+        <v>2300.51</v>
       </c>
       <c r="F47" t="n">
-        <v>53.61004501</v>
+        <v>295.14253923</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45542.625</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>2293.15</v>
+        <v>2300.46</v>
       </c>
       <c r="C48" t="n">
-        <v>2309.57</v>
+        <v>2302.64</v>
       </c>
       <c r="D48" t="n">
-        <v>2292</v>
+        <v>2284.06</v>
       </c>
       <c r="E48" t="n">
-        <v>2300.51</v>
+        <v>2290.13</v>
       </c>
       <c r="F48" t="n">
-        <v>295.14253923</v>
+        <v>116.08842429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45542.66666666666</v>
+        <v>45542.70833333334</v>
       </c>
       <c r="B49" t="n">
-        <v>2300.46</v>
+        <v>2289.14</v>
       </c>
       <c r="C49" t="n">
-        <v>2302.64</v>
+        <v>2291.08</v>
       </c>
       <c r="D49" t="n">
-        <v>2284.06</v>
+        <v>2265.01</v>
       </c>
       <c r="E49" t="n">
-        <v>2290.13</v>
+        <v>2271.67</v>
       </c>
       <c r="F49" t="n">
-        <v>116.08842429</v>
+        <v>494.41138065</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45542.70833333334</v>
+        <v>45542.75</v>
       </c>
       <c r="B50" t="n">
-        <v>2289.14</v>
+        <v>2272.61</v>
       </c>
       <c r="C50" t="n">
-        <v>2291.08</v>
+        <v>2287.44</v>
       </c>
       <c r="D50" t="n">
-        <v>2265.01</v>
+        <v>2268.69</v>
       </c>
       <c r="E50" t="n">
-        <v>2271.67</v>
+        <v>2281.35</v>
       </c>
       <c r="F50" t="n">
-        <v>494.41138065</v>
+        <v>83.83117728000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45542.75</v>
+        <v>45542.79166666666</v>
       </c>
       <c r="B51" t="n">
-        <v>2272.61</v>
+        <v>2281.35</v>
       </c>
       <c r="C51" t="n">
-        <v>2287.44</v>
+        <v>2292.35</v>
       </c>
       <c r="D51" t="n">
-        <v>2268.69</v>
+        <v>2280.03</v>
       </c>
       <c r="E51" t="n">
-        <v>2281.35</v>
+        <v>2290.29</v>
       </c>
       <c r="F51" t="n">
-        <v>83.83117728000001</v>
+        <v>121.89588937</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45542.79166666666</v>
+        <v>45542.83333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>2281.35</v>
+        <v>2290.29</v>
       </c>
       <c r="C52" t="n">
-        <v>2292.35</v>
+        <v>2290.29</v>
       </c>
       <c r="D52" t="n">
-        <v>2280.03</v>
+        <v>2272.33</v>
       </c>
       <c r="E52" t="n">
-        <v>2290.29</v>
+        <v>2272.65</v>
       </c>
       <c r="F52" t="n">
-        <v>121.89588937</v>
+        <v>140.77803771</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45542.83333333334</v>
+        <v>45542.875</v>
       </c>
       <c r="B53" t="n">
-        <v>2290.29</v>
+        <v>2271.54</v>
       </c>
       <c r="C53" t="n">
-        <v>2290.29</v>
+        <v>2272.44</v>
       </c>
       <c r="D53" t="n">
-        <v>2272.33</v>
+        <v>2259.48</v>
       </c>
       <c r="E53" t="n">
-        <v>2272.65</v>
+        <v>2264.27</v>
       </c>
       <c r="F53" t="n">
-        <v>140.77803771</v>
+        <v>144.66844278</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45542.875</v>
+        <v>45542.91666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>2271.54</v>
+        <v>2264.51</v>
       </c>
       <c r="C54" t="n">
-        <v>2272.44</v>
+        <v>2269.97</v>
       </c>
       <c r="D54" t="n">
-        <v>2259.48</v>
+        <v>2262.17</v>
       </c>
       <c r="E54" t="n">
-        <v>2264.27</v>
+        <v>2265.35</v>
       </c>
       <c r="F54" t="n">
-        <v>144.66844278</v>
+        <v>90.93648042</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45542.91666666666</v>
+        <v>45542.95833333334</v>
       </c>
       <c r="B55" t="n">
-        <v>2264.51</v>
+        <v>2264.25</v>
       </c>
       <c r="C55" t="n">
-        <v>2269.97</v>
+        <v>2275.78</v>
       </c>
       <c r="D55" t="n">
-        <v>2262.17</v>
+        <v>2258.71</v>
       </c>
       <c r="E55" t="n">
-        <v>2265.35</v>
+        <v>2273.1</v>
       </c>
       <c r="F55" t="n">
-        <v>90.93648042</v>
+        <v>110.30583293</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45542.95833333334</v>
+        <v>45543</v>
       </c>
       <c r="B56" t="n">
-        <v>2264.25</v>
+        <v>2273.11</v>
       </c>
       <c r="C56" t="n">
-        <v>2275.78</v>
+        <v>2274.25</v>
       </c>
       <c r="D56" t="n">
-        <v>2258.71</v>
+        <v>2263.48</v>
       </c>
       <c r="E56" t="n">
-        <v>2273.1</v>
+        <v>2268.98</v>
       </c>
       <c r="F56" t="n">
-        <v>110.30583293</v>
+        <v>565.06845985</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45543</v>
+        <v>45543.04166666666</v>
       </c>
       <c r="B57" t="n">
-        <v>2273.11</v>
+        <v>2268.91</v>
       </c>
       <c r="C57" t="n">
-        <v>2274.25</v>
+        <v>2279.76</v>
       </c>
       <c r="D57" t="n">
-        <v>2263.48</v>
+        <v>2268.87</v>
       </c>
       <c r="E57" t="n">
-        <v>2268.98</v>
+        <v>2279.75</v>
       </c>
       <c r="F57" t="n">
-        <v>565.06845985</v>
+        <v>61.46513248</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45543.04166666666</v>
+        <v>45543.08333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>2268.91</v>
+        <v>2279.76</v>
       </c>
       <c r="C58" t="n">
-        <v>2279.76</v>
+        <v>2287.78</v>
       </c>
       <c r="D58" t="n">
-        <v>2268.87</v>
+        <v>2279.43</v>
       </c>
       <c r="E58" t="n">
-        <v>2279.75</v>
+        <v>2283.49</v>
       </c>
       <c r="F58" t="n">
-        <v>61.46513248</v>
+        <v>262.30890358</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45543.08333333334</v>
+        <v>45543.125</v>
       </c>
       <c r="B59" t="n">
-        <v>2279.76</v>
+        <v>2283.93</v>
       </c>
       <c r="C59" t="n">
-        <v>2287.78</v>
+        <v>2286.58</v>
       </c>
       <c r="D59" t="n">
-        <v>2279.43</v>
+        <v>2280.25</v>
       </c>
       <c r="E59" t="n">
-        <v>2283.49</v>
+        <v>2285.11</v>
       </c>
       <c r="F59" t="n">
-        <v>262.30890358</v>
+        <v>82.83881843</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45543.125</v>
+        <v>45543.16666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>2283.93</v>
+        <v>2285.11</v>
       </c>
       <c r="C60" t="n">
-        <v>2286.58</v>
+        <v>2302.76</v>
       </c>
       <c r="D60" t="n">
-        <v>2280.25</v>
+        <v>2285.1</v>
       </c>
       <c r="E60" t="n">
-        <v>2285.11</v>
+        <v>2299</v>
       </c>
       <c r="F60" t="n">
-        <v>82.83881843</v>
+        <v>84.99304845</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45543.16666666666</v>
+        <v>45543.20833333334</v>
       </c>
       <c r="B61" t="n">
-        <v>2285.11</v>
+        <v>2299.01</v>
       </c>
       <c r="C61" t="n">
-        <v>2302.76</v>
+        <v>2299.01</v>
       </c>
       <c r="D61" t="n">
-        <v>2285.1</v>
+        <v>2283.98</v>
       </c>
       <c r="E61" t="n">
-        <v>2299</v>
+        <v>2284.88</v>
       </c>
       <c r="F61" t="n">
-        <v>84.99304845</v>
+        <v>218.53674292</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45543.20833333334</v>
+        <v>45543.25</v>
       </c>
       <c r="B62" t="n">
-        <v>2299.01</v>
+        <v>2284.88</v>
       </c>
       <c r="C62" t="n">
-        <v>2299.01</v>
+        <v>2287.75</v>
       </c>
       <c r="D62" t="n">
-        <v>2283.98</v>
+        <v>2284.73</v>
       </c>
       <c r="E62" t="n">
-        <v>2284.88</v>
+        <v>2286.5</v>
       </c>
       <c r="F62" t="n">
-        <v>218.53674292</v>
+        <v>104.31176556</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45543.25</v>
+        <v>45543.29166666666</v>
       </c>
       <c r="B63" t="n">
-        <v>2284.88</v>
+        <v>2286.5</v>
       </c>
       <c r="C63" t="n">
-        <v>2287.75</v>
+        <v>2298.94</v>
       </c>
       <c r="D63" t="n">
-        <v>2284.73</v>
+        <v>2286.49</v>
       </c>
       <c r="E63" t="n">
-        <v>2286.5</v>
+        <v>2295.26</v>
       </c>
       <c r="F63" t="n">
-        <v>104.31176556</v>
+        <v>35.55093087</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45543.29166666666</v>
+        <v>45543.33333333334</v>
       </c>
       <c r="B64" t="n">
-        <v>2286.5</v>
+        <v>2295.27</v>
       </c>
       <c r="C64" t="n">
-        <v>2298.94</v>
+        <v>2296.21</v>
       </c>
       <c r="D64" t="n">
-        <v>2286.49</v>
+        <v>2287.59</v>
       </c>
       <c r="E64" t="n">
-        <v>2295.26</v>
+        <v>2295.53</v>
       </c>
       <c r="F64" t="n">
-        <v>35.55093087</v>
+        <v>118.40255676</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45543.33333333334</v>
+        <v>45543.375</v>
       </c>
       <c r="B65" t="n">
-        <v>2295.27</v>
+        <v>2295.67</v>
       </c>
       <c r="C65" t="n">
-        <v>2296.21</v>
+        <v>2307.47</v>
       </c>
       <c r="D65" t="n">
-        <v>2287.59</v>
+        <v>2295.67</v>
       </c>
       <c r="E65" t="n">
-        <v>2295.53</v>
+        <v>2297.02</v>
       </c>
       <c r="F65" t="n">
-        <v>118.40255676</v>
+        <v>147.82008116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45543.375</v>
+        <v>45543.41666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>2295.67</v>
+        <v>2295.33</v>
       </c>
       <c r="C66" t="n">
-        <v>2307.47</v>
+        <v>2307.3</v>
       </c>
       <c r="D66" t="n">
-        <v>2295.67</v>
+        <v>2295.33</v>
       </c>
       <c r="E66" t="n">
-        <v>2297.02</v>
+        <v>2303</v>
       </c>
       <c r="F66" t="n">
-        <v>147.82008116</v>
+        <v>102.94293845</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45543.41666666666</v>
+        <v>45543.45833333334</v>
       </c>
       <c r="B67" t="n">
-        <v>2295.33</v>
+        <v>2303</v>
       </c>
       <c r="C67" t="n">
-        <v>2307.3</v>
+        <v>2305.7</v>
       </c>
       <c r="D67" t="n">
-        <v>2295.33</v>
+        <v>2294.44</v>
       </c>
       <c r="E67" t="n">
-        <v>2303</v>
+        <v>2295.66</v>
       </c>
       <c r="F67" t="n">
-        <v>102.94293845</v>
+        <v>110.38867231</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45543.45833333334</v>
+        <v>45543.5</v>
       </c>
       <c r="B68" t="n">
-        <v>2303</v>
+        <v>2295.66</v>
       </c>
       <c r="C68" t="n">
-        <v>2305.7</v>
+        <v>2297</v>
       </c>
       <c r="D68" t="n">
-        <v>2294.44</v>
+        <v>2272.58</v>
       </c>
       <c r="E68" t="n">
-        <v>2295.66</v>
+        <v>2276.22</v>
       </c>
       <c r="F68" t="n">
-        <v>110.38867231</v>
+        <v>291.79458085</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45543.5</v>
+        <v>45543.54166666666</v>
       </c>
       <c r="B69" t="n">
-        <v>2295.66</v>
+        <v>2276.69</v>
       </c>
       <c r="C69" t="n">
-        <v>2297</v>
+        <v>2284.58</v>
       </c>
       <c r="D69" t="n">
-        <v>2272.58</v>
+        <v>2267.98</v>
       </c>
       <c r="E69" t="n">
-        <v>2276.22</v>
+        <v>2283.01</v>
       </c>
       <c r="F69" t="n">
-        <v>291.79458085</v>
+        <v>137.28058439</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45543.54166666666</v>
+        <v>45543.58333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>2276.69</v>
+        <v>2283.01</v>
       </c>
       <c r="C70" t="n">
-        <v>2284.58</v>
+        <v>2283.5</v>
       </c>
       <c r="D70" t="n">
         <v>2267.98</v>
       </c>
       <c r="E70" t="n">
-        <v>2283.01</v>
+        <v>2268.32</v>
       </c>
       <c r="F70" t="n">
-        <v>137.28058439</v>
+        <v>392.93279861</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45543.58333333334</v>
+        <v>45543.625</v>
       </c>
       <c r="B71" t="n">
-        <v>2283.01</v>
+        <v>2269.37</v>
       </c>
       <c r="C71" t="n">
-        <v>2283.5</v>
+        <v>2270.49</v>
       </c>
       <c r="D71" t="n">
-        <v>2267.98</v>
+        <v>2242.87</v>
       </c>
       <c r="E71" t="n">
-        <v>2268.32</v>
+        <v>2244.14</v>
       </c>
       <c r="F71" t="n">
-        <v>392.93279861</v>
+        <v>326.11933942</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45543.625</v>
+        <v>45543.66666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>2269.37</v>
+        <v>2244.14</v>
       </c>
       <c r="C72" t="n">
-        <v>2270.49</v>
+        <v>2259.63</v>
       </c>
       <c r="D72" t="n">
-        <v>2242.87</v>
+        <v>2243.48</v>
       </c>
       <c r="E72" t="n">
-        <v>2244.14</v>
+        <v>2250.81</v>
       </c>
       <c r="F72" t="n">
-        <v>326.11933942</v>
+        <v>504.6521973</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45543.66666666666</v>
+        <v>45543.70833333334</v>
       </c>
       <c r="B73" t="n">
-        <v>2244.14</v>
+        <v>2250.81</v>
       </c>
       <c r="C73" t="n">
-        <v>2259.63</v>
+        <v>2282.1</v>
       </c>
       <c r="D73" t="n">
-        <v>2243.48</v>
+        <v>2250.8</v>
       </c>
       <c r="E73" t="n">
-        <v>2250.81</v>
+        <v>2282.1</v>
       </c>
       <c r="F73" t="n">
-        <v>504.6521973</v>
+        <v>642.50310633</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45543.70833333334</v>
+        <v>45543.75</v>
       </c>
       <c r="B74" t="n">
-        <v>2250.81</v>
+        <v>2282.3</v>
       </c>
       <c r="C74" t="n">
-        <v>2282.1</v>
+        <v>2282.3</v>
       </c>
       <c r="D74" t="n">
-        <v>2250.8</v>
+        <v>2272.74</v>
       </c>
       <c r="E74" t="n">
-        <v>2282.1</v>
+        <v>2275.84</v>
       </c>
       <c r="F74" t="n">
-        <v>642.50310633</v>
+        <v>116.07695598</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45543.75</v>
+        <v>45543.79166666666</v>
       </c>
       <c r="B75" t="n">
-        <v>2282.3</v>
+        <v>2275.84</v>
       </c>
       <c r="C75" t="n">
-        <v>2282.3</v>
+        <v>2277.09</v>
       </c>
       <c r="D75" t="n">
-        <v>2272.74</v>
+        <v>2270.09</v>
       </c>
       <c r="E75" t="n">
-        <v>2275.84</v>
+        <v>2271.7</v>
       </c>
       <c r="F75" t="n">
-        <v>116.07695598</v>
+        <v>70.05122054</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45543.79166666666</v>
+        <v>45543.83333333334</v>
       </c>
       <c r="B76" t="n">
-        <v>2275.84</v>
+        <v>2271.7</v>
       </c>
       <c r="C76" t="n">
-        <v>2277.09</v>
+        <v>2276.03</v>
       </c>
       <c r="D76" t="n">
-        <v>2270.09</v>
+        <v>2267.25</v>
       </c>
       <c r="E76" t="n">
-        <v>2271.7</v>
+        <v>2275.13</v>
       </c>
       <c r="F76" t="n">
-        <v>70.05122054</v>
+        <v>91.57025381</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45543.83333333334</v>
+        <v>45543.875</v>
       </c>
       <c r="B77" t="n">
-        <v>2271.7</v>
+        <v>2275.12</v>
       </c>
       <c r="C77" t="n">
-        <v>2276.03</v>
+        <v>2288</v>
       </c>
       <c r="D77" t="n">
-        <v>2267.25</v>
+        <v>2275.12</v>
       </c>
       <c r="E77" t="n">
-        <v>2275.13</v>
+        <v>2280.4</v>
       </c>
       <c r="F77" t="n">
-        <v>91.57025381</v>
+        <v>271.27101995</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45543.875</v>
+        <v>45543.91666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>2275.12</v>
+        <v>2280.4</v>
       </c>
       <c r="C78" t="n">
-        <v>2288</v>
+        <v>2333.02</v>
       </c>
       <c r="D78" t="n">
-        <v>2275.12</v>
+        <v>2280</v>
       </c>
       <c r="E78" t="n">
-        <v>2280.4</v>
+        <v>2293.64</v>
       </c>
       <c r="F78" t="n">
-        <v>271.27101995</v>
+        <v>877.77520724</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45543.91666666666</v>
+        <v>45543.95833333334</v>
       </c>
       <c r="B79" t="n">
-        <v>2280.4</v>
+        <v>2294.03</v>
       </c>
       <c r="C79" t="n">
-        <v>2333.02</v>
+        <v>2304.76</v>
       </c>
       <c r="D79" t="n">
-        <v>2280</v>
+        <v>2289.83</v>
       </c>
       <c r="E79" t="n">
-        <v>2293.64</v>
+        <v>2296.92</v>
       </c>
       <c r="F79" t="n">
-        <v>877.77520724</v>
+        <v>145.39303666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45543.95833333334</v>
+        <v>45544</v>
       </c>
       <c r="B80" t="n">
-        <v>2294.03</v>
+        <v>2297.31</v>
       </c>
       <c r="C80" t="n">
-        <v>2304.76</v>
+        <v>2310.99</v>
       </c>
       <c r="D80" t="n">
-        <v>2289.83</v>
+        <v>2288.22</v>
       </c>
       <c r="E80" t="n">
-        <v>2296.92</v>
+        <v>2307.29</v>
       </c>
       <c r="F80" t="n">
-        <v>145.39303666</v>
+        <v>157.05954753</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45544</v>
+        <v>45544.04166666666</v>
       </c>
       <c r="B81" t="n">
-        <v>2297.31</v>
+        <v>2307.29</v>
       </c>
       <c r="C81" t="n">
-        <v>2310.99</v>
+        <v>2318.46</v>
       </c>
       <c r="D81" t="n">
-        <v>2288.22</v>
+        <v>2297.93</v>
       </c>
       <c r="E81" t="n">
-        <v>2307.29</v>
+        <v>2310.69</v>
       </c>
       <c r="F81" t="n">
-        <v>157.05954753</v>
+        <v>148.25944536</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45544.04166666666</v>
+        <v>45544.08333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>2307.29</v>
+        <v>2310.63</v>
       </c>
       <c r="C82" t="n">
-        <v>2318.46</v>
+        <v>2310.99</v>
       </c>
       <c r="D82" t="n">
-        <v>2297.93</v>
+        <v>2297.92</v>
       </c>
       <c r="E82" t="n">
-        <v>2310.69</v>
+        <v>2305.8</v>
       </c>
       <c r="F82" t="n">
-        <v>148.25944536</v>
+        <v>165.97836023</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45544.08333333334</v>
+        <v>45544.125</v>
       </c>
       <c r="B83" t="n">
-        <v>2310.63</v>
+        <v>2305.88</v>
       </c>
       <c r="C83" t="n">
-        <v>2310.99</v>
+        <v>2306.48</v>
       </c>
       <c r="D83" t="n">
-        <v>2297.92</v>
+        <v>2290.68</v>
       </c>
       <c r="E83" t="n">
-        <v>2305.8</v>
+        <v>2303.86</v>
       </c>
       <c r="F83" t="n">
-        <v>165.97836023</v>
+        <v>239.37065156</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45544.125</v>
+        <v>45544.16666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>2305.88</v>
+        <v>2303.86</v>
       </c>
       <c r="C84" t="n">
-        <v>2306.48</v>
+        <v>2305.98</v>
       </c>
       <c r="D84" t="n">
-        <v>2290.68</v>
+        <v>2295.49</v>
       </c>
       <c r="E84" t="n">
-        <v>2303.86</v>
+        <v>2297.01</v>
       </c>
       <c r="F84" t="n">
-        <v>239.37065156</v>
+        <v>72.29565377999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45544.16666666666</v>
+        <v>45544.20833333334</v>
       </c>
       <c r="B85" t="n">
-        <v>2303.86</v>
+        <v>2297</v>
       </c>
       <c r="C85" t="n">
-        <v>2305.98</v>
+        <v>2297.79</v>
       </c>
       <c r="D85" t="n">
-        <v>2295.49</v>
+        <v>2284.4</v>
       </c>
       <c r="E85" t="n">
-        <v>2297.01</v>
+        <v>2288.19</v>
       </c>
       <c r="F85" t="n">
-        <v>72.29565377999999</v>
+        <v>122.98290107</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45544.20833333334</v>
+        <v>45544.25</v>
       </c>
       <c r="B86" t="n">
-        <v>2297</v>
+        <v>2288.18</v>
       </c>
       <c r="C86" t="n">
-        <v>2297.79</v>
+        <v>2304.65</v>
       </c>
       <c r="D86" t="n">
-        <v>2284.4</v>
+        <v>2287.18</v>
       </c>
       <c r="E86" t="n">
-        <v>2288.19</v>
+        <v>2304.65</v>
       </c>
       <c r="F86" t="n">
-        <v>122.98290107</v>
+        <v>373.38661438</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45544.25</v>
+        <v>45544.29166666666</v>
       </c>
       <c r="B87" t="n">
-        <v>2288.18</v>
+        <v>2304.95</v>
       </c>
       <c r="C87" t="n">
-        <v>2304.65</v>
+        <v>2315.21</v>
       </c>
       <c r="D87" t="n">
-        <v>2287.18</v>
+        <v>2299.4</v>
       </c>
       <c r="E87" t="n">
-        <v>2304.65</v>
+        <v>2313.75</v>
       </c>
       <c r="F87" t="n">
-        <v>373.38661438</v>
+        <v>156.95846811</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45544.29166666666</v>
+        <v>45544.33333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>2304.95</v>
+        <v>2313.63</v>
       </c>
       <c r="C88" t="n">
-        <v>2315.21</v>
+        <v>2328.37</v>
       </c>
       <c r="D88" t="n">
-        <v>2299.4</v>
+        <v>2313.63</v>
       </c>
       <c r="E88" t="n">
-        <v>2313.75</v>
+        <v>2324.98</v>
       </c>
       <c r="F88" t="n">
-        <v>156.95846811</v>
+        <v>462.08099243</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45544.33333333334</v>
+        <v>45544.375</v>
       </c>
       <c r="B89" t="n">
-        <v>2313.63</v>
+        <v>2324.99</v>
       </c>
       <c r="C89" t="n">
-        <v>2328.37</v>
+        <v>2337.09</v>
       </c>
       <c r="D89" t="n">
-        <v>2313.63</v>
+        <v>2315.78</v>
       </c>
       <c r="E89" t="n">
-        <v>2324.98</v>
+        <v>2317.22</v>
       </c>
       <c r="F89" t="n">
-        <v>462.08099243</v>
+        <v>146.39186484</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45544.375</v>
+        <v>45544.41666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>2324.99</v>
+        <v>2317.22</v>
       </c>
       <c r="C90" t="n">
-        <v>2337.09</v>
+        <v>2324.69</v>
       </c>
       <c r="D90" t="n">
-        <v>2315.78</v>
+        <v>2312.99</v>
       </c>
       <c r="E90" t="n">
-        <v>2317.22</v>
+        <v>2319.44</v>
       </c>
       <c r="F90" t="n">
-        <v>146.39186484</v>
+        <v>310.33041222</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45544.41666666666</v>
+        <v>45544.45833333334</v>
       </c>
       <c r="B91" t="n">
-        <v>2317.22</v>
+        <v>2320.09</v>
       </c>
       <c r="C91" t="n">
-        <v>2324.69</v>
+        <v>2320.53</v>
       </c>
       <c r="D91" t="n">
-        <v>2312.99</v>
+        <v>2312.61</v>
       </c>
       <c r="E91" t="n">
-        <v>2319.44</v>
+        <v>2314.12</v>
       </c>
       <c r="F91" t="n">
-        <v>310.33041222</v>
+        <v>135.36671154</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45544.45833333334</v>
+        <v>45544.5</v>
       </c>
       <c r="B92" t="n">
-        <v>2320.09</v>
+        <v>2314.12</v>
       </c>
       <c r="C92" t="n">
-        <v>2320.53</v>
+        <v>2314.99</v>
       </c>
       <c r="D92" t="n">
-        <v>2312.61</v>
+        <v>2300.81</v>
       </c>
       <c r="E92" t="n">
-        <v>2314.12</v>
+        <v>2312.78</v>
       </c>
       <c r="F92" t="n">
-        <v>135.36671154</v>
+        <v>596.8403416800001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45544.5</v>
+        <v>45544.54166666666</v>
       </c>
       <c r="B93" t="n">
-        <v>2314.12</v>
+        <v>2313.04</v>
       </c>
       <c r="C93" t="n">
-        <v>2314.99</v>
+        <v>2324.67</v>
       </c>
       <c r="D93" t="n">
-        <v>2300.81</v>
+        <v>2307.1</v>
       </c>
       <c r="E93" t="n">
-        <v>2312.78</v>
+        <v>2322.62</v>
       </c>
       <c r="F93" t="n">
-        <v>596.8403416800001</v>
+        <v>303.24295226</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45544.54166666666</v>
+        <v>45544.58333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>2313.04</v>
+        <v>2320.82</v>
       </c>
       <c r="C94" t="n">
-        <v>2324.67</v>
+        <v>2321.64</v>
       </c>
       <c r="D94" t="n">
-        <v>2307.1</v>
+        <v>2278.11</v>
       </c>
       <c r="E94" t="n">
-        <v>2322.62</v>
+        <v>2280.08</v>
       </c>
       <c r="F94" t="n">
-        <v>303.24295226</v>
+        <v>570.6574124700001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45544.58333333334</v>
+        <v>45544.625</v>
       </c>
       <c r="B95" t="n">
-        <v>2320.82</v>
+        <v>2280.09</v>
       </c>
       <c r="C95" t="n">
-        <v>2321.64</v>
+        <v>2295.88</v>
       </c>
       <c r="D95" t="n">
-        <v>2278.11</v>
+        <v>2274.57</v>
       </c>
       <c r="E95" t="n">
-        <v>2280.08</v>
+        <v>2292.27</v>
       </c>
       <c r="F95" t="n">
-        <v>570.6574124700001</v>
+        <v>386.0272901</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45544.625</v>
+        <v>45544.66666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>2280.09</v>
+        <v>2292.27</v>
       </c>
       <c r="C96" t="n">
-        <v>2295.88</v>
+        <v>2347</v>
       </c>
       <c r="D96" t="n">
-        <v>2274.57</v>
+        <v>2291.75</v>
       </c>
       <c r="E96" t="n">
-        <v>2292.27</v>
+        <v>2342.19</v>
       </c>
       <c r="F96" t="n">
-        <v>386.0272901</v>
+        <v>961.8852289599999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45544.66666666666</v>
+        <v>45544.70833333334</v>
       </c>
       <c r="B97" t="n">
-        <v>2292.27</v>
+        <v>2342.06</v>
       </c>
       <c r="C97" t="n">
-        <v>2347</v>
+        <v>2353.38</v>
       </c>
       <c r="D97" t="n">
-        <v>2291.75</v>
+        <v>2335.75</v>
       </c>
       <c r="E97" t="n">
-        <v>2342.19</v>
+        <v>2343.53</v>
       </c>
       <c r="F97" t="n">
-        <v>961.8852289599999</v>
+        <v>529.67984893</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45544.70833333334</v>
+        <v>45544.75</v>
       </c>
       <c r="B98" t="n">
-        <v>2342.06</v>
+        <v>2342.07</v>
       </c>
       <c r="C98" t="n">
-        <v>2353.38</v>
+        <v>2343.98</v>
       </c>
       <c r="D98" t="n">
-        <v>2335.75</v>
+        <v>2325.85</v>
       </c>
       <c r="E98" t="n">
-        <v>2343.53</v>
+        <v>2332.27</v>
       </c>
       <c r="F98" t="n">
-        <v>529.67984893</v>
+        <v>1658.44261462</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45544.75</v>
+        <v>45544.79166666666</v>
       </c>
       <c r="B99" t="n">
-        <v>2342.07</v>
+        <v>2332.27</v>
       </c>
       <c r="C99" t="n">
-        <v>2343.98</v>
+        <v>2352.78</v>
       </c>
       <c r="D99" t="n">
-        <v>2325.85</v>
+        <v>2328.75</v>
       </c>
       <c r="E99" t="n">
-        <v>2332.27</v>
+        <v>2350.87</v>
       </c>
       <c r="F99" t="n">
-        <v>1658.44261462</v>
+        <v>403.72624579</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45544.79166666666</v>
+        <v>45544.83333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>2332.27</v>
+        <v>2350.96</v>
       </c>
       <c r="C100" t="n">
-        <v>2352.78</v>
+        <v>2350.99</v>
       </c>
       <c r="D100" t="n">
-        <v>2328.75</v>
+        <v>2337.62</v>
       </c>
       <c r="E100" t="n">
-        <v>2350.87</v>
+        <v>2340.69</v>
       </c>
       <c r="F100" t="n">
-        <v>403.72624579</v>
+        <v>277.19312936</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45544.83333333334</v>
+        <v>45544.875</v>
       </c>
       <c r="B101" t="n">
-        <v>2350.96</v>
+        <v>2340.7</v>
       </c>
       <c r="C101" t="n">
-        <v>2350.99</v>
+        <v>2380</v>
       </c>
       <c r="D101" t="n">
-        <v>2337.62</v>
+        <v>2340.69</v>
       </c>
       <c r="E101" t="n">
-        <v>2340.69</v>
+        <v>2368.99</v>
       </c>
       <c r="F101" t="n">
-        <v>277.19312936</v>
+        <v>1428.21587176</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45544.875</v>
+        <v>45544.91666666666</v>
       </c>
       <c r="B102" t="n">
-        <v>2340.7</v>
+        <v>2369.1</v>
       </c>
       <c r="C102" t="n">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="D102" t="n">
-        <v>2340.69</v>
+        <v>2356.27</v>
       </c>
       <c r="E102" t="n">
-        <v>2368.99</v>
+        <v>2357.5</v>
       </c>
       <c r="F102" t="n">
-        <v>1428.21587176</v>
+        <v>224.6645733</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45544.91666666666</v>
+        <v>45544.95833333334</v>
       </c>
       <c r="B103" t="n">
-        <v>2369.1</v>
+        <v>2357.51</v>
       </c>
       <c r="C103" t="n">
-        <v>2375</v>
+        <v>2366.33</v>
       </c>
       <c r="D103" t="n">
-        <v>2356.27</v>
+        <v>2356.17</v>
       </c>
       <c r="E103" t="n">
-        <v>2357.5</v>
+        <v>2359.08</v>
       </c>
       <c r="F103" t="n">
-        <v>224.6645733</v>
+        <v>335.20738338</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45544.95833333334</v>
+        <v>45545</v>
       </c>
       <c r="B104" t="n">
-        <v>2357.51</v>
+        <v>2359.08</v>
       </c>
       <c r="C104" t="n">
-        <v>2366.33</v>
+        <v>2359.34</v>
       </c>
       <c r="D104" t="n">
-        <v>2356.17</v>
+        <v>2341.36</v>
       </c>
       <c r="E104" t="n">
-        <v>2359.08</v>
+        <v>2350.42</v>
       </c>
       <c r="F104" t="n">
-        <v>335.20738338</v>
+        <v>150.34751304</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45545</v>
+        <v>45545.04166666666</v>
       </c>
       <c r="B105" t="n">
-        <v>2359.08</v>
+        <v>2350.43</v>
       </c>
       <c r="C105" t="n">
-        <v>2359.34</v>
+        <v>2350.43</v>
       </c>
       <c r="D105" t="n">
-        <v>2341.36</v>
+        <v>2335.94</v>
       </c>
       <c r="E105" t="n">
-        <v>2350.42</v>
+        <v>2341.67</v>
       </c>
       <c r="F105" t="n">
-        <v>150.34751304</v>
+        <v>396.55419952</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45545.04166666666</v>
+        <v>45545.08333333334</v>
       </c>
       <c r="B106" t="n">
-        <v>2350.43</v>
+        <v>2341.67</v>
       </c>
       <c r="C106" t="n">
-        <v>2350.43</v>
+        <v>2347.5</v>
       </c>
       <c r="D106" t="n">
-        <v>2335.94</v>
+        <v>2338.41</v>
       </c>
       <c r="E106" t="n">
-        <v>2341.67</v>
+        <v>2346.08</v>
       </c>
       <c r="F106" t="n">
-        <v>396.55419952</v>
+        <v>84.36695963</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45545.08333333334</v>
+        <v>45545.125</v>
       </c>
       <c r="B107" t="n">
-        <v>2341.67</v>
+        <v>2346.07</v>
       </c>
       <c r="C107" t="n">
-        <v>2347.5</v>
+        <v>2346.18</v>
       </c>
       <c r="D107" t="n">
-        <v>2338.41</v>
+        <v>2340.9</v>
       </c>
       <c r="E107" t="n">
-        <v>2346.08</v>
+        <v>2340.91</v>
       </c>
       <c r="F107" t="n">
-        <v>84.36695963</v>
+        <v>97.76604278000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45545.125</v>
+        <v>45545.16666666666</v>
       </c>
       <c r="B108" t="n">
-        <v>2346.07</v>
+        <v>2340.91</v>
       </c>
       <c r="C108" t="n">
-        <v>2346.18</v>
+        <v>2345.08</v>
       </c>
       <c r="D108" t="n">
-        <v>2340.9</v>
+        <v>2330.31</v>
       </c>
       <c r="E108" t="n">
-        <v>2340.91</v>
+        <v>2336.82</v>
       </c>
       <c r="F108" t="n">
-        <v>97.76604278000001</v>
+        <v>463.83700906</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45545.16666666666</v>
+        <v>45545.20833333334</v>
       </c>
       <c r="B109" t="n">
-        <v>2340.91</v>
+        <v>2336.82</v>
       </c>
       <c r="C109" t="n">
-        <v>2345.08</v>
+        <v>2350.15</v>
       </c>
       <c r="D109" t="n">
-        <v>2330.31</v>
+        <v>2336.81</v>
       </c>
       <c r="E109" t="n">
-        <v>2336.82</v>
+        <v>2350.15</v>
       </c>
       <c r="F109" t="n">
-        <v>463.83700906</v>
+        <v>135.27950668</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45545.20833333334</v>
+        <v>45545.25</v>
       </c>
       <c r="B110" t="n">
-        <v>2336.82</v>
+        <v>2348.43</v>
       </c>
       <c r="C110" t="n">
-        <v>2350.15</v>
+        <v>2348.44</v>
       </c>
       <c r="D110" t="n">
-        <v>2336.81</v>
+        <v>2341.38</v>
       </c>
       <c r="E110" t="n">
-        <v>2350.15</v>
+        <v>2343.32</v>
       </c>
       <c r="F110" t="n">
-        <v>135.27950668</v>
+        <v>73.28418104000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45545.25</v>
+        <v>45545.29166666666</v>
       </c>
       <c r="B111" t="n">
-        <v>2348.43</v>
+        <v>2343.32</v>
       </c>
       <c r="C111" t="n">
-        <v>2348.44</v>
+        <v>2366.27</v>
       </c>
       <c r="D111" t="n">
-        <v>2341.38</v>
+        <v>2342.05</v>
       </c>
       <c r="E111" t="n">
-        <v>2343.32</v>
+        <v>2361.63</v>
       </c>
       <c r="F111" t="n">
-        <v>73.28418104000001</v>
+        <v>150.5314959</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45545.29166666666</v>
+        <v>45545.33333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>2343.32</v>
+        <v>2361.63</v>
       </c>
       <c r="C112" t="n">
-        <v>2366.27</v>
+        <v>2370.44</v>
       </c>
       <c r="D112" t="n">
-        <v>2342.05</v>
+        <v>2352.79</v>
       </c>
       <c r="E112" t="n">
-        <v>2361.63</v>
+        <v>2353.86</v>
       </c>
       <c r="F112" t="n">
-        <v>150.5314959</v>
+        <v>171.41241691</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45545.33333333334</v>
+        <v>45545.375</v>
       </c>
       <c r="B113" t="n">
-        <v>2361.63</v>
+        <v>2353.86</v>
       </c>
       <c r="C113" t="n">
-        <v>2370.44</v>
+        <v>2354.9</v>
       </c>
       <c r="D113" t="n">
-        <v>2352.79</v>
+        <v>2343.91</v>
       </c>
       <c r="E113" t="n">
-        <v>2353.86</v>
+        <v>2349.71</v>
       </c>
       <c r="F113" t="n">
-        <v>171.41241691</v>
+        <v>305.49831524</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45545.375</v>
+        <v>45545.41666666666</v>
       </c>
       <c r="B114" t="n">
-        <v>2353.86</v>
+        <v>2349.75</v>
       </c>
       <c r="C114" t="n">
-        <v>2354.9</v>
+        <v>2350.89</v>
       </c>
       <c r="D114" t="n">
-        <v>2343.91</v>
+        <v>2339.9</v>
       </c>
       <c r="E114" t="n">
-        <v>2349.71</v>
+        <v>2350.55</v>
       </c>
       <c r="F114" t="n">
-        <v>305.49831524</v>
+        <v>98.21539136</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45545.41666666666</v>
+        <v>45545.45833333334</v>
       </c>
       <c r="B115" t="n">
-        <v>2349.75</v>
+        <v>2350.71</v>
       </c>
       <c r="C115" t="n">
-        <v>2350.89</v>
+        <v>2352.42</v>
       </c>
       <c r="D115" t="n">
-        <v>2339.9</v>
+        <v>2344.83</v>
       </c>
       <c r="E115" t="n">
-        <v>2350.55</v>
+        <v>2352.34</v>
       </c>
       <c r="F115" t="n">
-        <v>98.21539136</v>
+        <v>67.47991395</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45545.45833333334</v>
+        <v>45545.5</v>
       </c>
       <c r="B116" t="n">
-        <v>2350.71</v>
+        <v>2352.34</v>
       </c>
       <c r="C116" t="n">
-        <v>2352.42</v>
+        <v>2361.9</v>
       </c>
       <c r="D116" t="n">
-        <v>2344.83</v>
+        <v>2350</v>
       </c>
       <c r="E116" t="n">
-        <v>2352.34</v>
+        <v>2350.54</v>
       </c>
       <c r="F116" t="n">
-        <v>67.47991395</v>
+        <v>139.56501539</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45545.5</v>
+        <v>45545.54166666666</v>
       </c>
       <c r="B117" t="n">
-        <v>2352.34</v>
+        <v>2350.02</v>
       </c>
       <c r="C117" t="n">
-        <v>2361.9</v>
+        <v>2350.02</v>
       </c>
       <c r="D117" t="n">
-        <v>2350</v>
+        <v>2330.18</v>
       </c>
       <c r="E117" t="n">
-        <v>2350.54</v>
+        <v>2330.18</v>
       </c>
       <c r="F117" t="n">
-        <v>139.56501539</v>
+        <v>249.49713202</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45545.54166666666</v>
+        <v>45545.58333333334</v>
       </c>
       <c r="B118" t="n">
-        <v>2350.02</v>
+        <v>2330.17</v>
       </c>
       <c r="C118" t="n">
-        <v>2350.02</v>
+        <v>2345.05</v>
       </c>
       <c r="D118" t="n">
-        <v>2330.18</v>
+        <v>2321.78</v>
       </c>
       <c r="E118" t="n">
-        <v>2330.18</v>
+        <v>2335.81</v>
       </c>
       <c r="F118" t="n">
-        <v>249.49713202</v>
+        <v>208.03877785</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45545.58333333334</v>
+        <v>45545.625</v>
       </c>
       <c r="B119" t="n">
-        <v>2330.17</v>
+        <v>2335.82</v>
       </c>
       <c r="C119" t="n">
-        <v>2345.05</v>
+        <v>2351.56</v>
       </c>
       <c r="D119" t="n">
-        <v>2321.78</v>
+        <v>2324.87</v>
       </c>
       <c r="E119" t="n">
-        <v>2335.81</v>
+        <v>2324.87</v>
       </c>
       <c r="F119" t="n">
-        <v>208.03877785</v>
+        <v>201.43028651</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45545.625</v>
+        <v>45545.66666666666</v>
       </c>
       <c r="B120" t="n">
-        <v>2335.82</v>
+        <v>2325.34</v>
       </c>
       <c r="C120" t="n">
-        <v>2351.56</v>
+        <v>2342.57</v>
       </c>
       <c r="D120" t="n">
-        <v>2324.87</v>
+        <v>2325.33</v>
       </c>
       <c r="E120" t="n">
-        <v>2324.87</v>
+        <v>2337.76</v>
       </c>
       <c r="F120" t="n">
-        <v>201.43028651</v>
+        <v>228.90838905</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45545.66666666666</v>
+        <v>45545.70833333334</v>
       </c>
       <c r="B121" t="n">
-        <v>2325.34</v>
+        <v>2337.76</v>
       </c>
       <c r="C121" t="n">
-        <v>2342.57</v>
+        <v>2362.03</v>
       </c>
       <c r="D121" t="n">
-        <v>2325.33</v>
+        <v>2337.76</v>
       </c>
       <c r="E121" t="n">
-        <v>2337.76</v>
+        <v>2350</v>
       </c>
       <c r="F121" t="n">
-        <v>228.90838905</v>
+        <v>1149.89215059</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45545.70833333334</v>
+        <v>45545.75</v>
       </c>
       <c r="B122" t="n">
-        <v>2337.76</v>
+        <v>2350.01</v>
       </c>
       <c r="C122" t="n">
-        <v>2362.03</v>
+        <v>2389.72</v>
       </c>
       <c r="D122" t="n">
-        <v>2337.76</v>
+        <v>2349.39</v>
       </c>
       <c r="E122" t="n">
-        <v>2350</v>
+        <v>2368.1</v>
       </c>
       <c r="F122" t="n">
-        <v>1149.89215059</v>
+        <v>480.98663313</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45545.75</v>
+        <v>45545.79166666666</v>
       </c>
       <c r="B123" t="n">
-        <v>2350.01</v>
+        <v>2369.03</v>
       </c>
       <c r="C123" t="n">
-        <v>2389.72</v>
+        <v>2384.45</v>
       </c>
       <c r="D123" t="n">
-        <v>2349.39</v>
+        <v>2359.1</v>
       </c>
       <c r="E123" t="n">
-        <v>2368.1</v>
+        <v>2382.98</v>
       </c>
       <c r="F123" t="n">
-        <v>480.98663313</v>
+        <v>232.47410508</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45545.79166666666</v>
+        <v>45545.83333333334</v>
       </c>
       <c r="B124" t="n">
-        <v>2369.03</v>
+        <v>2381.41</v>
       </c>
       <c r="C124" t="n">
-        <v>2384.45</v>
+        <v>2393.1</v>
       </c>
       <c r="D124" t="n">
-        <v>2359.1</v>
+        <v>2376.39</v>
       </c>
       <c r="E124" t="n">
-        <v>2382.98</v>
+        <v>2378.06</v>
       </c>
       <c r="F124" t="n">
-        <v>232.47410508</v>
+        <v>376.92655791</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45545.83333333334</v>
+        <v>45545.875</v>
       </c>
       <c r="B125" t="n">
-        <v>2381.41</v>
+        <v>2378.32</v>
       </c>
       <c r="C125" t="n">
-        <v>2393.1</v>
+        <v>2382.57</v>
       </c>
       <c r="D125" t="n">
-        <v>2376.39</v>
+        <v>2372.48</v>
       </c>
       <c r="E125" t="n">
-        <v>2378.06</v>
+        <v>2372.99</v>
       </c>
       <c r="F125" t="n">
-        <v>376.92655791</v>
+        <v>499.5137583</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45545.875</v>
+        <v>45545.91666666666</v>
       </c>
       <c r="B126" t="n">
-        <v>2378.32</v>
+        <v>2372.99</v>
       </c>
       <c r="C126" t="n">
-        <v>2382.57</v>
+        <v>2389</v>
       </c>
       <c r="D126" t="n">
-        <v>2372.48</v>
+        <v>2372.28</v>
       </c>
       <c r="E126" t="n">
-        <v>2372.99</v>
+        <v>2389</v>
       </c>
       <c r="F126" t="n">
-        <v>499.5137583</v>
+        <v>177.85805645</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45545.91666666666</v>
+        <v>45545.95833333334</v>
       </c>
       <c r="B127" t="n">
-        <v>2372.99</v>
+        <v>2388.99</v>
       </c>
       <c r="C127" t="n">
-        <v>2389</v>
+        <v>2398</v>
       </c>
       <c r="D127" t="n">
-        <v>2372.28</v>
+        <v>2385.14</v>
       </c>
       <c r="E127" t="n">
-        <v>2389</v>
+        <v>2387.78</v>
       </c>
       <c r="F127" t="n">
-        <v>177.85805645</v>
+        <v>539.51512108</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45545.95833333334</v>
+        <v>45546</v>
       </c>
       <c r="B128" t="n">
-        <v>2388.99</v>
+        <v>2387.78</v>
       </c>
       <c r="C128" t="n">
-        <v>2398</v>
+        <v>2389.3</v>
       </c>
       <c r="D128" t="n">
-        <v>2385.14</v>
+        <v>2375.41</v>
       </c>
       <c r="E128" t="n">
-        <v>2387.78</v>
+        <v>2378.05</v>
       </c>
       <c r="F128" t="n">
-        <v>539.51512108</v>
+        <v>258.23739072</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45546</v>
+        <v>45546.04166666666</v>
       </c>
       <c r="B129" t="n">
-        <v>2387.78</v>
+        <v>2378.05</v>
       </c>
       <c r="C129" t="n">
-        <v>2389.3</v>
+        <v>2379.69</v>
       </c>
       <c r="D129" t="n">
-        <v>2375.41</v>
+        <v>2340.07</v>
       </c>
       <c r="E129" t="n">
-        <v>2378.05</v>
+        <v>2349.58</v>
       </c>
       <c r="F129" t="n">
-        <v>258.23739072</v>
+        <v>1036.27915796</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45546.04166666666</v>
+        <v>45546.08333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>2378.05</v>
+        <v>2349.99</v>
       </c>
       <c r="C130" t="n">
-        <v>2379.69</v>
+        <v>2369.24</v>
       </c>
       <c r="D130" t="n">
-        <v>2340.07</v>
+        <v>2349.98</v>
       </c>
       <c r="E130" t="n">
-        <v>2349.58</v>
+        <v>2353.99</v>
       </c>
       <c r="F130" t="n">
-        <v>1036.27915796</v>
+        <v>324.0102691</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45546.08333333334</v>
+        <v>45546.125</v>
       </c>
       <c r="B131" t="n">
-        <v>2349.99</v>
+        <v>2353.89</v>
       </c>
       <c r="C131" t="n">
-        <v>2369.24</v>
+        <v>2353.89</v>
       </c>
       <c r="D131" t="n">
-        <v>2349.98</v>
+        <v>2344.88</v>
       </c>
       <c r="E131" t="n">
-        <v>2353.99</v>
+        <v>2347.86</v>
       </c>
       <c r="F131" t="n">
-        <v>324.0102691</v>
+        <v>274.60360687</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45546.125</v>
+        <v>45546.16666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>2353.89</v>
+        <v>2347.99</v>
       </c>
       <c r="C132" t="n">
-        <v>2353.89</v>
+        <v>2347.99</v>
       </c>
       <c r="D132" t="n">
-        <v>2344.88</v>
+        <v>2320</v>
       </c>
       <c r="E132" t="n">
-        <v>2347.86</v>
+        <v>2333.15</v>
       </c>
       <c r="F132" t="n">
-        <v>274.60360687</v>
+        <v>180.40344391</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45546.16666666666</v>
+        <v>45546.20833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>2347.99</v>
+        <v>2333.14</v>
       </c>
       <c r="C133" t="n">
-        <v>2347.99</v>
+        <v>2333.14</v>
       </c>
       <c r="D133" t="n">
         <v>2320</v>
       </c>
       <c r="E133" t="n">
-        <v>2333.15</v>
+        <v>2325.55</v>
       </c>
       <c r="F133" t="n">
-        <v>180.40344391</v>
+        <v>146.57346792</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45546.20833333334</v>
+        <v>45546.25</v>
       </c>
       <c r="B134" t="n">
-        <v>2333.14</v>
+        <v>2325.98</v>
       </c>
       <c r="C134" t="n">
-        <v>2333.14</v>
+        <v>2337.53</v>
       </c>
       <c r="D134" t="n">
-        <v>2320</v>
+        <v>2323.37</v>
       </c>
       <c r="E134" t="n">
-        <v>2325.55</v>
+        <v>2331.76</v>
       </c>
       <c r="F134" t="n">
-        <v>146.57346792</v>
+        <v>131.1979502</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45546.25</v>
+        <v>45546.29166666666</v>
       </c>
       <c r="B135" t="n">
-        <v>2325.98</v>
+        <v>2330.98</v>
       </c>
       <c r="C135" t="n">
-        <v>2337.53</v>
+        <v>2341.82</v>
       </c>
       <c r="D135" t="n">
-        <v>2323.37</v>
+        <v>2330.97</v>
       </c>
       <c r="E135" t="n">
-        <v>2331.76</v>
+        <v>2341.82</v>
       </c>
       <c r="F135" t="n">
-        <v>131.1979502</v>
+        <v>331.63141395</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45546.29166666666</v>
+        <v>45546.33333333334</v>
       </c>
       <c r="B136" t="n">
-        <v>2330.98</v>
+        <v>2341.68</v>
       </c>
       <c r="C136" t="n">
-        <v>2341.82</v>
+        <v>2341.68</v>
       </c>
       <c r="D136" t="n">
-        <v>2330.97</v>
+        <v>2322.56</v>
       </c>
       <c r="E136" t="n">
-        <v>2341.82</v>
+        <v>2323.18</v>
       </c>
       <c r="F136" t="n">
-        <v>331.63141395</v>
+        <v>240.70135282</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45546.33333333334</v>
+        <v>45546.375</v>
       </c>
       <c r="B137" t="n">
-        <v>2341.68</v>
+        <v>2323.16</v>
       </c>
       <c r="C137" t="n">
-        <v>2341.68</v>
+        <v>2334.5</v>
       </c>
       <c r="D137" t="n">
-        <v>2322.56</v>
+        <v>2321.99</v>
       </c>
       <c r="E137" t="n">
-        <v>2323.18</v>
+        <v>2329.02</v>
       </c>
       <c r="F137" t="n">
-        <v>240.70135282</v>
+        <v>170.20936213</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45546.375</v>
+        <v>45546.41666666666</v>
       </c>
       <c r="B138" t="n">
-        <v>2323.16</v>
+        <v>2329.02</v>
       </c>
       <c r="C138" t="n">
-        <v>2334.5</v>
+        <v>2329.99</v>
       </c>
       <c r="D138" t="n">
-        <v>2321.99</v>
+        <v>2309</v>
       </c>
       <c r="E138" t="n">
-        <v>2329.02</v>
+        <v>2314.48</v>
       </c>
       <c r="F138" t="n">
-        <v>170.20936213</v>
+        <v>341.51958365</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45546.41666666666</v>
+        <v>45546.45833333334</v>
       </c>
       <c r="B139" t="n">
-        <v>2329.02</v>
+        <v>2314.48</v>
       </c>
       <c r="C139" t="n">
-        <v>2329.99</v>
+        <v>2329.76</v>
       </c>
       <c r="D139" t="n">
-        <v>2309</v>
+        <v>2314.48</v>
       </c>
       <c r="E139" t="n">
-        <v>2314.48</v>
+        <v>2325.35</v>
       </c>
       <c r="F139" t="n">
-        <v>341.51958365</v>
+        <v>291.68583988</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45546.45833333334</v>
+        <v>45546.5</v>
       </c>
       <c r="B140" t="n">
-        <v>2314.48</v>
+        <v>2325.35</v>
       </c>
       <c r="C140" t="n">
-        <v>2329.76</v>
+        <v>2337.23</v>
       </c>
       <c r="D140" t="n">
-        <v>2314.48</v>
+        <v>2312.73</v>
       </c>
       <c r="E140" t="n">
-        <v>2325.35</v>
+        <v>2334.81</v>
       </c>
       <c r="F140" t="n">
-        <v>291.68583988</v>
+        <v>929.98126913</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45546.5</v>
+        <v>45546.54166666666</v>
       </c>
       <c r="B141" t="n">
-        <v>2325.35</v>
+        <v>2334.58</v>
       </c>
       <c r="C141" t="n">
-        <v>2337.23</v>
+        <v>2353.4</v>
       </c>
       <c r="D141" t="n">
-        <v>2312.73</v>
+        <v>2284.13</v>
       </c>
       <c r="E141" t="n">
-        <v>2334.81</v>
+        <v>2288.06</v>
       </c>
       <c r="F141" t="n">
-        <v>929.98126913</v>
+        <v>878.5479081</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45546.54166666666</v>
+        <v>45546.58333333334</v>
       </c>
       <c r="B142" t="n">
-        <v>2334.58</v>
+        <v>2286.87</v>
       </c>
       <c r="C142" t="n">
-        <v>2353.4</v>
+        <v>2310.38</v>
       </c>
       <c r="D142" t="n">
-        <v>2284.13</v>
+        <v>2278.81</v>
       </c>
       <c r="E142" t="n">
-        <v>2288.06</v>
+        <v>2307.27</v>
       </c>
       <c r="F142" t="n">
-        <v>878.5479081</v>
+        <v>917.32519073</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45546.58333333334</v>
+        <v>45546.625</v>
       </c>
       <c r="B143" t="n">
-        <v>2286.87</v>
+        <v>2308.71</v>
       </c>
       <c r="C143" t="n">
-        <v>2310.38</v>
+        <v>2334.93</v>
       </c>
       <c r="D143" t="n">
-        <v>2278.81</v>
+        <v>2302.22</v>
       </c>
       <c r="E143" t="n">
-        <v>2307.27</v>
+        <v>2324.61</v>
       </c>
       <c r="F143" t="n">
-        <v>917.32519073</v>
+        <v>575.00880623</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45546.625</v>
+        <v>45546.66666666666</v>
       </c>
       <c r="B144" t="n">
-        <v>2308.71</v>
+        <v>2325.4</v>
       </c>
       <c r="C144" t="n">
-        <v>2334.93</v>
+        <v>2352</v>
       </c>
       <c r="D144" t="n">
-        <v>2302.22</v>
+        <v>2325.4</v>
       </c>
       <c r="E144" t="n">
-        <v>2324.61</v>
+        <v>2345.56</v>
       </c>
       <c r="F144" t="n">
-        <v>575.00880623</v>
+        <v>339.34470385</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45546.66666666666</v>
+        <v>45546.70833333334</v>
       </c>
       <c r="B145" t="n">
-        <v>2325.4</v>
+        <v>2345.57</v>
       </c>
       <c r="C145" t="n">
-        <v>2352</v>
+        <v>2367.26</v>
       </c>
       <c r="D145" t="n">
-        <v>2325.4</v>
+        <v>2345.56</v>
       </c>
       <c r="E145" t="n">
-        <v>2345.56</v>
+        <v>2356.32</v>
       </c>
       <c r="F145" t="n">
-        <v>339.34470385</v>
+        <v>405.62143149</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45546.70833333334</v>
+        <v>45546.75</v>
       </c>
       <c r="B146" t="n">
-        <v>2345.57</v>
+        <v>2356.21</v>
       </c>
       <c r="C146" t="n">
-        <v>2367.26</v>
+        <v>2359.68</v>
       </c>
       <c r="D146" t="n">
-        <v>2345.56</v>
+        <v>2331.28</v>
       </c>
       <c r="E146" t="n">
-        <v>2356.32</v>
+        <v>2337.26</v>
       </c>
       <c r="F146" t="n">
-        <v>405.62143149</v>
+        <v>506.16338284</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45546.75</v>
+        <v>45546.79166666666</v>
       </c>
       <c r="B147" t="n">
-        <v>2356.21</v>
+        <v>2337.26</v>
       </c>
       <c r="C147" t="n">
-        <v>2359.68</v>
+        <v>2343.14</v>
       </c>
       <c r="D147" t="n">
-        <v>2331.28</v>
+        <v>2331.55</v>
       </c>
       <c r="E147" t="n">
-        <v>2337.26</v>
+        <v>2342.51</v>
       </c>
       <c r="F147" t="n">
-        <v>506.16338284</v>
+        <v>252.42215464</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45546.79166666666</v>
+        <v>45546.83333333334</v>
       </c>
       <c r="B148" t="n">
-        <v>2337.26</v>
+        <v>2340.89</v>
       </c>
       <c r="C148" t="n">
-        <v>2343.14</v>
+        <v>2349.23</v>
       </c>
       <c r="D148" t="n">
-        <v>2331.55</v>
+        <v>2339.7</v>
       </c>
       <c r="E148" t="n">
-        <v>2342.51</v>
+        <v>2348.45</v>
       </c>
       <c r="F148" t="n">
-        <v>252.42215464</v>
+        <v>152.94477472</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45546.83333333334</v>
+        <v>45546.875</v>
       </c>
       <c r="B149" t="n">
-        <v>2340.89</v>
+        <v>2348.46</v>
       </c>
       <c r="C149" t="n">
-        <v>2349.23</v>
+        <v>2350</v>
       </c>
       <c r="D149" t="n">
-        <v>2339.7</v>
+        <v>2340.69</v>
       </c>
       <c r="E149" t="n">
-        <v>2348.45</v>
+        <v>2342.67</v>
       </c>
       <c r="F149" t="n">
-        <v>152.94477472</v>
+        <v>372.49768715</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45546.875</v>
+        <v>45546.91666666666</v>
       </c>
       <c r="B150" t="n">
-        <v>2348.46</v>
+        <v>2341.59</v>
       </c>
       <c r="C150" t="n">
-        <v>2350</v>
+        <v>2344.99</v>
       </c>
       <c r="D150" t="n">
-        <v>2340.69</v>
+        <v>2334.53</v>
       </c>
       <c r="E150" t="n">
-        <v>2342.67</v>
+        <v>2339.61</v>
       </c>
       <c r="F150" t="n">
-        <v>372.49768715</v>
+        <v>51.60014352</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45546.91666666666</v>
+        <v>45546.95833333334</v>
       </c>
       <c r="B151" t="n">
-        <v>2341.59</v>
+        <v>2339.72</v>
       </c>
       <c r="C151" t="n">
-        <v>2344.99</v>
+        <v>2344.79</v>
       </c>
       <c r="D151" t="n">
-        <v>2334.53</v>
+        <v>2337.93</v>
       </c>
       <c r="E151" t="n">
-        <v>2339.61</v>
+        <v>2339.99</v>
       </c>
       <c r="F151" t="n">
-        <v>51.60014352</v>
+        <v>39.62378261</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45546.95833333334</v>
+        <v>45547</v>
       </c>
       <c r="B152" t="n">
-        <v>2339.72</v>
+        <v>2340</v>
       </c>
       <c r="C152" t="n">
-        <v>2344.79</v>
+        <v>2364.99</v>
       </c>
       <c r="D152" t="n">
-        <v>2337.93</v>
+        <v>2339.82</v>
       </c>
       <c r="E152" t="n">
-        <v>2339.99</v>
+        <v>2352.72</v>
       </c>
       <c r="F152" t="n">
-        <v>39.62378261</v>
+        <v>752.88204079</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45547</v>
+        <v>45547.04166666666</v>
       </c>
       <c r="B153" t="n">
-        <v>2340</v>
+        <v>2352.43</v>
       </c>
       <c r="C153" t="n">
-        <v>2364.99</v>
+        <v>2374.35</v>
       </c>
       <c r="D153" t="n">
-        <v>2339.82</v>
+        <v>2352.43</v>
       </c>
       <c r="E153" t="n">
-        <v>2352.72</v>
+        <v>2372.39</v>
       </c>
       <c r="F153" t="n">
-        <v>752.88204079</v>
+        <v>257.91886475</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45547.04166666666</v>
+        <v>45547.08333333334</v>
       </c>
       <c r="B154" t="n">
-        <v>2352.43</v>
+        <v>2372.75</v>
       </c>
       <c r="C154" t="n">
-        <v>2374.35</v>
+        <v>2390</v>
       </c>
       <c r="D154" t="n">
-        <v>2352.43</v>
+        <v>2361.99</v>
       </c>
       <c r="E154" t="n">
-        <v>2372.39</v>
+        <v>2362.57</v>
       </c>
       <c r="F154" t="n">
-        <v>257.91886475</v>
+        <v>421.7055139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45547.08333333334</v>
+        <v>45547.125</v>
       </c>
       <c r="B155" t="n">
-        <v>2372.75</v>
+        <v>2362.56</v>
       </c>
       <c r="C155" t="n">
-        <v>2390</v>
+        <v>2371.81</v>
       </c>
       <c r="D155" t="n">
-        <v>2361.99</v>
+        <v>2362.56</v>
       </c>
       <c r="E155" t="n">
-        <v>2362.57</v>
+        <v>2369.83</v>
       </c>
       <c r="F155" t="n">
-        <v>421.7055139</v>
+        <v>79.25869230000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45547.125</v>
+        <v>45547.16666666666</v>
       </c>
       <c r="B156" t="n">
-        <v>2362.56</v>
+        <v>2369.83</v>
       </c>
       <c r="C156" t="n">
-        <v>2371.81</v>
+        <v>2377.98</v>
       </c>
       <c r="D156" t="n">
-        <v>2362.56</v>
+        <v>2363.12</v>
       </c>
       <c r="E156" t="n">
-        <v>2369.83</v>
+        <v>2364</v>
       </c>
       <c r="F156" t="n">
-        <v>79.25869230000001</v>
+        <v>151.53692526</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45547.16666666666</v>
+        <v>45547.20833333334</v>
       </c>
       <c r="B157" t="n">
-        <v>2369.83</v>
+        <v>2364.01</v>
       </c>
       <c r="C157" t="n">
-        <v>2377.98</v>
+        <v>2369.98</v>
       </c>
       <c r="D157" t="n">
-        <v>2363.12</v>
+        <v>2356.42</v>
       </c>
       <c r="E157" t="n">
-        <v>2364</v>
+        <v>2356.99</v>
       </c>
       <c r="F157" t="n">
-        <v>151.53692526</v>
+        <v>166.78598942</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45547.20833333334</v>
+        <v>45547.25</v>
       </c>
       <c r="B158" t="n">
-        <v>2364.01</v>
+        <v>2357</v>
       </c>
       <c r="C158" t="n">
-        <v>2369.98</v>
+        <v>2364.58</v>
       </c>
       <c r="D158" t="n">
-        <v>2356.42</v>
+        <v>2353.95</v>
       </c>
       <c r="E158" t="n">
-        <v>2356.99</v>
+        <v>2358.67</v>
       </c>
       <c r="F158" t="n">
-        <v>166.78598942</v>
+        <v>37.55167892</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45547.25</v>
+        <v>45547.29166666666</v>
       </c>
       <c r="B159" t="n">
-        <v>2357</v>
+        <v>2358.67</v>
       </c>
       <c r="C159" t="n">
-        <v>2364.58</v>
+        <v>2363.89</v>
       </c>
       <c r="D159" t="n">
-        <v>2353.95</v>
+        <v>2355.23</v>
       </c>
       <c r="E159" t="n">
-        <v>2358.67</v>
+        <v>2358.03</v>
       </c>
       <c r="F159" t="n">
-        <v>37.55167892</v>
+        <v>44.72786326</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45547.29166666666</v>
+        <v>45547.33333333334</v>
       </c>
       <c r="B160" t="n">
-        <v>2358.67</v>
+        <v>2358.03</v>
       </c>
       <c r="C160" t="n">
-        <v>2363.89</v>
+        <v>2366.03</v>
       </c>
       <c r="D160" t="n">
-        <v>2355.23</v>
+        <v>2358.02</v>
       </c>
       <c r="E160" t="n">
-        <v>2358.03</v>
+        <v>2359.75</v>
       </c>
       <c r="F160" t="n">
-        <v>44.72786326</v>
+        <v>242.42119042</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45547.33333333334</v>
+        <v>45547.375</v>
       </c>
       <c r="B161" t="n">
-        <v>2358.03</v>
+        <v>2359.75</v>
       </c>
       <c r="C161" t="n">
-        <v>2366.03</v>
+        <v>2361.18</v>
       </c>
       <c r="D161" t="n">
-        <v>2358.02</v>
+        <v>2351.94</v>
       </c>
       <c r="E161" t="n">
-        <v>2359.75</v>
+        <v>2352.98</v>
       </c>
       <c r="F161" t="n">
-        <v>242.42119042</v>
+        <v>85.74014013</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45547.375</v>
+        <v>45547.41666666666</v>
       </c>
       <c r="B162" t="n">
-        <v>2359.75</v>
+        <v>2351.97</v>
       </c>
       <c r="C162" t="n">
-        <v>2361.18</v>
+        <v>2353.2</v>
       </c>
       <c r="D162" t="n">
-        <v>2351.94</v>
+        <v>2346.68</v>
       </c>
       <c r="E162" t="n">
-        <v>2352.98</v>
+        <v>2346.68</v>
       </c>
       <c r="F162" t="n">
-        <v>85.74014013</v>
+        <v>80.43229241</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45547.41666666666</v>
+        <v>45547.45833333334</v>
       </c>
       <c r="B163" t="n">
-        <v>2351.97</v>
+        <v>2346.68</v>
       </c>
       <c r="C163" t="n">
-        <v>2353.2</v>
+        <v>2350.79</v>
       </c>
       <c r="D163" t="n">
-        <v>2346.68</v>
+        <v>2344.42</v>
       </c>
       <c r="E163" t="n">
-        <v>2346.68</v>
+        <v>2348.51</v>
       </c>
       <c r="F163" t="n">
-        <v>80.43229241</v>
+        <v>82.60472190999999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45547.45833333334</v>
+        <v>45547.5</v>
       </c>
       <c r="B164" t="n">
-        <v>2346.68</v>
+        <v>2348.51</v>
       </c>
       <c r="C164" t="n">
-        <v>2350.79</v>
+        <v>2351.45</v>
       </c>
       <c r="D164" t="n">
-        <v>2344.42</v>
+        <v>2337.62</v>
       </c>
       <c r="E164" t="n">
-        <v>2348.51</v>
+        <v>2343.84</v>
       </c>
       <c r="F164" t="n">
-        <v>82.60472190999999</v>
+        <v>131.19321083</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45547.5</v>
+        <v>45547.54166666666</v>
       </c>
       <c r="B165" t="n">
-        <v>2348.51</v>
+        <v>2343.85</v>
       </c>
       <c r="C165" t="n">
-        <v>2351.45</v>
+        <v>2356.71</v>
       </c>
       <c r="D165" t="n">
-        <v>2337.62</v>
+        <v>2335.34</v>
       </c>
       <c r="E165" t="n">
-        <v>2343.84</v>
+        <v>2340.29</v>
       </c>
       <c r="F165" t="n">
-        <v>131.19321083</v>
+        <v>112.9625893</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45547.54166666666</v>
+        <v>45547.58333333334</v>
       </c>
       <c r="B166" t="n">
-        <v>2343.85</v>
+        <v>2340.47</v>
       </c>
       <c r="C166" t="n">
-        <v>2356.71</v>
+        <v>2366.34</v>
       </c>
       <c r="D166" t="n">
-        <v>2335.34</v>
+        <v>2329.21</v>
       </c>
       <c r="E166" t="n">
-        <v>2340.29</v>
+        <v>2329.22</v>
       </c>
       <c r="F166" t="n">
-        <v>112.9625893</v>
+        <v>421.80532765</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45547.58333333334</v>
+        <v>45547.625</v>
       </c>
       <c r="B167" t="n">
-        <v>2340.47</v>
+        <v>2329.21</v>
       </c>
       <c r="C167" t="n">
-        <v>2366.34</v>
+        <v>2336.14</v>
       </c>
       <c r="D167" t="n">
-        <v>2337.55</v>
+        <v>2315.98</v>
       </c>
       <c r="E167" t="n">
-        <v>2365.18</v>
+        <v>2322.16</v>
       </c>
       <c r="F167" t="n">
-        <v>86.46463199</v>
+        <v>278.35386756</v>
       </c>
     </row>
   </sheetData>
